--- a/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
+++ b/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="490" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="618" uniqueCount="219">
   <si>
     <t>crop</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>2024-04-04</t>
   </si>
   <si>
     <t>sow_fert_type_npk_1</t>
@@ -765,469 +768,469 @@
         <v>58</v>
       </c>
       <c r="P1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AQ1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AR1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AS1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AT1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AU1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AV1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AW1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AX1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AY1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AZ1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BA1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BB1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BC1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BD1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BE1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BF1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BG1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BH1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BI1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BJ1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BK1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BL1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BM1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BN1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BO1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BP1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BQ1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BR1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BS1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BT1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BU1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BV1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BW1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BX1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BY1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BZ1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CA1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CB1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="CC1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CD1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CE1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="CF1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CG1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="CH1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="CI1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="CJ1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="CK1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="CL1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CM1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CN1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CO1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CP1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CQ1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="CR1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CS1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CT1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CU1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CV1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CW1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CY1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CZ1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DA1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DB1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="DC1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="DD1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="DE1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DF1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DG1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="DH1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DI1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DJ1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DK1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="DL1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DM1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="DN1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="DO1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="DP1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="DQ1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="DR1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="DS1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="DT1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="DU1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="DV1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="DW1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="DX1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DY1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="DZ1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EA1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="EB1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EC1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="ED1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EE1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EF1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EG1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="EH1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EI1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EJ1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="EK1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="EL1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EM1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EN1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EO1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EP1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="EQ1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="ER1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="ES1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="ET1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="EU1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="EV1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EW1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="EX1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="EY1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="EZ1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="FA1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="FB1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="FC1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="FD1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="FE1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="FF1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="FG1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="FH1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="FI1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="FJ1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="FK1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="FL1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="FM1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="FN1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2">
@@ -1275,10 +1278,18 @@
       <c r="R2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
+      <c r="S2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" t="s">
+        <v>51</v>
+      </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -1471,18 +1482,26 @@
         <v>59</v>
       </c>
       <c r="P3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" t="s">
+        <v>66</v>
+      </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -1675,18 +1694,26 @@
         <v>59</v>
       </c>
       <c r="P4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R4" t="s">
-        <v>65</v>
-      </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" t="s">
+        <v>62</v>
+      </c>
+      <c r="U4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" t="s">
+        <v>66</v>
+      </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -1879,18 +1906,26 @@
         <v>59</v>
       </c>
       <c r="P5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R5" t="s">
-        <v>65</v>
-      </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" t="s">
+        <v>62</v>
+      </c>
+      <c r="U5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" t="s">
+        <v>66</v>
+      </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -2083,18 +2118,26 @@
         <v>59</v>
       </c>
       <c r="P6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S6" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" t="s">
+        <v>66</v>
+      </c>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -2287,18 +2330,26 @@
         <v>59</v>
       </c>
       <c r="P7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R7" t="s">
-        <v>65</v>
-      </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S7" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" t="s">
+        <v>66</v>
+      </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -2491,18 +2542,26 @@
         <v>59</v>
       </c>
       <c r="P8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S8" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" t="s">
+        <v>66</v>
+      </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
@@ -2697,18 +2756,26 @@
         <v>59</v>
       </c>
       <c r="P9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R9" t="s">
-        <v>65</v>
-      </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S9" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" t="s">
+        <v>62</v>
+      </c>
+      <c r="U9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" t="s">
+        <v>66</v>
+      </c>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
@@ -2903,18 +2970,26 @@
         <v>59</v>
       </c>
       <c r="P10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R10" t="s">
-        <v>65</v>
-      </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S10" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" t="s">
+        <v>66</v>
+      </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
@@ -3109,18 +3184,26 @@
         <v>59</v>
       </c>
       <c r="P11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R11" t="s">
-        <v>65</v>
-      </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" t="s">
+        <v>66</v>
+      </c>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -3315,18 +3398,26 @@
         <v>59</v>
       </c>
       <c r="P12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R12" t="s">
-        <v>65</v>
-      </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S12" t="s">
+        <v>60</v>
+      </c>
+      <c r="T12" t="s">
+        <v>62</v>
+      </c>
+      <c r="U12" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" t="s">
+        <v>66</v>
+      </c>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -3521,18 +3612,26 @@
         <v>59</v>
       </c>
       <c r="P13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R13" t="s">
-        <v>65</v>
-      </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S13" t="s">
+        <v>60</v>
+      </c>
+      <c r="T13" t="s">
+        <v>62</v>
+      </c>
+      <c r="U13" t="s">
+        <v>64</v>
+      </c>
+      <c r="V13" t="s">
+        <v>66</v>
+      </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -3727,18 +3826,26 @@
         <v>59</v>
       </c>
       <c r="P14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R14" t="s">
-        <v>65</v>
-      </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S14" t="s">
+        <v>60</v>
+      </c>
+      <c r="T14" t="s">
+        <v>62</v>
+      </c>
+      <c r="U14" t="s">
+        <v>64</v>
+      </c>
+      <c r="V14" t="s">
+        <v>66</v>
+      </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -3933,18 +4040,26 @@
         <v>59</v>
       </c>
       <c r="P15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R15" t="s">
-        <v>65</v>
-      </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S15" t="s">
+        <v>60</v>
+      </c>
+      <c r="T15" t="s">
+        <v>62</v>
+      </c>
+      <c r="U15" t="s">
+        <v>64</v>
+      </c>
+      <c r="V15" t="s">
+        <v>66</v>
+      </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -4139,18 +4254,26 @@
         <v>59</v>
       </c>
       <c r="P16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R16" t="s">
-        <v>65</v>
-      </c>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S16" t="s">
+        <v>60</v>
+      </c>
+      <c r="T16" t="s">
+        <v>62</v>
+      </c>
+      <c r="U16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V16" t="s">
+        <v>66</v>
+      </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -4345,18 +4468,26 @@
         <v>59</v>
       </c>
       <c r="P17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R17" t="s">
-        <v>65</v>
-      </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S17" t="s">
+        <v>60</v>
+      </c>
+      <c r="T17" t="s">
+        <v>62</v>
+      </c>
+      <c r="U17" t="s">
+        <v>64</v>
+      </c>
+      <c r="V17" t="s">
+        <v>66</v>
+      </c>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -4551,18 +4682,26 @@
         <v>59</v>
       </c>
       <c r="P18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R18" t="s">
-        <v>65</v>
-      </c>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S18" t="s">
+        <v>60</v>
+      </c>
+      <c r="T18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U18" t="s">
+        <v>64</v>
+      </c>
+      <c r="V18" t="s">
+        <v>66</v>
+      </c>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -4757,18 +4896,26 @@
         <v>59</v>
       </c>
       <c r="P19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R19" t="s">
-        <v>65</v>
-      </c>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S19" t="s">
+        <v>60</v>
+      </c>
+      <c r="T19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U19" t="s">
+        <v>64</v>
+      </c>
+      <c r="V19" t="s">
+        <v>66</v>
+      </c>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -4963,18 +5110,26 @@
         <v>59</v>
       </c>
       <c r="P20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R20" t="s">
-        <v>65</v>
-      </c>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S20" t="s">
+        <v>60</v>
+      </c>
+      <c r="T20" t="s">
+        <v>62</v>
+      </c>
+      <c r="U20" t="s">
+        <v>64</v>
+      </c>
+      <c r="V20" t="s">
+        <v>66</v>
+      </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -5166,21 +5321,29 @@
         <v>57</v>
       </c>
       <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>64</v>
+      </c>
+      <c r="R21" t="s">
+        <v>66</v>
+      </c>
+      <c r="S21" t="s">
         <v>51</v>
       </c>
-      <c r="P21" t="s">
+      <c r="T21" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="U21" t="s">
         <v>51</v>
       </c>
-      <c r="R21" t="s">
+      <c r="V21" t="s">
         <v>51</v>
       </c>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
@@ -5372,21 +5535,29 @@
         <v>57</v>
       </c>
       <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>64</v>
+      </c>
+      <c r="R22" t="s">
+        <v>66</v>
+      </c>
+      <c r="S22" t="s">
         <v>51</v>
       </c>
-      <c r="P22" t="s">
+      <c r="T22" t="s">
         <v>51</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="U22" t="s">
         <v>51</v>
       </c>
-      <c r="R22" t="s">
+      <c r="V22" t="s">
         <v>51</v>
       </c>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
@@ -5578,21 +5749,29 @@
         <v>57</v>
       </c>
       <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>64</v>
+      </c>
+      <c r="R23" t="s">
+        <v>66</v>
+      </c>
+      <c r="S23" t="s">
         <v>51</v>
       </c>
-      <c r="P23" t="s">
+      <c r="T23" t="s">
         <v>51</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="U23" t="s">
         <v>51</v>
       </c>
-      <c r="R23" t="s">
+      <c r="V23" t="s">
         <v>51</v>
       </c>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
@@ -5784,21 +5963,29 @@
         <v>57</v>
       </c>
       <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>64</v>
+      </c>
+      <c r="R24" t="s">
+        <v>66</v>
+      </c>
+      <c r="S24" t="s">
         <v>51</v>
       </c>
-      <c r="P24" t="s">
+      <c r="T24" t="s">
         <v>51</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="U24" t="s">
         <v>51</v>
       </c>
-      <c r="R24" t="s">
+      <c r="V24" t="s">
         <v>51</v>
       </c>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
@@ -5990,21 +6177,29 @@
         <v>57</v>
       </c>
       <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>64</v>
+      </c>
+      <c r="R25" t="s">
+        <v>66</v>
+      </c>
+      <c r="S25" t="s">
         <v>51</v>
       </c>
-      <c r="P25" t="s">
+      <c r="T25" t="s">
         <v>51</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="U25" t="s">
         <v>51</v>
       </c>
-      <c r="R25" t="s">
+      <c r="V25" t="s">
         <v>51</v>
       </c>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
@@ -6196,21 +6391,29 @@
         <v>57</v>
       </c>
       <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>64</v>
+      </c>
+      <c r="R26" t="s">
+        <v>66</v>
+      </c>
+      <c r="S26" t="s">
         <v>51</v>
       </c>
-      <c r="P26" t="s">
+      <c r="T26" t="s">
         <v>51</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="U26" t="s">
         <v>51</v>
       </c>
-      <c r="R26" t="s">
+      <c r="V26" t="s">
         <v>51</v>
       </c>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
@@ -6398,21 +6601,29 @@
         <v>57</v>
       </c>
       <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>64</v>
+      </c>
+      <c r="R27" t="s">
+        <v>66</v>
+      </c>
+      <c r="S27" t="s">
         <v>51</v>
       </c>
-      <c r="P27" t="s">
+      <c r="T27" t="s">
         <v>51</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="U27" t="s">
         <v>51</v>
       </c>
-      <c r="R27" t="s">
+      <c r="V27" t="s">
         <v>51</v>
       </c>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
@@ -6604,21 +6815,29 @@
         <v>57</v>
       </c>
       <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>64</v>
+      </c>
+      <c r="R28" t="s">
+        <v>66</v>
+      </c>
+      <c r="S28" t="s">
         <v>51</v>
       </c>
-      <c r="P28" t="s">
+      <c r="T28" t="s">
         <v>51</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="U28" t="s">
         <v>51</v>
       </c>
-      <c r="R28" t="s">
+      <c r="V28" t="s">
         <v>51</v>
       </c>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
@@ -6810,21 +7029,29 @@
         <v>57</v>
       </c>
       <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>64</v>
+      </c>
+      <c r="R29" t="s">
+        <v>66</v>
+      </c>
+      <c r="S29" t="s">
         <v>51</v>
       </c>
-      <c r="P29" t="s">
+      <c r="T29" t="s">
         <v>51</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="U29" t="s">
         <v>51</v>
       </c>
-      <c r="R29" t="s">
+      <c r="V29" t="s">
         <v>51</v>
       </c>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
@@ -7016,21 +7243,29 @@
         <v>57</v>
       </c>
       <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>64</v>
+      </c>
+      <c r="R30" t="s">
+        <v>66</v>
+      </c>
+      <c r="S30" t="s">
         <v>51</v>
       </c>
-      <c r="P30" t="s">
+      <c r="T30" t="s">
         <v>51</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="U30" t="s">
         <v>51</v>
       </c>
-      <c r="R30" t="s">
+      <c r="V30" t="s">
         <v>51</v>
       </c>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
@@ -7222,21 +7457,29 @@
         <v>57</v>
       </c>
       <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>64</v>
+      </c>
+      <c r="R31" t="s">
+        <v>66</v>
+      </c>
+      <c r="S31" t="s">
         <v>51</v>
       </c>
-      <c r="P31" t="s">
+      <c r="T31" t="s">
         <v>51</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="U31" t="s">
         <v>51</v>
       </c>
-      <c r="R31" t="s">
+      <c r="V31" t="s">
         <v>51</v>
       </c>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
@@ -7428,21 +7671,29 @@
         <v>57</v>
       </c>
       <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>64</v>
+      </c>
+      <c r="R32" t="s">
+        <v>66</v>
+      </c>
+      <c r="S32" t="s">
         <v>51</v>
       </c>
-      <c r="P32" t="s">
+      <c r="T32" t="s">
         <v>51</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="U32" t="s">
         <v>51</v>
       </c>
-      <c r="R32" t="s">
+      <c r="V32" t="s">
         <v>51</v>
       </c>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
@@ -7634,21 +7885,29 @@
         <v>57</v>
       </c>
       <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>64</v>
+      </c>
+      <c r="R33" t="s">
+        <v>66</v>
+      </c>
+      <c r="S33" t="s">
         <v>51</v>
       </c>
-      <c r="P33" t="s">
+      <c r="T33" t="s">
         <v>51</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="U33" t="s">
         <v>51</v>
       </c>
-      <c r="R33" t="s">
+      <c r="V33" t="s">
         <v>51</v>
       </c>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>

--- a/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
+++ b/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="618" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="778" uniqueCount="225">
   <si>
     <t>crop</t>
   </si>
@@ -192,6 +192,9 @@
     <t>sow_fert_date_1</t>
   </si>
   <si>
+    <t>2024-04-09</t>
+  </si>
+  <si>
     <t>2024-03-22</t>
   </si>
   <si>
@@ -201,24 +204,36 @@
     <t>sow_fert_type_npk_1</t>
   </si>
   <si>
+    <t>3-4-4</t>
+  </si>
+  <si>
     <t>2-2-2</t>
   </si>
   <si>
     <t>sow_fert_type_name_1</t>
   </si>
   <si>
+    <t>Espoma- Garden-tone</t>
+  </si>
+  <si>
     <t>Espoma- Organic Grow!</t>
   </si>
   <si>
     <t>sow_fert_dose_1</t>
   </si>
   <si>
+    <t>na</t>
+  </si>
+  <si>
     <t>half</t>
   </si>
   <si>
     <t>sow_fert_date_2</t>
   </si>
   <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
     <t>sow_fert_type_npk_2</t>
   </si>
   <si>
@@ -259,6 +274,9 @@
   </si>
   <si>
     <t>transp_date_1</t>
+  </si>
+  <si>
+    <t>2024-04-13</t>
   </si>
   <si>
     <t>transp_med_1</t>
@@ -768,469 +786,469 @@
         <v>58</v>
       </c>
       <c r="P1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="S1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="T1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="U1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="V1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="W1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="X1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Y1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Z1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AA1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AC1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AD1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AE1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AF1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AH1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AJ1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AK1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AL1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AM1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AN1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AO1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AP1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AQ1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="AR1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AS1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AT1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AV1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AW1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AX1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AY1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AZ1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="BA1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="BB1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="BC1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="BD1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="BE1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="BF1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="BG1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="BH1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="BI1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="BJ1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="BK1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="BL1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="BM1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="BN1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="BO1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="BP1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="BQ1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="BR1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="BS1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="BT1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="BU1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="BV1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="BW1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="BX1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="BY1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="BZ1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="CA1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="CB1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="CC1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="CD1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="CE1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="CF1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="CG1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="CH1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="CI1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="CJ1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="CK1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="CL1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="CM1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="CN1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="CO1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="CP1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="CQ1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="CR1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="CS1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="CT1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="CU1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="CV1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="CW1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="CX1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="CY1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="CZ1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="DA1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="DB1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="DC1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="DD1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="DE1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DF1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="DG1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="DH1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="DI1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="DJ1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="DK1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="DL1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="DM1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="DN1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="DO1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="DP1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DQ1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="DR1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="DS1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="DT1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="DU1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="DV1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="DW1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="DX1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="DY1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="DZ1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="EA1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="EB1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="EC1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="ED1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="EE1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="EF1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="EG1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="EH1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="EI1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="EJ1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="EK1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="EL1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="EM1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="EN1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="EO1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="EP1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="EQ1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="ER1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="ES1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="ET1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="EU1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="EV1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="EW1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="EX1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="EY1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="EZ1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="FA1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="FB1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="FC1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="FD1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="FE1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="FF1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="FG1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="FH1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="FI1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="FJ1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="FK1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="FL1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="FM1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="FN1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2">
@@ -1257,7 +1275,9 @@
       <c r="I2" s="1">
         <v>18</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1">
+        <v>18</v>
+      </c>
       <c r="K2" t="s">
         <v>51</v>
       </c>
@@ -1267,16 +1287,16 @@
         <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="P2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="Q2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="R2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="S2" t="s">
         <v>51</v>
@@ -1290,17 +1310,27 @@
       <c r="V2" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
+      <c r="W2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>51</v>
+      </c>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
+      <c r="AG2" t="s">
+        <v>51</v>
+      </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
@@ -1467,7 +1497,9 @@
       <c r="I3" s="1">
         <v>3</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
       <c r="K3" t="s">
         <v>52</v>
       </c>
@@ -1479,42 +1511,56 @@
         <v>57</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" t="s">
         <v>64</v>
       </c>
-      <c r="R3" t="s">
-        <v>66</v>
-      </c>
-      <c r="S3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T3" t="s">
-        <v>62</v>
-      </c>
       <c r="U3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V3" t="s">
-        <v>66</v>
-      </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>51</v>
+      </c>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
+      <c r="AG3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>8</v>
+      </c>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -1679,7 +1725,9 @@
       <c r="I4" s="1">
         <v>3</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
       <c r="K4" t="s">
         <v>52</v>
       </c>
@@ -1691,42 +1739,56 @@
         <v>57</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" t="s">
         <v>64</v>
       </c>
-      <c r="R4" t="s">
-        <v>66</v>
-      </c>
-      <c r="S4" t="s">
-        <v>60</v>
-      </c>
-      <c r="T4" t="s">
-        <v>62</v>
-      </c>
       <c r="U4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V4" t="s">
-        <v>66</v>
-      </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>51</v>
+      </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
+      <c r="AG4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>1</v>
+      </c>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
@@ -1891,7 +1953,9 @@
       <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
       <c r="K5" t="s">
         <v>52</v>
       </c>
@@ -1903,42 +1967,56 @@
         <v>57</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" t="s">
         <v>64</v>
       </c>
-      <c r="R5" t="s">
-        <v>66</v>
-      </c>
-      <c r="S5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T5" t="s">
-        <v>62</v>
-      </c>
       <c r="U5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V5" t="s">
-        <v>66</v>
-      </c>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>51</v>
+      </c>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
+      <c r="AG5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>19</v>
+      </c>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
@@ -2103,7 +2181,9 @@
       <c r="I6" s="1">
         <v>4</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
       <c r="K6" t="s">
         <v>52</v>
       </c>
@@ -2115,42 +2195,56 @@
         <v>57</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" t="s">
         <v>64</v>
       </c>
-      <c r="R6" t="s">
-        <v>66</v>
-      </c>
-      <c r="S6" t="s">
-        <v>60</v>
-      </c>
-      <c r="T6" t="s">
-        <v>62</v>
-      </c>
       <c r="U6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V6" t="s">
-        <v>66</v>
-      </c>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W6" t="s">
+        <v>51</v>
+      </c>
+      <c r="X6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>51</v>
+      </c>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
+      <c r="AG6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>18</v>
+      </c>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
@@ -2315,7 +2409,9 @@
       <c r="I7" s="1">
         <v>4</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
       <c r="K7" t="s">
         <v>52</v>
       </c>
@@ -2327,42 +2423,56 @@
         <v>57</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7" t="s">
         <v>64</v>
       </c>
-      <c r="R7" t="s">
-        <v>66</v>
-      </c>
-      <c r="S7" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" t="s">
-        <v>62</v>
-      </c>
       <c r="U7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V7" t="s">
-        <v>66</v>
-      </c>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
+      <c r="AG7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>20</v>
+      </c>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
@@ -2527,7 +2637,9 @@
       <c r="I8" s="1">
         <v>4</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
       <c r="K8" t="s">
         <v>52</v>
       </c>
@@ -2539,42 +2651,56 @@
         <v>57</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q8" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" t="s">
+        <v>70</v>
+      </c>
+      <c r="S8" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" t="s">
         <v>64</v>
       </c>
-      <c r="R8" t="s">
-        <v>66</v>
-      </c>
-      <c r="S8" t="s">
-        <v>60</v>
-      </c>
-      <c r="T8" t="s">
-        <v>62</v>
-      </c>
       <c r="U8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V8" t="s">
-        <v>66</v>
-      </c>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W8" t="s">
+        <v>51</v>
+      </c>
+      <c r="X8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>51</v>
+      </c>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
+      <c r="AG8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>20</v>
+      </c>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
@@ -2739,7 +2865,9 @@
       <c r="I9" s="1">
         <v>4</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
       <c r="K9" t="s">
         <v>53</v>
       </c>
@@ -2753,40 +2881,50 @@
         <v>57</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q9" t="s">
+        <v>67</v>
+      </c>
+      <c r="R9" t="s">
+        <v>70</v>
+      </c>
+      <c r="S9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9" t="s">
         <v>64</v>
       </c>
-      <c r="R9" t="s">
-        <v>66</v>
-      </c>
-      <c r="S9" t="s">
-        <v>60</v>
-      </c>
-      <c r="T9" t="s">
-        <v>62</v>
-      </c>
       <c r="U9" t="s">
+        <v>67</v>
+      </c>
+      <c r="V9" t="s">
+        <v>70</v>
+      </c>
+      <c r="W9" t="s">
+        <v>72</v>
+      </c>
+      <c r="X9" t="s">
         <v>64</v>
       </c>
-      <c r="V9" t="s">
-        <v>66</v>
-      </c>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
+      <c r="Y9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>70</v>
+      </c>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
+      <c r="AG9" t="s">
+        <v>51</v>
+      </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
@@ -2953,7 +3091,9 @@
       <c r="I10" s="1">
         <v>3</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
       <c r="K10" t="s">
         <v>53</v>
       </c>
@@ -2967,40 +3107,50 @@
         <v>57</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q10" t="s">
+        <v>67</v>
+      </c>
+      <c r="R10" t="s">
+        <v>70</v>
+      </c>
+      <c r="S10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" t="s">
         <v>64</v>
       </c>
-      <c r="R10" t="s">
-        <v>66</v>
-      </c>
-      <c r="S10" t="s">
-        <v>60</v>
-      </c>
-      <c r="T10" t="s">
-        <v>62</v>
-      </c>
       <c r="U10" t="s">
+        <v>67</v>
+      </c>
+      <c r="V10" t="s">
+        <v>70</v>
+      </c>
+      <c r="W10" t="s">
+        <v>72</v>
+      </c>
+      <c r="X10" t="s">
         <v>64</v>
       </c>
-      <c r="V10" t="s">
-        <v>66</v>
-      </c>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
+      <c r="Y10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>70</v>
+      </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
+      <c r="AG10" t="s">
+        <v>51</v>
+      </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
@@ -3167,7 +3317,9 @@
       <c r="I11" s="1">
         <v>3</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
       <c r="K11" t="s">
         <v>53</v>
       </c>
@@ -3181,40 +3333,50 @@
         <v>57</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q11" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" t="s">
+        <v>61</v>
+      </c>
+      <c r="T11" t="s">
         <v>64</v>
       </c>
-      <c r="R11" t="s">
-        <v>66</v>
-      </c>
-      <c r="S11" t="s">
-        <v>60</v>
-      </c>
-      <c r="T11" t="s">
-        <v>62</v>
-      </c>
       <c r="U11" t="s">
+        <v>67</v>
+      </c>
+      <c r="V11" t="s">
+        <v>70</v>
+      </c>
+      <c r="W11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X11" t="s">
         <v>64</v>
       </c>
-      <c r="V11" t="s">
-        <v>66</v>
-      </c>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
+      <c r="Y11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>70</v>
+      </c>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
+      <c r="AG11" t="s">
+        <v>51</v>
+      </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
@@ -3381,7 +3543,9 @@
       <c r="I12" s="1">
         <v>2</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
       <c r="K12" t="s">
         <v>53</v>
       </c>
@@ -3395,40 +3559,50 @@
         <v>57</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q12" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" t="s">
+        <v>70</v>
+      </c>
+      <c r="S12" t="s">
+        <v>61</v>
+      </c>
+      <c r="T12" t="s">
         <v>64</v>
       </c>
-      <c r="R12" t="s">
-        <v>66</v>
-      </c>
-      <c r="S12" t="s">
-        <v>60</v>
-      </c>
-      <c r="T12" t="s">
-        <v>62</v>
-      </c>
       <c r="U12" t="s">
+        <v>67</v>
+      </c>
+      <c r="V12" t="s">
+        <v>70</v>
+      </c>
+      <c r="W12" t="s">
+        <v>72</v>
+      </c>
+      <c r="X12" t="s">
         <v>64</v>
       </c>
-      <c r="V12" t="s">
-        <v>66</v>
-      </c>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
+      <c r="Y12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>70</v>
+      </c>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
+      <c r="AG12" t="s">
+        <v>51</v>
+      </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
@@ -3595,7 +3769,9 @@
       <c r="I13" s="1">
         <v>3</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
       <c r="K13" t="s">
         <v>53</v>
       </c>
@@ -3609,40 +3785,50 @@
         <v>57</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" t="s">
+        <v>61</v>
+      </c>
+      <c r="T13" t="s">
         <v>64</v>
       </c>
-      <c r="R13" t="s">
-        <v>66</v>
-      </c>
-      <c r="S13" t="s">
-        <v>60</v>
-      </c>
-      <c r="T13" t="s">
-        <v>62</v>
-      </c>
       <c r="U13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V13" t="s">
+        <v>70</v>
+      </c>
+      <c r="W13" t="s">
+        <v>72</v>
+      </c>
+      <c r="X13" t="s">
         <v>64</v>
       </c>
-      <c r="V13" t="s">
-        <v>66</v>
-      </c>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+      <c r="Y13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>70</v>
+      </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
+      <c r="AG13" t="s">
+        <v>51</v>
+      </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
@@ -3809,7 +3995,9 @@
       <c r="I14" s="1">
         <v>2</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
       <c r="K14" t="s">
         <v>53</v>
       </c>
@@ -3823,40 +4011,50 @@
         <v>57</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q14" t="s">
+        <v>67</v>
+      </c>
+      <c r="R14" t="s">
+        <v>70</v>
+      </c>
+      <c r="S14" t="s">
+        <v>61</v>
+      </c>
+      <c r="T14" t="s">
         <v>64</v>
       </c>
-      <c r="R14" t="s">
-        <v>66</v>
-      </c>
-      <c r="S14" t="s">
-        <v>60</v>
-      </c>
-      <c r="T14" t="s">
-        <v>62</v>
-      </c>
       <c r="U14" t="s">
+        <v>67</v>
+      </c>
+      <c r="V14" t="s">
+        <v>70</v>
+      </c>
+      <c r="W14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X14" t="s">
         <v>64</v>
       </c>
-      <c r="V14" t="s">
-        <v>66</v>
-      </c>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
+      <c r="Y14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>70</v>
+      </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
+      <c r="AG14" t="s">
+        <v>51</v>
+      </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
@@ -4023,7 +4221,9 @@
       <c r="I15" s="1">
         <v>4</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
       <c r="K15" t="s">
         <v>53</v>
       </c>
@@ -4037,40 +4237,50 @@
         <v>57</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q15" t="s">
+        <v>67</v>
+      </c>
+      <c r="R15" t="s">
+        <v>70</v>
+      </c>
+      <c r="S15" t="s">
+        <v>61</v>
+      </c>
+      <c r="T15" t="s">
         <v>64</v>
       </c>
-      <c r="R15" t="s">
-        <v>66</v>
-      </c>
-      <c r="S15" t="s">
-        <v>60</v>
-      </c>
-      <c r="T15" t="s">
-        <v>62</v>
-      </c>
       <c r="U15" t="s">
+        <v>67</v>
+      </c>
+      <c r="V15" t="s">
+        <v>70</v>
+      </c>
+      <c r="W15" t="s">
+        <v>72</v>
+      </c>
+      <c r="X15" t="s">
         <v>64</v>
       </c>
-      <c r="V15" t="s">
-        <v>66</v>
-      </c>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
+      <c r="Y15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>70</v>
+      </c>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
+      <c r="AG15" t="s">
+        <v>51</v>
+      </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
@@ -4235,9 +4445,11 @@
         <v>12</v>
       </c>
       <c r="I16" s="1">
-        <v>2</v>
-      </c>
-      <c r="J16" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
       <c r="K16" t="s">
         <v>53</v>
       </c>
@@ -4251,40 +4463,50 @@
         <v>57</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q16" t="s">
+        <v>67</v>
+      </c>
+      <c r="R16" t="s">
+        <v>70</v>
+      </c>
+      <c r="S16" t="s">
+        <v>61</v>
+      </c>
+      <c r="T16" t="s">
         <v>64</v>
       </c>
-      <c r="R16" t="s">
-        <v>66</v>
-      </c>
-      <c r="S16" t="s">
-        <v>60</v>
-      </c>
-      <c r="T16" t="s">
-        <v>62</v>
-      </c>
       <c r="U16" t="s">
+        <v>67</v>
+      </c>
+      <c r="V16" t="s">
+        <v>70</v>
+      </c>
+      <c r="W16" t="s">
+        <v>72</v>
+      </c>
+      <c r="X16" t="s">
         <v>64</v>
       </c>
-      <c r="V16" t="s">
-        <v>66</v>
-      </c>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
+      <c r="Y16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>70</v>
+      </c>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
+      <c r="AG16" t="s">
+        <v>51</v>
+      </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
@@ -4451,7 +4673,9 @@
       <c r="I17" s="1">
         <v>2</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
       <c r="K17" t="s">
         <v>53</v>
       </c>
@@ -4465,40 +4689,50 @@
         <v>57</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q17" t="s">
+        <v>67</v>
+      </c>
+      <c r="R17" t="s">
+        <v>70</v>
+      </c>
+      <c r="S17" t="s">
+        <v>61</v>
+      </c>
+      <c r="T17" t="s">
         <v>64</v>
       </c>
-      <c r="R17" t="s">
-        <v>66</v>
-      </c>
-      <c r="S17" t="s">
-        <v>60</v>
-      </c>
-      <c r="T17" t="s">
-        <v>62</v>
-      </c>
       <c r="U17" t="s">
+        <v>67</v>
+      </c>
+      <c r="V17" t="s">
+        <v>70</v>
+      </c>
+      <c r="W17" t="s">
+        <v>72</v>
+      </c>
+      <c r="X17" t="s">
         <v>64</v>
       </c>
-      <c r="V17" t="s">
-        <v>66</v>
-      </c>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
+      <c r="Y17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>70</v>
+      </c>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
+      <c r="AG17" t="s">
+        <v>51</v>
+      </c>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
@@ -4665,7 +4899,9 @@
       <c r="I18" s="1">
         <v>1</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
       <c r="K18" t="s">
         <v>53</v>
       </c>
@@ -4679,40 +4915,50 @@
         <v>57</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q18" t="s">
+        <v>67</v>
+      </c>
+      <c r="R18" t="s">
+        <v>70</v>
+      </c>
+      <c r="S18" t="s">
+        <v>61</v>
+      </c>
+      <c r="T18" t="s">
         <v>64</v>
       </c>
-      <c r="R18" t="s">
-        <v>66</v>
-      </c>
-      <c r="S18" t="s">
-        <v>60</v>
-      </c>
-      <c r="T18" t="s">
-        <v>62</v>
-      </c>
       <c r="U18" t="s">
+        <v>67</v>
+      </c>
+      <c r="V18" t="s">
+        <v>70</v>
+      </c>
+      <c r="W18" t="s">
+        <v>72</v>
+      </c>
+      <c r="X18" t="s">
         <v>64</v>
       </c>
-      <c r="V18" t="s">
-        <v>66</v>
-      </c>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
+      <c r="Y18" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>70</v>
+      </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
+      <c r="AG18" t="s">
+        <v>51</v>
+      </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
@@ -4879,7 +5125,9 @@
       <c r="I19" s="1">
         <v>2</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
       <c r="K19" t="s">
         <v>53</v>
       </c>
@@ -4893,40 +5141,50 @@
         <v>57</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q19" t="s">
+        <v>67</v>
+      </c>
+      <c r="R19" t="s">
+        <v>70</v>
+      </c>
+      <c r="S19" t="s">
+        <v>61</v>
+      </c>
+      <c r="T19" t="s">
         <v>64</v>
       </c>
-      <c r="R19" t="s">
-        <v>66</v>
-      </c>
-      <c r="S19" t="s">
-        <v>60</v>
-      </c>
-      <c r="T19" t="s">
-        <v>62</v>
-      </c>
       <c r="U19" t="s">
+        <v>67</v>
+      </c>
+      <c r="V19" t="s">
+        <v>70</v>
+      </c>
+      <c r="W19" t="s">
+        <v>72</v>
+      </c>
+      <c r="X19" t="s">
         <v>64</v>
       </c>
-      <c r="V19" t="s">
-        <v>66</v>
-      </c>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
+      <c r="Y19" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>70</v>
+      </c>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
+      <c r="AG19" t="s">
+        <v>51</v>
+      </c>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
@@ -5093,7 +5351,9 @@
       <c r="I20" s="1">
         <v>3</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1">
+        <v>3</v>
+      </c>
       <c r="K20" t="s">
         <v>53</v>
       </c>
@@ -5107,40 +5367,50 @@
         <v>57</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q20" t="s">
+        <v>67</v>
+      </c>
+      <c r="R20" t="s">
+        <v>70</v>
+      </c>
+      <c r="S20" t="s">
+        <v>61</v>
+      </c>
+      <c r="T20" t="s">
         <v>64</v>
       </c>
-      <c r="R20" t="s">
-        <v>66</v>
-      </c>
-      <c r="S20" t="s">
-        <v>60</v>
-      </c>
-      <c r="T20" t="s">
-        <v>62</v>
-      </c>
       <c r="U20" t="s">
+        <v>67</v>
+      </c>
+      <c r="V20" t="s">
+        <v>70</v>
+      </c>
+      <c r="W20" t="s">
+        <v>72</v>
+      </c>
+      <c r="X20" t="s">
         <v>64</v>
       </c>
-      <c r="V20" t="s">
-        <v>66</v>
-      </c>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
+      <c r="Y20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>70</v>
+      </c>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
+      <c r="AG20" t="s">
+        <v>51</v>
+      </c>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
@@ -5307,7 +5577,9 @@
       <c r="I21" s="1">
         <v>3</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
       <c r="K21" t="s">
         <v>53</v>
       </c>
@@ -5321,40 +5593,50 @@
         <v>57</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R21" t="s">
+        <v>70</v>
+      </c>
+      <c r="S21" t="s">
+        <v>72</v>
+      </c>
+      <c r="T21" t="s">
         <v>64</v>
       </c>
-      <c r="R21" t="s">
-        <v>66</v>
-      </c>
-      <c r="S21" t="s">
-        <v>51</v>
-      </c>
-      <c r="T21" t="s">
-        <v>51</v>
-      </c>
       <c r="U21" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V21" t="s">
-        <v>51</v>
-      </c>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W21" t="s">
+        <v>51</v>
+      </c>
+      <c r="X21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>51</v>
+      </c>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
+      <c r="AG21" t="s">
+        <v>51</v>
+      </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
@@ -5521,7 +5803,9 @@
       <c r="I22" s="1">
         <v>3</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
       <c r="K22" t="s">
         <v>53</v>
       </c>
@@ -5535,40 +5819,50 @@
         <v>57</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q22" t="s">
+        <v>67</v>
+      </c>
+      <c r="R22" t="s">
+        <v>70</v>
+      </c>
+      <c r="S22" t="s">
+        <v>72</v>
+      </c>
+      <c r="T22" t="s">
         <v>64</v>
       </c>
-      <c r="R22" t="s">
-        <v>66</v>
-      </c>
-      <c r="S22" t="s">
-        <v>51</v>
-      </c>
-      <c r="T22" t="s">
-        <v>51</v>
-      </c>
       <c r="U22" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V22" t="s">
-        <v>51</v>
-      </c>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W22" t="s">
+        <v>51</v>
+      </c>
+      <c r="X22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>51</v>
+      </c>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
+      <c r="AG22" t="s">
+        <v>51</v>
+      </c>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
@@ -5735,7 +6029,9 @@
       <c r="I23" s="1">
         <v>3</v>
       </c>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
       <c r="K23" t="s">
         <v>53</v>
       </c>
@@ -5749,40 +6045,50 @@
         <v>57</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q23" t="s">
+        <v>67</v>
+      </c>
+      <c r="R23" t="s">
+        <v>70</v>
+      </c>
+      <c r="S23" t="s">
+        <v>72</v>
+      </c>
+      <c r="T23" t="s">
         <v>64</v>
       </c>
-      <c r="R23" t="s">
-        <v>66</v>
-      </c>
-      <c r="S23" t="s">
-        <v>51</v>
-      </c>
-      <c r="T23" t="s">
-        <v>51</v>
-      </c>
       <c r="U23" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V23" t="s">
-        <v>51</v>
-      </c>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W23" t="s">
+        <v>51</v>
+      </c>
+      <c r="X23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>51</v>
+      </c>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
+      <c r="AG23" t="s">
+        <v>51</v>
+      </c>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
@@ -5949,7 +6255,9 @@
       <c r="I24" s="1">
         <v>3</v>
       </c>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
       <c r="K24" t="s">
         <v>53</v>
       </c>
@@ -5963,40 +6271,50 @@
         <v>57</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q24" t="s">
+        <v>67</v>
+      </c>
+      <c r="R24" t="s">
+        <v>70</v>
+      </c>
+      <c r="S24" t="s">
+        <v>72</v>
+      </c>
+      <c r="T24" t="s">
         <v>64</v>
       </c>
-      <c r="R24" t="s">
-        <v>66</v>
-      </c>
-      <c r="S24" t="s">
-        <v>51</v>
-      </c>
-      <c r="T24" t="s">
-        <v>51</v>
-      </c>
       <c r="U24" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V24" t="s">
-        <v>51</v>
-      </c>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W24" t="s">
+        <v>51</v>
+      </c>
+      <c r="X24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>51</v>
+      </c>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
+      <c r="AG24" t="s">
+        <v>51</v>
+      </c>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
@@ -6163,7 +6481,9 @@
       <c r="I25" s="1">
         <v>3</v>
       </c>
-      <c r="J25" s="1"/>
+      <c r="J25" s="1">
+        <v>2</v>
+      </c>
       <c r="K25" t="s">
         <v>53</v>
       </c>
@@ -6177,40 +6497,50 @@
         <v>57</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q25" t="s">
+        <v>67</v>
+      </c>
+      <c r="R25" t="s">
+        <v>70</v>
+      </c>
+      <c r="S25" t="s">
+        <v>72</v>
+      </c>
+      <c r="T25" t="s">
         <v>64</v>
       </c>
-      <c r="R25" t="s">
-        <v>66</v>
-      </c>
-      <c r="S25" t="s">
-        <v>51</v>
-      </c>
-      <c r="T25" t="s">
-        <v>51</v>
-      </c>
       <c r="U25" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V25" t="s">
-        <v>51</v>
-      </c>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W25" t="s">
+        <v>51</v>
+      </c>
+      <c r="X25" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>51</v>
+      </c>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
+      <c r="AG25" t="s">
+        <v>51</v>
+      </c>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
@@ -6377,7 +6707,9 @@
       <c r="I26" s="1">
         <v>2</v>
       </c>
-      <c r="J26" s="1"/>
+      <c r="J26" s="1">
+        <v>2</v>
+      </c>
       <c r="K26" t="s">
         <v>53</v>
       </c>
@@ -6391,40 +6723,50 @@
         <v>57</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q26" t="s">
+        <v>67</v>
+      </c>
+      <c r="R26" t="s">
+        <v>70</v>
+      </c>
+      <c r="S26" t="s">
+        <v>72</v>
+      </c>
+      <c r="T26" t="s">
         <v>64</v>
       </c>
-      <c r="R26" t="s">
-        <v>66</v>
-      </c>
-      <c r="S26" t="s">
-        <v>51</v>
-      </c>
-      <c r="T26" t="s">
-        <v>51</v>
-      </c>
       <c r="U26" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V26" t="s">
-        <v>51</v>
-      </c>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W26" t="s">
+        <v>51</v>
+      </c>
+      <c r="X26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>51</v>
+      </c>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
+      <c r="AG26" t="s">
+        <v>51</v>
+      </c>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
@@ -6585,9 +6927,15 @@
       <c r="G27" s="1">
         <v>3</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="H27" s="1">
+        <v>12</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
       <c r="K27" t="s">
         <v>53</v>
       </c>
@@ -6601,40 +6949,50 @@
         <v>57</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q27" t="s">
+        <v>67</v>
+      </c>
+      <c r="R27" t="s">
+        <v>70</v>
+      </c>
+      <c r="S27" t="s">
+        <v>72</v>
+      </c>
+      <c r="T27" t="s">
         <v>64</v>
       </c>
-      <c r="R27" t="s">
-        <v>66</v>
-      </c>
-      <c r="S27" t="s">
-        <v>51</v>
-      </c>
-      <c r="T27" t="s">
-        <v>51</v>
-      </c>
       <c r="U27" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V27" t="s">
-        <v>51</v>
-      </c>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W27" t="s">
+        <v>51</v>
+      </c>
+      <c r="X27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>51</v>
+      </c>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
+      <c r="AG27" t="s">
+        <v>51</v>
+      </c>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
@@ -6801,7 +7159,9 @@
       <c r="I28" s="1">
         <v>3</v>
       </c>
-      <c r="J28" s="1"/>
+      <c r="J28" s="1">
+        <v>3</v>
+      </c>
       <c r="K28" t="s">
         <v>53</v>
       </c>
@@ -6815,40 +7175,50 @@
         <v>57</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q28" t="s">
+        <v>67</v>
+      </c>
+      <c r="R28" t="s">
+        <v>70</v>
+      </c>
+      <c r="S28" t="s">
+        <v>72</v>
+      </c>
+      <c r="T28" t="s">
         <v>64</v>
       </c>
-      <c r="R28" t="s">
-        <v>66</v>
-      </c>
-      <c r="S28" t="s">
-        <v>51</v>
-      </c>
-      <c r="T28" t="s">
-        <v>51</v>
-      </c>
       <c r="U28" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V28" t="s">
-        <v>51</v>
-      </c>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W28" t="s">
+        <v>51</v>
+      </c>
+      <c r="X28" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>51</v>
+      </c>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
+      <c r="AG28" t="s">
+        <v>51</v>
+      </c>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
@@ -7015,7 +7385,9 @@
       <c r="I29" s="1">
         <v>4</v>
       </c>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1">
+        <v>3</v>
+      </c>
       <c r="K29" t="s">
         <v>53</v>
       </c>
@@ -7029,40 +7401,50 @@
         <v>57</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q29" t="s">
+        <v>67</v>
+      </c>
+      <c r="R29" t="s">
+        <v>70</v>
+      </c>
+      <c r="S29" t="s">
+        <v>72</v>
+      </c>
+      <c r="T29" t="s">
         <v>64</v>
       </c>
-      <c r="R29" t="s">
-        <v>66</v>
-      </c>
-      <c r="S29" t="s">
-        <v>51</v>
-      </c>
-      <c r="T29" t="s">
-        <v>51</v>
-      </c>
       <c r="U29" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V29" t="s">
-        <v>51</v>
-      </c>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W29" t="s">
+        <v>51</v>
+      </c>
+      <c r="X29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>51</v>
+      </c>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
+      <c r="AG29" t="s">
+        <v>51</v>
+      </c>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
@@ -7229,7 +7611,9 @@
       <c r="I30" s="1">
         <v>1</v>
       </c>
-      <c r="J30" s="1"/>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
       <c r="K30" t="s">
         <v>53</v>
       </c>
@@ -7243,40 +7627,50 @@
         <v>57</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q30" t="s">
+        <v>67</v>
+      </c>
+      <c r="R30" t="s">
+        <v>70</v>
+      </c>
+      <c r="S30" t="s">
+        <v>72</v>
+      </c>
+      <c r="T30" t="s">
         <v>64</v>
       </c>
-      <c r="R30" t="s">
-        <v>66</v>
-      </c>
-      <c r="S30" t="s">
-        <v>51</v>
-      </c>
-      <c r="T30" t="s">
-        <v>51</v>
-      </c>
       <c r="U30" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W30" t="s">
+        <v>51</v>
+      </c>
+      <c r="X30" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>51</v>
+      </c>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
+      <c r="AG30" t="s">
+        <v>51</v>
+      </c>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
@@ -7443,7 +7837,9 @@
       <c r="I31" s="1">
         <v>3</v>
       </c>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1">
+        <v>3</v>
+      </c>
       <c r="K31" t="s">
         <v>53</v>
       </c>
@@ -7457,40 +7853,50 @@
         <v>57</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q31" t="s">
+        <v>67</v>
+      </c>
+      <c r="R31" t="s">
+        <v>70</v>
+      </c>
+      <c r="S31" t="s">
+        <v>72</v>
+      </c>
+      <c r="T31" t="s">
         <v>64</v>
       </c>
-      <c r="R31" t="s">
-        <v>66</v>
-      </c>
-      <c r="S31" t="s">
-        <v>51</v>
-      </c>
-      <c r="T31" t="s">
-        <v>51</v>
-      </c>
       <c r="U31" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V31" t="s">
-        <v>51</v>
-      </c>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W31" t="s">
+        <v>51</v>
+      </c>
+      <c r="X31" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>51</v>
+      </c>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
+      <c r="AG31" t="s">
+        <v>51</v>
+      </c>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
@@ -7657,7 +8063,9 @@
       <c r="I32" s="1">
         <v>3</v>
       </c>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1">
+        <v>3</v>
+      </c>
       <c r="K32" t="s">
         <v>53</v>
       </c>
@@ -7671,40 +8079,50 @@
         <v>57</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q32" t="s">
+        <v>67</v>
+      </c>
+      <c r="R32" t="s">
+        <v>70</v>
+      </c>
+      <c r="S32" t="s">
+        <v>72</v>
+      </c>
+      <c r="T32" t="s">
         <v>64</v>
       </c>
-      <c r="R32" t="s">
-        <v>66</v>
-      </c>
-      <c r="S32" t="s">
-        <v>51</v>
-      </c>
-      <c r="T32" t="s">
-        <v>51</v>
-      </c>
       <c r="U32" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V32" t="s">
-        <v>51</v>
-      </c>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W32" t="s">
+        <v>51</v>
+      </c>
+      <c r="X32" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>51</v>
+      </c>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
+      <c r="AG32" t="s">
+        <v>51</v>
+      </c>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
@@ -7871,7 +8289,9 @@
       <c r="I33" s="1">
         <v>3</v>
       </c>
-      <c r="J33" s="1"/>
+      <c r="J33" s="1">
+        <v>3</v>
+      </c>
       <c r="K33" t="s">
         <v>53</v>
       </c>
@@ -7885,40 +8305,50 @@
         <v>57</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q33" t="s">
+        <v>67</v>
+      </c>
+      <c r="R33" t="s">
+        <v>70</v>
+      </c>
+      <c r="S33" t="s">
+        <v>72</v>
+      </c>
+      <c r="T33" t="s">
         <v>64</v>
       </c>
-      <c r="R33" t="s">
-        <v>66</v>
-      </c>
-      <c r="S33" t="s">
-        <v>51</v>
-      </c>
-      <c r="T33" t="s">
-        <v>51</v>
-      </c>
       <c r="U33" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V33" t="s">
-        <v>51</v>
-      </c>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W33" t="s">
+        <v>51</v>
+      </c>
+      <c r="X33" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>51</v>
+      </c>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
+      <c r="AG33" t="s">
+        <v>51</v>
+      </c>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>

--- a/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
+++ b/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="778" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="906" uniqueCount="226">
   <si>
     <t>crop</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>sow_fert_date_3</t>
+  </si>
+  <si>
+    <t>2024-04-23</t>
   </si>
   <si>
     <t>sow_fert_type_npk_3</t>
@@ -810,445 +813,445 @@
         <v>76</v>
       </c>
       <c r="X1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AP1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AQ1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AR1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AS1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AT1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AU1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AV1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AW1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AX1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AY1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AZ1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BA1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BB1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BC1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BD1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BE1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BF1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BG1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BH1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BI1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BJ1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BK1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BL1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BM1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BN1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BO1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BP1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BQ1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BR1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BS1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BT1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BU1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BV1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BW1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BX1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BY1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BZ1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="CA1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="CB1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="CC1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="CD1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="CE1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CF1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CG1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CH1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CI1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CJ1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="CK1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CL1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CM1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CN1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CO1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CP1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CQ1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CR1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CS1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="CT1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="CU1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="CV1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="CW1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CX1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CY1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="CZ1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="DA1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DB1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DC1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DD1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="DE1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DF1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="DG1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="DH1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="DI1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="DJ1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="DK1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="DL1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="DM1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="DN1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="DO1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="DP1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="DQ1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DR1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="DS1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="DT1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="DU1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DV1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="DW1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DX1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DY1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DZ1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="EA1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EB1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EC1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="ED1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="EE1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EF1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EG1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EH1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EI1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="EJ1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="EK1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="EL1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="EM1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="EN1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="EO1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EP1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="EQ1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="ER1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="ES1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="ET1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="EU1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="EV1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="EW1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="EX1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="EY1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="EZ1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="FA1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="FB1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="FC1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="FD1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="FE1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="FF1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="FG1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="FH1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="FI1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="FJ1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="FK1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="FL1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="FM1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="FN1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2">
@@ -1322,10 +1325,18 @@
       <c r="Z2" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
+      <c r="AA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>51</v>
+      </c>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
       <c r="AG2" t="s">
@@ -1546,14 +1557,22 @@
       <c r="Z3" t="s">
         <v>51</v>
       </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
+      <c r="AA3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>51</v>
+      </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
       <c r="AG3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH3" s="1">
         <v>3.25</v>
@@ -1774,14 +1793,22 @@
       <c r="Z4" t="s">
         <v>51</v>
       </c>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
+      <c r="AA4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>51</v>
+      </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH4" s="1">
         <v>3.25</v>
@@ -2002,14 +2029,22 @@
       <c r="Z5" t="s">
         <v>51</v>
       </c>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
+      <c r="AA5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>51</v>
+      </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH5" s="1">
         <v>3.25</v>
@@ -2230,14 +2265,22 @@
       <c r="Z6" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
+      <c r="AA6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>51</v>
+      </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH6" s="1">
         <v>3.25</v>
@@ -2458,14 +2501,22 @@
       <c r="Z7" t="s">
         <v>51</v>
       </c>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
+      <c r="AA7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH7" s="1">
         <v>3.25</v>
@@ -2686,14 +2737,22 @@
       <c r="Z8" t="s">
         <v>51</v>
       </c>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
+      <c r="AA8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>51</v>
+      </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH8" s="1">
         <v>3.25</v>
@@ -2916,10 +2975,18 @@
       <c r="Z9" t="s">
         <v>70</v>
       </c>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
+      <c r="AA9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>70</v>
+      </c>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" t="s">
@@ -3142,10 +3209,18 @@
       <c r="Z10" t="s">
         <v>70</v>
       </c>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
+      <c r="AA10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>70</v>
+      </c>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" t="s">
@@ -3368,10 +3443,18 @@
       <c r="Z11" t="s">
         <v>70</v>
       </c>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
+      <c r="AA11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>70</v>
+      </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" t="s">
@@ -3594,10 +3677,18 @@
       <c r="Z12" t="s">
         <v>70</v>
       </c>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
+      <c r="AA12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>70</v>
+      </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" t="s">
@@ -3820,10 +3911,18 @@
       <c r="Z13" t="s">
         <v>70</v>
       </c>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
+      <c r="AA13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>70</v>
+      </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" t="s">
@@ -4046,10 +4145,18 @@
       <c r="Z14" t="s">
         <v>70</v>
       </c>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
+      <c r="AA14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>70</v>
+      </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" t="s">
@@ -4272,10 +4379,18 @@
       <c r="Z15" t="s">
         <v>70</v>
       </c>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
+      <c r="AA15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>70</v>
+      </c>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" t="s">
@@ -4498,10 +4613,18 @@
       <c r="Z16" t="s">
         <v>70</v>
       </c>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
+      <c r="AA16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>70</v>
+      </c>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" t="s">
@@ -4724,10 +4847,18 @@
       <c r="Z17" t="s">
         <v>70</v>
       </c>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
+      <c r="AA17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>70</v>
+      </c>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" t="s">
@@ -4950,10 +5081,18 @@
       <c r="Z18" t="s">
         <v>70</v>
       </c>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
+      <c r="AA18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>70</v>
+      </c>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" t="s">
@@ -5176,10 +5315,18 @@
       <c r="Z19" t="s">
         <v>70</v>
       </c>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
+      <c r="AA19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>70</v>
+      </c>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" t="s">
@@ -5402,10 +5549,18 @@
       <c r="Z20" t="s">
         <v>70</v>
       </c>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
+      <c r="AA20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>70</v>
+      </c>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" t="s">
@@ -5617,21 +5772,29 @@
         <v>70</v>
       </c>
       <c r="W21" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y21" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>51</v>
+      </c>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" t="s">
@@ -5843,21 +6006,29 @@
         <v>70</v>
       </c>
       <c r="W22" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y22" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z22" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>51</v>
+      </c>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" t="s">
@@ -6069,21 +6240,29 @@
         <v>70</v>
       </c>
       <c r="W23" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y23" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>51</v>
+      </c>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" t="s">
@@ -6295,21 +6474,29 @@
         <v>70</v>
       </c>
       <c r="W24" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X24" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y24" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z24" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>51</v>
+      </c>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" t="s">
@@ -6521,21 +6708,29 @@
         <v>70</v>
       </c>
       <c r="W25" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y25" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z25" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>51</v>
+      </c>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" t="s">
@@ -6747,21 +6942,29 @@
         <v>70</v>
       </c>
       <c r="W26" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X26" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y26" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z26" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>51</v>
+      </c>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" t="s">
@@ -6973,21 +7176,29 @@
         <v>70</v>
       </c>
       <c r="W27" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X27" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y27" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>51</v>
+      </c>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" t="s">
@@ -7199,21 +7410,29 @@
         <v>70</v>
       </c>
       <c r="W28" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y28" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z28" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>51</v>
+      </c>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" t="s">
@@ -7425,21 +7644,29 @@
         <v>70</v>
       </c>
       <c r="W29" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y29" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z29" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>51</v>
+      </c>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" t="s">
@@ -7651,21 +7878,29 @@
         <v>70</v>
       </c>
       <c r="W30" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y30" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>51</v>
+      </c>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" t="s">
@@ -7877,21 +8112,29 @@
         <v>70</v>
       </c>
       <c r="W31" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y31" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z31" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>51</v>
+      </c>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
       <c r="AG31" t="s">
@@ -8103,21 +8346,29 @@
         <v>70</v>
       </c>
       <c r="W32" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y32" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z32" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>51</v>
+      </c>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" t="s">
@@ -8329,21 +8580,29 @@
         <v>70</v>
       </c>
       <c r="W33" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y33" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z33" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>51</v>
+      </c>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
       <c r="AG33" t="s">

--- a/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
+++ b/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="906" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1262" uniqueCount="241">
   <si>
     <t>crop</t>
   </si>
@@ -114,6 +114,18 @@
     <t>salvia- victoria</t>
   </si>
   <si>
+    <t>arrugula- rocket</t>
+  </si>
+  <si>
+    <t>dill- elephant</t>
+  </si>
+  <si>
+    <t>zinnia- california giant</t>
+  </si>
+  <si>
+    <t>zinnia- classic</t>
+  </si>
+  <si>
     <t>sow_type</t>
   </si>
   <si>
@@ -138,6 +150,12 @@
     <t>2024-03-11</t>
   </si>
   <si>
+    <t>2024-04-25</t>
+  </si>
+  <si>
+    <t>2024-04-28</t>
+  </si>
+  <si>
     <t>sow_med</t>
   </si>
   <si>
@@ -147,6 +165,9 @@
     <t>soilless</t>
   </si>
   <si>
+    <t>rasied bed- frame</t>
+  </si>
+  <si>
     <t>sow_cell</t>
   </si>
   <si>
@@ -276,13 +297,37 @@
     <t>transp_harden_date_end</t>
   </si>
   <si>
+    <t>2024-04-30</t>
+  </si>
+  <si>
     <t>transp_date_1</t>
   </si>
   <si>
-    <t>2024-04-13</t>
+    <t>2024-04-12</t>
+  </si>
+  <si>
+    <t>2024-04-24</t>
+  </si>
+  <si>
+    <t>2024-04-27</t>
   </si>
   <si>
     <t>transp_med_1</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>4.5.d</t>
   </si>
   <si>
     <t>transp_no_srt_1</t>
@@ -736,7 +781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FN33"/>
+  <dimension ref="A1:FN43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -747,511 +792,511 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="O1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="P1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="Q1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="R1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="S1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="T1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="U1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="V1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="W1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="X1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="Y1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Z1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AA1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AB1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AC1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="AD1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AE1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="AF1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AG1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AH1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="AI1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AJ1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="AK1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="AL1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="AM1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="AN1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AO1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AP1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AQ1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="AR1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="AS1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="AT1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AU1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="AV1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AW1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="AX1" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="AY1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AZ1" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="BA1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="BB1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BC1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="BD1" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="BE1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="BF1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="BG1" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="BH1" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="BI1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="BJ1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="BK1" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="BL1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="BM1" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="BN1" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="BO1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="BP1" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="BQ1" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="BR1" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="BS1" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="BT1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BU1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="BV1" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="BW1" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="BX1" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="BY1" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="BZ1" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="CA1" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="CB1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="CC1" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="CD1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="CE1" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="CF1" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="CG1" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="CH1" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="CI1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="CJ1" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="CK1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="CL1" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="CM1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="CN1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="CO1" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="CP1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="CQ1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="CR1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="CS1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="CT1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="CU1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="CV1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="CW1" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="CX1" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="CY1" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="CZ1" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="DA1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="DB1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="DC1" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="DD1" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="DE1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="DF1" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="DG1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="DH1" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="DI1" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="DJ1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="DK1" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="DL1" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="DM1" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="DN1" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="DO1" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="DP1" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="DQ1" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="DR1" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="DS1" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="DT1" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="DU1" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="DV1" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="DW1" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="DX1" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="DY1" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="DZ1" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="EA1" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="EB1" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="EC1" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="ED1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="EE1" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="EF1" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="EG1" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="EH1" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="EI1" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="EJ1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="EK1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="EL1" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="EM1" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="EN1" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="EO1" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="EP1" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="EQ1" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="ER1" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="ES1" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="ET1" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="EU1" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="EV1" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="EW1" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="EX1" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="EY1" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="EZ1" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="FA1" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="FB1" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="FC1" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="FD1" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="FE1" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="FF1" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="FG1" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="FH1" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="FI1" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="FJ1" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="FK1" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="FL1" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="FM1" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="FN1" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2">
@@ -1259,13 +1304,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
@@ -1282,67 +1327,73 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="Q2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="V2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="W2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="X2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Z2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AA2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>58</v>
+      </c>
       <c r="AG2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH2" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>58</v>
+      </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
@@ -1485,13 +1536,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1">
         <v>50</v>
@@ -1512,70 +1563,74 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
         <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="X3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Y3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Z3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AA3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>58</v>
+      </c>
       <c r="AG3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>3.25</v>
+        <v>96</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>100</v>
       </c>
       <c r="AI3" s="1">
         <v>8</v>
@@ -1721,13 +1776,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1">
         <v>50</v>
@@ -1748,70 +1803,74 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
         <v>16</v>
       </c>
       <c r="N4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="X4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Y4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Z4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AA4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>58</v>
+      </c>
       <c r="AG4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>3.25</v>
+        <v>96</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>100</v>
       </c>
       <c r="AI4" s="1">
         <v>1</v>
@@ -1957,13 +2016,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1">
         <v>50</v>
@@ -1984,70 +2043,74 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
         <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="X5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Y5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Z5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AA5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>94</v>
+      </c>
       <c r="AG5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>3.25</v>
+        <v>96</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>100</v>
       </c>
       <c r="AI5" s="1">
         <v>19</v>
@@ -2193,13 +2256,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
@@ -2220,70 +2283,74 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
         <v>16</v>
       </c>
       <c r="N6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="X6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Y6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Z6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AA6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>94</v>
+      </c>
       <c r="AG6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>3.25</v>
+        <v>96</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>100</v>
       </c>
       <c r="AI6" s="1">
         <v>18</v>
@@ -2429,13 +2496,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
@@ -2456,70 +2523,74 @@
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
         <v>16</v>
       </c>
       <c r="N7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="X7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Y7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Z7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AA7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>94</v>
+      </c>
       <c r="AG7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>3.25</v>
+        <v>96</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>100</v>
       </c>
       <c r="AI7" s="1">
         <v>20</v>
@@ -2665,13 +2736,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -2692,70 +2763,74 @@
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
         <v>16</v>
       </c>
       <c r="N8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="X8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Y8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Z8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AA8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>94</v>
+      </c>
       <c r="AG8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>3.25</v>
+        <v>96</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>100</v>
       </c>
       <c r="AI8" s="1">
         <v>20</v>
@@ -2901,13 +2976,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1">
         <v>32</v>
@@ -2928,7 +3003,7 @@
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L9" s="1">
         <v>73</v>
@@ -2937,63 +3012,71 @@
         <v>16</v>
       </c>
       <c r="N9" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R9" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z9" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD9" t="s">
         <v>77</v>
       </c>
-      <c r="AB9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
+      <c r="AE9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>58</v>
+      </c>
       <c r="AG9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>16</v>
+      </c>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
@@ -3135,13 +3218,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1">
         <v>32</v>
@@ -3162,7 +3245,7 @@
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L10" s="1">
         <v>73</v>
@@ -3171,63 +3254,71 @@
         <v>16</v>
       </c>
       <c r="N10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R10" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD10" t="s">
         <v>77</v>
       </c>
-      <c r="AB10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
+      <c r="AE10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>58</v>
+      </c>
       <c r="AG10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>12</v>
+      </c>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
@@ -3369,13 +3460,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1">
         <v>32</v>
@@ -3396,7 +3487,7 @@
         <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L11" s="1">
         <v>73</v>
@@ -3405,63 +3496,71 @@
         <v>16</v>
       </c>
       <c r="N11" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R11" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD11" t="s">
         <v>77</v>
       </c>
-      <c r="AB11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
+      <c r="AE11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>58</v>
+      </c>
       <c r="AG11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>3</v>
+      </c>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
@@ -3603,13 +3702,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1">
         <v>32</v>
@@ -3630,7 +3729,7 @@
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L12" s="1">
         <v>73</v>
@@ -3639,63 +3738,71 @@
         <v>16</v>
       </c>
       <c r="N12" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P12" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q12" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R12" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T12" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U12" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X12" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y12" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD12" t="s">
         <v>77</v>
       </c>
-      <c r="AB12" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
+      <c r="AE12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>58</v>
+      </c>
       <c r="AG12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>4</v>
+      </c>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
@@ -3837,13 +3944,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1">
         <v>32</v>
@@ -3864,7 +3971,7 @@
         <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L13" s="1">
         <v>73</v>
@@ -3873,63 +3980,71 @@
         <v>16</v>
       </c>
       <c r="N13" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q13" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R13" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U13" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y13" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD13" t="s">
         <v>77</v>
       </c>
-      <c r="AB13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
+      <c r="AE13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>58</v>
+      </c>
       <c r="AG13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>25</v>
+      </c>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
@@ -4071,13 +4186,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1">
         <v>32</v>
@@ -4098,7 +4213,7 @@
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L14" s="1">
         <v>73</v>
@@ -4107,63 +4222,71 @@
         <v>16</v>
       </c>
       <c r="N14" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q14" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R14" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U14" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V14" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y14" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z14" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD14" t="s">
         <v>77</v>
       </c>
-      <c r="AB14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
+      <c r="AE14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>58</v>
+      </c>
       <c r="AG14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>5</v>
+      </c>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
@@ -4305,13 +4428,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1">
         <v>32</v>
@@ -4332,7 +4455,7 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L15" s="1">
         <v>73</v>
@@ -4341,63 +4464,71 @@
         <v>16</v>
       </c>
       <c r="N15" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P15" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R15" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T15" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X15" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z15" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD15" t="s">
         <v>77</v>
       </c>
-      <c r="AB15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
+      <c r="AE15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>58</v>
+      </c>
       <c r="AG15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>3</v>
+      </c>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
@@ -4539,13 +4670,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1">
         <v>32</v>
@@ -4566,7 +4697,7 @@
         <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L16" s="1">
         <v>73</v>
@@ -4575,63 +4706,71 @@
         <v>16</v>
       </c>
       <c r="N16" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="s">
         <v>77</v>
       </c>
-      <c r="AB16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
+      <c r="AE16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>58</v>
+      </c>
       <c r="AG16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>6</v>
+      </c>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
@@ -4773,13 +4912,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1">
         <v>32</v>
@@ -4800,7 +4939,7 @@
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L17" s="1">
         <v>73</v>
@@ -4809,63 +4948,71 @@
         <v>16</v>
       </c>
       <c r="N17" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P17" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q17" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R17" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T17" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U17" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y17" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s">
         <v>77</v>
       </c>
-      <c r="AB17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
+      <c r="AE17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>58</v>
+      </c>
       <c r="AG17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>2</v>
+      </c>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
@@ -5007,13 +5154,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1">
         <v>32</v>
@@ -5034,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L18" s="1">
         <v>73</v>
@@ -5043,63 +5190,71 @@
         <v>16</v>
       </c>
       <c r="N18" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P18" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q18" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R18" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T18" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U18" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y18" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD18" t="s">
         <v>77</v>
       </c>
-      <c r="AB18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
+      <c r="AE18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>58</v>
+      </c>
       <c r="AG18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>1</v>
+      </c>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
@@ -5241,13 +5396,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1">
         <v>32</v>
@@ -5268,7 +5423,7 @@
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L19" s="1">
         <v>73</v>
@@ -5277,63 +5432,71 @@
         <v>16</v>
       </c>
       <c r="N19" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q19" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R19" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U19" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V19" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y19" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD19" t="s">
         <v>77</v>
       </c>
-      <c r="AB19" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
+      <c r="AE19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>58</v>
+      </c>
       <c r="AG19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>2</v>
+      </c>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
@@ -5475,13 +5638,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1">
         <v>32</v>
@@ -5502,7 +5665,7 @@
         <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L20" s="1">
         <v>73</v>
@@ -5511,63 +5674,71 @@
         <v>16</v>
       </c>
       <c r="N20" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P20" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q20" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R20" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T20" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U20" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V20" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y20" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD20" t="s">
         <v>77</v>
       </c>
-      <c r="AB20" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
+      <c r="AE20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>58</v>
+      </c>
       <c r="AG20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>3</v>
+      </c>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
@@ -5709,13 +5880,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1">
         <v>32</v>
@@ -5736,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L21" s="1">
         <v>75</v>
@@ -5745,63 +5916,71 @@
         <v>16</v>
       </c>
       <c r="N21" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O21" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P21" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q21" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R21" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T21" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U21" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V21" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s">
+        <v>84</v>
+      </c>
+      <c r="X21" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z21" t="s">
         <v>77</v>
       </c>
-      <c r="X21" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>70</v>
-      </c>
       <c r="AA21" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB21" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC21" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>58</v>
+      </c>
       <c r="AG21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>16</v>
+      </c>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
@@ -5943,13 +6122,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1">
         <v>32</v>
@@ -5970,7 +6149,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L22" s="1">
         <v>75</v>
@@ -5979,63 +6158,71 @@
         <v>16</v>
       </c>
       <c r="N22" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P22" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q22" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R22" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U22" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V22" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s">
+        <v>84</v>
+      </c>
+      <c r="X22" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z22" t="s">
         <v>77</v>
       </c>
-      <c r="X22" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>70</v>
-      </c>
       <c r="AA22" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB22" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC22" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD22" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>58</v>
+      </c>
       <c r="AG22" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>16</v>
+      </c>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
@@ -6177,13 +6364,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E23" s="1">
         <v>32</v>
@@ -6204,7 +6391,7 @@
         <v>2</v>
       </c>
       <c r="K23" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L23" s="1">
         <v>75</v>
@@ -6213,63 +6400,71 @@
         <v>16</v>
       </c>
       <c r="N23" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P23" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q23" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R23" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U23" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V23" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s">
+        <v>84</v>
+      </c>
+      <c r="X23" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z23" t="s">
         <v>77</v>
       </c>
-      <c r="X23" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>70</v>
-      </c>
       <c r="AA23" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB23" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC23" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>58</v>
+      </c>
       <c r="AG23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>12</v>
+      </c>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
@@ -6411,13 +6606,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E24" s="1">
         <v>32</v>
@@ -6438,7 +6633,7 @@
         <v>2</v>
       </c>
       <c r="K24" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L24" s="1">
         <v>75</v>
@@ -6447,63 +6642,71 @@
         <v>16</v>
       </c>
       <c r="N24" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O24" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P24" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q24" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R24" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U24" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V24" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s">
+        <v>84</v>
+      </c>
+      <c r="X24" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z24" t="s">
         <v>77</v>
       </c>
-      <c r="X24" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>70</v>
-      </c>
       <c r="AA24" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB24" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC24" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD24" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>58</v>
+      </c>
       <c r="AG24" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>13</v>
+      </c>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
@@ -6645,13 +6848,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E25" s="1">
         <v>32</v>
@@ -6672,7 +6875,7 @@
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L25" s="1">
         <v>75</v>
@@ -6681,63 +6884,71 @@
         <v>16</v>
       </c>
       <c r="N25" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P25" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q25" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R25" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U25" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V25" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s">
+        <v>84</v>
+      </c>
+      <c r="X25" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z25" t="s">
         <v>77</v>
       </c>
-      <c r="X25" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>70</v>
-      </c>
       <c r="AA25" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB25" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC25" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD25" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>58</v>
+      </c>
       <c r="AG25" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>8</v>
+      </c>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
@@ -6879,13 +7090,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E26" s="1">
         <v>50</v>
@@ -6906,7 +7117,7 @@
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L26" s="1">
         <v>72</v>
@@ -6915,63 +7126,71 @@
         <v>16</v>
       </c>
       <c r="N26" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O26" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P26" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q26" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R26" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U26" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V26" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s">
+        <v>84</v>
+      </c>
+      <c r="X26" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z26" t="s">
         <v>77</v>
       </c>
-      <c r="X26" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>70</v>
-      </c>
       <c r="AA26" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB26" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC26" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD26" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>58</v>
+      </c>
       <c r="AG26" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>21</v>
+      </c>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
@@ -7113,13 +7332,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E27" s="1">
         <v>50</v>
@@ -7140,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L27" s="1">
         <v>72</v>
@@ -7149,63 +7368,71 @@
         <v>16</v>
       </c>
       <c r="N27" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P27" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q27" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R27" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U27" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V27" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s">
+        <v>84</v>
+      </c>
+      <c r="X27" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z27" t="s">
         <v>77</v>
       </c>
-      <c r="X27" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>70</v>
-      </c>
       <c r="AA27" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB27" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC27" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>58</v>
+      </c>
       <c r="AG27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>3</v>
+      </c>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
@@ -7347,13 +7574,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
@@ -7374,7 +7601,7 @@
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L28" s="1">
         <v>72</v>
@@ -7383,63 +7610,71 @@
         <v>16</v>
       </c>
       <c r="N28" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O28" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P28" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q28" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R28" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U28" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V28" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W28" t="s">
+        <v>84</v>
+      </c>
+      <c r="X28" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z28" t="s">
         <v>77</v>
       </c>
-      <c r="X28" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>70</v>
-      </c>
       <c r="AA28" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB28" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC28" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD28" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>58</v>
+      </c>
       <c r="AG28" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>3</v>
+      </c>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
@@ -7581,13 +7816,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E29" s="1">
         <v>50</v>
@@ -7608,7 +7843,7 @@
         <v>3</v>
       </c>
       <c r="K29" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L29" s="1">
         <v>72</v>
@@ -7617,63 +7852,71 @@
         <v>16</v>
       </c>
       <c r="N29" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O29" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P29" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q29" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R29" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U29" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V29" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s">
+        <v>84</v>
+      </c>
+      <c r="X29" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z29" t="s">
         <v>77</v>
       </c>
-      <c r="X29" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>70</v>
-      </c>
       <c r="AA29" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB29" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC29" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD29" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>58</v>
+      </c>
       <c r="AG29" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>6</v>
+      </c>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
@@ -7815,13 +8058,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E30" s="1">
         <v>50</v>
@@ -7842,7 +8085,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L30" s="1">
         <v>72</v>
@@ -7851,63 +8094,71 @@
         <v>16</v>
       </c>
       <c r="N30" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O30" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P30" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q30" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R30" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T30" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U30" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V30" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W30" t="s">
+        <v>84</v>
+      </c>
+      <c r="X30" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z30" t="s">
         <v>77</v>
       </c>
-      <c r="X30" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>70</v>
-      </c>
       <c r="AA30" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB30" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC30" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>58</v>
+      </c>
       <c r="AG30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>12</v>
+      </c>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
@@ -8049,13 +8300,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E31" s="1">
         <v>50</v>
@@ -8076,7 +8327,7 @@
         <v>3</v>
       </c>
       <c r="K31" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L31" s="1">
         <v>72</v>
@@ -8085,63 +8336,71 @@
         <v>16</v>
       </c>
       <c r="N31" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P31" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q31" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R31" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U31" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V31" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s">
+        <v>84</v>
+      </c>
+      <c r="X31" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z31" t="s">
         <v>77</v>
       </c>
-      <c r="X31" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>70</v>
-      </c>
       <c r="AA31" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB31" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC31" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD31" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>58</v>
+      </c>
       <c r="AG31" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>15</v>
+      </c>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
@@ -8283,13 +8542,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E32" s="1">
         <v>50</v>
@@ -8310,7 +8569,7 @@
         <v>3</v>
       </c>
       <c r="K32" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L32" s="1">
         <v>72</v>
@@ -8319,63 +8578,71 @@
         <v>16</v>
       </c>
       <c r="N32" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O32" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P32" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q32" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R32" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U32" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V32" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s">
+        <v>84</v>
+      </c>
+      <c r="X32" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z32" t="s">
         <v>77</v>
       </c>
-      <c r="X32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>70</v>
-      </c>
       <c r="AA32" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB32" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC32" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD32" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>58</v>
+      </c>
       <c r="AG32" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>11</v>
+      </c>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
@@ -8517,13 +8784,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E33" s="1">
         <v>50</v>
@@ -8544,7 +8811,7 @@
         <v>3</v>
       </c>
       <c r="K33" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L33" s="1">
         <v>72</v>
@@ -8553,63 +8820,71 @@
         <v>16</v>
       </c>
       <c r="N33" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O33" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P33" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q33" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R33" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U33" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V33" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W33" t="s">
+        <v>84</v>
+      </c>
+      <c r="X33" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z33" t="s">
         <v>77</v>
       </c>
-      <c r="X33" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>70</v>
-      </c>
       <c r="AA33" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB33" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC33" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD33" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>58</v>
+      </c>
       <c r="AG33" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>15</v>
+      </c>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
@@ -8746,6 +9021,2306 @@
       <c r="FM33" s="1"/>
       <c r="FN33" s="1"/>
     </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>96</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" t="s">
+        <v>58</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" t="s">
+        <v>58</v>
+      </c>
+      <c r="O34" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>58</v>
+      </c>
+      <c r="R34" t="s">
+        <v>58</v>
+      </c>
+      <c r="S34" t="s">
+        <v>58</v>
+      </c>
+      <c r="T34" t="s">
+        <v>58</v>
+      </c>
+      <c r="U34" t="s">
+        <v>58</v>
+      </c>
+      <c r="V34" t="s">
+        <v>58</v>
+      </c>
+      <c r="W34" t="s">
+        <v>58</v>
+      </c>
+      <c r="X34" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+      <c r="BT34" s="1"/>
+      <c r="BU34" s="1"/>
+      <c r="BV34" s="1"/>
+      <c r="BW34" s="1"/>
+      <c r="BX34" s="1"/>
+      <c r="BY34" s="1"/>
+      <c r="BZ34" s="1"/>
+      <c r="CA34" s="1"/>
+      <c r="CB34" s="1"/>
+      <c r="CC34" s="1"/>
+      <c r="CD34" s="1"/>
+      <c r="CE34" s="1"/>
+      <c r="CF34" s="1"/>
+      <c r="CG34" s="1"/>
+      <c r="CH34" s="1"/>
+      <c r="CI34" s="1"/>
+      <c r="CJ34" s="1"/>
+      <c r="CK34" s="1"/>
+      <c r="CL34" s="1"/>
+      <c r="CM34" s="1"/>
+      <c r="CN34" s="1"/>
+      <c r="CO34" s="1"/>
+      <c r="CP34" s="1"/>
+      <c r="CQ34" s="1"/>
+      <c r="CR34" s="1"/>
+      <c r="CS34" s="1"/>
+      <c r="CT34" s="1"/>
+      <c r="CU34" s="1"/>
+      <c r="CV34" s="1"/>
+      <c r="CW34" s="1"/>
+      <c r="CX34" s="1"/>
+      <c r="CY34" s="1"/>
+      <c r="CZ34" s="1"/>
+      <c r="DA34" s="1"/>
+      <c r="DB34" s="1"/>
+      <c r="DC34" s="1"/>
+      <c r="DD34" s="1"/>
+      <c r="DE34" s="1"/>
+      <c r="DF34" s="1"/>
+      <c r="DG34" s="1"/>
+      <c r="DH34" s="1"/>
+      <c r="DI34" s="1"/>
+      <c r="DJ34" s="1"/>
+      <c r="DK34" s="1"/>
+      <c r="DL34" s="1"/>
+      <c r="DM34" s="1"/>
+      <c r="DN34" s="1"/>
+      <c r="DO34" s="1"/>
+      <c r="DP34" s="1"/>
+      <c r="DQ34" s="1"/>
+      <c r="DR34" s="1"/>
+      <c r="DS34" s="1"/>
+      <c r="DT34" s="1"/>
+      <c r="DU34" s="1"/>
+      <c r="DV34" s="1"/>
+      <c r="DW34" s="1"/>
+      <c r="DX34" s="1"/>
+      <c r="DY34" s="1"/>
+      <c r="DZ34" s="1"/>
+      <c r="EA34" s="1"/>
+      <c r="EB34" s="1"/>
+      <c r="EC34" s="1"/>
+      <c r="ED34" s="1"/>
+      <c r="EE34" s="1"/>
+      <c r="EF34" s="1"/>
+      <c r="EG34" s="1"/>
+      <c r="EH34" s="1"/>
+      <c r="EI34" s="1"/>
+      <c r="EJ34" s="1"/>
+      <c r="EK34" s="1"/>
+      <c r="EL34" s="1"/>
+      <c r="EM34" s="1"/>
+      <c r="EN34" s="1"/>
+      <c r="EO34" s="1"/>
+      <c r="EP34" s="1"/>
+      <c r="EQ34" s="1"/>
+      <c r="ER34" s="1"/>
+      <c r="ES34" s="1"/>
+      <c r="ET34" s="1"/>
+      <c r="EU34" s="1"/>
+      <c r="EV34" s="1"/>
+      <c r="EW34" s="1"/>
+      <c r="EX34" s="1"/>
+      <c r="EY34" s="1"/>
+      <c r="EZ34" s="1"/>
+      <c r="FA34" s="1"/>
+      <c r="FB34" s="1"/>
+      <c r="FC34" s="1"/>
+      <c r="FD34" s="1"/>
+      <c r="FE34" s="1"/>
+      <c r="FF34" s="1"/>
+      <c r="FG34" s="1"/>
+      <c r="FH34" s="1"/>
+      <c r="FI34" s="1"/>
+      <c r="FJ34" s="1"/>
+      <c r="FK34" s="1"/>
+      <c r="FL34" s="1"/>
+      <c r="FM34" s="1"/>
+      <c r="FN34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>96</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" t="s">
+        <v>58</v>
+      </c>
+      <c r="O35" t="s">
+        <v>58</v>
+      </c>
+      <c r="P35" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>58</v>
+      </c>
+      <c r="R35" t="s">
+        <v>58</v>
+      </c>
+      <c r="S35" t="s">
+        <v>58</v>
+      </c>
+      <c r="T35" t="s">
+        <v>58</v>
+      </c>
+      <c r="U35" t="s">
+        <v>58</v>
+      </c>
+      <c r="V35" t="s">
+        <v>58</v>
+      </c>
+      <c r="W35" t="s">
+        <v>58</v>
+      </c>
+      <c r="X35" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="1"/>
+      <c r="BM35" s="1"/>
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="1"/>
+      <c r="BT35" s="1"/>
+      <c r="BU35" s="1"/>
+      <c r="BV35" s="1"/>
+      <c r="BW35" s="1"/>
+      <c r="BX35" s="1"/>
+      <c r="BY35" s="1"/>
+      <c r="BZ35" s="1"/>
+      <c r="CA35" s="1"/>
+      <c r="CB35" s="1"/>
+      <c r="CC35" s="1"/>
+      <c r="CD35" s="1"/>
+      <c r="CE35" s="1"/>
+      <c r="CF35" s="1"/>
+      <c r="CG35" s="1"/>
+      <c r="CH35" s="1"/>
+      <c r="CI35" s="1"/>
+      <c r="CJ35" s="1"/>
+      <c r="CK35" s="1"/>
+      <c r="CL35" s="1"/>
+      <c r="CM35" s="1"/>
+      <c r="CN35" s="1"/>
+      <c r="CO35" s="1"/>
+      <c r="CP35" s="1"/>
+      <c r="CQ35" s="1"/>
+      <c r="CR35" s="1"/>
+      <c r="CS35" s="1"/>
+      <c r="CT35" s="1"/>
+      <c r="CU35" s="1"/>
+      <c r="CV35" s="1"/>
+      <c r="CW35" s="1"/>
+      <c r="CX35" s="1"/>
+      <c r="CY35" s="1"/>
+      <c r="CZ35" s="1"/>
+      <c r="DA35" s="1"/>
+      <c r="DB35" s="1"/>
+      <c r="DC35" s="1"/>
+      <c r="DD35" s="1"/>
+      <c r="DE35" s="1"/>
+      <c r="DF35" s="1"/>
+      <c r="DG35" s="1"/>
+      <c r="DH35" s="1"/>
+      <c r="DI35" s="1"/>
+      <c r="DJ35" s="1"/>
+      <c r="DK35" s="1"/>
+      <c r="DL35" s="1"/>
+      <c r="DM35" s="1"/>
+      <c r="DN35" s="1"/>
+      <c r="DO35" s="1"/>
+      <c r="DP35" s="1"/>
+      <c r="DQ35" s="1"/>
+      <c r="DR35" s="1"/>
+      <c r="DS35" s="1"/>
+      <c r="DT35" s="1"/>
+      <c r="DU35" s="1"/>
+      <c r="DV35" s="1"/>
+      <c r="DW35" s="1"/>
+      <c r="DX35" s="1"/>
+      <c r="DY35" s="1"/>
+      <c r="DZ35" s="1"/>
+      <c r="EA35" s="1"/>
+      <c r="EB35" s="1"/>
+      <c r="EC35" s="1"/>
+      <c r="ED35" s="1"/>
+      <c r="EE35" s="1"/>
+      <c r="EF35" s="1"/>
+      <c r="EG35" s="1"/>
+      <c r="EH35" s="1"/>
+      <c r="EI35" s="1"/>
+      <c r="EJ35" s="1"/>
+      <c r="EK35" s="1"/>
+      <c r="EL35" s="1"/>
+      <c r="EM35" s="1"/>
+      <c r="EN35" s="1"/>
+      <c r="EO35" s="1"/>
+      <c r="EP35" s="1"/>
+      <c r="EQ35" s="1"/>
+      <c r="ER35" s="1"/>
+      <c r="ES35" s="1"/>
+      <c r="ET35" s="1"/>
+      <c r="EU35" s="1"/>
+      <c r="EV35" s="1"/>
+      <c r="EW35" s="1"/>
+      <c r="EX35" s="1"/>
+      <c r="EY35" s="1"/>
+      <c r="EZ35" s="1"/>
+      <c r="FA35" s="1"/>
+      <c r="FB35" s="1"/>
+      <c r="FC35" s="1"/>
+      <c r="FD35" s="1"/>
+      <c r="FE35" s="1"/>
+      <c r="FF35" s="1"/>
+      <c r="FG35" s="1"/>
+      <c r="FH35" s="1"/>
+      <c r="FI35" s="1"/>
+      <c r="FJ35" s="1"/>
+      <c r="FK35" s="1"/>
+      <c r="FL35" s="1"/>
+      <c r="FM35" s="1"/>
+      <c r="FN35" s="1"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.16666666669999999</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>96</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" t="s">
+        <v>58</v>
+      </c>
+      <c r="O36" t="s">
+        <v>58</v>
+      </c>
+      <c r="P36" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>58</v>
+      </c>
+      <c r="R36" t="s">
+        <v>58</v>
+      </c>
+      <c r="S36" t="s">
+        <v>58</v>
+      </c>
+      <c r="T36" t="s">
+        <v>58</v>
+      </c>
+      <c r="U36" t="s">
+        <v>58</v>
+      </c>
+      <c r="V36" t="s">
+        <v>58</v>
+      </c>
+      <c r="W36" t="s">
+        <v>58</v>
+      </c>
+      <c r="X36" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="1"/>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="1"/>
+      <c r="BM36" s="1"/>
+      <c r="BN36" s="1"/>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="1"/>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="1"/>
+      <c r="BT36" s="1"/>
+      <c r="BU36" s="1"/>
+      <c r="BV36" s="1"/>
+      <c r="BW36" s="1"/>
+      <c r="BX36" s="1"/>
+      <c r="BY36" s="1"/>
+      <c r="BZ36" s="1"/>
+      <c r="CA36" s="1"/>
+      <c r="CB36" s="1"/>
+      <c r="CC36" s="1"/>
+      <c r="CD36" s="1"/>
+      <c r="CE36" s="1"/>
+      <c r="CF36" s="1"/>
+      <c r="CG36" s="1"/>
+      <c r="CH36" s="1"/>
+      <c r="CI36" s="1"/>
+      <c r="CJ36" s="1"/>
+      <c r="CK36" s="1"/>
+      <c r="CL36" s="1"/>
+      <c r="CM36" s="1"/>
+      <c r="CN36" s="1"/>
+      <c r="CO36" s="1"/>
+      <c r="CP36" s="1"/>
+      <c r="CQ36" s="1"/>
+      <c r="CR36" s="1"/>
+      <c r="CS36" s="1"/>
+      <c r="CT36" s="1"/>
+      <c r="CU36" s="1"/>
+      <c r="CV36" s="1"/>
+      <c r="CW36" s="1"/>
+      <c r="CX36" s="1"/>
+      <c r="CY36" s="1"/>
+      <c r="CZ36" s="1"/>
+      <c r="DA36" s="1"/>
+      <c r="DB36" s="1"/>
+      <c r="DC36" s="1"/>
+      <c r="DD36" s="1"/>
+      <c r="DE36" s="1"/>
+      <c r="DF36" s="1"/>
+      <c r="DG36" s="1"/>
+      <c r="DH36" s="1"/>
+      <c r="DI36" s="1"/>
+      <c r="DJ36" s="1"/>
+      <c r="DK36" s="1"/>
+      <c r="DL36" s="1"/>
+      <c r="DM36" s="1"/>
+      <c r="DN36" s="1"/>
+      <c r="DO36" s="1"/>
+      <c r="DP36" s="1"/>
+      <c r="DQ36" s="1"/>
+      <c r="DR36" s="1"/>
+      <c r="DS36" s="1"/>
+      <c r="DT36" s="1"/>
+      <c r="DU36" s="1"/>
+      <c r="DV36" s="1"/>
+      <c r="DW36" s="1"/>
+      <c r="DX36" s="1"/>
+      <c r="DY36" s="1"/>
+      <c r="DZ36" s="1"/>
+      <c r="EA36" s="1"/>
+      <c r="EB36" s="1"/>
+      <c r="EC36" s="1"/>
+      <c r="ED36" s="1"/>
+      <c r="EE36" s="1"/>
+      <c r="EF36" s="1"/>
+      <c r="EG36" s="1"/>
+      <c r="EH36" s="1"/>
+      <c r="EI36" s="1"/>
+      <c r="EJ36" s="1"/>
+      <c r="EK36" s="1"/>
+      <c r="EL36" s="1"/>
+      <c r="EM36" s="1"/>
+      <c r="EN36" s="1"/>
+      <c r="EO36" s="1"/>
+      <c r="EP36" s="1"/>
+      <c r="EQ36" s="1"/>
+      <c r="ER36" s="1"/>
+      <c r="ES36" s="1"/>
+      <c r="ET36" s="1"/>
+      <c r="EU36" s="1"/>
+      <c r="EV36" s="1"/>
+      <c r="EW36" s="1"/>
+      <c r="EX36" s="1"/>
+      <c r="EY36" s="1"/>
+      <c r="EZ36" s="1"/>
+      <c r="FA36" s="1"/>
+      <c r="FB36" s="1"/>
+      <c r="FC36" s="1"/>
+      <c r="FD36" s="1"/>
+      <c r="FE36" s="1"/>
+      <c r="FF36" s="1"/>
+      <c r="FG36" s="1"/>
+      <c r="FH36" s="1"/>
+      <c r="FI36" s="1"/>
+      <c r="FJ36" s="1"/>
+      <c r="FK36" s="1"/>
+      <c r="FL36" s="1"/>
+      <c r="FM36" s="1"/>
+      <c r="FN36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>96</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" t="s">
+        <v>58</v>
+      </c>
+      <c r="O37" t="s">
+        <v>58</v>
+      </c>
+      <c r="P37" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>58</v>
+      </c>
+      <c r="R37" t="s">
+        <v>58</v>
+      </c>
+      <c r="S37" t="s">
+        <v>58</v>
+      </c>
+      <c r="T37" t="s">
+        <v>58</v>
+      </c>
+      <c r="U37" t="s">
+        <v>58</v>
+      </c>
+      <c r="V37" t="s">
+        <v>58</v>
+      </c>
+      <c r="W37" t="s">
+        <v>58</v>
+      </c>
+      <c r="X37" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
+      <c r="BI37" s="1"/>
+      <c r="BJ37" s="1"/>
+      <c r="BK37" s="1"/>
+      <c r="BL37" s="1"/>
+      <c r="BM37" s="1"/>
+      <c r="BN37" s="1"/>
+      <c r="BO37" s="1"/>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="1"/>
+      <c r="BR37" s="1"/>
+      <c r="BS37" s="1"/>
+      <c r="BT37" s="1"/>
+      <c r="BU37" s="1"/>
+      <c r="BV37" s="1"/>
+      <c r="BW37" s="1"/>
+      <c r="BX37" s="1"/>
+      <c r="BY37" s="1"/>
+      <c r="BZ37" s="1"/>
+      <c r="CA37" s="1"/>
+      <c r="CB37" s="1"/>
+      <c r="CC37" s="1"/>
+      <c r="CD37" s="1"/>
+      <c r="CE37" s="1"/>
+      <c r="CF37" s="1"/>
+      <c r="CG37" s="1"/>
+      <c r="CH37" s="1"/>
+      <c r="CI37" s="1"/>
+      <c r="CJ37" s="1"/>
+      <c r="CK37" s="1"/>
+      <c r="CL37" s="1"/>
+      <c r="CM37" s="1"/>
+      <c r="CN37" s="1"/>
+      <c r="CO37" s="1"/>
+      <c r="CP37" s="1"/>
+      <c r="CQ37" s="1"/>
+      <c r="CR37" s="1"/>
+      <c r="CS37" s="1"/>
+      <c r="CT37" s="1"/>
+      <c r="CU37" s="1"/>
+      <c r="CV37" s="1"/>
+      <c r="CW37" s="1"/>
+      <c r="CX37" s="1"/>
+      <c r="CY37" s="1"/>
+      <c r="CZ37" s="1"/>
+      <c r="DA37" s="1"/>
+      <c r="DB37" s="1"/>
+      <c r="DC37" s="1"/>
+      <c r="DD37" s="1"/>
+      <c r="DE37" s="1"/>
+      <c r="DF37" s="1"/>
+      <c r="DG37" s="1"/>
+      <c r="DH37" s="1"/>
+      <c r="DI37" s="1"/>
+      <c r="DJ37" s="1"/>
+      <c r="DK37" s="1"/>
+      <c r="DL37" s="1"/>
+      <c r="DM37" s="1"/>
+      <c r="DN37" s="1"/>
+      <c r="DO37" s="1"/>
+      <c r="DP37" s="1"/>
+      <c r="DQ37" s="1"/>
+      <c r="DR37" s="1"/>
+      <c r="DS37" s="1"/>
+      <c r="DT37" s="1"/>
+      <c r="DU37" s="1"/>
+      <c r="DV37" s="1"/>
+      <c r="DW37" s="1"/>
+      <c r="DX37" s="1"/>
+      <c r="DY37" s="1"/>
+      <c r="DZ37" s="1"/>
+      <c r="EA37" s="1"/>
+      <c r="EB37" s="1"/>
+      <c r="EC37" s="1"/>
+      <c r="ED37" s="1"/>
+      <c r="EE37" s="1"/>
+      <c r="EF37" s="1"/>
+      <c r="EG37" s="1"/>
+      <c r="EH37" s="1"/>
+      <c r="EI37" s="1"/>
+      <c r="EJ37" s="1"/>
+      <c r="EK37" s="1"/>
+      <c r="EL37" s="1"/>
+      <c r="EM37" s="1"/>
+      <c r="EN37" s="1"/>
+      <c r="EO37" s="1"/>
+      <c r="EP37" s="1"/>
+      <c r="EQ37" s="1"/>
+      <c r="ER37" s="1"/>
+      <c r="ES37" s="1"/>
+      <c r="ET37" s="1"/>
+      <c r="EU37" s="1"/>
+      <c r="EV37" s="1"/>
+      <c r="EW37" s="1"/>
+      <c r="EX37" s="1"/>
+      <c r="EY37" s="1"/>
+      <c r="EZ37" s="1"/>
+      <c r="FA37" s="1"/>
+      <c r="FB37" s="1"/>
+      <c r="FC37" s="1"/>
+      <c r="FD37" s="1"/>
+      <c r="FE37" s="1"/>
+      <c r="FF37" s="1"/>
+      <c r="FG37" s="1"/>
+      <c r="FH37" s="1"/>
+      <c r="FI37" s="1"/>
+      <c r="FJ37" s="1"/>
+      <c r="FK37" s="1"/>
+      <c r="FL37" s="1"/>
+      <c r="FM37" s="1"/>
+      <c r="FN37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>96</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" t="s">
+        <v>58</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" t="s">
+        <v>58</v>
+      </c>
+      <c r="O38" t="s">
+        <v>58</v>
+      </c>
+      <c r="P38" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>58</v>
+      </c>
+      <c r="R38" t="s">
+        <v>58</v>
+      </c>
+      <c r="S38" t="s">
+        <v>58</v>
+      </c>
+      <c r="T38" t="s">
+        <v>58</v>
+      </c>
+      <c r="U38" t="s">
+        <v>58</v>
+      </c>
+      <c r="V38" t="s">
+        <v>58</v>
+      </c>
+      <c r="W38" t="s">
+        <v>58</v>
+      </c>
+      <c r="X38" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="1"/>
+      <c r="BK38" s="1"/>
+      <c r="BL38" s="1"/>
+      <c r="BM38" s="1"/>
+      <c r="BN38" s="1"/>
+      <c r="BO38" s="1"/>
+      <c r="BP38" s="1"/>
+      <c r="BQ38" s="1"/>
+      <c r="BR38" s="1"/>
+      <c r="BS38" s="1"/>
+      <c r="BT38" s="1"/>
+      <c r="BU38" s="1"/>
+      <c r="BV38" s="1"/>
+      <c r="BW38" s="1"/>
+      <c r="BX38" s="1"/>
+      <c r="BY38" s="1"/>
+      <c r="BZ38" s="1"/>
+      <c r="CA38" s="1"/>
+      <c r="CB38" s="1"/>
+      <c r="CC38" s="1"/>
+      <c r="CD38" s="1"/>
+      <c r="CE38" s="1"/>
+      <c r="CF38" s="1"/>
+      <c r="CG38" s="1"/>
+      <c r="CH38" s="1"/>
+      <c r="CI38" s="1"/>
+      <c r="CJ38" s="1"/>
+      <c r="CK38" s="1"/>
+      <c r="CL38" s="1"/>
+      <c r="CM38" s="1"/>
+      <c r="CN38" s="1"/>
+      <c r="CO38" s="1"/>
+      <c r="CP38" s="1"/>
+      <c r="CQ38" s="1"/>
+      <c r="CR38" s="1"/>
+      <c r="CS38" s="1"/>
+      <c r="CT38" s="1"/>
+      <c r="CU38" s="1"/>
+      <c r="CV38" s="1"/>
+      <c r="CW38" s="1"/>
+      <c r="CX38" s="1"/>
+      <c r="CY38" s="1"/>
+      <c r="CZ38" s="1"/>
+      <c r="DA38" s="1"/>
+      <c r="DB38" s="1"/>
+      <c r="DC38" s="1"/>
+      <c r="DD38" s="1"/>
+      <c r="DE38" s="1"/>
+      <c r="DF38" s="1"/>
+      <c r="DG38" s="1"/>
+      <c r="DH38" s="1"/>
+      <c r="DI38" s="1"/>
+      <c r="DJ38" s="1"/>
+      <c r="DK38" s="1"/>
+      <c r="DL38" s="1"/>
+      <c r="DM38" s="1"/>
+      <c r="DN38" s="1"/>
+      <c r="DO38" s="1"/>
+      <c r="DP38" s="1"/>
+      <c r="DQ38" s="1"/>
+      <c r="DR38" s="1"/>
+      <c r="DS38" s="1"/>
+      <c r="DT38" s="1"/>
+      <c r="DU38" s="1"/>
+      <c r="DV38" s="1"/>
+      <c r="DW38" s="1"/>
+      <c r="DX38" s="1"/>
+      <c r="DY38" s="1"/>
+      <c r="DZ38" s="1"/>
+      <c r="EA38" s="1"/>
+      <c r="EB38" s="1"/>
+      <c r="EC38" s="1"/>
+      <c r="ED38" s="1"/>
+      <c r="EE38" s="1"/>
+      <c r="EF38" s="1"/>
+      <c r="EG38" s="1"/>
+      <c r="EH38" s="1"/>
+      <c r="EI38" s="1"/>
+      <c r="EJ38" s="1"/>
+      <c r="EK38" s="1"/>
+      <c r="EL38" s="1"/>
+      <c r="EM38" s="1"/>
+      <c r="EN38" s="1"/>
+      <c r="EO38" s="1"/>
+      <c r="EP38" s="1"/>
+      <c r="EQ38" s="1"/>
+      <c r="ER38" s="1"/>
+      <c r="ES38" s="1"/>
+      <c r="ET38" s="1"/>
+      <c r="EU38" s="1"/>
+      <c r="EV38" s="1"/>
+      <c r="EW38" s="1"/>
+      <c r="EX38" s="1"/>
+      <c r="EY38" s="1"/>
+      <c r="EZ38" s="1"/>
+      <c r="FA38" s="1"/>
+      <c r="FB38" s="1"/>
+      <c r="FC38" s="1"/>
+      <c r="FD38" s="1"/>
+      <c r="FE38" s="1"/>
+      <c r="FF38" s="1"/>
+      <c r="FG38" s="1"/>
+      <c r="FH38" s="1"/>
+      <c r="FI38" s="1"/>
+      <c r="FJ38" s="1"/>
+      <c r="FK38" s="1"/>
+      <c r="FL38" s="1"/>
+      <c r="FM38" s="1"/>
+      <c r="FN38" s="1"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="1">
+        <v>50</v>
+      </c>
+      <c r="F39" s="1">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" t="s">
+        <v>58</v>
+      </c>
+      <c r="O39" t="s">
+        <v>58</v>
+      </c>
+      <c r="P39" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>58</v>
+      </c>
+      <c r="R39" t="s">
+        <v>58</v>
+      </c>
+      <c r="S39" t="s">
+        <v>58</v>
+      </c>
+      <c r="T39" t="s">
+        <v>58</v>
+      </c>
+      <c r="U39" t="s">
+        <v>58</v>
+      </c>
+      <c r="V39" t="s">
+        <v>58</v>
+      </c>
+      <c r="W39" t="s">
+        <v>58</v>
+      </c>
+      <c r="X39" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="1"/>
+      <c r="BJ39" s="1"/>
+      <c r="BK39" s="1"/>
+      <c r="BL39" s="1"/>
+      <c r="BM39" s="1"/>
+      <c r="BN39" s="1"/>
+      <c r="BO39" s="1"/>
+      <c r="BP39" s="1"/>
+      <c r="BQ39" s="1"/>
+      <c r="BR39" s="1"/>
+      <c r="BS39" s="1"/>
+      <c r="BT39" s="1"/>
+      <c r="BU39" s="1"/>
+      <c r="BV39" s="1"/>
+      <c r="BW39" s="1"/>
+      <c r="BX39" s="1"/>
+      <c r="BY39" s="1"/>
+      <c r="BZ39" s="1"/>
+      <c r="CA39" s="1"/>
+      <c r="CB39" s="1"/>
+      <c r="CC39" s="1"/>
+      <c r="CD39" s="1"/>
+      <c r="CE39" s="1"/>
+      <c r="CF39" s="1"/>
+      <c r="CG39" s="1"/>
+      <c r="CH39" s="1"/>
+      <c r="CI39" s="1"/>
+      <c r="CJ39" s="1"/>
+      <c r="CK39" s="1"/>
+      <c r="CL39" s="1"/>
+      <c r="CM39" s="1"/>
+      <c r="CN39" s="1"/>
+      <c r="CO39" s="1"/>
+      <c r="CP39" s="1"/>
+      <c r="CQ39" s="1"/>
+      <c r="CR39" s="1"/>
+      <c r="CS39" s="1"/>
+      <c r="CT39" s="1"/>
+      <c r="CU39" s="1"/>
+      <c r="CV39" s="1"/>
+      <c r="CW39" s="1"/>
+      <c r="CX39" s="1"/>
+      <c r="CY39" s="1"/>
+      <c r="CZ39" s="1"/>
+      <c r="DA39" s="1"/>
+      <c r="DB39" s="1"/>
+      <c r="DC39" s="1"/>
+      <c r="DD39" s="1"/>
+      <c r="DE39" s="1"/>
+      <c r="DF39" s="1"/>
+      <c r="DG39" s="1"/>
+      <c r="DH39" s="1"/>
+      <c r="DI39" s="1"/>
+      <c r="DJ39" s="1"/>
+      <c r="DK39" s="1"/>
+      <c r="DL39" s="1"/>
+      <c r="DM39" s="1"/>
+      <c r="DN39" s="1"/>
+      <c r="DO39" s="1"/>
+      <c r="DP39" s="1"/>
+      <c r="DQ39" s="1"/>
+      <c r="DR39" s="1"/>
+      <c r="DS39" s="1"/>
+      <c r="DT39" s="1"/>
+      <c r="DU39" s="1"/>
+      <c r="DV39" s="1"/>
+      <c r="DW39" s="1"/>
+      <c r="DX39" s="1"/>
+      <c r="DY39" s="1"/>
+      <c r="DZ39" s="1"/>
+      <c r="EA39" s="1"/>
+      <c r="EB39" s="1"/>
+      <c r="EC39" s="1"/>
+      <c r="ED39" s="1"/>
+      <c r="EE39" s="1"/>
+      <c r="EF39" s="1"/>
+      <c r="EG39" s="1"/>
+      <c r="EH39" s="1"/>
+      <c r="EI39" s="1"/>
+      <c r="EJ39" s="1"/>
+      <c r="EK39" s="1"/>
+      <c r="EL39" s="1"/>
+      <c r="EM39" s="1"/>
+      <c r="EN39" s="1"/>
+      <c r="EO39" s="1"/>
+      <c r="EP39" s="1"/>
+      <c r="EQ39" s="1"/>
+      <c r="ER39" s="1"/>
+      <c r="ES39" s="1"/>
+      <c r="ET39" s="1"/>
+      <c r="EU39" s="1"/>
+      <c r="EV39" s="1"/>
+      <c r="EW39" s="1"/>
+      <c r="EX39" s="1"/>
+      <c r="EY39" s="1"/>
+      <c r="EZ39" s="1"/>
+      <c r="FA39" s="1"/>
+      <c r="FB39" s="1"/>
+      <c r="FC39" s="1"/>
+      <c r="FD39" s="1"/>
+      <c r="FE39" s="1"/>
+      <c r="FF39" s="1"/>
+      <c r="FG39" s="1"/>
+      <c r="FH39" s="1"/>
+      <c r="FI39" s="1"/>
+      <c r="FJ39" s="1"/>
+      <c r="FK39" s="1"/>
+      <c r="FL39" s="1"/>
+      <c r="FM39" s="1"/>
+      <c r="FN39" s="1"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="1">
+        <v>50</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" t="s">
+        <v>58</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" t="s">
+        <v>58</v>
+      </c>
+      <c r="O40" t="s">
+        <v>58</v>
+      </c>
+      <c r="P40" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>58</v>
+      </c>
+      <c r="R40" t="s">
+        <v>58</v>
+      </c>
+      <c r="S40" t="s">
+        <v>58</v>
+      </c>
+      <c r="T40" t="s">
+        <v>58</v>
+      </c>
+      <c r="U40" t="s">
+        <v>58</v>
+      </c>
+      <c r="V40" t="s">
+        <v>58</v>
+      </c>
+      <c r="W40" t="s">
+        <v>58</v>
+      </c>
+      <c r="X40" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="1"/>
+      <c r="BI40" s="1"/>
+      <c r="BJ40" s="1"/>
+      <c r="BK40" s="1"/>
+      <c r="BL40" s="1"/>
+      <c r="BM40" s="1"/>
+      <c r="BN40" s="1"/>
+      <c r="BO40" s="1"/>
+      <c r="BP40" s="1"/>
+      <c r="BQ40" s="1"/>
+      <c r="BR40" s="1"/>
+      <c r="BS40" s="1"/>
+      <c r="BT40" s="1"/>
+      <c r="BU40" s="1"/>
+      <c r="BV40" s="1"/>
+      <c r="BW40" s="1"/>
+      <c r="BX40" s="1"/>
+      <c r="BY40" s="1"/>
+      <c r="BZ40" s="1"/>
+      <c r="CA40" s="1"/>
+      <c r="CB40" s="1"/>
+      <c r="CC40" s="1"/>
+      <c r="CD40" s="1"/>
+      <c r="CE40" s="1"/>
+      <c r="CF40" s="1"/>
+      <c r="CG40" s="1"/>
+      <c r="CH40" s="1"/>
+      <c r="CI40" s="1"/>
+      <c r="CJ40" s="1"/>
+      <c r="CK40" s="1"/>
+      <c r="CL40" s="1"/>
+      <c r="CM40" s="1"/>
+      <c r="CN40" s="1"/>
+      <c r="CO40" s="1"/>
+      <c r="CP40" s="1"/>
+      <c r="CQ40" s="1"/>
+      <c r="CR40" s="1"/>
+      <c r="CS40" s="1"/>
+      <c r="CT40" s="1"/>
+      <c r="CU40" s="1"/>
+      <c r="CV40" s="1"/>
+      <c r="CW40" s="1"/>
+      <c r="CX40" s="1"/>
+      <c r="CY40" s="1"/>
+      <c r="CZ40" s="1"/>
+      <c r="DA40" s="1"/>
+      <c r="DB40" s="1"/>
+      <c r="DC40" s="1"/>
+      <c r="DD40" s="1"/>
+      <c r="DE40" s="1"/>
+      <c r="DF40" s="1"/>
+      <c r="DG40" s="1"/>
+      <c r="DH40" s="1"/>
+      <c r="DI40" s="1"/>
+      <c r="DJ40" s="1"/>
+      <c r="DK40" s="1"/>
+      <c r="DL40" s="1"/>
+      <c r="DM40" s="1"/>
+      <c r="DN40" s="1"/>
+      <c r="DO40" s="1"/>
+      <c r="DP40" s="1"/>
+      <c r="DQ40" s="1"/>
+      <c r="DR40" s="1"/>
+      <c r="DS40" s="1"/>
+      <c r="DT40" s="1"/>
+      <c r="DU40" s="1"/>
+      <c r="DV40" s="1"/>
+      <c r="DW40" s="1"/>
+      <c r="DX40" s="1"/>
+      <c r="DY40" s="1"/>
+      <c r="DZ40" s="1"/>
+      <c r="EA40" s="1"/>
+      <c r="EB40" s="1"/>
+      <c r="EC40" s="1"/>
+      <c r="ED40" s="1"/>
+      <c r="EE40" s="1"/>
+      <c r="EF40" s="1"/>
+      <c r="EG40" s="1"/>
+      <c r="EH40" s="1"/>
+      <c r="EI40" s="1"/>
+      <c r="EJ40" s="1"/>
+      <c r="EK40" s="1"/>
+      <c r="EL40" s="1"/>
+      <c r="EM40" s="1"/>
+      <c r="EN40" s="1"/>
+      <c r="EO40" s="1"/>
+      <c r="EP40" s="1"/>
+      <c r="EQ40" s="1"/>
+      <c r="ER40" s="1"/>
+      <c r="ES40" s="1"/>
+      <c r="ET40" s="1"/>
+      <c r="EU40" s="1"/>
+      <c r="EV40" s="1"/>
+      <c r="EW40" s="1"/>
+      <c r="EX40" s="1"/>
+      <c r="EY40" s="1"/>
+      <c r="EZ40" s="1"/>
+      <c r="FA40" s="1"/>
+      <c r="FB40" s="1"/>
+      <c r="FC40" s="1"/>
+      <c r="FD40" s="1"/>
+      <c r="FE40" s="1"/>
+      <c r="FF40" s="1"/>
+      <c r="FG40" s="1"/>
+      <c r="FH40" s="1"/>
+      <c r="FI40" s="1"/>
+      <c r="FJ40" s="1"/>
+      <c r="FK40" s="1"/>
+      <c r="FL40" s="1"/>
+      <c r="FM40" s="1"/>
+      <c r="FN40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="1">
+        <v>50</v>
+      </c>
+      <c r="F41" s="1">
+        <v>5</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" t="s">
+        <v>58</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" t="s">
+        <v>58</v>
+      </c>
+      <c r="O41" t="s">
+        <v>58</v>
+      </c>
+      <c r="P41" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>58</v>
+      </c>
+      <c r="R41" t="s">
+        <v>58</v>
+      </c>
+      <c r="S41" t="s">
+        <v>58</v>
+      </c>
+      <c r="T41" t="s">
+        <v>58</v>
+      </c>
+      <c r="U41" t="s">
+        <v>58</v>
+      </c>
+      <c r="V41" t="s">
+        <v>58</v>
+      </c>
+      <c r="W41" t="s">
+        <v>58</v>
+      </c>
+      <c r="X41" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1"/>
+      <c r="BI41" s="1"/>
+      <c r="BJ41" s="1"/>
+      <c r="BK41" s="1"/>
+      <c r="BL41" s="1"/>
+      <c r="BM41" s="1"/>
+      <c r="BN41" s="1"/>
+      <c r="BO41" s="1"/>
+      <c r="BP41" s="1"/>
+      <c r="BQ41" s="1"/>
+      <c r="BR41" s="1"/>
+      <c r="BS41" s="1"/>
+      <c r="BT41" s="1"/>
+      <c r="BU41" s="1"/>
+      <c r="BV41" s="1"/>
+      <c r="BW41" s="1"/>
+      <c r="BX41" s="1"/>
+      <c r="BY41" s="1"/>
+      <c r="BZ41" s="1"/>
+      <c r="CA41" s="1"/>
+      <c r="CB41" s="1"/>
+      <c r="CC41" s="1"/>
+      <c r="CD41" s="1"/>
+      <c r="CE41" s="1"/>
+      <c r="CF41" s="1"/>
+      <c r="CG41" s="1"/>
+      <c r="CH41" s="1"/>
+      <c r="CI41" s="1"/>
+      <c r="CJ41" s="1"/>
+      <c r="CK41" s="1"/>
+      <c r="CL41" s="1"/>
+      <c r="CM41" s="1"/>
+      <c r="CN41" s="1"/>
+      <c r="CO41" s="1"/>
+      <c r="CP41" s="1"/>
+      <c r="CQ41" s="1"/>
+      <c r="CR41" s="1"/>
+      <c r="CS41" s="1"/>
+      <c r="CT41" s="1"/>
+      <c r="CU41" s="1"/>
+      <c r="CV41" s="1"/>
+      <c r="CW41" s="1"/>
+      <c r="CX41" s="1"/>
+      <c r="CY41" s="1"/>
+      <c r="CZ41" s="1"/>
+      <c r="DA41" s="1"/>
+      <c r="DB41" s="1"/>
+      <c r="DC41" s="1"/>
+      <c r="DD41" s="1"/>
+      <c r="DE41" s="1"/>
+      <c r="DF41" s="1"/>
+      <c r="DG41" s="1"/>
+      <c r="DH41" s="1"/>
+      <c r="DI41" s="1"/>
+      <c r="DJ41" s="1"/>
+      <c r="DK41" s="1"/>
+      <c r="DL41" s="1"/>
+      <c r="DM41" s="1"/>
+      <c r="DN41" s="1"/>
+      <c r="DO41" s="1"/>
+      <c r="DP41" s="1"/>
+      <c r="DQ41" s="1"/>
+      <c r="DR41" s="1"/>
+      <c r="DS41" s="1"/>
+      <c r="DT41" s="1"/>
+      <c r="DU41" s="1"/>
+      <c r="DV41" s="1"/>
+      <c r="DW41" s="1"/>
+      <c r="DX41" s="1"/>
+      <c r="DY41" s="1"/>
+      <c r="DZ41" s="1"/>
+      <c r="EA41" s="1"/>
+      <c r="EB41" s="1"/>
+      <c r="EC41" s="1"/>
+      <c r="ED41" s="1"/>
+      <c r="EE41" s="1"/>
+      <c r="EF41" s="1"/>
+      <c r="EG41" s="1"/>
+      <c r="EH41" s="1"/>
+      <c r="EI41" s="1"/>
+      <c r="EJ41" s="1"/>
+      <c r="EK41" s="1"/>
+      <c r="EL41" s="1"/>
+      <c r="EM41" s="1"/>
+      <c r="EN41" s="1"/>
+      <c r="EO41" s="1"/>
+      <c r="EP41" s="1"/>
+      <c r="EQ41" s="1"/>
+      <c r="ER41" s="1"/>
+      <c r="ES41" s="1"/>
+      <c r="ET41" s="1"/>
+      <c r="EU41" s="1"/>
+      <c r="EV41" s="1"/>
+      <c r="EW41" s="1"/>
+      <c r="EX41" s="1"/>
+      <c r="EY41" s="1"/>
+      <c r="EZ41" s="1"/>
+      <c r="FA41" s="1"/>
+      <c r="FB41" s="1"/>
+      <c r="FC41" s="1"/>
+      <c r="FD41" s="1"/>
+      <c r="FE41" s="1"/>
+      <c r="FF41" s="1"/>
+      <c r="FG41" s="1"/>
+      <c r="FH41" s="1"/>
+      <c r="FI41" s="1"/>
+      <c r="FJ41" s="1"/>
+      <c r="FK41" s="1"/>
+      <c r="FL41" s="1"/>
+      <c r="FM41" s="1"/>
+      <c r="FN41" s="1"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="1">
+        <v>50</v>
+      </c>
+      <c r="F42" s="1">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" t="s">
+        <v>58</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" t="s">
+        <v>58</v>
+      </c>
+      <c r="O42" t="s">
+        <v>58</v>
+      </c>
+      <c r="P42" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>58</v>
+      </c>
+      <c r="R42" t="s">
+        <v>58</v>
+      </c>
+      <c r="S42" t="s">
+        <v>58</v>
+      </c>
+      <c r="T42" t="s">
+        <v>58</v>
+      </c>
+      <c r="U42" t="s">
+        <v>58</v>
+      </c>
+      <c r="V42" t="s">
+        <v>58</v>
+      </c>
+      <c r="W42" t="s">
+        <v>58</v>
+      </c>
+      <c r="X42" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1"/>
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1"/>
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="1"/>
+      <c r="AZ42" s="1"/>
+      <c r="BA42" s="1"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="1"/>
+      <c r="BE42" s="1"/>
+      <c r="BF42" s="1"/>
+      <c r="BG42" s="1"/>
+      <c r="BH42" s="1"/>
+      <c r="BI42" s="1"/>
+      <c r="BJ42" s="1"/>
+      <c r="BK42" s="1"/>
+      <c r="BL42" s="1"/>
+      <c r="BM42" s="1"/>
+      <c r="BN42" s="1"/>
+      <c r="BO42" s="1"/>
+      <c r="BP42" s="1"/>
+      <c r="BQ42" s="1"/>
+      <c r="BR42" s="1"/>
+      <c r="BS42" s="1"/>
+      <c r="BT42" s="1"/>
+      <c r="BU42" s="1"/>
+      <c r="BV42" s="1"/>
+      <c r="BW42" s="1"/>
+      <c r="BX42" s="1"/>
+      <c r="BY42" s="1"/>
+      <c r="BZ42" s="1"/>
+      <c r="CA42" s="1"/>
+      <c r="CB42" s="1"/>
+      <c r="CC42" s="1"/>
+      <c r="CD42" s="1"/>
+      <c r="CE42" s="1"/>
+      <c r="CF42" s="1"/>
+      <c r="CG42" s="1"/>
+      <c r="CH42" s="1"/>
+      <c r="CI42" s="1"/>
+      <c r="CJ42" s="1"/>
+      <c r="CK42" s="1"/>
+      <c r="CL42" s="1"/>
+      <c r="CM42" s="1"/>
+      <c r="CN42" s="1"/>
+      <c r="CO42" s="1"/>
+      <c r="CP42" s="1"/>
+      <c r="CQ42" s="1"/>
+      <c r="CR42" s="1"/>
+      <c r="CS42" s="1"/>
+      <c r="CT42" s="1"/>
+      <c r="CU42" s="1"/>
+      <c r="CV42" s="1"/>
+      <c r="CW42" s="1"/>
+      <c r="CX42" s="1"/>
+      <c r="CY42" s="1"/>
+      <c r="CZ42" s="1"/>
+      <c r="DA42" s="1"/>
+      <c r="DB42" s="1"/>
+      <c r="DC42" s="1"/>
+      <c r="DD42" s="1"/>
+      <c r="DE42" s="1"/>
+      <c r="DF42" s="1"/>
+      <c r="DG42" s="1"/>
+      <c r="DH42" s="1"/>
+      <c r="DI42" s="1"/>
+      <c r="DJ42" s="1"/>
+      <c r="DK42" s="1"/>
+      <c r="DL42" s="1"/>
+      <c r="DM42" s="1"/>
+      <c r="DN42" s="1"/>
+      <c r="DO42" s="1"/>
+      <c r="DP42" s="1"/>
+      <c r="DQ42" s="1"/>
+      <c r="DR42" s="1"/>
+      <c r="DS42" s="1"/>
+      <c r="DT42" s="1"/>
+      <c r="DU42" s="1"/>
+      <c r="DV42" s="1"/>
+      <c r="DW42" s="1"/>
+      <c r="DX42" s="1"/>
+      <c r="DY42" s="1"/>
+      <c r="DZ42" s="1"/>
+      <c r="EA42" s="1"/>
+      <c r="EB42" s="1"/>
+      <c r="EC42" s="1"/>
+      <c r="ED42" s="1"/>
+      <c r="EE42" s="1"/>
+      <c r="EF42" s="1"/>
+      <c r="EG42" s="1"/>
+      <c r="EH42" s="1"/>
+      <c r="EI42" s="1"/>
+      <c r="EJ42" s="1"/>
+      <c r="EK42" s="1"/>
+      <c r="EL42" s="1"/>
+      <c r="EM42" s="1"/>
+      <c r="EN42" s="1"/>
+      <c r="EO42" s="1"/>
+      <c r="EP42" s="1"/>
+      <c r="EQ42" s="1"/>
+      <c r="ER42" s="1"/>
+      <c r="ES42" s="1"/>
+      <c r="ET42" s="1"/>
+      <c r="EU42" s="1"/>
+      <c r="EV42" s="1"/>
+      <c r="EW42" s="1"/>
+      <c r="EX42" s="1"/>
+      <c r="EY42" s="1"/>
+      <c r="EZ42" s="1"/>
+      <c r="FA42" s="1"/>
+      <c r="FB42" s="1"/>
+      <c r="FC42" s="1"/>
+      <c r="FD42" s="1"/>
+      <c r="FE42" s="1"/>
+      <c r="FF42" s="1"/>
+      <c r="FG42" s="1"/>
+      <c r="FH42" s="1"/>
+      <c r="FI42" s="1"/>
+      <c r="FJ42" s="1"/>
+      <c r="FK42" s="1"/>
+      <c r="FL42" s="1"/>
+      <c r="FM42" s="1"/>
+      <c r="FN42" s="1"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="1">
+        <v>50</v>
+      </c>
+      <c r="F43" s="1">
+        <v>10</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" t="s">
+        <v>58</v>
+      </c>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" t="s">
+        <v>58</v>
+      </c>
+      <c r="O43" t="s">
+        <v>58</v>
+      </c>
+      <c r="P43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>58</v>
+      </c>
+      <c r="R43" t="s">
+        <v>58</v>
+      </c>
+      <c r="S43" t="s">
+        <v>58</v>
+      </c>
+      <c r="T43" t="s">
+        <v>58</v>
+      </c>
+      <c r="U43" t="s">
+        <v>58</v>
+      </c>
+      <c r="V43" t="s">
+        <v>58</v>
+      </c>
+      <c r="W43" t="s">
+        <v>58</v>
+      </c>
+      <c r="X43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="1"/>
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="1"/>
+      <c r="BH43" s="1"/>
+      <c r="BI43" s="1"/>
+      <c r="BJ43" s="1"/>
+      <c r="BK43" s="1"/>
+      <c r="BL43" s="1"/>
+      <c r="BM43" s="1"/>
+      <c r="BN43" s="1"/>
+      <c r="BO43" s="1"/>
+      <c r="BP43" s="1"/>
+      <c r="BQ43" s="1"/>
+      <c r="BR43" s="1"/>
+      <c r="BS43" s="1"/>
+      <c r="BT43" s="1"/>
+      <c r="BU43" s="1"/>
+      <c r="BV43" s="1"/>
+      <c r="BW43" s="1"/>
+      <c r="BX43" s="1"/>
+      <c r="BY43" s="1"/>
+      <c r="BZ43" s="1"/>
+      <c r="CA43" s="1"/>
+      <c r="CB43" s="1"/>
+      <c r="CC43" s="1"/>
+      <c r="CD43" s="1"/>
+      <c r="CE43" s="1"/>
+      <c r="CF43" s="1"/>
+      <c r="CG43" s="1"/>
+      <c r="CH43" s="1"/>
+      <c r="CI43" s="1"/>
+      <c r="CJ43" s="1"/>
+      <c r="CK43" s="1"/>
+      <c r="CL43" s="1"/>
+      <c r="CM43" s="1"/>
+      <c r="CN43" s="1"/>
+      <c r="CO43" s="1"/>
+      <c r="CP43" s="1"/>
+      <c r="CQ43" s="1"/>
+      <c r="CR43" s="1"/>
+      <c r="CS43" s="1"/>
+      <c r="CT43" s="1"/>
+      <c r="CU43" s="1"/>
+      <c r="CV43" s="1"/>
+      <c r="CW43" s="1"/>
+      <c r="CX43" s="1"/>
+      <c r="CY43" s="1"/>
+      <c r="CZ43" s="1"/>
+      <c r="DA43" s="1"/>
+      <c r="DB43" s="1"/>
+      <c r="DC43" s="1"/>
+      <c r="DD43" s="1"/>
+      <c r="DE43" s="1"/>
+      <c r="DF43" s="1"/>
+      <c r="DG43" s="1"/>
+      <c r="DH43" s="1"/>
+      <c r="DI43" s="1"/>
+      <c r="DJ43" s="1"/>
+      <c r="DK43" s="1"/>
+      <c r="DL43" s="1"/>
+      <c r="DM43" s="1"/>
+      <c r="DN43" s="1"/>
+      <c r="DO43" s="1"/>
+      <c r="DP43" s="1"/>
+      <c r="DQ43" s="1"/>
+      <c r="DR43" s="1"/>
+      <c r="DS43" s="1"/>
+      <c r="DT43" s="1"/>
+      <c r="DU43" s="1"/>
+      <c r="DV43" s="1"/>
+      <c r="DW43" s="1"/>
+      <c r="DX43" s="1"/>
+      <c r="DY43" s="1"/>
+      <c r="DZ43" s="1"/>
+      <c r="EA43" s="1"/>
+      <c r="EB43" s="1"/>
+      <c r="EC43" s="1"/>
+      <c r="ED43" s="1"/>
+      <c r="EE43" s="1"/>
+      <c r="EF43" s="1"/>
+      <c r="EG43" s="1"/>
+      <c r="EH43" s="1"/>
+      <c r="EI43" s="1"/>
+      <c r="EJ43" s="1"/>
+      <c r="EK43" s="1"/>
+      <c r="EL43" s="1"/>
+      <c r="EM43" s="1"/>
+      <c r="EN43" s="1"/>
+      <c r="EO43" s="1"/>
+      <c r="EP43" s="1"/>
+      <c r="EQ43" s="1"/>
+      <c r="ER43" s="1"/>
+      <c r="ES43" s="1"/>
+      <c r="ET43" s="1"/>
+      <c r="EU43" s="1"/>
+      <c r="EV43" s="1"/>
+      <c r="EW43" s="1"/>
+      <c r="EX43" s="1"/>
+      <c r="EY43" s="1"/>
+      <c r="EZ43" s="1"/>
+      <c r="FA43" s="1"/>
+      <c r="FB43" s="1"/>
+      <c r="FC43" s="1"/>
+      <c r="FD43" s="1"/>
+      <c r="FE43" s="1"/>
+      <c r="FF43" s="1"/>
+      <c r="FG43" s="1"/>
+      <c r="FH43" s="1"/>
+      <c r="FI43" s="1"/>
+      <c r="FJ43" s="1"/>
+      <c r="FK43" s="1"/>
+      <c r="FL43" s="1"/>
+      <c r="FM43" s="1"/>
+      <c r="FN43" s="1"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
+++ b/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1262" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1475" uniqueCount="249">
   <si>
     <t>crop</t>
   </si>
@@ -126,6 +126,15 @@
     <t>zinnia- classic</t>
   </si>
   <si>
+    <t>carrot- kaleidoscope blend</t>
+  </si>
+  <si>
+    <t>carrot- short n sweet</t>
+  </si>
+  <si>
+    <t>beet- detroit red</t>
+  </si>
+  <si>
     <t>sow_type</t>
   </si>
   <si>
@@ -156,6 +165,9 @@
     <t>2024-04-28</t>
   </si>
   <si>
+    <t>2024-05-04</t>
+  </si>
+  <si>
     <t>sow_med</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>sow_fert_date_3</t>
   </si>
   <si>
+    <t>2024-05-05</t>
+  </si>
+  <si>
     <t>2024-04-23</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>transp_harden_date_end</t>
   </si>
   <si>
+    <t>2024-05-03</t>
+  </si>
+  <si>
     <t>2024-04-30</t>
   </si>
   <si>
@@ -342,6 +360,9 @@
     <t>transp_med_2</t>
   </si>
   <si>
+    <t>raised bed- frame</t>
+  </si>
+  <si>
     <t>transp_no_srt_2</t>
   </si>
   <si>
@@ -736,6 +757,9 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>P1: 6.25 ft</t>
   </si>
 </sst>
 </file>
@@ -756,7 +780,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -765,13 +789,15 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FN43"/>
+  <dimension ref="A1:FN46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -792,511 +818,511 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="P1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="R1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="S1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="U1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="W1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Z1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AA1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AB1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="AC1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AD1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AE1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AF1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AG1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AH1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AI1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AJ1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AK1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AL1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AM1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AN1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AO1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AP1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AQ1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AR1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AS1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AT1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AU1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AV1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AW1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AX1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AY1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AZ1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="BA1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="BB1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="BC1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="BD1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="BE1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="BF1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="BG1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="BH1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="BI1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="BJ1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="BK1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="BL1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="BM1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="BN1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="BO1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="BP1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="BQ1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="BR1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="BS1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="BT1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="BU1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="BV1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="BW1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="BX1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="BY1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="BZ1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="CA1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="CB1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="CC1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="CD1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="CE1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="CF1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="CG1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="CH1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="CI1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="CJ1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="CK1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="CL1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="CM1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="CN1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="CO1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="CP1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="CQ1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="CR1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="CS1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="CT1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="CU1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="CV1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="CW1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="CX1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="CY1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="CZ1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="DA1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="DB1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="DC1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="DD1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="DE1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="DF1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="DG1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="DH1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="DI1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="DJ1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="DK1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="DL1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="DM1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DN1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="DO1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="DP1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DQ1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="DR1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="DS1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="DT1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="DU1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="DV1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="DW1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="DX1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="DY1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="DZ1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="EA1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="EB1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="EC1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="ED1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="EE1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="EF1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="EG1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="EH1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="EI1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="EJ1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="EK1" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="EL1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="EM1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="EN1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="EO1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="EP1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="EQ1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="ER1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="ES1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="ET1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="EU1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="EV1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="EW1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="EX1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="EY1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="EZ1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="FA1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="FB1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="FC1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="FD1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="FE1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="FF1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="FG1" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="FH1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="FI1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="FJ1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="FK1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="FL1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="FM1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="FN1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
@@ -1304,13 +1330,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
@@ -1327,77 +1353,81 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Q2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>62</v>
+      </c>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
@@ -1529,20 +1559,22 @@
       <c r="FK2" s="1"/>
       <c r="FL2" s="1"/>
       <c r="FM2" s="1"/>
-      <c r="FN2" s="1"/>
+      <c r="FN2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1">
         <v>50</v>
@@ -1563,81 +1595,85 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
         <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="X3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AH3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI3" s="1">
         <v>8</v>
       </c>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>62</v>
+      </c>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
@@ -1769,20 +1805,22 @@
       <c r="FK3" s="1"/>
       <c r="FL3" s="1"/>
       <c r="FM3" s="1"/>
-      <c r="FN3" s="1"/>
+      <c r="FN3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E4" s="1">
         <v>50</v>
@@ -1803,81 +1841,85 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
         <v>16</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="X4" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AH4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI4" s="1">
         <v>1</v>
       </c>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>62</v>
+      </c>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
@@ -2009,20 +2051,22 @@
       <c r="FK4" s="1"/>
       <c r="FL4" s="1"/>
       <c r="FM4" s="1"/>
-      <c r="FN4" s="1"/>
+      <c r="FN4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1">
         <v>50</v>
@@ -2043,81 +2087,87 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
         <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AF5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AH5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI5" s="1">
         <v>19</v>
       </c>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
+      <c r="AJ5" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>52</v>
+      </c>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
@@ -2249,20 +2299,22 @@
       <c r="FK5" s="1"/>
       <c r="FL5" s="1"/>
       <c r="FM5" s="1"/>
-      <c r="FN5" s="1"/>
+      <c r="FN5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
@@ -2283,81 +2335,87 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
         <v>16</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AF6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AG6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AH6" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI6" s="1">
         <v>18</v>
       </c>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
+      <c r="AJ6" s="2">
+        <v>18</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>52</v>
+      </c>
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
@@ -2489,20 +2547,22 @@
       <c r="FK6" s="1"/>
       <c r="FL6" s="1"/>
       <c r="FM6" s="1"/>
-      <c r="FN6" s="1"/>
+      <c r="FN6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
@@ -2523,82 +2583,90 @@
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
         <v>16</v>
       </c>
       <c r="N7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AF7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AG7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AH7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI7" s="1">
         <v>20</v>
       </c>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
+      <c r="AJ7" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>20</v>
+      </c>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
@@ -2729,20 +2797,22 @@
       <c r="FK7" s="1"/>
       <c r="FL7" s="1"/>
       <c r="FM7" s="1"/>
-      <c r="FN7" s="1"/>
+      <c r="FN7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -2763,82 +2833,90 @@
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
         <v>16</v>
       </c>
       <c r="N8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AF8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AH8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI8" s="1">
         <v>20</v>
       </c>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
+      <c r="AJ8" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>20</v>
+      </c>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
@@ -2969,20 +3047,22 @@
       <c r="FK8" s="1"/>
       <c r="FL8" s="1"/>
       <c r="FM8" s="1"/>
-      <c r="FN8" s="1"/>
+      <c r="FN8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E9" s="1">
         <v>32</v>
@@ -3003,7 +3083,7 @@
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L9" s="1">
         <v>73</v>
@@ -3012,74 +3092,78 @@
         <v>16</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG9" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI9" s="1">
         <v>16</v>
       </c>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>62</v>
+      </c>
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
@@ -3211,20 +3295,22 @@
       <c r="FK9" s="1"/>
       <c r="FL9" s="1"/>
       <c r="FM9" s="1"/>
-      <c r="FN9" s="1"/>
+      <c r="FN9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1">
         <v>32</v>
@@ -3245,7 +3331,7 @@
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L10" s="1">
         <v>73</v>
@@ -3254,74 +3340,78 @@
         <v>16</v>
       </c>
       <c r="N10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG10" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH10" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI10" s="1">
         <v>12</v>
       </c>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>62</v>
+      </c>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
@@ -3453,20 +3543,22 @@
       <c r="FK10" s="1"/>
       <c r="FL10" s="1"/>
       <c r="FM10" s="1"/>
-      <c r="FN10" s="1"/>
+      <c r="FN10" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1">
         <v>32</v>
@@ -3487,7 +3579,7 @@
         <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="1">
         <v>73</v>
@@ -3496,74 +3588,78 @@
         <v>16</v>
       </c>
       <c r="N11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG11" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH11" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI11" s="1">
         <v>3</v>
       </c>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>62</v>
+      </c>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
@@ -3695,20 +3791,22 @@
       <c r="FK11" s="1"/>
       <c r="FL11" s="1"/>
       <c r="FM11" s="1"/>
-      <c r="FN11" s="1"/>
+      <c r="FN11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1">
         <v>32</v>
@@ -3729,7 +3827,7 @@
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L12" s="1">
         <v>73</v>
@@ -3738,74 +3836,78 @@
         <v>16</v>
       </c>
       <c r="N12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG12" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH12" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI12" s="1">
         <v>4</v>
       </c>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>62</v>
+      </c>
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
@@ -3937,20 +4039,22 @@
       <c r="FK12" s="1"/>
       <c r="FL12" s="1"/>
       <c r="FM12" s="1"/>
-      <c r="FN12" s="1"/>
+      <c r="FN12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E13" s="1">
         <v>32</v>
@@ -3971,7 +4075,7 @@
         <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L13" s="1">
         <v>73</v>
@@ -3980,74 +4084,78 @@
         <v>16</v>
       </c>
       <c r="N13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG13" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH13" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI13" s="1">
         <v>25</v>
       </c>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>62</v>
+      </c>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
@@ -4179,20 +4287,22 @@
       <c r="FK13" s="1"/>
       <c r="FL13" s="1"/>
       <c r="FM13" s="1"/>
-      <c r="FN13" s="1"/>
+      <c r="FN13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1">
         <v>32</v>
@@ -4213,7 +4323,7 @@
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L14" s="1">
         <v>73</v>
@@ -4222,74 +4332,78 @@
         <v>16</v>
       </c>
       <c r="N14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA14" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI14" s="1">
         <v>5</v>
       </c>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>62</v>
+      </c>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
@@ -4421,20 +4535,22 @@
       <c r="FK14" s="1"/>
       <c r="FL14" s="1"/>
       <c r="FM14" s="1"/>
-      <c r="FN14" s="1"/>
+      <c r="FN14" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1">
         <v>32</v>
@@ -4455,7 +4571,7 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L15" s="1">
         <v>73</v>
@@ -4464,74 +4580,78 @@
         <v>16</v>
       </c>
       <c r="N15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG15" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH15" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI15" s="1">
         <v>3</v>
       </c>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>62</v>
+      </c>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
@@ -4663,20 +4783,22 @@
       <c r="FK15" s="1"/>
       <c r="FL15" s="1"/>
       <c r="FM15" s="1"/>
-      <c r="FN15" s="1"/>
+      <c r="FN15" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E16" s="1">
         <v>32</v>
@@ -4697,7 +4819,7 @@
         <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L16" s="1">
         <v>73</v>
@@ -4706,74 +4828,78 @@
         <v>16</v>
       </c>
       <c r="N16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG16" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH16" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI16" s="1">
         <v>6</v>
       </c>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>62</v>
+      </c>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
@@ -4905,20 +5031,22 @@
       <c r="FK16" s="1"/>
       <c r="FL16" s="1"/>
       <c r="FM16" s="1"/>
-      <c r="FN16" s="1"/>
+      <c r="FN16" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E17" s="1">
         <v>32</v>
@@ -4939,7 +5067,7 @@
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L17" s="1">
         <v>73</v>
@@ -4948,74 +5076,78 @@
         <v>16</v>
       </c>
       <c r="N17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG17" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH17" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI17" s="1">
         <v>2</v>
       </c>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>62</v>
+      </c>
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
@@ -5147,20 +5279,22 @@
       <c r="FK17" s="1"/>
       <c r="FL17" s="1"/>
       <c r="FM17" s="1"/>
-      <c r="FN17" s="1"/>
+      <c r="FN17" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1">
         <v>32</v>
@@ -5181,7 +5315,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L18" s="1">
         <v>73</v>
@@ -5190,74 +5324,78 @@
         <v>16</v>
       </c>
       <c r="N18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O18" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG18" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH18" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI18" s="1">
         <v>1</v>
       </c>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>62</v>
+      </c>
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
@@ -5389,20 +5527,22 @@
       <c r="FK18" s="1"/>
       <c r="FL18" s="1"/>
       <c r="FM18" s="1"/>
-      <c r="FN18" s="1"/>
+      <c r="FN18" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1">
         <v>32</v>
@@ -5423,7 +5563,7 @@
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L19" s="1">
         <v>73</v>
@@ -5432,74 +5572,78 @@
         <v>16</v>
       </c>
       <c r="N19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG19" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH19" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI19" s="1">
         <v>2</v>
       </c>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>62</v>
+      </c>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
@@ -5631,20 +5775,22 @@
       <c r="FK19" s="1"/>
       <c r="FL19" s="1"/>
       <c r="FM19" s="1"/>
-      <c r="FN19" s="1"/>
+      <c r="FN19" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1">
         <v>32</v>
@@ -5665,7 +5811,7 @@
         <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L20" s="1">
         <v>73</v>
@@ -5674,74 +5820,78 @@
         <v>16</v>
       </c>
       <c r="N20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG20" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH20" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI20" s="1">
         <v>3</v>
       </c>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>62</v>
+      </c>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
@@ -5873,20 +6023,22 @@
       <c r="FK20" s="1"/>
       <c r="FL20" s="1"/>
       <c r="FM20" s="1"/>
-      <c r="FN20" s="1"/>
+      <c r="FN20" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E21" s="1">
         <v>32</v>
@@ -5907,7 +6059,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L21" s="1">
         <v>75</v>
@@ -5916,74 +6068,78 @@
         <v>16</v>
       </c>
       <c r="N21" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O21" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG21" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH21" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AI21" s="1">
         <v>16</v>
       </c>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>62</v>
+      </c>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
@@ -6115,20 +6271,22 @@
       <c r="FK21" s="1"/>
       <c r="FL21" s="1"/>
       <c r="FM21" s="1"/>
-      <c r="FN21" s="1"/>
+      <c r="FN21" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E22" s="1">
         <v>32</v>
@@ -6149,7 +6307,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L22" s="1">
         <v>75</v>
@@ -6158,74 +6316,78 @@
         <v>16</v>
       </c>
       <c r="N22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O22" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG22" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH22" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AI22" s="1">
         <v>16</v>
       </c>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>62</v>
+      </c>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
@@ -6357,20 +6519,22 @@
       <c r="FK22" s="1"/>
       <c r="FL22" s="1"/>
       <c r="FM22" s="1"/>
-      <c r="FN22" s="1"/>
+      <c r="FN22" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E23" s="1">
         <v>32</v>
@@ -6391,7 +6555,7 @@
         <v>2</v>
       </c>
       <c r="K23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L23" s="1">
         <v>75</v>
@@ -6400,74 +6564,78 @@
         <v>16</v>
       </c>
       <c r="N23" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG23" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH23" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AI23" s="1">
         <v>12</v>
       </c>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>62</v>
+      </c>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
@@ -6599,20 +6767,22 @@
       <c r="FK23" s="1"/>
       <c r="FL23" s="1"/>
       <c r="FM23" s="1"/>
-      <c r="FN23" s="1"/>
+      <c r="FN23" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E24" s="1">
         <v>32</v>
@@ -6633,7 +6803,7 @@
         <v>2</v>
       </c>
       <c r="K24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L24" s="1">
         <v>75</v>
@@ -6642,74 +6812,78 @@
         <v>16</v>
       </c>
       <c r="N24" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O24" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R24" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG24" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH24" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AI24" s="1">
         <v>13</v>
       </c>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>62</v>
+      </c>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
@@ -6841,20 +7015,22 @@
       <c r="FK24" s="1"/>
       <c r="FL24" s="1"/>
       <c r="FM24" s="1"/>
-      <c r="FN24" s="1"/>
+      <c r="FN24" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E25" s="1">
         <v>32</v>
@@ -6875,7 +7051,7 @@
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L25" s="1">
         <v>75</v>
@@ -6884,74 +7060,78 @@
         <v>16</v>
       </c>
       <c r="N25" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O25" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P25" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q25" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T25" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U25" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X25" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y25" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="AB25" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="AC25" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF25" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG25" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH25" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AI25" s="1">
         <v>8</v>
       </c>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>62</v>
+      </c>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
@@ -7083,20 +7263,22 @@
       <c r="FK25" s="1"/>
       <c r="FL25" s="1"/>
       <c r="FM25" s="1"/>
-      <c r="FN25" s="1"/>
+      <c r="FN25" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E26" s="1">
         <v>50</v>
@@ -7117,7 +7299,7 @@
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L26" s="1">
         <v>72</v>
@@ -7126,74 +7308,78 @@
         <v>16</v>
       </c>
       <c r="N26" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O26" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q26" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R26" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U26" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG26" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH26" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AI26" s="1">
         <v>21</v>
       </c>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>62</v>
+      </c>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
@@ -7325,20 +7511,22 @@
       <c r="FK26" s="1"/>
       <c r="FL26" s="1"/>
       <c r="FM26" s="1"/>
-      <c r="FN26" s="1"/>
+      <c r="FN26" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E27" s="1">
         <v>50</v>
@@ -7359,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L27" s="1">
         <v>72</v>
@@ -7368,74 +7556,78 @@
         <v>16</v>
       </c>
       <c r="N27" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R27" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG27" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH27" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AI27" s="1">
         <v>3</v>
       </c>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>62</v>
+      </c>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
@@ -7567,20 +7759,22 @@
       <c r="FK27" s="1"/>
       <c r="FL27" s="1"/>
       <c r="FM27" s="1"/>
-      <c r="FN27" s="1"/>
+      <c r="FN27" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
@@ -7601,7 +7795,7 @@
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L28" s="1">
         <v>72</v>
@@ -7610,74 +7804,78 @@
         <v>16</v>
       </c>
       <c r="N28" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O28" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R28" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG28" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH28" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AI28" s="1">
         <v>3</v>
       </c>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>62</v>
+      </c>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
@@ -7809,20 +8007,22 @@
       <c r="FK28" s="1"/>
       <c r="FL28" s="1"/>
       <c r="FM28" s="1"/>
-      <c r="FN28" s="1"/>
+      <c r="FN28" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E29" s="1">
         <v>50</v>
@@ -7843,7 +8043,7 @@
         <v>3</v>
       </c>
       <c r="K29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L29" s="1">
         <v>72</v>
@@ -7852,74 +8052,78 @@
         <v>16</v>
       </c>
       <c r="N29" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O29" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P29" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R29" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T29" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X29" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG29" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH29" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AI29" s="1">
         <v>6</v>
       </c>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>62</v>
+      </c>
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
@@ -8051,20 +8255,22 @@
       <c r="FK29" s="1"/>
       <c r="FL29" s="1"/>
       <c r="FM29" s="1"/>
-      <c r="FN29" s="1"/>
+      <c r="FN29" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E30" s="1">
         <v>50</v>
@@ -8085,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L30" s="1">
         <v>72</v>
@@ -8094,74 +8300,78 @@
         <v>16</v>
       </c>
       <c r="N30" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O30" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R30" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG30" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH30" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AI30" s="1">
         <v>12</v>
       </c>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>62</v>
+      </c>
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
@@ -8293,20 +8503,22 @@
       <c r="FK30" s="1"/>
       <c r="FL30" s="1"/>
       <c r="FM30" s="1"/>
-      <c r="FN30" s="1"/>
+      <c r="FN30" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E31" s="1">
         <v>50</v>
@@ -8327,7 +8539,7 @@
         <v>3</v>
       </c>
       <c r="K31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L31" s="1">
         <v>72</v>
@@ -8336,74 +8548,78 @@
         <v>16</v>
       </c>
       <c r="N31" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O31" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P31" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q31" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T31" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U31" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X31" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y31" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG31" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH31" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AI31" s="1">
         <v>15</v>
       </c>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>62</v>
+      </c>
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
@@ -8535,20 +8751,22 @@
       <c r="FK31" s="1"/>
       <c r="FL31" s="1"/>
       <c r="FM31" s="1"/>
-      <c r="FN31" s="1"/>
+      <c r="FN31" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E32" s="1">
         <v>50</v>
@@ -8569,7 +8787,7 @@
         <v>3</v>
       </c>
       <c r="K32" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L32" s="1">
         <v>72</v>
@@ -8578,74 +8796,78 @@
         <v>16</v>
       </c>
       <c r="N32" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O32" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P32" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q32" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S32" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T32" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U32" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X32" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y32" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG32" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH32" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AI32" s="1">
         <v>11</v>
       </c>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>62</v>
+      </c>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
@@ -8777,20 +8999,22 @@
       <c r="FK32" s="1"/>
       <c r="FL32" s="1"/>
       <c r="FM32" s="1"/>
-      <c r="FN32" s="1"/>
+      <c r="FN32" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E33" s="1">
         <v>50</v>
@@ -8811,7 +9035,7 @@
         <v>3</v>
       </c>
       <c r="K33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L33" s="1">
         <v>72</v>
@@ -8820,74 +9044,78 @@
         <v>16</v>
       </c>
       <c r="N33" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O33" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P33" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q33" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R33" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T33" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U33" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X33" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y33" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG33" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH33" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AI33" s="1">
         <v>15</v>
       </c>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>62</v>
+      </c>
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1"/>
@@ -9019,20 +9247,22 @@
       <c r="FK33" s="1"/>
       <c r="FL33" s="1"/>
       <c r="FM33" s="1"/>
-      <c r="FN33" s="1"/>
+      <c r="FN33" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E34" s="1">
         <v>0.25</v>
@@ -9043,81 +9273,87 @@
       <c r="G34" s="1">
         <v>96</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1">
+        <v>3</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>62</v>
+      </c>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
@@ -9249,20 +9485,22 @@
       <c r="FK34" s="1"/>
       <c r="FL34" s="1"/>
       <c r="FM34" s="1"/>
-      <c r="FN34" s="1"/>
+      <c r="FN34" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E35" s="1">
         <v>0.25</v>
@@ -9273,81 +9511,87 @@
       <c r="G35" s="1">
         <v>96</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1">
+        <v>4</v>
+      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
-      <c r="AK35" s="1"/>
-      <c r="AL35" s="1"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>62</v>
+      </c>
       <c r="AM35" s="1"/>
       <c r="AN35" s="1"/>
       <c r="AO35" s="1"/>
@@ -9479,20 +9723,22 @@
       <c r="FK35" s="1"/>
       <c r="FL35" s="1"/>
       <c r="FM35" s="1"/>
-      <c r="FN35" s="1"/>
+      <c r="FN35" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E36" s="1">
         <v>0.16666666669999999</v>
@@ -9503,81 +9749,87 @@
       <c r="G36" s="1">
         <v>96</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1">
+        <v>9</v>
+      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="1"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>62</v>
+      </c>
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
@@ -9709,20 +9961,22 @@
       <c r="FK36" s="1"/>
       <c r="FL36" s="1"/>
       <c r="FM36" s="1"/>
-      <c r="FN36" s="1"/>
+      <c r="FN36" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E37" s="1">
         <v>0.25</v>
@@ -9737,77 +9991,81 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
-      <c r="AK37" s="1"/>
-      <c r="AL37" s="1"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>62</v>
+      </c>
       <c r="AM37" s="1"/>
       <c r="AN37" s="1"/>
       <c r="AO37" s="1"/>
@@ -9939,20 +10197,22 @@
       <c r="FK37" s="1"/>
       <c r="FL37" s="1"/>
       <c r="FM37" s="1"/>
-      <c r="FN37" s="1"/>
+      <c r="FN37" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E38" s="1">
         <v>0.25</v>
@@ -9967,77 +10227,81 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI38" s="1"/>
-      <c r="AJ38" s="1"/>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="1"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>62</v>
+      </c>
       <c r="AM38" s="1"/>
       <c r="AN38" s="1"/>
       <c r="AO38" s="1"/>
@@ -10169,20 +10433,22 @@
       <c r="FK38" s="1"/>
       <c r="FL38" s="1"/>
       <c r="FM38" s="1"/>
-      <c r="FN38" s="1"/>
+      <c r="FN38" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E39" s="1">
         <v>50</v>
@@ -10193,81 +10459,87 @@
       <c r="G39" s="1">
         <v>3</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1">
+        <v>4</v>
+      </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
-      <c r="AL39" s="1"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>62</v>
+      </c>
       <c r="AM39" s="1"/>
       <c r="AN39" s="1"/>
       <c r="AO39" s="1"/>
@@ -10399,20 +10671,22 @@
       <c r="FK39" s="1"/>
       <c r="FL39" s="1"/>
       <c r="FM39" s="1"/>
-      <c r="FN39" s="1"/>
+      <c r="FN39" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E40" s="1">
         <v>50</v>
@@ -10423,81 +10697,87 @@
       <c r="G40" s="1">
         <v>3</v>
       </c>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1">
+        <v>4</v>
+      </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI40" s="1"/>
-      <c r="AJ40" s="1"/>
-      <c r="AK40" s="1"/>
-      <c r="AL40" s="1"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>62</v>
+      </c>
       <c r="AM40" s="1"/>
       <c r="AN40" s="1"/>
       <c r="AO40" s="1"/>
@@ -10629,20 +10909,22 @@
       <c r="FK40" s="1"/>
       <c r="FL40" s="1"/>
       <c r="FM40" s="1"/>
-      <c r="FN40" s="1"/>
+      <c r="FN40" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E41" s="1">
         <v>50</v>
@@ -10653,81 +10935,87 @@
       <c r="G41" s="1">
         <v>3</v>
       </c>
-      <c r="H41" s="1"/>
+      <c r="H41" s="1">
+        <v>5</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI41" s="1"/>
-      <c r="AJ41" s="1"/>
-      <c r="AK41" s="1"/>
-      <c r="AL41" s="1"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>62</v>
+      </c>
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
       <c r="AO41" s="1"/>
@@ -10859,20 +11147,22 @@
       <c r="FK41" s="1"/>
       <c r="FL41" s="1"/>
       <c r="FM41" s="1"/>
-      <c r="FN41" s="1"/>
+      <c r="FN41" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E42" s="1">
         <v>50</v>
@@ -10883,81 +11173,87 @@
       <c r="G42" s="1">
         <v>3</v>
       </c>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1">
+        <v>3</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI42" s="1"/>
-      <c r="AJ42" s="1"/>
-      <c r="AK42" s="1"/>
-      <c r="AL42" s="1"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>62</v>
+      </c>
       <c r="AM42" s="1"/>
       <c r="AN42" s="1"/>
       <c r="AO42" s="1"/>
@@ -11089,20 +11385,22 @@
       <c r="FK42" s="1"/>
       <c r="FL42" s="1"/>
       <c r="FM42" s="1"/>
-      <c r="FN42" s="1"/>
+      <c r="FN42" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E43" s="1">
         <v>50</v>
@@ -11113,81 +11411,87 @@
       <c r="G43" s="1">
         <v>3</v>
       </c>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1">
+        <v>3</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI43" s="1"/>
-      <c r="AJ43" s="1"/>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="1"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>62</v>
+      </c>
       <c r="AM43" s="1"/>
       <c r="AN43" s="1"/>
       <c r="AO43" s="1"/>
@@ -11319,7 +11623,711 @@
       <c r="FK43" s="1"/>
       <c r="FL43" s="1"/>
       <c r="FM43" s="1"/>
-      <c r="FN43" s="1"/>
+      <c r="FN43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1">
+        <v>3</v>
+      </c>
+      <c r="G44" s="1">
+        <v>100</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" t="s">
+        <v>62</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" t="s">
+        <v>62</v>
+      </c>
+      <c r="O44" t="s">
+        <v>62</v>
+      </c>
+      <c r="P44" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>62</v>
+      </c>
+      <c r="R44" t="s">
+        <v>62</v>
+      </c>
+      <c r="S44" t="s">
+        <v>62</v>
+      </c>
+      <c r="T44" t="s">
+        <v>62</v>
+      </c>
+      <c r="U44" t="s">
+        <v>62</v>
+      </c>
+      <c r="V44" t="s">
+        <v>62</v>
+      </c>
+      <c r="W44" t="s">
+        <v>62</v>
+      </c>
+      <c r="X44" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1"/>
+      <c r="AZ44" s="1"/>
+      <c r="BA44" s="1"/>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="1"/>
+      <c r="BE44" s="1"/>
+      <c r="BF44" s="1"/>
+      <c r="BG44" s="1"/>
+      <c r="BH44" s="1"/>
+      <c r="BI44" s="1"/>
+      <c r="BJ44" s="1"/>
+      <c r="BK44" s="1"/>
+      <c r="BL44" s="1"/>
+      <c r="BM44" s="1"/>
+      <c r="BN44" s="1"/>
+      <c r="BO44" s="1"/>
+      <c r="BP44" s="1"/>
+      <c r="BQ44" s="1"/>
+      <c r="BR44" s="1"/>
+      <c r="BS44" s="1"/>
+      <c r="BT44" s="1"/>
+      <c r="BU44" s="1"/>
+      <c r="BV44" s="1"/>
+      <c r="BW44" s="1"/>
+      <c r="BX44" s="1"/>
+      <c r="BY44" s="1"/>
+      <c r="BZ44" s="1"/>
+      <c r="CA44" s="1"/>
+      <c r="CB44" s="1"/>
+      <c r="CC44" s="1"/>
+      <c r="CD44" s="1"/>
+      <c r="CE44" s="1"/>
+      <c r="CF44" s="1"/>
+      <c r="CG44" s="1"/>
+      <c r="CH44" s="1"/>
+      <c r="CI44" s="1"/>
+      <c r="CJ44" s="1"/>
+      <c r="CK44" s="1"/>
+      <c r="CL44" s="1"/>
+      <c r="CM44" s="1"/>
+      <c r="CN44" s="1"/>
+      <c r="CO44" s="1"/>
+      <c r="CP44" s="1"/>
+      <c r="CQ44" s="1"/>
+      <c r="CR44" s="1"/>
+      <c r="CS44" s="1"/>
+      <c r="CT44" s="1"/>
+      <c r="CU44" s="1"/>
+      <c r="CV44" s="1"/>
+      <c r="CW44" s="1"/>
+      <c r="CX44" s="1"/>
+      <c r="CY44" s="1"/>
+      <c r="CZ44" s="1"/>
+      <c r="DA44" s="1"/>
+      <c r="DB44" s="1"/>
+      <c r="DC44" s="1"/>
+      <c r="DD44" s="1"/>
+      <c r="DE44" s="1"/>
+      <c r="DF44" s="1"/>
+      <c r="DG44" s="1"/>
+      <c r="DH44" s="1"/>
+      <c r="DI44" s="1"/>
+      <c r="DJ44" s="1"/>
+      <c r="DK44" s="1"/>
+      <c r="DL44" s="1"/>
+      <c r="DM44" s="1"/>
+      <c r="DN44" s="1"/>
+      <c r="DO44" s="1"/>
+      <c r="DP44" s="1"/>
+      <c r="DQ44" s="1"/>
+      <c r="DR44" s="1"/>
+      <c r="DS44" s="1"/>
+      <c r="DT44" s="1"/>
+      <c r="DU44" s="1"/>
+      <c r="DV44" s="1"/>
+      <c r="DW44" s="1"/>
+      <c r="DX44" s="1"/>
+      <c r="DY44" s="1"/>
+      <c r="DZ44" s="1"/>
+      <c r="EA44" s="1"/>
+      <c r="EB44" s="1"/>
+      <c r="EC44" s="1"/>
+      <c r="ED44" s="1"/>
+      <c r="EE44" s="1"/>
+      <c r="EF44" s="1"/>
+      <c r="EG44" s="1"/>
+      <c r="EH44" s="1"/>
+      <c r="EI44" s="1"/>
+      <c r="EJ44" s="1"/>
+      <c r="EK44" s="1"/>
+      <c r="EL44" s="1"/>
+      <c r="EM44" s="1"/>
+      <c r="EN44" s="1"/>
+      <c r="EO44" s="1"/>
+      <c r="EP44" s="1"/>
+      <c r="EQ44" s="1"/>
+      <c r="ER44" s="1"/>
+      <c r="ES44" s="1"/>
+      <c r="ET44" s="1"/>
+      <c r="EU44" s="1"/>
+      <c r="EV44" s="1"/>
+      <c r="EW44" s="1"/>
+      <c r="EX44" s="1"/>
+      <c r="EY44" s="1"/>
+      <c r="EZ44" s="1"/>
+      <c r="FA44" s="1"/>
+      <c r="FB44" s="1"/>
+      <c r="FC44" s="1"/>
+      <c r="FD44" s="1"/>
+      <c r="FE44" s="1"/>
+      <c r="FF44" s="1"/>
+      <c r="FG44" s="1"/>
+      <c r="FH44" s="1"/>
+      <c r="FI44" s="1"/>
+      <c r="FJ44" s="1"/>
+      <c r="FK44" s="1"/>
+      <c r="FL44" s="1"/>
+      <c r="FM44" s="1"/>
+      <c r="FN44" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1">
+        <v>3</v>
+      </c>
+      <c r="G45" s="1">
+        <v>100</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" t="s">
+        <v>62</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" t="s">
+        <v>62</v>
+      </c>
+      <c r="O45" t="s">
+        <v>62</v>
+      </c>
+      <c r="P45" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>62</v>
+      </c>
+      <c r="R45" t="s">
+        <v>62</v>
+      </c>
+      <c r="S45" t="s">
+        <v>62</v>
+      </c>
+      <c r="T45" t="s">
+        <v>62</v>
+      </c>
+      <c r="U45" t="s">
+        <v>62</v>
+      </c>
+      <c r="V45" t="s">
+        <v>62</v>
+      </c>
+      <c r="W45" t="s">
+        <v>62</v>
+      </c>
+      <c r="X45" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
+      <c r="BE45" s="1"/>
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="1"/>
+      <c r="BH45" s="1"/>
+      <c r="BI45" s="1"/>
+      <c r="BJ45" s="1"/>
+      <c r="BK45" s="1"/>
+      <c r="BL45" s="1"/>
+      <c r="BM45" s="1"/>
+      <c r="BN45" s="1"/>
+      <c r="BO45" s="1"/>
+      <c r="BP45" s="1"/>
+      <c r="BQ45" s="1"/>
+      <c r="BR45" s="1"/>
+      <c r="BS45" s="1"/>
+      <c r="BT45" s="1"/>
+      <c r="BU45" s="1"/>
+      <c r="BV45" s="1"/>
+      <c r="BW45" s="1"/>
+      <c r="BX45" s="1"/>
+      <c r="BY45" s="1"/>
+      <c r="BZ45" s="1"/>
+      <c r="CA45" s="1"/>
+      <c r="CB45" s="1"/>
+      <c r="CC45" s="1"/>
+      <c r="CD45" s="1"/>
+      <c r="CE45" s="1"/>
+      <c r="CF45" s="1"/>
+      <c r="CG45" s="1"/>
+      <c r="CH45" s="1"/>
+      <c r="CI45" s="1"/>
+      <c r="CJ45" s="1"/>
+      <c r="CK45" s="1"/>
+      <c r="CL45" s="1"/>
+      <c r="CM45" s="1"/>
+      <c r="CN45" s="1"/>
+      <c r="CO45" s="1"/>
+      <c r="CP45" s="1"/>
+      <c r="CQ45" s="1"/>
+      <c r="CR45" s="1"/>
+      <c r="CS45" s="1"/>
+      <c r="CT45" s="1"/>
+      <c r="CU45" s="1"/>
+      <c r="CV45" s="1"/>
+      <c r="CW45" s="1"/>
+      <c r="CX45" s="1"/>
+      <c r="CY45" s="1"/>
+      <c r="CZ45" s="1"/>
+      <c r="DA45" s="1"/>
+      <c r="DB45" s="1"/>
+      <c r="DC45" s="1"/>
+      <c r="DD45" s="1"/>
+      <c r="DE45" s="1"/>
+      <c r="DF45" s="1"/>
+      <c r="DG45" s="1"/>
+      <c r="DH45" s="1"/>
+      <c r="DI45" s="1"/>
+      <c r="DJ45" s="1"/>
+      <c r="DK45" s="1"/>
+      <c r="DL45" s="1"/>
+      <c r="DM45" s="1"/>
+      <c r="DN45" s="1"/>
+      <c r="DO45" s="1"/>
+      <c r="DP45" s="1"/>
+      <c r="DQ45" s="1"/>
+      <c r="DR45" s="1"/>
+      <c r="DS45" s="1"/>
+      <c r="DT45" s="1"/>
+      <c r="DU45" s="1"/>
+      <c r="DV45" s="1"/>
+      <c r="DW45" s="1"/>
+      <c r="DX45" s="1"/>
+      <c r="DY45" s="1"/>
+      <c r="DZ45" s="1"/>
+      <c r="EA45" s="1"/>
+      <c r="EB45" s="1"/>
+      <c r="EC45" s="1"/>
+      <c r="ED45" s="1"/>
+      <c r="EE45" s="1"/>
+      <c r="EF45" s="1"/>
+      <c r="EG45" s="1"/>
+      <c r="EH45" s="1"/>
+      <c r="EI45" s="1"/>
+      <c r="EJ45" s="1"/>
+      <c r="EK45" s="1"/>
+      <c r="EL45" s="1"/>
+      <c r="EM45" s="1"/>
+      <c r="EN45" s="1"/>
+      <c r="EO45" s="1"/>
+      <c r="EP45" s="1"/>
+      <c r="EQ45" s="1"/>
+      <c r="ER45" s="1"/>
+      <c r="ES45" s="1"/>
+      <c r="ET45" s="1"/>
+      <c r="EU45" s="1"/>
+      <c r="EV45" s="1"/>
+      <c r="EW45" s="1"/>
+      <c r="EX45" s="1"/>
+      <c r="EY45" s="1"/>
+      <c r="EZ45" s="1"/>
+      <c r="FA45" s="1"/>
+      <c r="FB45" s="1"/>
+      <c r="FC45" s="1"/>
+      <c r="FD45" s="1"/>
+      <c r="FE45" s="1"/>
+      <c r="FF45" s="1"/>
+      <c r="FG45" s="1"/>
+      <c r="FH45" s="1"/>
+      <c r="FI45" s="1"/>
+      <c r="FJ45" s="1"/>
+      <c r="FK45" s="1"/>
+      <c r="FL45" s="1"/>
+      <c r="FM45" s="1"/>
+      <c r="FN45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1">
+        <v>2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>100</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" t="s">
+        <v>62</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" t="s">
+        <v>62</v>
+      </c>
+      <c r="O46" t="s">
+        <v>62</v>
+      </c>
+      <c r="P46" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>62</v>
+      </c>
+      <c r="R46" t="s">
+        <v>62</v>
+      </c>
+      <c r="S46" t="s">
+        <v>62</v>
+      </c>
+      <c r="T46" t="s">
+        <v>62</v>
+      </c>
+      <c r="U46" t="s">
+        <v>62</v>
+      </c>
+      <c r="V46" t="s">
+        <v>62</v>
+      </c>
+      <c r="W46" t="s">
+        <v>62</v>
+      </c>
+      <c r="X46" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="2"/>
+      <c r="AK46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="1"/>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
+      <c r="AT46" s="1"/>
+      <c r="AU46" s="1"/>
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="1"/>
+      <c r="AX46" s="1"/>
+      <c r="AY46" s="1"/>
+      <c r="AZ46" s="1"/>
+      <c r="BA46" s="1"/>
+      <c r="BB46" s="1"/>
+      <c r="BC46" s="1"/>
+      <c r="BD46" s="1"/>
+      <c r="BE46" s="1"/>
+      <c r="BF46" s="1"/>
+      <c r="BG46" s="1"/>
+      <c r="BH46" s="1"/>
+      <c r="BI46" s="1"/>
+      <c r="BJ46" s="1"/>
+      <c r="BK46" s="1"/>
+      <c r="BL46" s="1"/>
+      <c r="BM46" s="1"/>
+      <c r="BN46" s="1"/>
+      <c r="BO46" s="1"/>
+      <c r="BP46" s="1"/>
+      <c r="BQ46" s="1"/>
+      <c r="BR46" s="1"/>
+      <c r="BS46" s="1"/>
+      <c r="BT46" s="1"/>
+      <c r="BU46" s="1"/>
+      <c r="BV46" s="1"/>
+      <c r="BW46" s="1"/>
+      <c r="BX46" s="1"/>
+      <c r="BY46" s="1"/>
+      <c r="BZ46" s="1"/>
+      <c r="CA46" s="1"/>
+      <c r="CB46" s="1"/>
+      <c r="CC46" s="1"/>
+      <c r="CD46" s="1"/>
+      <c r="CE46" s="1"/>
+      <c r="CF46" s="1"/>
+      <c r="CG46" s="1"/>
+      <c r="CH46" s="1"/>
+      <c r="CI46" s="1"/>
+      <c r="CJ46" s="1"/>
+      <c r="CK46" s="1"/>
+      <c r="CL46" s="1"/>
+      <c r="CM46" s="1"/>
+      <c r="CN46" s="1"/>
+      <c r="CO46" s="1"/>
+      <c r="CP46" s="1"/>
+      <c r="CQ46" s="1"/>
+      <c r="CR46" s="1"/>
+      <c r="CS46" s="1"/>
+      <c r="CT46" s="1"/>
+      <c r="CU46" s="1"/>
+      <c r="CV46" s="1"/>
+      <c r="CW46" s="1"/>
+      <c r="CX46" s="1"/>
+      <c r="CY46" s="1"/>
+      <c r="CZ46" s="1"/>
+      <c r="DA46" s="1"/>
+      <c r="DB46" s="1"/>
+      <c r="DC46" s="1"/>
+      <c r="DD46" s="1"/>
+      <c r="DE46" s="1"/>
+      <c r="DF46" s="1"/>
+      <c r="DG46" s="1"/>
+      <c r="DH46" s="1"/>
+      <c r="DI46" s="1"/>
+      <c r="DJ46" s="1"/>
+      <c r="DK46" s="1"/>
+      <c r="DL46" s="1"/>
+      <c r="DM46" s="1"/>
+      <c r="DN46" s="1"/>
+      <c r="DO46" s="1"/>
+      <c r="DP46" s="1"/>
+      <c r="DQ46" s="1"/>
+      <c r="DR46" s="1"/>
+      <c r="DS46" s="1"/>
+      <c r="DT46" s="1"/>
+      <c r="DU46" s="1"/>
+      <c r="DV46" s="1"/>
+      <c r="DW46" s="1"/>
+      <c r="DX46" s="1"/>
+      <c r="DY46" s="1"/>
+      <c r="DZ46" s="1"/>
+      <c r="EA46" s="1"/>
+      <c r="EB46" s="1"/>
+      <c r="EC46" s="1"/>
+      <c r="ED46" s="1"/>
+      <c r="EE46" s="1"/>
+      <c r="EF46" s="1"/>
+      <c r="EG46" s="1"/>
+      <c r="EH46" s="1"/>
+      <c r="EI46" s="1"/>
+      <c r="EJ46" s="1"/>
+      <c r="EK46" s="1"/>
+      <c r="EL46" s="1"/>
+      <c r="EM46" s="1"/>
+      <c r="EN46" s="1"/>
+      <c r="EO46" s="1"/>
+      <c r="EP46" s="1"/>
+      <c r="EQ46" s="1"/>
+      <c r="ER46" s="1"/>
+      <c r="ES46" s="1"/>
+      <c r="ET46" s="1"/>
+      <c r="EU46" s="1"/>
+      <c r="EV46" s="1"/>
+      <c r="EW46" s="1"/>
+      <c r="EX46" s="1"/>
+      <c r="EY46" s="1"/>
+      <c r="EZ46" s="1"/>
+      <c r="FA46" s="1"/>
+      <c r="FB46" s="1"/>
+      <c r="FC46" s="1"/>
+      <c r="FD46" s="1"/>
+      <c r="FE46" s="1"/>
+      <c r="FF46" s="1"/>
+      <c r="FG46" s="1"/>
+      <c r="FH46" s="1"/>
+      <c r="FI46" s="1"/>
+      <c r="FJ46" s="1"/>
+      <c r="FK46" s="1"/>
+      <c r="FL46" s="1"/>
+      <c r="FM46" s="1"/>
+      <c r="FN46" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
+++ b/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1475" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1659" uniqueCount="259">
   <si>
     <t>crop</t>
   </si>
@@ -234,6 +234,9 @@
     <t>2024-04-04</t>
   </si>
   <si>
+    <t>2024-05-11</t>
+  </si>
+  <si>
     <t>sow_fert_type_npk_1</t>
   </si>
   <si>
@@ -306,6 +309,21 @@
     <t>sow_fert_dose_4</t>
   </si>
   <si>
+    <t>sow_fert_date_5</t>
+  </si>
+  <si>
+    <t>2024-05-10</t>
+  </si>
+  <si>
+    <t>sow_fert_type_npk_5</t>
+  </si>
+  <si>
+    <t>sow_fert_type_name_5</t>
+  </si>
+  <si>
+    <t>sow_fert_dose_5</t>
+  </si>
+  <si>
     <t>transp_harden_date_srt</t>
   </si>
   <si>
@@ -357,6 +375,9 @@
     <t>transp_date_2</t>
   </si>
   <si>
+    <t>2024-05-08</t>
+  </si>
+  <si>
     <t>transp_med_2</t>
   </si>
   <si>
@@ -757,6 +778,15 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>1 was potted as gift during second transplant</t>
+  </si>
+  <si>
+    <t>3 were potted as gift during second transplant</t>
+  </si>
+  <si>
+    <t>2 were potted as gift during second transplant</t>
   </si>
   <si>
     <t>P1: 6.25 ft</t>
@@ -780,7 +810,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -789,15 +819,13 @@
       <diagonal/>
     </border>
     <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,7 +835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FN46"/>
+  <dimension ref="A1:FR46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -860,469 +888,481 @@
         <v>69</v>
       </c>
       <c r="P1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AE1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AG1" t="s">
         <v>101</v>
       </c>
       <c r="AH1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AI1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL1" t="s">
         <v>111</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>114</v>
-      </c>
       <c r="AM1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AP1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AQ1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AR1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AS1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AT1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AU1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AV1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AW1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AX1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AY1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AZ1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="BA1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="BB1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="BC1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="BD1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="BE1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="BF1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="BG1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="BH1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BI1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="BJ1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="BK1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BL1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="BM1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="BN1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="BO1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="BP1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="BQ1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="BR1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BS1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="BT1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="BU1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="BV1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="BW1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="BX1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="BY1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="BZ1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="CA1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="CB1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="CC1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="CD1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="CE1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="CF1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="CG1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="CH1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="CI1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="CJ1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="CK1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="CL1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="CM1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="CN1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="CO1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="CP1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="CQ1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="CR1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="CS1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="CT1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="CU1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="CV1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="CW1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="CX1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="CY1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="CZ1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="DA1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DB1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DC1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="DD1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="DE1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DF1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="DG1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="DH1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DI1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="DJ1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="DK1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="DL1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="DM1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="DN1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="DO1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="DP1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="DQ1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="DR1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="DS1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="DT1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DU1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="DV1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="DW1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="DX1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DY1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="DZ1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="EA1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="EB1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="EC1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="ED1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="EE1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="EF1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EG1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="EH1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="EI1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="EJ1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="EK1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="EL1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="EM1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="EN1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="EO1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="EP1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EQ1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="ER1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="ES1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="ET1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="EU1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="EV1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="EW1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="EX1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="EY1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="EZ1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="FA1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="FB1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="FC1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="FD1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="FE1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="FF1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="FG1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="FH1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="FI1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="FJ1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="FK1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="FL1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="FM1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="FN1" t="s">
-        <v>247</v>
+        <v>250</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>251</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>252</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>253</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="2">
@@ -1364,13 +1404,13 @@
         <v>70</v>
       </c>
       <c r="P2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s">
         <v>62</v>
@@ -1420,8 +1460,12 @@
       <c r="AH2" t="s">
         <v>62</v>
       </c>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="2"/>
+      <c r="AI2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>62</v>
+      </c>
       <c r="AK2" t="s">
         <v>62</v>
       </c>
@@ -1430,8 +1474,12 @@
       </c>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
+      <c r="AO2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
@@ -1559,7 +1607,11 @@
       <c r="FK2" s="1"/>
       <c r="FL2" s="1"/>
       <c r="FM2" s="1"/>
-      <c r="FN2" t="s">
+      <c r="FN2" s="1"/>
+      <c r="FO2" s="1"/>
+      <c r="FP2" s="1"/>
+      <c r="FQ2" s="1"/>
+      <c r="FR2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1608,37 +1660,37 @@
         <v>71</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S3" t="s">
         <v>72</v>
       </c>
       <c r="T3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA3" t="s">
         <v>62</v>
@@ -1659,25 +1711,33 @@
         <v>62</v>
       </c>
       <c r="AG3" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AH3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI3" s="1">
+        <v>62</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM3" s="1">
         <v>8</v>
       </c>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
+      <c r="AO3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
@@ -1805,7 +1865,11 @@
       <c r="FK3" s="1"/>
       <c r="FL3" s="1"/>
       <c r="FM3" s="1"/>
-      <c r="FN3" t="s">
+      <c r="FN3" s="1"/>
+      <c r="FO3" s="1"/>
+      <c r="FP3" s="1"/>
+      <c r="FQ3" s="1"/>
+      <c r="FR3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1854,37 +1918,37 @@
         <v>71</v>
       </c>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S4" t="s">
         <v>72</v>
       </c>
       <c r="T4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA4" t="s">
         <v>62</v>
@@ -1905,25 +1969,33 @@
         <v>62</v>
       </c>
       <c r="AG4" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AH4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI4" s="1">
+        <v>62</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM4" s="1">
         <v>1</v>
       </c>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
+      <c r="AO4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
@@ -2051,7 +2123,11 @@
       <c r="FK4" s="1"/>
       <c r="FL4" s="1"/>
       <c r="FM4" s="1"/>
-      <c r="FN4" t="s">
+      <c r="FN4" s="1"/>
+      <c r="FO4" s="1"/>
+      <c r="FP4" s="1"/>
+      <c r="FQ4" s="1"/>
+      <c r="FR4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2100,25 +2176,25 @@
         <v>71</v>
       </c>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S5" t="s">
         <v>72</v>
       </c>
       <c r="T5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W5" t="s">
         <v>62</v>
@@ -2145,33 +2221,41 @@
         <v>62</v>
       </c>
       <c r="AE5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI5" t="s">
         <v>48</v>
       </c>
-      <c r="AF5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI5" s="1">
+      <c r="AJ5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM5" s="1">
         <v>19</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AN5" s="1">
         <v>19</v>
       </c>
-      <c r="AK5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL5" t="s">
+      <c r="AO5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP5" t="s">
         <v>52</v>
       </c>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
@@ -2299,7 +2383,11 @@
       <c r="FK5" s="1"/>
       <c r="FL5" s="1"/>
       <c r="FM5" s="1"/>
-      <c r="FN5" t="s">
+      <c r="FN5" s="1"/>
+      <c r="FO5" s="1"/>
+      <c r="FP5" s="1"/>
+      <c r="FQ5" s="1"/>
+      <c r="FR5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2348,25 +2436,25 @@
         <v>71</v>
       </c>
       <c r="P6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S6" t="s">
         <v>72</v>
       </c>
       <c r="T6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W6" t="s">
         <v>62</v>
@@ -2393,33 +2481,41 @@
         <v>62</v>
       </c>
       <c r="AE6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI6" t="s">
         <v>48</v>
       </c>
-      <c r="AF6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH6" t="s">
+      <c r="AJ6" t="s">
         <v>106</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AK6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM6" s="1">
         <v>18</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AN6" s="1">
         <v>18</v>
       </c>
-      <c r="AK6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL6" t="s">
+      <c r="AO6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP6" t="s">
         <v>52</v>
       </c>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
@@ -2547,7 +2643,11 @@
       <c r="FK6" s="1"/>
       <c r="FL6" s="1"/>
       <c r="FM6" s="1"/>
-      <c r="FN6" t="s">
+      <c r="FN6" s="1"/>
+      <c r="FO6" s="1"/>
+      <c r="FP6" s="1"/>
+      <c r="FQ6" s="1"/>
+      <c r="FR6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2596,25 +2696,25 @@
         <v>71</v>
       </c>
       <c r="P7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S7" t="s">
         <v>72</v>
       </c>
       <c r="T7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W7" t="s">
         <v>62</v>
@@ -2641,36 +2741,44 @@
         <v>62</v>
       </c>
       <c r="AE7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI7" t="s">
         <v>48</v>
       </c>
-      <c r="AF7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH7" t="s">
+      <c r="AJ7" t="s">
         <v>106</v>
       </c>
-      <c r="AI7" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>20</v>
-      </c>
       <c r="AK7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AL7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AM7" s="1">
         <v>20</v>
       </c>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
+      <c r="AN7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>20</v>
+      </c>
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
       <c r="AT7" s="1"/>
@@ -2797,7 +2905,11 @@
       <c r="FK7" s="1"/>
       <c r="FL7" s="1"/>
       <c r="FM7" s="1"/>
-      <c r="FN7" t="s">
+      <c r="FN7" s="1"/>
+      <c r="FO7" s="1"/>
+      <c r="FP7" s="1"/>
+      <c r="FQ7" s="1"/>
+      <c r="FR7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2846,25 +2958,25 @@
         <v>71</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s">
         <v>72</v>
       </c>
       <c r="T8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W8" t="s">
         <v>62</v>
@@ -2891,36 +3003,44 @@
         <v>62</v>
       </c>
       <c r="AE8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI8" t="s">
         <v>48</v>
       </c>
-      <c r="AF8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH8" t="s">
+      <c r="AJ8" t="s">
         <v>106</v>
       </c>
-      <c r="AI8" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ8" s="2">
-        <v>20</v>
-      </c>
       <c r="AK8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AL8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AM8" s="1">
         <v>20</v>
       </c>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
+      <c r="AN8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>20</v>
+      </c>
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
@@ -3047,7 +3167,11 @@
       <c r="FK8" s="1"/>
       <c r="FL8" s="1"/>
       <c r="FM8" s="1"/>
-      <c r="FN8" t="s">
+      <c r="FN8" s="1"/>
+      <c r="FO8" s="1"/>
+      <c r="FP8" s="1"/>
+      <c r="FQ8" s="1"/>
+      <c r="FR8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3098,76 +3222,84 @@
         <v>71</v>
       </c>
       <c r="P9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S9" t="s">
         <v>72</v>
       </c>
       <c r="T9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE9" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AF9" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG9" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI9" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM9" s="1">
         <v>16</v>
       </c>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
+      <c r="AO9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
@@ -3295,7 +3427,11 @@
       <c r="FK9" s="1"/>
       <c r="FL9" s="1"/>
       <c r="FM9" s="1"/>
-      <c r="FN9" t="s">
+      <c r="FN9" s="1"/>
+      <c r="FO9" s="1"/>
+      <c r="FP9" s="1"/>
+      <c r="FQ9" s="1"/>
+      <c r="FR9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3346,76 +3482,84 @@
         <v>71</v>
       </c>
       <c r="P10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S10" t="s">
         <v>72</v>
       </c>
       <c r="T10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE10" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AF10" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG10" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI10" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM10" s="1">
         <v>12</v>
       </c>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
+      <c r="AO10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
@@ -3543,7 +3687,11 @@
       <c r="FK10" s="1"/>
       <c r="FL10" s="1"/>
       <c r="FM10" s="1"/>
-      <c r="FN10" t="s">
+      <c r="FN10" s="1"/>
+      <c r="FO10" s="1"/>
+      <c r="FP10" s="1"/>
+      <c r="FQ10" s="1"/>
+      <c r="FR10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3594,76 +3742,84 @@
         <v>71</v>
       </c>
       <c r="P11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S11" t="s">
         <v>72</v>
       </c>
       <c r="T11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE11" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AF11" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG11" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI11" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM11" s="1">
         <v>3</v>
       </c>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
+      <c r="AO11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
@@ -3791,7 +3947,11 @@
       <c r="FK11" s="1"/>
       <c r="FL11" s="1"/>
       <c r="FM11" s="1"/>
-      <c r="FN11" t="s">
+      <c r="FN11" s="1"/>
+      <c r="FO11" s="1"/>
+      <c r="FP11" s="1"/>
+      <c r="FQ11" s="1"/>
+      <c r="FR11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3842,76 +4002,84 @@
         <v>71</v>
       </c>
       <c r="P12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s">
         <v>72</v>
       </c>
       <c r="T12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE12" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AF12" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI12" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM12" s="1">
         <v>4</v>
       </c>
-      <c r="AJ12" s="2"/>
-      <c r="AK12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
+      <c r="AO12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
@@ -4039,7 +4207,11 @@
       <c r="FK12" s="1"/>
       <c r="FL12" s="1"/>
       <c r="FM12" s="1"/>
-      <c r="FN12" t="s">
+      <c r="FN12" s="1"/>
+      <c r="FO12" s="1"/>
+      <c r="FP12" s="1"/>
+      <c r="FQ12" s="1"/>
+      <c r="FR12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4090,76 +4262,84 @@
         <v>71</v>
       </c>
       <c r="P13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S13" t="s">
         <v>72</v>
       </c>
       <c r="T13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE13" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AF13" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI13" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM13" s="1">
         <v>25</v>
       </c>
-      <c r="AJ13" s="2"/>
-      <c r="AK13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
+      <c r="AO13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
@@ -4287,7 +4467,11 @@
       <c r="FK13" s="1"/>
       <c r="FL13" s="1"/>
       <c r="FM13" s="1"/>
-      <c r="FN13" t="s">
+      <c r="FN13" s="1"/>
+      <c r="FO13" s="1"/>
+      <c r="FP13" s="1"/>
+      <c r="FQ13" s="1"/>
+      <c r="FR13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4338,76 +4522,84 @@
         <v>71</v>
       </c>
       <c r="P14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S14" t="s">
         <v>72</v>
       </c>
       <c r="T14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE14" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AF14" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG14" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI14" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM14" s="1">
         <v>5</v>
       </c>
-      <c r="AJ14" s="2"/>
-      <c r="AK14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
+      <c r="AO14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
@@ -4535,7 +4727,11 @@
       <c r="FK14" s="1"/>
       <c r="FL14" s="1"/>
       <c r="FM14" s="1"/>
-      <c r="FN14" t="s">
+      <c r="FN14" s="1"/>
+      <c r="FO14" s="1"/>
+      <c r="FP14" s="1"/>
+      <c r="FQ14" s="1"/>
+      <c r="FR14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4586,76 +4782,84 @@
         <v>71</v>
       </c>
       <c r="P15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S15" t="s">
         <v>72</v>
       </c>
       <c r="T15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AF15" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG15" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI15" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM15" s="1">
         <v>3</v>
       </c>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
+      <c r="AO15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
@@ -4783,7 +4987,11 @@
       <c r="FK15" s="1"/>
       <c r="FL15" s="1"/>
       <c r="FM15" s="1"/>
-      <c r="FN15" t="s">
+      <c r="FN15" s="1"/>
+      <c r="FO15" s="1"/>
+      <c r="FP15" s="1"/>
+      <c r="FQ15" s="1"/>
+      <c r="FR15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4834,76 +5042,84 @@
         <v>71</v>
       </c>
       <c r="P16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S16" t="s">
         <v>72</v>
       </c>
       <c r="T16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE16" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AF16" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG16" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI16" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM16" s="1">
         <v>6</v>
       </c>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
+      <c r="AO16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
       <c r="AS16" s="1"/>
@@ -5031,7 +5247,11 @@
       <c r="FK16" s="1"/>
       <c r="FL16" s="1"/>
       <c r="FM16" s="1"/>
-      <c r="FN16" t="s">
+      <c r="FN16" s="1"/>
+      <c r="FO16" s="1"/>
+      <c r="FP16" s="1"/>
+      <c r="FQ16" s="1"/>
+      <c r="FR16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5082,76 +5302,84 @@
         <v>71</v>
       </c>
       <c r="P17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S17" t="s">
         <v>72</v>
       </c>
       <c r="T17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE17" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AF17" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI17" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM17" s="1">
         <v>2</v>
       </c>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
-      <c r="AO17" s="1"/>
-      <c r="AP17" s="1"/>
+      <c r="AO17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ17" s="1"/>
       <c r="AR17" s="1"/>
       <c r="AS17" s="1"/>
@@ -5279,7 +5507,11 @@
       <c r="FK17" s="1"/>
       <c r="FL17" s="1"/>
       <c r="FM17" s="1"/>
-      <c r="FN17" t="s">
+      <c r="FN17" s="1"/>
+      <c r="FO17" s="1"/>
+      <c r="FP17" s="1"/>
+      <c r="FQ17" s="1"/>
+      <c r="FR17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5330,76 +5562,84 @@
         <v>71</v>
       </c>
       <c r="P18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S18" t="s">
         <v>72</v>
       </c>
       <c r="T18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE18" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AF18" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI18" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM18" s="1">
         <v>1</v>
       </c>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
-      <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
+      <c r="AO18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
       <c r="AS18" s="1"/>
@@ -5527,7 +5767,11 @@
       <c r="FK18" s="1"/>
       <c r="FL18" s="1"/>
       <c r="FM18" s="1"/>
-      <c r="FN18" t="s">
+      <c r="FN18" s="1"/>
+      <c r="FO18" s="1"/>
+      <c r="FP18" s="1"/>
+      <c r="FQ18" s="1"/>
+      <c r="FR18" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5578,76 +5822,84 @@
         <v>71</v>
       </c>
       <c r="P19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S19" t="s">
         <v>72</v>
       </c>
       <c r="T19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE19" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AF19" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI19" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM19" s="1">
         <v>2</v>
       </c>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
-      <c r="AP19" s="1"/>
+      <c r="AO19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
       <c r="AS19" s="1"/>
@@ -5775,7 +6027,11 @@
       <c r="FK19" s="1"/>
       <c r="FL19" s="1"/>
       <c r="FM19" s="1"/>
-      <c r="FN19" t="s">
+      <c r="FN19" s="1"/>
+      <c r="FO19" s="1"/>
+      <c r="FP19" s="1"/>
+      <c r="FQ19" s="1"/>
+      <c r="FR19" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5826,76 +6082,84 @@
         <v>71</v>
       </c>
       <c r="P20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S20" t="s">
         <v>72</v>
       </c>
       <c r="T20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE20" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AF20" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG20" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI20" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM20" s="1">
         <v>3</v>
       </c>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
-      <c r="AO20" s="1"/>
-      <c r="AP20" s="1"/>
+      <c r="AO20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
@@ -6023,7 +6287,11 @@
       <c r="FK20" s="1"/>
       <c r="FL20" s="1"/>
       <c r="FM20" s="1"/>
-      <c r="FN20" t="s">
+      <c r="FN20" s="1"/>
+      <c r="FO20" s="1"/>
+      <c r="FP20" s="1"/>
+      <c r="FQ20" s="1"/>
+      <c r="FR20" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6074,76 +6342,84 @@
         <v>72</v>
       </c>
       <c r="P21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA21" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="AD21" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="AE21" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AF21" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI21" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM21" s="1">
         <v>16</v>
       </c>
-      <c r="AJ21" s="2"/>
-      <c r="AK21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
-      <c r="AP21" s="1"/>
+      <c r="AO21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
@@ -6271,7 +6547,11 @@
       <c r="FK21" s="1"/>
       <c r="FL21" s="1"/>
       <c r="FM21" s="1"/>
-      <c r="FN21" t="s">
+      <c r="FN21" s="1"/>
+      <c r="FO21" s="1"/>
+      <c r="FP21" s="1"/>
+      <c r="FQ21" s="1"/>
+      <c r="FR21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6322,76 +6602,84 @@
         <v>72</v>
       </c>
       <c r="P22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA22" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="AD22" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="AE22" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AF22" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG22" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI22" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM22" s="1">
         <v>16</v>
       </c>
-      <c r="AJ22" s="2"/>
-      <c r="AK22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
-      <c r="AP22" s="1"/>
+      <c r="AO22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
@@ -6519,7 +6807,11 @@
       <c r="FK22" s="1"/>
       <c r="FL22" s="1"/>
       <c r="FM22" s="1"/>
-      <c r="FN22" t="s">
+      <c r="FN22" s="1"/>
+      <c r="FO22" s="1"/>
+      <c r="FP22" s="1"/>
+      <c r="FQ22" s="1"/>
+      <c r="FR22" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6570,76 +6862,84 @@
         <v>72</v>
       </c>
       <c r="P23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA23" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AB23" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="AD23" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="AE23" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AF23" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG23" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI23" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM23" s="1">
         <v>12</v>
       </c>
-      <c r="AJ23" s="2"/>
-      <c r="AK23" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
-      <c r="AO23" s="1"/>
-      <c r="AP23" s="1"/>
+      <c r="AO23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
@@ -6767,7 +7067,11 @@
       <c r="FK23" s="1"/>
       <c r="FL23" s="1"/>
       <c r="FM23" s="1"/>
-      <c r="FN23" t="s">
+      <c r="FN23" s="1"/>
+      <c r="FO23" s="1"/>
+      <c r="FP23" s="1"/>
+      <c r="FQ23" s="1"/>
+      <c r="FR23" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6818,76 +7122,84 @@
         <v>72</v>
       </c>
       <c r="P24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA24" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AB24" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="AD24" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="AE24" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AF24" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI24" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM24" s="1">
         <v>13</v>
       </c>
-      <c r="AJ24" s="2"/>
-      <c r="AK24" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
-      <c r="AP24" s="1"/>
+      <c r="AO24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
@@ -7015,7 +7327,11 @@
       <c r="FK24" s="1"/>
       <c r="FL24" s="1"/>
       <c r="FM24" s="1"/>
-      <c r="FN24" t="s">
+      <c r="FN24" s="1"/>
+      <c r="FO24" s="1"/>
+      <c r="FP24" s="1"/>
+      <c r="FQ24" s="1"/>
+      <c r="FR24" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7066,49 +7382,49 @@
         <v>72</v>
       </c>
       <c r="P25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W25" t="s">
+        <v>90</v>
+      </c>
+      <c r="X25" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA25" t="s">
         <v>89</v>
       </c>
-      <c r="X25" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>88</v>
-      </c>
       <c r="AB25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE25" t="s">
         <v>62</v>
@@ -7117,25 +7433,33 @@
         <v>62</v>
       </c>
       <c r="AG25" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AH25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI25" s="1">
+        <v>62</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM25" s="1">
         <v>8</v>
       </c>
-      <c r="AJ25" s="2"/>
-      <c r="AK25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
+      <c r="AO25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ25" s="1"/>
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
@@ -7263,7 +7587,11 @@
       <c r="FK25" s="1"/>
       <c r="FL25" s="1"/>
       <c r="FM25" s="1"/>
-      <c r="FN25" t="s">
+      <c r="FN25" s="1"/>
+      <c r="FO25" s="1"/>
+      <c r="FP25" s="1"/>
+      <c r="FQ25" s="1"/>
+      <c r="FR25" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7314,37 +7642,37 @@
         <v>72</v>
       </c>
       <c r="P26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA26" t="s">
         <v>62</v>
@@ -7365,26 +7693,38 @@
         <v>62</v>
       </c>
       <c r="AG26" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AH26" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI26" s="1">
+        <v>62</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM26" s="1">
         <v>21</v>
       </c>
-      <c r="AJ26" s="2"/>
-      <c r="AK26" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="1"/>
-      <c r="AO26" s="1"/>
-      <c r="AP26" s="1"/>
-      <c r="AQ26" s="1"/>
+      <c r="AN26" s="1">
+        <v>21</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>20</v>
+      </c>
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1"/>
@@ -7511,8 +7851,12 @@
       <c r="FK26" s="1"/>
       <c r="FL26" s="1"/>
       <c r="FM26" s="1"/>
-      <c r="FN26" t="s">
-        <v>62</v>
+      <c r="FN26" s="1"/>
+      <c r="FO26" s="1"/>
+      <c r="FP26" s="1"/>
+      <c r="FQ26" s="1"/>
+      <c r="FR26" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="27">
@@ -7562,37 +7906,37 @@
         <v>72</v>
       </c>
       <c r="P27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA27" t="s">
         <v>62</v>
@@ -7613,25 +7957,33 @@
         <v>62</v>
       </c>
       <c r="AG27" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AH27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK27" t="s">
         <v>109</v>
       </c>
-      <c r="AI27" s="1">
+      <c r="AL27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM27" s="1">
         <v>3</v>
       </c>
-      <c r="AJ27" s="2"/>
-      <c r="AK27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
-      <c r="AO27" s="1"/>
-      <c r="AP27" s="1"/>
+      <c r="AO27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
@@ -7759,7 +8111,11 @@
       <c r="FK27" s="1"/>
       <c r="FL27" s="1"/>
       <c r="FM27" s="1"/>
-      <c r="FN27" t="s">
+      <c r="FN27" s="1"/>
+      <c r="FO27" s="1"/>
+      <c r="FP27" s="1"/>
+      <c r="FQ27" s="1"/>
+      <c r="FR27" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7810,37 +8166,37 @@
         <v>72</v>
       </c>
       <c r="P28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA28" t="s">
         <v>62</v>
@@ -7861,25 +8217,33 @@
         <v>62</v>
       </c>
       <c r="AG28" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AH28" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI28" s="1">
+        <v>62</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM28" s="1">
         <v>3</v>
       </c>
-      <c r="AJ28" s="2"/>
-      <c r="AK28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
-      <c r="AO28" s="1"/>
-      <c r="AP28" s="1"/>
+      <c r="AO28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
@@ -8007,7 +8371,11 @@
       <c r="FK28" s="1"/>
       <c r="FL28" s="1"/>
       <c r="FM28" s="1"/>
-      <c r="FN28" t="s">
+      <c r="FN28" s="1"/>
+      <c r="FO28" s="1"/>
+      <c r="FP28" s="1"/>
+      <c r="FQ28" s="1"/>
+      <c r="FR28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8058,37 +8426,37 @@
         <v>72</v>
       </c>
       <c r="P29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s">
         <v>62</v>
@@ -8109,25 +8477,33 @@
         <v>62</v>
       </c>
       <c r="AG29" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AH29" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI29" s="1">
+        <v>62</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM29" s="1">
         <v>6</v>
       </c>
-      <c r="AJ29" s="2"/>
-      <c r="AK29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
-      <c r="AO29" s="1"/>
-      <c r="AP29" s="1"/>
+      <c r="AO29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
@@ -8255,7 +8631,11 @@
       <c r="FK29" s="1"/>
       <c r="FL29" s="1"/>
       <c r="FM29" s="1"/>
-      <c r="FN29" t="s">
+      <c r="FN29" s="1"/>
+      <c r="FO29" s="1"/>
+      <c r="FP29" s="1"/>
+      <c r="FQ29" s="1"/>
+      <c r="FR29" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8306,37 +8686,37 @@
         <v>72</v>
       </c>
       <c r="P30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA30" t="s">
         <v>62</v>
@@ -8357,25 +8737,33 @@
         <v>62</v>
       </c>
       <c r="AG30" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AH30" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI30" s="1">
+        <v>62</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM30" s="1">
         <v>12</v>
       </c>
-      <c r="AJ30" s="2"/>
-      <c r="AK30" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
-      <c r="AO30" s="1"/>
-      <c r="AP30" s="1"/>
+      <c r="AO30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ30" s="1"/>
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
@@ -8503,7 +8891,11 @@
       <c r="FK30" s="1"/>
       <c r="FL30" s="1"/>
       <c r="FM30" s="1"/>
-      <c r="FN30" t="s">
+      <c r="FN30" s="1"/>
+      <c r="FO30" s="1"/>
+      <c r="FP30" s="1"/>
+      <c r="FQ30" s="1"/>
+      <c r="FR30" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8554,37 +8946,37 @@
         <v>72</v>
       </c>
       <c r="P31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA31" t="s">
         <v>62</v>
@@ -8605,25 +8997,33 @@
         <v>62</v>
       </c>
       <c r="AG31" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AH31" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI31" s="1">
+        <v>62</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM31" s="1">
         <v>15</v>
       </c>
-      <c r="AJ31" s="2"/>
-      <c r="AK31" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
+      <c r="AO31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ31" s="1"/>
       <c r="AR31" s="1"/>
       <c r="AS31" s="1"/>
@@ -8751,8 +9151,12 @@
       <c r="FK31" s="1"/>
       <c r="FL31" s="1"/>
       <c r="FM31" s="1"/>
-      <c r="FN31" t="s">
-        <v>62</v>
+      <c r="FN31" s="1"/>
+      <c r="FO31" s="1"/>
+      <c r="FP31" s="1"/>
+      <c r="FQ31" s="1"/>
+      <c r="FR31" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="32">
@@ -8802,37 +9206,37 @@
         <v>72</v>
       </c>
       <c r="P32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA32" t="s">
         <v>62</v>
@@ -8853,25 +9257,33 @@
         <v>62</v>
       </c>
       <c r="AG32" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AH32" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI32" s="1">
+        <v>62</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM32" s="1">
         <v>11</v>
       </c>
-      <c r="AJ32" s="2"/>
-      <c r="AK32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
-      <c r="AO32" s="1"/>
-      <c r="AP32" s="1"/>
+      <c r="AO32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
@@ -8999,8 +9411,12 @@
       <c r="FK32" s="1"/>
       <c r="FL32" s="1"/>
       <c r="FM32" s="1"/>
-      <c r="FN32" t="s">
-        <v>62</v>
+      <c r="FN32" s="1"/>
+      <c r="FO32" s="1"/>
+      <c r="FP32" s="1"/>
+      <c r="FQ32" s="1"/>
+      <c r="FR32" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="33">
@@ -9050,37 +9466,37 @@
         <v>72</v>
       </c>
       <c r="P33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA33" t="s">
         <v>62</v>
@@ -9101,25 +9517,33 @@
         <v>62</v>
       </c>
       <c r="AG33" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AH33" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI33" s="1">
+        <v>62</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM33" s="1">
         <v>15</v>
       </c>
-      <c r="AJ33" s="2"/>
-      <c r="AK33" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
-      <c r="AO33" s="1"/>
-      <c r="AP33" s="1"/>
+      <c r="AO33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
@@ -9247,8 +9671,12 @@
       <c r="FK33" s="1"/>
       <c r="FL33" s="1"/>
       <c r="FM33" s="1"/>
-      <c r="FN33" t="s">
-        <v>62</v>
+      <c r="FN33" s="1"/>
+      <c r="FO33" s="1"/>
+      <c r="FP33" s="1"/>
+      <c r="FQ33" s="1"/>
+      <c r="FR33" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="34">
@@ -9276,8 +9704,12 @@
       <c r="H34" s="1">
         <v>3</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="I34" s="1">
+        <v>96</v>
+      </c>
+      <c r="J34" s="1">
+        <v>96</v>
+      </c>
       <c r="K34" t="s">
         <v>62</v>
       </c>
@@ -9346,8 +9778,12 @@
       <c r="AH34" t="s">
         <v>62</v>
       </c>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="2"/>
+      <c r="AI34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>62</v>
+      </c>
       <c r="AK34" t="s">
         <v>62</v>
       </c>
@@ -9356,8 +9792,12 @@
       </c>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="1"/>
+      <c r="AO34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
@@ -9485,7 +9925,11 @@
       <c r="FK34" s="1"/>
       <c r="FL34" s="1"/>
       <c r="FM34" s="1"/>
-      <c r="FN34" t="s">
+      <c r="FN34" s="1"/>
+      <c r="FO34" s="1"/>
+      <c r="FP34" s="1"/>
+      <c r="FQ34" s="1"/>
+      <c r="FR34" t="s">
         <v>62</v>
       </c>
     </row>
@@ -9514,8 +9958,12 @@
       <c r="H35" s="1">
         <v>4</v>
       </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="I35" s="1">
+        <v>96</v>
+      </c>
+      <c r="J35" s="1">
+        <v>96</v>
+      </c>
       <c r="K35" t="s">
         <v>62</v>
       </c>
@@ -9584,8 +10032,12 @@
       <c r="AH35" t="s">
         <v>62</v>
       </c>
-      <c r="AI35" s="1"/>
-      <c r="AJ35" s="2"/>
+      <c r="AI35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>62</v>
+      </c>
       <c r="AK35" t="s">
         <v>62</v>
       </c>
@@ -9594,8 +10046,12 @@
       </c>
       <c r="AM35" s="1"/>
       <c r="AN35" s="1"/>
-      <c r="AO35" s="1"/>
-      <c r="AP35" s="1"/>
+      <c r="AO35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
@@ -9723,7 +10179,11 @@
       <c r="FK35" s="1"/>
       <c r="FL35" s="1"/>
       <c r="FM35" s="1"/>
-      <c r="FN35" t="s">
+      <c r="FN35" s="1"/>
+      <c r="FO35" s="1"/>
+      <c r="FP35" s="1"/>
+      <c r="FQ35" s="1"/>
+      <c r="FR35" t="s">
         <v>62</v>
       </c>
     </row>
@@ -9752,8 +10212,12 @@
       <c r="H36" s="1">
         <v>9</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="I36" s="1">
+        <v>96</v>
+      </c>
+      <c r="J36" s="1">
+        <v>96</v>
+      </c>
       <c r="K36" t="s">
         <v>62</v>
       </c>
@@ -9822,8 +10286,12 @@
       <c r="AH36" t="s">
         <v>62</v>
       </c>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="2"/>
+      <c r="AI36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>62</v>
+      </c>
       <c r="AK36" t="s">
         <v>62</v>
       </c>
@@ -9832,8 +10300,12 @@
       </c>
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
-      <c r="AO36" s="1"/>
-      <c r="AP36" s="1"/>
+      <c r="AO36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
@@ -9961,7 +10433,11 @@
       <c r="FK36" s="1"/>
       <c r="FL36" s="1"/>
       <c r="FM36" s="1"/>
-      <c r="FN36" t="s">
+      <c r="FN36" s="1"/>
+      <c r="FO36" s="1"/>
+      <c r="FP36" s="1"/>
+      <c r="FQ36" s="1"/>
+      <c r="FR36" t="s">
         <v>62</v>
       </c>
     </row>
@@ -9987,9 +10463,15 @@
       <c r="G37" s="1">
         <v>96</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="H37" s="1">
+        <v>9</v>
+      </c>
+      <c r="I37" s="1">
+        <v>96</v>
+      </c>
+      <c r="J37" s="1">
+        <v>96</v>
+      </c>
       <c r="K37" t="s">
         <v>62</v>
       </c>
@@ -10058,8 +10540,12 @@
       <c r="AH37" t="s">
         <v>62</v>
       </c>
-      <c r="AI37" s="1"/>
-      <c r="AJ37" s="2"/>
+      <c r="AI37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>62</v>
+      </c>
       <c r="AK37" t="s">
         <v>62</v>
       </c>
@@ -10068,8 +10554,12 @@
       </c>
       <c r="AM37" s="1"/>
       <c r="AN37" s="1"/>
-      <c r="AO37" s="1"/>
-      <c r="AP37" s="1"/>
+      <c r="AO37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
@@ -10197,7 +10687,11 @@
       <c r="FK37" s="1"/>
       <c r="FL37" s="1"/>
       <c r="FM37" s="1"/>
-      <c r="FN37" t="s">
+      <c r="FN37" s="1"/>
+      <c r="FO37" s="1"/>
+      <c r="FP37" s="1"/>
+      <c r="FQ37" s="1"/>
+      <c r="FR37" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10223,9 +10717,15 @@
       <c r="G38" s="1">
         <v>96</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="H38" s="1">
+        <v>9</v>
+      </c>
+      <c r="I38" s="1">
+        <v>96</v>
+      </c>
+      <c r="J38" s="1">
+        <v>96</v>
+      </c>
       <c r="K38" t="s">
         <v>62</v>
       </c>
@@ -10294,8 +10794,12 @@
       <c r="AH38" t="s">
         <v>62</v>
       </c>
-      <c r="AI38" s="1"/>
-      <c r="AJ38" s="2"/>
+      <c r="AI38" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>62</v>
+      </c>
       <c r="AK38" t="s">
         <v>62</v>
       </c>
@@ -10304,8 +10808,12 @@
       </c>
       <c r="AM38" s="1"/>
       <c r="AN38" s="1"/>
-      <c r="AO38" s="1"/>
-      <c r="AP38" s="1"/>
+      <c r="AO38" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
@@ -10433,7 +10941,11 @@
       <c r="FK38" s="1"/>
       <c r="FL38" s="1"/>
       <c r="FM38" s="1"/>
-      <c r="FN38" t="s">
+      <c r="FN38" s="1"/>
+      <c r="FO38" s="1"/>
+      <c r="FP38" s="1"/>
+      <c r="FQ38" s="1"/>
+      <c r="FR38" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10462,27 +10974,29 @@
       <c r="H39" s="1">
         <v>4</v>
       </c>
-      <c r="I39" s="1"/>
+      <c r="I39" s="1">
+        <v>3</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="O39" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="P39" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="Q39" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="R39" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="S39" t="s">
         <v>62</v>
@@ -10532,8 +11046,12 @@
       <c r="AH39" t="s">
         <v>62</v>
       </c>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="2"/>
+      <c r="AI39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>62</v>
+      </c>
       <c r="AK39" t="s">
         <v>62</v>
       </c>
@@ -10542,8 +11060,12 @@
       </c>
       <c r="AM39" s="1"/>
       <c r="AN39" s="1"/>
-      <c r="AO39" s="1"/>
-      <c r="AP39" s="1"/>
+      <c r="AO39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
@@ -10671,7 +11193,11 @@
       <c r="FK39" s="1"/>
       <c r="FL39" s="1"/>
       <c r="FM39" s="1"/>
-      <c r="FN39" t="s">
+      <c r="FN39" s="1"/>
+      <c r="FO39" s="1"/>
+      <c r="FP39" s="1"/>
+      <c r="FQ39" s="1"/>
+      <c r="FR39" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10700,27 +11226,29 @@
       <c r="H40" s="1">
         <v>4</v>
       </c>
-      <c r="I40" s="1"/>
+      <c r="I40" s="1">
+        <v>2</v>
+      </c>
       <c r="J40" s="1"/>
       <c r="K40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="O40" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="P40" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="Q40" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="R40" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="S40" t="s">
         <v>62</v>
@@ -10770,8 +11298,12 @@
       <c r="AH40" t="s">
         <v>62</v>
       </c>
-      <c r="AI40" s="1"/>
-      <c r="AJ40" s="2"/>
+      <c r="AI40" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>62</v>
+      </c>
       <c r="AK40" t="s">
         <v>62</v>
       </c>
@@ -10780,8 +11312,12 @@
       </c>
       <c r="AM40" s="1"/>
       <c r="AN40" s="1"/>
-      <c r="AO40" s="1"/>
-      <c r="AP40" s="1"/>
+      <c r="AO40" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
@@ -10909,7 +11445,11 @@
       <c r="FK40" s="1"/>
       <c r="FL40" s="1"/>
       <c r="FM40" s="1"/>
-      <c r="FN40" t="s">
+      <c r="FN40" s="1"/>
+      <c r="FO40" s="1"/>
+      <c r="FP40" s="1"/>
+      <c r="FQ40" s="1"/>
+      <c r="FR40" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10938,27 +11478,29 @@
       <c r="H41" s="1">
         <v>5</v>
       </c>
-      <c r="I41" s="1"/>
+      <c r="I41" s="1">
+        <v>2</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="O41" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="P41" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="Q41" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="R41" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="S41" t="s">
         <v>62</v>
@@ -11008,8 +11550,12 @@
       <c r="AH41" t="s">
         <v>62</v>
       </c>
-      <c r="AI41" s="1"/>
-      <c r="AJ41" s="2"/>
+      <c r="AI41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>62</v>
+      </c>
       <c r="AK41" t="s">
         <v>62</v>
       </c>
@@ -11018,8 +11564,12 @@
       </c>
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
-      <c r="AO41" s="1"/>
-      <c r="AP41" s="1"/>
+      <c r="AO41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
@@ -11147,7 +11697,11 @@
       <c r="FK41" s="1"/>
       <c r="FL41" s="1"/>
       <c r="FM41" s="1"/>
-      <c r="FN41" t="s">
+      <c r="FN41" s="1"/>
+      <c r="FO41" s="1"/>
+      <c r="FP41" s="1"/>
+      <c r="FQ41" s="1"/>
+      <c r="FR41" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11176,27 +11730,29 @@
       <c r="H42" s="1">
         <v>3</v>
       </c>
-      <c r="I42" s="1"/>
+      <c r="I42" s="1">
+        <v>3</v>
+      </c>
       <c r="J42" s="1"/>
       <c r="K42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="O42" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="P42" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="Q42" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="R42" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="S42" t="s">
         <v>62</v>
@@ -11246,8 +11802,12 @@
       <c r="AH42" t="s">
         <v>62</v>
       </c>
-      <c r="AI42" s="1"/>
-      <c r="AJ42" s="2"/>
+      <c r="AI42" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>62</v>
+      </c>
       <c r="AK42" t="s">
         <v>62</v>
       </c>
@@ -11256,8 +11816,12 @@
       </c>
       <c r="AM42" s="1"/>
       <c r="AN42" s="1"/>
-      <c r="AO42" s="1"/>
-      <c r="AP42" s="1"/>
+      <c r="AO42" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ42" s="1"/>
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
@@ -11385,7 +11949,11 @@
       <c r="FK42" s="1"/>
       <c r="FL42" s="1"/>
       <c r="FM42" s="1"/>
-      <c r="FN42" t="s">
+      <c r="FN42" s="1"/>
+      <c r="FO42" s="1"/>
+      <c r="FP42" s="1"/>
+      <c r="FQ42" s="1"/>
+      <c r="FR42" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11414,27 +11982,29 @@
       <c r="H43" s="1">
         <v>3</v>
       </c>
-      <c r="I43" s="1"/>
+      <c r="I43" s="1">
+        <v>3</v>
+      </c>
       <c r="J43" s="1"/>
       <c r="K43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="O43" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="P43" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="Q43" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="R43" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="S43" t="s">
         <v>62</v>
@@ -11484,8 +12054,12 @@
       <c r="AH43" t="s">
         <v>62</v>
       </c>
-      <c r="AI43" s="1"/>
-      <c r="AJ43" s="2"/>
+      <c r="AI43" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>62</v>
+      </c>
       <c r="AK43" t="s">
         <v>62</v>
       </c>
@@ -11494,8 +12068,12 @@
       </c>
       <c r="AM43" s="1"/>
       <c r="AN43" s="1"/>
-      <c r="AO43" s="1"/>
-      <c r="AP43" s="1"/>
+      <c r="AO43" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
@@ -11623,7 +12201,11 @@
       <c r="FK43" s="1"/>
       <c r="FL43" s="1"/>
       <c r="FM43" s="1"/>
-      <c r="FN43" t="s">
+      <c r="FN43" s="1"/>
+      <c r="FO43" s="1"/>
+      <c r="FP43" s="1"/>
+      <c r="FQ43" s="1"/>
+      <c r="FR43" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11718,8 +12300,12 @@
       <c r="AH44" t="s">
         <v>62</v>
       </c>
-      <c r="AI44" s="1"/>
-      <c r="AJ44" s="2"/>
+      <c r="AI44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>62</v>
+      </c>
       <c r="AK44" t="s">
         <v>62</v>
       </c>
@@ -11728,8 +12314,12 @@
       </c>
       <c r="AM44" s="1"/>
       <c r="AN44" s="1"/>
-      <c r="AO44" s="1"/>
-      <c r="AP44" s="1"/>
+      <c r="AO44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
@@ -11857,8 +12447,12 @@
       <c r="FK44" s="1"/>
       <c r="FL44" s="1"/>
       <c r="FM44" s="1"/>
-      <c r="FN44" t="s">
-        <v>248</v>
+      <c r="FN44" s="1"/>
+      <c r="FO44" s="1"/>
+      <c r="FP44" s="1"/>
+      <c r="FQ44" s="1"/>
+      <c r="FR44" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="45">
@@ -11952,8 +12546,12 @@
       <c r="AH45" t="s">
         <v>62</v>
       </c>
-      <c r="AI45" s="1"/>
-      <c r="AJ45" s="2"/>
+      <c r="AI45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>62</v>
+      </c>
       <c r="AK45" t="s">
         <v>62</v>
       </c>
@@ -11962,8 +12560,12 @@
       </c>
       <c r="AM45" s="1"/>
       <c r="AN45" s="1"/>
-      <c r="AO45" s="1"/>
-      <c r="AP45" s="1"/>
+      <c r="AO45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ45" s="1"/>
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
@@ -12091,8 +12693,12 @@
       <c r="FK45" s="1"/>
       <c r="FL45" s="1"/>
       <c r="FM45" s="1"/>
-      <c r="FN45" t="s">
-        <v>248</v>
+      <c r="FN45" s="1"/>
+      <c r="FO45" s="1"/>
+      <c r="FP45" s="1"/>
+      <c r="FQ45" s="1"/>
+      <c r="FR45" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="46">
@@ -12186,8 +12792,12 @@
       <c r="AH46" t="s">
         <v>62</v>
       </c>
-      <c r="AI46" s="1"/>
-      <c r="AJ46" s="2"/>
+      <c r="AI46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>62</v>
+      </c>
       <c r="AK46" t="s">
         <v>62</v>
       </c>
@@ -12196,8 +12806,12 @@
       </c>
       <c r="AM46" s="1"/>
       <c r="AN46" s="1"/>
-      <c r="AO46" s="1"/>
-      <c r="AP46" s="1"/>
+      <c r="AO46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ46" s="1"/>
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
@@ -12325,7 +12939,11 @@
       <c r="FK46" s="1"/>
       <c r="FL46" s="1"/>
       <c r="FM46" s="1"/>
-      <c r="FN46" t="s">
+      <c r="FN46" s="1"/>
+      <c r="FO46" s="1"/>
+      <c r="FP46" s="1"/>
+      <c r="FQ46" s="1"/>
+      <c r="FR46" t="s">
         <v>62</v>
       </c>
     </row>

--- a/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
+++ b/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1659" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1659" uniqueCount="262">
   <si>
     <t>crop</t>
   </si>
@@ -327,6 +327,9 @@
     <t>transp_harden_date_srt</t>
   </si>
   <si>
+    <t>2024-04-24</t>
+  </si>
+  <si>
     <t>transp_harden_date_end</t>
   </si>
   <si>
@@ -336,15 +339,15 @@
     <t>2024-04-30</t>
   </si>
   <si>
+    <t>2024-05-13</t>
+  </si>
+  <si>
     <t>transp_date_1</t>
   </si>
   <si>
     <t>2024-04-12</t>
   </si>
   <si>
-    <t>2024-04-24</t>
-  </si>
-  <si>
     <t>2024-04-27</t>
   </si>
   <si>
@@ -381,6 +384,9 @@
     <t>transp_med_2</t>
   </si>
   <si>
+    <t>container</t>
+  </si>
+  <si>
     <t>raised bed- frame</t>
   </si>
   <si>
@@ -781,6 +787,9 @@
   </si>
   <si>
     <t>1 was potted as gift during second transplant</t>
+  </si>
+  <si>
+    <t>1 was potted as gift during second transplant; 4 of 20 transplanted to catio were in a large container</t>
   </si>
   <si>
     <t>3 were potted as gift during second transplant</t>
@@ -948,421 +957,421 @@
         <v>103</v>
       </c>
       <c r="AJ1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AL1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AO1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AQ1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AR1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AS1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AT1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AU1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AV1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AW1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AX1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AY1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AZ1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="BA1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="BB1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="BC1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="BD1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="BE1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="BF1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BG1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="BH1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="BI1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="BJ1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="BK1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="BL1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BM1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="BN1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="BO1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="BP1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="BQ1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="BR1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="BS1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="BT1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="BU1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="BV1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="BW1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="BX1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="BY1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="BZ1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="CA1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="CB1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="CC1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="CD1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="CE1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="CF1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CG1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CH1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="CI1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="CJ1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="CK1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="CL1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="CM1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="CN1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="CO1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="CP1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="CQ1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="CR1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CS1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="CT1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CU1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="CV1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CW1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="CX1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="CY1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="CZ1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DA1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="DB1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="DC1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="DD1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="DE1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="DF1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DG1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="DH1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="DI1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="DJ1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="DK1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="DL1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="DM1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="DN1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DO1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DP1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="DQ1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="DR1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="DS1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DT1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="DU1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="DV1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="DW1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="DX1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="DY1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="DZ1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="EA1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="EB1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="EC1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="ED1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="EE1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="EF1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="EG1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="EH1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="EI1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="EJ1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="EK1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="EL1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="EM1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="EN1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="EO1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="EP1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="EQ1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="ER1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="ES1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="ET1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="EU1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="EV1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="EW1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="EX1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="EY1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="EZ1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="FA1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="FB1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="FC1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="FD1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="FE1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="FF1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="FG1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="FH1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="FI1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="FJ1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="FK1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="FL1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="FM1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="FN1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FO1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FP1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="FQ1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="FR1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2">
@@ -1717,29 +1726,35 @@
         <v>62</v>
       </c>
       <c r="AI3" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AK3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AL3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM3" s="1">
         <v>8</v>
       </c>
-      <c r="AN3" s="1"/>
+      <c r="AN3" s="1">
+        <v>8</v>
+      </c>
       <c r="AO3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AP3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>8</v>
+      </c>
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
@@ -1981,10 +1996,10 @@
         <v>62</v>
       </c>
       <c r="AK4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AL4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM4" s="1">
         <v>1</v>
@@ -2236,13 +2251,13 @@
         <v>48</v>
       </c>
       <c r="AJ5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM5" s="1">
         <v>19</v>
@@ -2251,7 +2266,7 @@
         <v>19</v>
       </c>
       <c r="AO5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AP5" t="s">
         <v>52</v>
@@ -2496,13 +2511,13 @@
         <v>48</v>
       </c>
       <c r="AJ6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AL6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM6" s="1">
         <v>18</v>
@@ -2511,7 +2526,7 @@
         <v>18</v>
       </c>
       <c r="AO6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AP6" t="s">
         <v>52</v>
@@ -2756,13 +2771,13 @@
         <v>48</v>
       </c>
       <c r="AJ7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AL7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM7" s="1">
         <v>20</v>
@@ -2771,10 +2786,10 @@
         <v>20</v>
       </c>
       <c r="AO7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AP7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AQ7" s="1">
         <v>20</v>
@@ -3018,13 +3033,13 @@
         <v>48</v>
       </c>
       <c r="AJ8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AL8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM8" s="1">
         <v>20</v>
@@ -3033,10 +3048,10 @@
         <v>20</v>
       </c>
       <c r="AO8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AP8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AQ8" s="1">
         <v>20</v>
@@ -3285,15 +3300,17 @@
         <v>62</v>
       </c>
       <c r="AK9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM9" s="1">
         <v>16</v>
       </c>
-      <c r="AN9" s="1"/>
+      <c r="AN9" s="1">
+        <v>16</v>
+      </c>
       <c r="AO9" t="s">
         <v>62</v>
       </c>
@@ -3432,7 +3449,7 @@
       <c r="FP9" s="1"/>
       <c r="FQ9" s="1"/>
       <c r="FR9" t="s">
-        <v>62</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10">
@@ -3545,10 +3562,10 @@
         <v>62</v>
       </c>
       <c r="AK10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM10" s="1">
         <v>12</v>
@@ -3805,10 +3822,10 @@
         <v>62</v>
       </c>
       <c r="AK11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM11" s="1">
         <v>3</v>
@@ -4065,10 +4082,10 @@
         <v>62</v>
       </c>
       <c r="AK12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM12" s="1">
         <v>4</v>
@@ -4325,10 +4342,10 @@
         <v>62</v>
       </c>
       <c r="AK13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM13" s="1">
         <v>25</v>
@@ -4585,10 +4602,10 @@
         <v>62</v>
       </c>
       <c r="AK14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM14" s="1">
         <v>5</v>
@@ -4845,10 +4862,10 @@
         <v>62</v>
       </c>
       <c r="AK15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM15" s="1">
         <v>3</v>
@@ -5105,10 +5122,10 @@
         <v>62</v>
       </c>
       <c r="AK16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM16" s="1">
         <v>6</v>
@@ -5365,10 +5382,10 @@
         <v>62</v>
       </c>
       <c r="AK17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM17" s="1">
         <v>2</v>
@@ -5625,10 +5642,10 @@
         <v>62</v>
       </c>
       <c r="AK18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM18" s="1">
         <v>1</v>
@@ -5885,10 +5902,10 @@
         <v>62</v>
       </c>
       <c r="AK19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM19" s="1">
         <v>2</v>
@@ -6145,10 +6162,10 @@
         <v>62</v>
       </c>
       <c r="AK20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM20" s="1">
         <v>3</v>
@@ -6399,28 +6416,32 @@
         <v>82</v>
       </c>
       <c r="AI21" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ21" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="AK21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM21" s="1">
         <v>16</v>
       </c>
-      <c r="AN21" s="1"/>
+      <c r="AN21" s="1">
+        <v>15</v>
+      </c>
       <c r="AO21" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="AP21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ21" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>9</v>
+      </c>
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
       <c r="AT21" s="1"/>
@@ -6659,28 +6680,32 @@
         <v>82</v>
       </c>
       <c r="AI22" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ22" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="AK22" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM22" s="1">
         <v>16</v>
       </c>
-      <c r="AN22" s="1"/>
+      <c r="AN22" s="1">
+        <v>15</v>
+      </c>
       <c r="AO22" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="AP22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ22" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>9</v>
+      </c>
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
@@ -6919,28 +6944,32 @@
         <v>82</v>
       </c>
       <c r="AI23" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ23" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="AK23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM23" s="1">
         <v>12</v>
       </c>
-      <c r="AN23" s="1"/>
+      <c r="AN23" s="1">
+        <v>12</v>
+      </c>
       <c r="AO23" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="AP23" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ23" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>8</v>
+      </c>
       <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
       <c r="AT23" s="1"/>
@@ -7179,28 +7208,32 @@
         <v>82</v>
       </c>
       <c r="AI24" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ24" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="AK24" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM24" s="1">
         <v>13</v>
       </c>
-      <c r="AN24" s="1"/>
+      <c r="AN24" s="1">
+        <v>12</v>
+      </c>
       <c r="AO24" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="AP24" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ24" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>8</v>
+      </c>
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
       <c r="AT24" s="1"/>
@@ -7439,29 +7472,35 @@
         <v>62</v>
       </c>
       <c r="AI25" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ25" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AK25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM25" s="1">
         <v>8</v>
       </c>
-      <c r="AN25" s="1"/>
+      <c r="AN25" s="1">
+        <v>8</v>
+      </c>
       <c r="AO25" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AP25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>8</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>8</v>
+      </c>
       <c r="AS25" s="1"/>
       <c r="AT25" s="1"/>
       <c r="AU25" s="1"/>
@@ -7705,10 +7744,10 @@
         <v>62</v>
       </c>
       <c r="AK26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM26" s="1">
         <v>21</v>
@@ -7717,10 +7756,10 @@
         <v>21</v>
       </c>
       <c r="AO26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AP26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AQ26" s="1">
         <v>20</v>
@@ -7856,7 +7895,7 @@
       <c r="FP26" s="1"/>
       <c r="FQ26" s="1"/>
       <c r="FR26" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27">
@@ -7969,10 +8008,10 @@
         <v>62</v>
       </c>
       <c r="AK27" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM27" s="1">
         <v>3</v>
@@ -8229,10 +8268,10 @@
         <v>62</v>
       </c>
       <c r="AK28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AM28" s="1">
         <v>3</v>
@@ -8489,10 +8528,10 @@
         <v>62</v>
       </c>
       <c r="AK29" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AM29" s="1">
         <v>6</v>
@@ -8749,10 +8788,10 @@
         <v>62</v>
       </c>
       <c r="AK30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM30" s="1">
         <v>12</v>
@@ -9009,10 +9048,10 @@
         <v>62</v>
       </c>
       <c r="AK31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM31" s="1">
         <v>15</v>
@@ -9156,7 +9195,7 @@
       <c r="FP31" s="1"/>
       <c r="FQ31" s="1"/>
       <c r="FR31" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32">
@@ -9269,10 +9308,10 @@
         <v>62</v>
       </c>
       <c r="AK32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM32" s="1">
         <v>11</v>
@@ -9416,7 +9455,7 @@
       <c r="FP32" s="1"/>
       <c r="FQ32" s="1"/>
       <c r="FR32" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33">
@@ -9529,10 +9568,10 @@
         <v>62</v>
       </c>
       <c r="AK33" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM33" s="1">
         <v>15</v>
@@ -9676,7 +9715,7 @@
       <c r="FP33" s="1"/>
       <c r="FQ33" s="1"/>
       <c r="FR33" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34">
@@ -12452,7 +12491,7 @@
       <c r="FP44" s="1"/>
       <c r="FQ44" s="1"/>
       <c r="FR44" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45">
@@ -12698,7 +12737,7 @@
       <c r="FP45" s="1"/>
       <c r="FQ45" s="1"/>
       <c r="FR45" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46">

--- a/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
+++ b/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1659" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2469" uniqueCount="268">
   <si>
     <t>crop</t>
   </si>
@@ -330,6 +330,12 @@
     <t>2024-04-24</t>
   </si>
   <si>
+    <t>11may2024</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>transp_harden_date_end</t>
   </si>
   <si>
@@ -342,6 +348,9 @@
     <t>2024-05-13</t>
   </si>
   <si>
+    <t>08may2024</t>
+  </si>
+  <si>
     <t>transp_date_1</t>
   </si>
   <si>
@@ -363,7 +372,7 @@
     <t>32</t>
   </si>
   <si>
-    <t>p</t>
+    <t>container- indoor</t>
   </si>
   <si>
     <t>4.5.d</t>
@@ -390,6 +399,9 @@
     <t>raised bed- frame</t>
   </si>
   <si>
+    <t>container- outdoor</t>
+  </si>
+  <si>
     <t>transp_no_srt_2</t>
   </si>
   <si>
@@ -399,6 +411,9 @@
     <t>fert_type_npk_1</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>fert_type_name_1</t>
   </si>
   <si>
@@ -790,6 +805,9 @@
   </si>
   <si>
     <t>1 was potted as gift during second transplant; 4 of 20 transplanted to catio were in a large container</t>
+  </si>
+  <si>
+    <t>These stayed in the 4.5.d pots indefinitely in the catio after transplant 1</t>
   </si>
   <si>
     <t>3 were potted as gift during second transplant</t>
@@ -957,421 +975,421 @@
         <v>103</v>
       </c>
       <c r="AJ1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AK1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AL1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AM1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AN1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AQ1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AR1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AS1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AT1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AU1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AV1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AW1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AX1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AY1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AZ1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="BA1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="BB1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="BC1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="BD1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="BE1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="BF1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="BG1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="BH1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BI1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="BJ1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BK1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="BL1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BM1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BN1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="BO1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BP1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="BQ1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="BR1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="BS1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BT1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="BU1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="BV1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="BW1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="BX1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="BY1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="BZ1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="CA1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="CB1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="CC1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="CD1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="CE1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="CF1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CG1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="CH1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="CI1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="CJ1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="CK1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="CL1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="CM1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="CN1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="CO1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="CP1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="CQ1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="CR1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="CS1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="CT1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="CU1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="CV1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CW1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="CX1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="CY1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="CZ1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="DA1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="DB1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="DC1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="DD1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="DE1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="DF1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="DG1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="DH1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="DI1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="DJ1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="DK1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="DL1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="DM1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="DN1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DO1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="DP1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="DQ1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="DR1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="DS1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="DT1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="DU1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="DV1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="DW1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="DX1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="DY1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="DZ1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="EA1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="EB1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EC1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="ED1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="EE1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="EF1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="EG1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="EH1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="EI1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="EJ1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="EK1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="EL1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="EM1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="EN1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="EO1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="EP1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="EQ1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="ER1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="ES1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="ET1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="EU1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="EV1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="EW1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="EX1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="EY1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="EZ1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="FA1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="FB1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="FC1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="FD1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="FE1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="FF1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="FG1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="FH1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="FI1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="FJ1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="FK1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="FL1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="FM1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="FN1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="FO1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="FP1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="FQ1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="FR1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2">
@@ -1491,44 +1509,80 @@
       </c>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
+      <c r="AS2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>132</v>
+      </c>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
+      <c r="AX2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
+      <c r="BC2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>132</v>
+      </c>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
-      <c r="BH2" s="1"/>
+      <c r="BH2" t="s">
+        <v>132</v>
+      </c>
       <c r="BI2" s="1"/>
-      <c r="BJ2" s="1"/>
+      <c r="BJ2" t="s">
+        <v>132</v>
+      </c>
       <c r="BK2" s="1"/>
-      <c r="BL2" s="1"/>
+      <c r="BL2" t="s">
+        <v>132</v>
+      </c>
       <c r="BM2" s="1"/>
-      <c r="BN2" s="1"/>
+      <c r="BN2" t="s">
+        <v>132</v>
+      </c>
       <c r="BO2" s="1"/>
-      <c r="BP2" s="1"/>
+      <c r="BP2" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ2" s="1"/>
-      <c r="BR2" s="1"/>
+      <c r="BR2" t="s">
+        <v>132</v>
+      </c>
       <c r="BS2" s="1"/>
-      <c r="BT2" s="1"/>
+      <c r="BT2" t="s">
+        <v>132</v>
+      </c>
       <c r="BU2" s="1"/>
-      <c r="BV2" s="1"/>
+      <c r="BV2" t="s">
+        <v>132</v>
+      </c>
       <c r="BW2" s="1"/>
-      <c r="BX2" s="1"/>
+      <c r="BX2" t="s">
+        <v>132</v>
+      </c>
       <c r="BY2" s="1"/>
-      <c r="BZ2" s="1"/>
+      <c r="BZ2" t="s">
+        <v>132</v>
+      </c>
       <c r="CA2" s="1"/>
-      <c r="CB2" s="1"/>
+      <c r="CB2" t="s">
+        <v>132</v>
+      </c>
       <c r="CC2" s="1"/>
-      <c r="CD2" s="1"/>
+      <c r="CD2" t="s">
+        <v>132</v>
+      </c>
       <c r="CE2" s="1"/>
       <c r="CF2" s="1"/>
       <c r="CG2" s="1"/>
@@ -1732,10 +1786,10 @@
         <v>73</v>
       </c>
       <c r="AK3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AL3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM3" s="1">
         <v>8</v>
@@ -1747,7 +1801,7 @@
         <v>73</v>
       </c>
       <c r="AP3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AQ3" s="1">
         <v>8</v>
@@ -1755,44 +1809,80 @@
       <c r="AR3" s="1">
         <v>8</v>
       </c>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
+      <c r="AS3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>132</v>
+      </c>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
+      <c r="AX3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
-      <c r="BC3" s="1"/>
-      <c r="BD3" s="1"/>
+      <c r="BC3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>132</v>
+      </c>
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
-      <c r="BH3" s="1"/>
+      <c r="BH3" t="s">
+        <v>132</v>
+      </c>
       <c r="BI3" s="1"/>
-      <c r="BJ3" s="1"/>
+      <c r="BJ3" t="s">
+        <v>132</v>
+      </c>
       <c r="BK3" s="1"/>
-      <c r="BL3" s="1"/>
+      <c r="BL3" t="s">
+        <v>132</v>
+      </c>
       <c r="BM3" s="1"/>
-      <c r="BN3" s="1"/>
+      <c r="BN3" t="s">
+        <v>132</v>
+      </c>
       <c r="BO3" s="1"/>
-      <c r="BP3" s="1"/>
+      <c r="BP3" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ3" s="1"/>
-      <c r="BR3" s="1"/>
+      <c r="BR3" t="s">
+        <v>132</v>
+      </c>
       <c r="BS3" s="1"/>
-      <c r="BT3" s="1"/>
+      <c r="BT3" t="s">
+        <v>132</v>
+      </c>
       <c r="BU3" s="1"/>
-      <c r="BV3" s="1"/>
+      <c r="BV3" t="s">
+        <v>132</v>
+      </c>
       <c r="BW3" s="1"/>
-      <c r="BX3" s="1"/>
+      <c r="BX3" t="s">
+        <v>132</v>
+      </c>
       <c r="BY3" s="1"/>
-      <c r="BZ3" s="1"/>
+      <c r="BZ3" t="s">
+        <v>132</v>
+      </c>
       <c r="CA3" s="1"/>
-      <c r="CB3" s="1"/>
+      <c r="CB3" t="s">
+        <v>132</v>
+      </c>
       <c r="CC3" s="1"/>
-      <c r="CD3" s="1"/>
+      <c r="CD3" t="s">
+        <v>132</v>
+      </c>
       <c r="CE3" s="1"/>
       <c r="CF3" s="1"/>
       <c r="CG3" s="1"/>
@@ -1996,10 +2086,10 @@
         <v>62</v>
       </c>
       <c r="AK4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AL4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM4" s="1">
         <v>1</v>
@@ -2013,44 +2103,80 @@
       </c>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
+      <c r="AS4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>132</v>
+      </c>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
+      <c r="AX4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
-      <c r="BC4" s="1"/>
-      <c r="BD4" s="1"/>
+      <c r="BC4" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>132</v>
+      </c>
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
       <c r="BG4" s="1"/>
-      <c r="BH4" s="1"/>
+      <c r="BH4" t="s">
+        <v>132</v>
+      </c>
       <c r="BI4" s="1"/>
-      <c r="BJ4" s="1"/>
+      <c r="BJ4" t="s">
+        <v>132</v>
+      </c>
       <c r="BK4" s="1"/>
-      <c r="BL4" s="1"/>
+      <c r="BL4" t="s">
+        <v>132</v>
+      </c>
       <c r="BM4" s="1"/>
-      <c r="BN4" s="1"/>
+      <c r="BN4" t="s">
+        <v>132</v>
+      </c>
       <c r="BO4" s="1"/>
-      <c r="BP4" s="1"/>
+      <c r="BP4" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ4" s="1"/>
-      <c r="BR4" s="1"/>
+      <c r="BR4" t="s">
+        <v>132</v>
+      </c>
       <c r="BS4" s="1"/>
-      <c r="BT4" s="1"/>
+      <c r="BT4" t="s">
+        <v>132</v>
+      </c>
       <c r="BU4" s="1"/>
-      <c r="BV4" s="1"/>
+      <c r="BV4" t="s">
+        <v>132</v>
+      </c>
       <c r="BW4" s="1"/>
-      <c r="BX4" s="1"/>
+      <c r="BX4" t="s">
+        <v>132</v>
+      </c>
       <c r="BY4" s="1"/>
-      <c r="BZ4" s="1"/>
+      <c r="BZ4" t="s">
+        <v>132</v>
+      </c>
       <c r="CA4" s="1"/>
-      <c r="CB4" s="1"/>
+      <c r="CB4" t="s">
+        <v>132</v>
+      </c>
       <c r="CC4" s="1"/>
-      <c r="CD4" s="1"/>
+      <c r="CD4" t="s">
+        <v>132</v>
+      </c>
       <c r="CE4" s="1"/>
       <c r="CF4" s="1"/>
       <c r="CG4" s="1"/>
@@ -2251,13 +2377,13 @@
         <v>48</v>
       </c>
       <c r="AJ5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AK5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AL5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM5" s="1">
         <v>19</v>
@@ -2266,51 +2392,91 @@
         <v>19</v>
       </c>
       <c r="AO5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AP5" t="s">
         <v>52</v>
       </c>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
+      <c r="AQ5" s="1">
+        <v>19</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>19</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>132</v>
+      </c>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
+      <c r="AX5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
+      <c r="BC5" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>132</v>
+      </c>
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
       <c r="BG5" s="1"/>
-      <c r="BH5" s="1"/>
+      <c r="BH5" t="s">
+        <v>132</v>
+      </c>
       <c r="BI5" s="1"/>
-      <c r="BJ5" s="1"/>
+      <c r="BJ5" t="s">
+        <v>132</v>
+      </c>
       <c r="BK5" s="1"/>
-      <c r="BL5" s="1"/>
+      <c r="BL5" t="s">
+        <v>132</v>
+      </c>
       <c r="BM5" s="1"/>
-      <c r="BN5" s="1"/>
+      <c r="BN5" t="s">
+        <v>132</v>
+      </c>
       <c r="BO5" s="1"/>
-      <c r="BP5" s="1"/>
+      <c r="BP5" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ5" s="1"/>
-      <c r="BR5" s="1"/>
+      <c r="BR5" t="s">
+        <v>132</v>
+      </c>
       <c r="BS5" s="1"/>
-      <c r="BT5" s="1"/>
+      <c r="BT5" t="s">
+        <v>132</v>
+      </c>
       <c r="BU5" s="1"/>
-      <c r="BV5" s="1"/>
+      <c r="BV5" t="s">
+        <v>132</v>
+      </c>
       <c r="BW5" s="1"/>
-      <c r="BX5" s="1"/>
+      <c r="BX5" t="s">
+        <v>132</v>
+      </c>
       <c r="BY5" s="1"/>
-      <c r="BZ5" s="1"/>
+      <c r="BZ5" t="s">
+        <v>132</v>
+      </c>
       <c r="CA5" s="1"/>
-      <c r="CB5" s="1"/>
+      <c r="CB5" t="s">
+        <v>132</v>
+      </c>
       <c r="CC5" s="1"/>
-      <c r="CD5" s="1"/>
+      <c r="CD5" t="s">
+        <v>132</v>
+      </c>
       <c r="CE5" s="1"/>
       <c r="CF5" s="1"/>
       <c r="CG5" s="1"/>
@@ -2511,13 +2677,13 @@
         <v>48</v>
       </c>
       <c r="AJ6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AK6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AL6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM6" s="1">
         <v>18</v>
@@ -2526,51 +2692,91 @@
         <v>18</v>
       </c>
       <c r="AO6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AP6" t="s">
         <v>52</v>
       </c>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="1"/>
+      <c r="AQ6" s="1">
+        <v>18</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>17</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>132</v>
+      </c>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
-      <c r="AX6" s="1"/>
-      <c r="AY6" s="1"/>
+      <c r="AX6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
-      <c r="BC6" s="1"/>
-      <c r="BD6" s="1"/>
+      <c r="BC6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>132</v>
+      </c>
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
       <c r="BG6" s="1"/>
-      <c r="BH6" s="1"/>
+      <c r="BH6" t="s">
+        <v>132</v>
+      </c>
       <c r="BI6" s="1"/>
-      <c r="BJ6" s="1"/>
+      <c r="BJ6" t="s">
+        <v>132</v>
+      </c>
       <c r="BK6" s="1"/>
-      <c r="BL6" s="1"/>
+      <c r="BL6" t="s">
+        <v>132</v>
+      </c>
       <c r="BM6" s="1"/>
-      <c r="BN6" s="1"/>
+      <c r="BN6" t="s">
+        <v>132</v>
+      </c>
       <c r="BO6" s="1"/>
-      <c r="BP6" s="1"/>
+      <c r="BP6" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ6" s="1"/>
-      <c r="BR6" s="1"/>
+      <c r="BR6" t="s">
+        <v>132</v>
+      </c>
       <c r="BS6" s="1"/>
-      <c r="BT6" s="1"/>
+      <c r="BT6" t="s">
+        <v>132</v>
+      </c>
       <c r="BU6" s="1"/>
-      <c r="BV6" s="1"/>
+      <c r="BV6" t="s">
+        <v>132</v>
+      </c>
       <c r="BW6" s="1"/>
-      <c r="BX6" s="1"/>
+      <c r="BX6" t="s">
+        <v>132</v>
+      </c>
       <c r="BY6" s="1"/>
-      <c r="BZ6" s="1"/>
+      <c r="BZ6" t="s">
+        <v>132</v>
+      </c>
       <c r="CA6" s="1"/>
-      <c r="CB6" s="1"/>
+      <c r="CB6" t="s">
+        <v>132</v>
+      </c>
       <c r="CC6" s="1"/>
-      <c r="CD6" s="1"/>
+      <c r="CD6" t="s">
+        <v>132</v>
+      </c>
       <c r="CE6" s="1"/>
       <c r="CF6" s="1"/>
       <c r="CG6" s="1"/>
@@ -2771,13 +2977,13 @@
         <v>48</v>
       </c>
       <c r="AJ7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AK7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AL7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM7" s="1">
         <v>20</v>
@@ -2786,53 +2992,91 @@
         <v>20</v>
       </c>
       <c r="AO7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AP7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AQ7" s="1">
         <v>20</v>
       </c>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1"/>
-      <c r="AT7" s="1"/>
+      <c r="AR7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>132</v>
+      </c>
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
-      <c r="AX7" s="1"/>
-      <c r="AY7" s="1"/>
+      <c r="AX7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
-      <c r="BD7" s="1"/>
+      <c r="BC7" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>132</v>
+      </c>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
       <c r="BG7" s="1"/>
-      <c r="BH7" s="1"/>
+      <c r="BH7" t="s">
+        <v>132</v>
+      </c>
       <c r="BI7" s="1"/>
-      <c r="BJ7" s="1"/>
+      <c r="BJ7" t="s">
+        <v>132</v>
+      </c>
       <c r="BK7" s="1"/>
-      <c r="BL7" s="1"/>
+      <c r="BL7" t="s">
+        <v>132</v>
+      </c>
       <c r="BM7" s="1"/>
-      <c r="BN7" s="1"/>
+      <c r="BN7" t="s">
+        <v>132</v>
+      </c>
       <c r="BO7" s="1"/>
-      <c r="BP7" s="1"/>
+      <c r="BP7" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ7" s="1"/>
-      <c r="BR7" s="1"/>
+      <c r="BR7" t="s">
+        <v>132</v>
+      </c>
       <c r="BS7" s="1"/>
-      <c r="BT7" s="1"/>
+      <c r="BT7" t="s">
+        <v>132</v>
+      </c>
       <c r="BU7" s="1"/>
-      <c r="BV7" s="1"/>
+      <c r="BV7" t="s">
+        <v>132</v>
+      </c>
       <c r="BW7" s="1"/>
-      <c r="BX7" s="1"/>
+      <c r="BX7" t="s">
+        <v>132</v>
+      </c>
       <c r="BY7" s="1"/>
-      <c r="BZ7" s="1"/>
+      <c r="BZ7" t="s">
+        <v>132</v>
+      </c>
       <c r="CA7" s="1"/>
-      <c r="CB7" s="1"/>
+      <c r="CB7" t="s">
+        <v>132</v>
+      </c>
       <c r="CC7" s="1"/>
-      <c r="CD7" s="1"/>
+      <c r="CD7" t="s">
+        <v>132</v>
+      </c>
       <c r="CE7" s="1"/>
       <c r="CF7" s="1"/>
       <c r="CG7" s="1"/>
@@ -3033,13 +3277,13 @@
         <v>48</v>
       </c>
       <c r="AJ8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AK8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AL8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM8" s="1">
         <v>20</v>
@@ -3048,53 +3292,91 @@
         <v>20</v>
       </c>
       <c r="AO8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AP8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AQ8" s="1">
         <v>20</v>
       </c>
-      <c r="AR8" s="1"/>
-      <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
+      <c r="AR8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>132</v>
+      </c>
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
-      <c r="AX8" s="1"/>
-      <c r="AY8" s="1"/>
+      <c r="AX8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ8" s="1"/>
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
-      <c r="BC8" s="1"/>
-      <c r="BD8" s="1"/>
+      <c r="BC8" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>132</v>
+      </c>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
       <c r="BG8" s="1"/>
-      <c r="BH8" s="1"/>
+      <c r="BH8" t="s">
+        <v>132</v>
+      </c>
       <c r="BI8" s="1"/>
-      <c r="BJ8" s="1"/>
+      <c r="BJ8" t="s">
+        <v>132</v>
+      </c>
       <c r="BK8" s="1"/>
-      <c r="BL8" s="1"/>
+      <c r="BL8" t="s">
+        <v>132</v>
+      </c>
       <c r="BM8" s="1"/>
-      <c r="BN8" s="1"/>
+      <c r="BN8" t="s">
+        <v>132</v>
+      </c>
       <c r="BO8" s="1"/>
-      <c r="BP8" s="1"/>
+      <c r="BP8" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ8" s="1"/>
-      <c r="BR8" s="1"/>
+      <c r="BR8" t="s">
+        <v>132</v>
+      </c>
       <c r="BS8" s="1"/>
-      <c r="BT8" s="1"/>
+      <c r="BT8" t="s">
+        <v>132</v>
+      </c>
       <c r="BU8" s="1"/>
-      <c r="BV8" s="1"/>
+      <c r="BV8" t="s">
+        <v>132</v>
+      </c>
       <c r="BW8" s="1"/>
-      <c r="BX8" s="1"/>
+      <c r="BX8" t="s">
+        <v>132</v>
+      </c>
       <c r="BY8" s="1"/>
-      <c r="BZ8" s="1"/>
+      <c r="BZ8" t="s">
+        <v>132</v>
+      </c>
       <c r="CA8" s="1"/>
-      <c r="CB8" s="1"/>
+      <c r="CB8" t="s">
+        <v>132</v>
+      </c>
       <c r="CC8" s="1"/>
-      <c r="CD8" s="1"/>
+      <c r="CD8" t="s">
+        <v>132</v>
+      </c>
       <c r="CE8" s="1"/>
       <c r="CF8" s="1"/>
       <c r="CG8" s="1"/>
@@ -3294,7 +3576,7 @@
         <v>82</v>
       </c>
       <c r="AI9" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AJ9" t="s">
         <v>62</v>
@@ -3303,7 +3585,7 @@
         <v>104</v>
       </c>
       <c r="AL9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM9" s="1">
         <v>16</v>
@@ -3319,44 +3601,80 @@
       </c>
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
+      <c r="AS9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>132</v>
+      </c>
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="1"/>
+      <c r="AX9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ9" s="1"/>
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
-      <c r="BC9" s="1"/>
-      <c r="BD9" s="1"/>
+      <c r="BC9" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>132</v>
+      </c>
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
       <c r="BG9" s="1"/>
-      <c r="BH9" s="1"/>
+      <c r="BH9" t="s">
+        <v>132</v>
+      </c>
       <c r="BI9" s="1"/>
-      <c r="BJ9" s="1"/>
+      <c r="BJ9" t="s">
+        <v>132</v>
+      </c>
       <c r="BK9" s="1"/>
-      <c r="BL9" s="1"/>
+      <c r="BL9" t="s">
+        <v>132</v>
+      </c>
       <c r="BM9" s="1"/>
-      <c r="BN9" s="1"/>
+      <c r="BN9" t="s">
+        <v>132</v>
+      </c>
       <c r="BO9" s="1"/>
-      <c r="BP9" s="1"/>
+      <c r="BP9" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ9" s="1"/>
-      <c r="BR9" s="1"/>
+      <c r="BR9" t="s">
+        <v>132</v>
+      </c>
       <c r="BS9" s="1"/>
-      <c r="BT9" s="1"/>
+      <c r="BT9" t="s">
+        <v>132</v>
+      </c>
       <c r="BU9" s="1"/>
-      <c r="BV9" s="1"/>
+      <c r="BV9" t="s">
+        <v>132</v>
+      </c>
       <c r="BW9" s="1"/>
-      <c r="BX9" s="1"/>
+      <c r="BX9" t="s">
+        <v>132</v>
+      </c>
       <c r="BY9" s="1"/>
-      <c r="BZ9" s="1"/>
+      <c r="BZ9" t="s">
+        <v>132</v>
+      </c>
       <c r="CA9" s="1"/>
-      <c r="CB9" s="1"/>
+      <c r="CB9" t="s">
+        <v>132</v>
+      </c>
       <c r="CC9" s="1"/>
-      <c r="CD9" s="1"/>
+      <c r="CD9" t="s">
+        <v>132</v>
+      </c>
       <c r="CE9" s="1"/>
       <c r="CF9" s="1"/>
       <c r="CG9" s="1"/>
@@ -3449,7 +3767,7 @@
       <c r="FP9" s="1"/>
       <c r="FQ9" s="1"/>
       <c r="FR9" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10">
@@ -3556,16 +3874,16 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s">
         <v>62</v>
       </c>
       <c r="AK10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM10" s="1">
         <v>12</v>
@@ -3579,44 +3897,80 @@
       </c>
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
+      <c r="AS10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>132</v>
+      </c>
       <c r="AU10" s="1"/>
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
+      <c r="AX10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
-      <c r="BC10" s="1"/>
-      <c r="BD10" s="1"/>
+      <c r="BC10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>132</v>
+      </c>
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
       <c r="BG10" s="1"/>
-      <c r="BH10" s="1"/>
+      <c r="BH10" t="s">
+        <v>132</v>
+      </c>
       <c r="BI10" s="1"/>
-      <c r="BJ10" s="1"/>
+      <c r="BJ10" t="s">
+        <v>132</v>
+      </c>
       <c r="BK10" s="1"/>
-      <c r="BL10" s="1"/>
+      <c r="BL10" t="s">
+        <v>132</v>
+      </c>
       <c r="BM10" s="1"/>
-      <c r="BN10" s="1"/>
+      <c r="BN10" t="s">
+        <v>132</v>
+      </c>
       <c r="BO10" s="1"/>
-      <c r="BP10" s="1"/>
+      <c r="BP10" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ10" s="1"/>
-      <c r="BR10" s="1"/>
+      <c r="BR10" t="s">
+        <v>132</v>
+      </c>
       <c r="BS10" s="1"/>
-      <c r="BT10" s="1"/>
+      <c r="BT10" t="s">
+        <v>132</v>
+      </c>
       <c r="BU10" s="1"/>
-      <c r="BV10" s="1"/>
+      <c r="BV10" t="s">
+        <v>132</v>
+      </c>
       <c r="BW10" s="1"/>
-      <c r="BX10" s="1"/>
+      <c r="BX10" t="s">
+        <v>132</v>
+      </c>
       <c r="BY10" s="1"/>
-      <c r="BZ10" s="1"/>
+      <c r="BZ10" t="s">
+        <v>132</v>
+      </c>
       <c r="CA10" s="1"/>
-      <c r="CB10" s="1"/>
+      <c r="CB10" t="s">
+        <v>132</v>
+      </c>
       <c r="CC10" s="1"/>
-      <c r="CD10" s="1"/>
+      <c r="CD10" t="s">
+        <v>132</v>
+      </c>
       <c r="CE10" s="1"/>
       <c r="CF10" s="1"/>
       <c r="CG10" s="1"/>
@@ -3816,16 +4170,16 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AJ11" t="s">
         <v>62</v>
       </c>
       <c r="AK11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM11" s="1">
         <v>3</v>
@@ -3839,44 +4193,80 @@
       </c>
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
+      <c r="AS11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>132</v>
+      </c>
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
+      <c r="AX11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
-      <c r="BC11" s="1"/>
-      <c r="BD11" s="1"/>
+      <c r="BC11" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>132</v>
+      </c>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
       <c r="BG11" s="1"/>
-      <c r="BH11" s="1"/>
+      <c r="BH11" t="s">
+        <v>132</v>
+      </c>
       <c r="BI11" s="1"/>
-      <c r="BJ11" s="1"/>
+      <c r="BJ11" t="s">
+        <v>132</v>
+      </c>
       <c r="BK11" s="1"/>
-      <c r="BL11" s="1"/>
+      <c r="BL11" t="s">
+        <v>132</v>
+      </c>
       <c r="BM11" s="1"/>
-      <c r="BN11" s="1"/>
+      <c r="BN11" t="s">
+        <v>132</v>
+      </c>
       <c r="BO11" s="1"/>
-      <c r="BP11" s="1"/>
+      <c r="BP11" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ11" s="1"/>
-      <c r="BR11" s="1"/>
+      <c r="BR11" t="s">
+        <v>132</v>
+      </c>
       <c r="BS11" s="1"/>
-      <c r="BT11" s="1"/>
+      <c r="BT11" t="s">
+        <v>132</v>
+      </c>
       <c r="BU11" s="1"/>
-      <c r="BV11" s="1"/>
+      <c r="BV11" t="s">
+        <v>132</v>
+      </c>
       <c r="BW11" s="1"/>
-      <c r="BX11" s="1"/>
+      <c r="BX11" t="s">
+        <v>132</v>
+      </c>
       <c r="BY11" s="1"/>
-      <c r="BZ11" s="1"/>
+      <c r="BZ11" t="s">
+        <v>132</v>
+      </c>
       <c r="CA11" s="1"/>
-      <c r="CB11" s="1"/>
+      <c r="CB11" t="s">
+        <v>132</v>
+      </c>
       <c r="CC11" s="1"/>
-      <c r="CD11" s="1"/>
+      <c r="CD11" t="s">
+        <v>132</v>
+      </c>
       <c r="CE11" s="1"/>
       <c r="CF11" s="1"/>
       <c r="CG11" s="1"/>
@@ -4076,16 +4466,16 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s">
         <v>62</v>
       </c>
       <c r="AK12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM12" s="1">
         <v>4</v>
@@ -4099,44 +4489,80 @@
       </c>
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
+      <c r="AS12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>132</v>
+      </c>
       <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="1"/>
+      <c r="AX12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
-      <c r="BC12" s="1"/>
-      <c r="BD12" s="1"/>
+      <c r="BC12" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>132</v>
+      </c>
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
       <c r="BG12" s="1"/>
-      <c r="BH12" s="1"/>
+      <c r="BH12" t="s">
+        <v>132</v>
+      </c>
       <c r="BI12" s="1"/>
-      <c r="BJ12" s="1"/>
+      <c r="BJ12" t="s">
+        <v>132</v>
+      </c>
       <c r="BK12" s="1"/>
-      <c r="BL12" s="1"/>
+      <c r="BL12" t="s">
+        <v>132</v>
+      </c>
       <c r="BM12" s="1"/>
-      <c r="BN12" s="1"/>
+      <c r="BN12" t="s">
+        <v>132</v>
+      </c>
       <c r="BO12" s="1"/>
-      <c r="BP12" s="1"/>
+      <c r="BP12" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ12" s="1"/>
-      <c r="BR12" s="1"/>
+      <c r="BR12" t="s">
+        <v>132</v>
+      </c>
       <c r="BS12" s="1"/>
-      <c r="BT12" s="1"/>
+      <c r="BT12" t="s">
+        <v>132</v>
+      </c>
       <c r="BU12" s="1"/>
-      <c r="BV12" s="1"/>
+      <c r="BV12" t="s">
+        <v>132</v>
+      </c>
       <c r="BW12" s="1"/>
-      <c r="BX12" s="1"/>
+      <c r="BX12" t="s">
+        <v>132</v>
+      </c>
       <c r="BY12" s="1"/>
-      <c r="BZ12" s="1"/>
+      <c r="BZ12" t="s">
+        <v>132</v>
+      </c>
       <c r="CA12" s="1"/>
-      <c r="CB12" s="1"/>
+      <c r="CB12" t="s">
+        <v>132</v>
+      </c>
       <c r="CC12" s="1"/>
-      <c r="CD12" s="1"/>
+      <c r="CD12" t="s">
+        <v>132</v>
+      </c>
       <c r="CE12" s="1"/>
       <c r="CF12" s="1"/>
       <c r="CG12" s="1"/>
@@ -4336,16 +4762,16 @@
         <v>82</v>
       </c>
       <c r="AI13" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AJ13" t="s">
         <v>62</v>
       </c>
       <c r="AK13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM13" s="1">
         <v>25</v>
@@ -4359,44 +4785,80 @@
       </c>
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
+      <c r="AS13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>132</v>
+      </c>
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
+      <c r="AX13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ13" s="1"/>
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
-      <c r="BC13" s="1"/>
-      <c r="BD13" s="1"/>
+      <c r="BC13" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>132</v>
+      </c>
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
       <c r="BG13" s="1"/>
-      <c r="BH13" s="1"/>
+      <c r="BH13" t="s">
+        <v>132</v>
+      </c>
       <c r="BI13" s="1"/>
-      <c r="BJ13" s="1"/>
+      <c r="BJ13" t="s">
+        <v>132</v>
+      </c>
       <c r="BK13" s="1"/>
-      <c r="BL13" s="1"/>
+      <c r="BL13" t="s">
+        <v>132</v>
+      </c>
       <c r="BM13" s="1"/>
-      <c r="BN13" s="1"/>
+      <c r="BN13" t="s">
+        <v>132</v>
+      </c>
       <c r="BO13" s="1"/>
-      <c r="BP13" s="1"/>
+      <c r="BP13" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ13" s="1"/>
-      <c r="BR13" s="1"/>
+      <c r="BR13" t="s">
+        <v>132</v>
+      </c>
       <c r="BS13" s="1"/>
-      <c r="BT13" s="1"/>
+      <c r="BT13" t="s">
+        <v>132</v>
+      </c>
       <c r="BU13" s="1"/>
-      <c r="BV13" s="1"/>
+      <c r="BV13" t="s">
+        <v>132</v>
+      </c>
       <c r="BW13" s="1"/>
-      <c r="BX13" s="1"/>
+      <c r="BX13" t="s">
+        <v>132</v>
+      </c>
       <c r="BY13" s="1"/>
-      <c r="BZ13" s="1"/>
+      <c r="BZ13" t="s">
+        <v>132</v>
+      </c>
       <c r="CA13" s="1"/>
-      <c r="CB13" s="1"/>
+      <c r="CB13" t="s">
+        <v>132</v>
+      </c>
       <c r="CC13" s="1"/>
-      <c r="CD13" s="1"/>
+      <c r="CD13" t="s">
+        <v>132</v>
+      </c>
       <c r="CE13" s="1"/>
       <c r="CF13" s="1"/>
       <c r="CG13" s="1"/>
@@ -4596,16 +5058,16 @@
         <v>82</v>
       </c>
       <c r="AI14" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AJ14" t="s">
         <v>62</v>
       </c>
       <c r="AK14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM14" s="1">
         <v>5</v>
@@ -4619,44 +5081,80 @@
       </c>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
+      <c r="AS14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>132</v>
+      </c>
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
-      <c r="AX14" s="1"/>
-      <c r="AY14" s="1"/>
+      <c r="AX14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ14" s="1"/>
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
-      <c r="BC14" s="1"/>
-      <c r="BD14" s="1"/>
+      <c r="BC14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>132</v>
+      </c>
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
       <c r="BG14" s="1"/>
-      <c r="BH14" s="1"/>
+      <c r="BH14" t="s">
+        <v>132</v>
+      </c>
       <c r="BI14" s="1"/>
-      <c r="BJ14" s="1"/>
+      <c r="BJ14" t="s">
+        <v>132</v>
+      </c>
       <c r="BK14" s="1"/>
-      <c r="BL14" s="1"/>
+      <c r="BL14" t="s">
+        <v>132</v>
+      </c>
       <c r="BM14" s="1"/>
-      <c r="BN14" s="1"/>
+      <c r="BN14" t="s">
+        <v>132</v>
+      </c>
       <c r="BO14" s="1"/>
-      <c r="BP14" s="1"/>
+      <c r="BP14" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ14" s="1"/>
-      <c r="BR14" s="1"/>
+      <c r="BR14" t="s">
+        <v>132</v>
+      </c>
       <c r="BS14" s="1"/>
-      <c r="BT14" s="1"/>
+      <c r="BT14" t="s">
+        <v>132</v>
+      </c>
       <c r="BU14" s="1"/>
-      <c r="BV14" s="1"/>
+      <c r="BV14" t="s">
+        <v>132</v>
+      </c>
       <c r="BW14" s="1"/>
-      <c r="BX14" s="1"/>
+      <c r="BX14" t="s">
+        <v>132</v>
+      </c>
       <c r="BY14" s="1"/>
-      <c r="BZ14" s="1"/>
+      <c r="BZ14" t="s">
+        <v>132</v>
+      </c>
       <c r="CA14" s="1"/>
-      <c r="CB14" s="1"/>
+      <c r="CB14" t="s">
+        <v>132</v>
+      </c>
       <c r="CC14" s="1"/>
-      <c r="CD14" s="1"/>
+      <c r="CD14" t="s">
+        <v>132</v>
+      </c>
       <c r="CE14" s="1"/>
       <c r="CF14" s="1"/>
       <c r="CG14" s="1"/>
@@ -4856,16 +5354,16 @@
         <v>82</v>
       </c>
       <c r="AI15" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="AJ15" t="s">
         <v>62</v>
       </c>
       <c r="AK15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM15" s="1">
         <v>3</v>
@@ -4879,44 +5377,80 @@
       </c>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
+      <c r="AS15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>132</v>
+      </c>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
-      <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
+      <c r="AX15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
-      <c r="BC15" s="1"/>
-      <c r="BD15" s="1"/>
+      <c r="BC15" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>132</v>
+      </c>
       <c r="BE15" s="1"/>
       <c r="BF15" s="1"/>
       <c r="BG15" s="1"/>
-      <c r="BH15" s="1"/>
+      <c r="BH15" t="s">
+        <v>132</v>
+      </c>
       <c r="BI15" s="1"/>
-      <c r="BJ15" s="1"/>
+      <c r="BJ15" t="s">
+        <v>132</v>
+      </c>
       <c r="BK15" s="1"/>
-      <c r="BL15" s="1"/>
+      <c r="BL15" t="s">
+        <v>132</v>
+      </c>
       <c r="BM15" s="1"/>
-      <c r="BN15" s="1"/>
+      <c r="BN15" t="s">
+        <v>132</v>
+      </c>
       <c r="BO15" s="1"/>
-      <c r="BP15" s="1"/>
+      <c r="BP15" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ15" s="1"/>
-      <c r="BR15" s="1"/>
+      <c r="BR15" t="s">
+        <v>132</v>
+      </c>
       <c r="BS15" s="1"/>
-      <c r="BT15" s="1"/>
+      <c r="BT15" t="s">
+        <v>132</v>
+      </c>
       <c r="BU15" s="1"/>
-      <c r="BV15" s="1"/>
+      <c r="BV15" t="s">
+        <v>132</v>
+      </c>
       <c r="BW15" s="1"/>
-      <c r="BX15" s="1"/>
+      <c r="BX15" t="s">
+        <v>132</v>
+      </c>
       <c r="BY15" s="1"/>
-      <c r="BZ15" s="1"/>
+      <c r="BZ15" t="s">
+        <v>132</v>
+      </c>
       <c r="CA15" s="1"/>
-      <c r="CB15" s="1"/>
+      <c r="CB15" t="s">
+        <v>132</v>
+      </c>
       <c r="CC15" s="1"/>
-      <c r="CD15" s="1"/>
+      <c r="CD15" t="s">
+        <v>132</v>
+      </c>
       <c r="CE15" s="1"/>
       <c r="CF15" s="1"/>
       <c r="CG15" s="1"/>
@@ -5116,16 +5650,16 @@
         <v>82</v>
       </c>
       <c r="AI16" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="AJ16" t="s">
         <v>62</v>
       </c>
       <c r="AK16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM16" s="1">
         <v>6</v>
@@ -5139,44 +5673,80 @@
       </c>
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
-      <c r="AS16" s="1"/>
-      <c r="AT16" s="1"/>
+      <c r="AS16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>132</v>
+      </c>
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
-      <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
+      <c r="AX16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ16" s="1"/>
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
-      <c r="BC16" s="1"/>
-      <c r="BD16" s="1"/>
+      <c r="BC16" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>132</v>
+      </c>
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
       <c r="BG16" s="1"/>
-      <c r="BH16" s="1"/>
+      <c r="BH16" t="s">
+        <v>132</v>
+      </c>
       <c r="BI16" s="1"/>
-      <c r="BJ16" s="1"/>
+      <c r="BJ16" t="s">
+        <v>132</v>
+      </c>
       <c r="BK16" s="1"/>
-      <c r="BL16" s="1"/>
+      <c r="BL16" t="s">
+        <v>132</v>
+      </c>
       <c r="BM16" s="1"/>
-      <c r="BN16" s="1"/>
+      <c r="BN16" t="s">
+        <v>132</v>
+      </c>
       <c r="BO16" s="1"/>
-      <c r="BP16" s="1"/>
+      <c r="BP16" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ16" s="1"/>
-      <c r="BR16" s="1"/>
+      <c r="BR16" t="s">
+        <v>132</v>
+      </c>
       <c r="BS16" s="1"/>
-      <c r="BT16" s="1"/>
+      <c r="BT16" t="s">
+        <v>132</v>
+      </c>
       <c r="BU16" s="1"/>
-      <c r="BV16" s="1"/>
+      <c r="BV16" t="s">
+        <v>132</v>
+      </c>
       <c r="BW16" s="1"/>
-      <c r="BX16" s="1"/>
+      <c r="BX16" t="s">
+        <v>132</v>
+      </c>
       <c r="BY16" s="1"/>
-      <c r="BZ16" s="1"/>
+      <c r="BZ16" t="s">
+        <v>132</v>
+      </c>
       <c r="CA16" s="1"/>
-      <c r="CB16" s="1"/>
+      <c r="CB16" t="s">
+        <v>132</v>
+      </c>
       <c r="CC16" s="1"/>
-      <c r="CD16" s="1"/>
+      <c r="CD16" t="s">
+        <v>132</v>
+      </c>
       <c r="CE16" s="1"/>
       <c r="CF16" s="1"/>
       <c r="CG16" s="1"/>
@@ -5376,16 +5946,16 @@
         <v>82</v>
       </c>
       <c r="AI17" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="AJ17" t="s">
         <v>62</v>
       </c>
       <c r="AK17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL17" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM17" s="1">
         <v>2</v>
@@ -5399,44 +5969,80 @@
       </c>
       <c r="AQ17" s="1"/>
       <c r="AR17" s="1"/>
-      <c r="AS17" s="1"/>
-      <c r="AT17" s="1"/>
+      <c r="AS17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>132</v>
+      </c>
       <c r="AU17" s="1"/>
       <c r="AV17" s="1"/>
       <c r="AW17" s="1"/>
-      <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
+      <c r="AX17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ17" s="1"/>
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
-      <c r="BC17" s="1"/>
-      <c r="BD17" s="1"/>
+      <c r="BC17" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>132</v>
+      </c>
       <c r="BE17" s="1"/>
       <c r="BF17" s="1"/>
       <c r="BG17" s="1"/>
-      <c r="BH17" s="1"/>
+      <c r="BH17" t="s">
+        <v>132</v>
+      </c>
       <c r="BI17" s="1"/>
-      <c r="BJ17" s="1"/>
+      <c r="BJ17" t="s">
+        <v>132</v>
+      </c>
       <c r="BK17" s="1"/>
-      <c r="BL17" s="1"/>
+      <c r="BL17" t="s">
+        <v>132</v>
+      </c>
       <c r="BM17" s="1"/>
-      <c r="BN17" s="1"/>
+      <c r="BN17" t="s">
+        <v>132</v>
+      </c>
       <c r="BO17" s="1"/>
-      <c r="BP17" s="1"/>
+      <c r="BP17" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ17" s="1"/>
-      <c r="BR17" s="1"/>
+      <c r="BR17" t="s">
+        <v>132</v>
+      </c>
       <c r="BS17" s="1"/>
-      <c r="BT17" s="1"/>
+      <c r="BT17" t="s">
+        <v>132</v>
+      </c>
       <c r="BU17" s="1"/>
-      <c r="BV17" s="1"/>
+      <c r="BV17" t="s">
+        <v>132</v>
+      </c>
       <c r="BW17" s="1"/>
-      <c r="BX17" s="1"/>
+      <c r="BX17" t="s">
+        <v>132</v>
+      </c>
       <c r="BY17" s="1"/>
-      <c r="BZ17" s="1"/>
+      <c r="BZ17" t="s">
+        <v>132</v>
+      </c>
       <c r="CA17" s="1"/>
-      <c r="CB17" s="1"/>
+      <c r="CB17" t="s">
+        <v>132</v>
+      </c>
       <c r="CC17" s="1"/>
-      <c r="CD17" s="1"/>
+      <c r="CD17" t="s">
+        <v>132</v>
+      </c>
       <c r="CE17" s="1"/>
       <c r="CF17" s="1"/>
       <c r="CG17" s="1"/>
@@ -5636,16 +6242,16 @@
         <v>82</v>
       </c>
       <c r="AI18" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s">
         <v>62</v>
       </c>
       <c r="AK18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM18" s="1">
         <v>1</v>
@@ -5659,44 +6265,80 @@
       </c>
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
-      <c r="AS18" s="1"/>
-      <c r="AT18" s="1"/>
+      <c r="AS18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>132</v>
+      </c>
       <c r="AU18" s="1"/>
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
-      <c r="AX18" s="1"/>
-      <c r="AY18" s="1"/>
+      <c r="AX18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ18" s="1"/>
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
-      <c r="BC18" s="1"/>
-      <c r="BD18" s="1"/>
+      <c r="BC18" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>132</v>
+      </c>
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
       <c r="BG18" s="1"/>
-      <c r="BH18" s="1"/>
+      <c r="BH18" t="s">
+        <v>132</v>
+      </c>
       <c r="BI18" s="1"/>
-      <c r="BJ18" s="1"/>
+      <c r="BJ18" t="s">
+        <v>132</v>
+      </c>
       <c r="BK18" s="1"/>
-      <c r="BL18" s="1"/>
+      <c r="BL18" t="s">
+        <v>132</v>
+      </c>
       <c r="BM18" s="1"/>
-      <c r="BN18" s="1"/>
+      <c r="BN18" t="s">
+        <v>132</v>
+      </c>
       <c r="BO18" s="1"/>
-      <c r="BP18" s="1"/>
+      <c r="BP18" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ18" s="1"/>
-      <c r="BR18" s="1"/>
+      <c r="BR18" t="s">
+        <v>132</v>
+      </c>
       <c r="BS18" s="1"/>
-      <c r="BT18" s="1"/>
+      <c r="BT18" t="s">
+        <v>132</v>
+      </c>
       <c r="BU18" s="1"/>
-      <c r="BV18" s="1"/>
+      <c r="BV18" t="s">
+        <v>132</v>
+      </c>
       <c r="BW18" s="1"/>
-      <c r="BX18" s="1"/>
+      <c r="BX18" t="s">
+        <v>132</v>
+      </c>
       <c r="BY18" s="1"/>
-      <c r="BZ18" s="1"/>
+      <c r="BZ18" t="s">
+        <v>132</v>
+      </c>
       <c r="CA18" s="1"/>
-      <c r="CB18" s="1"/>
+      <c r="CB18" t="s">
+        <v>132</v>
+      </c>
       <c r="CC18" s="1"/>
-      <c r="CD18" s="1"/>
+      <c r="CD18" t="s">
+        <v>132</v>
+      </c>
       <c r="CE18" s="1"/>
       <c r="CF18" s="1"/>
       <c r="CG18" s="1"/>
@@ -5896,16 +6538,16 @@
         <v>82</v>
       </c>
       <c r="AI19" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AJ19" t="s">
         <v>62</v>
       </c>
       <c r="AK19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL19" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM19" s="1">
         <v>2</v>
@@ -5919,44 +6561,80 @@
       </c>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
-      <c r="AS19" s="1"/>
-      <c r="AT19" s="1"/>
+      <c r="AS19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>132</v>
+      </c>
       <c r="AU19" s="1"/>
       <c r="AV19" s="1"/>
       <c r="AW19" s="1"/>
-      <c r="AX19" s="1"/>
-      <c r="AY19" s="1"/>
+      <c r="AX19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ19" s="1"/>
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
-      <c r="BC19" s="1"/>
-      <c r="BD19" s="1"/>
+      <c r="BC19" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>132</v>
+      </c>
       <c r="BE19" s="1"/>
       <c r="BF19" s="1"/>
       <c r="BG19" s="1"/>
-      <c r="BH19" s="1"/>
+      <c r="BH19" t="s">
+        <v>132</v>
+      </c>
       <c r="BI19" s="1"/>
-      <c r="BJ19" s="1"/>
+      <c r="BJ19" t="s">
+        <v>132</v>
+      </c>
       <c r="BK19" s="1"/>
-      <c r="BL19" s="1"/>
+      <c r="BL19" t="s">
+        <v>132</v>
+      </c>
       <c r="BM19" s="1"/>
-      <c r="BN19" s="1"/>
+      <c r="BN19" t="s">
+        <v>132</v>
+      </c>
       <c r="BO19" s="1"/>
-      <c r="BP19" s="1"/>
+      <c r="BP19" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ19" s="1"/>
-      <c r="BR19" s="1"/>
+      <c r="BR19" t="s">
+        <v>132</v>
+      </c>
       <c r="BS19" s="1"/>
-      <c r="BT19" s="1"/>
+      <c r="BT19" t="s">
+        <v>132</v>
+      </c>
       <c r="BU19" s="1"/>
-      <c r="BV19" s="1"/>
+      <c r="BV19" t="s">
+        <v>132</v>
+      </c>
       <c r="BW19" s="1"/>
-      <c r="BX19" s="1"/>
+      <c r="BX19" t="s">
+        <v>132</v>
+      </c>
       <c r="BY19" s="1"/>
-      <c r="BZ19" s="1"/>
+      <c r="BZ19" t="s">
+        <v>132</v>
+      </c>
       <c r="CA19" s="1"/>
-      <c r="CB19" s="1"/>
+      <c r="CB19" t="s">
+        <v>132</v>
+      </c>
       <c r="CC19" s="1"/>
-      <c r="CD19" s="1"/>
+      <c r="CD19" t="s">
+        <v>132</v>
+      </c>
       <c r="CE19" s="1"/>
       <c r="CF19" s="1"/>
       <c r="CG19" s="1"/>
@@ -6156,16 +6834,16 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AJ20" t="s">
         <v>62</v>
       </c>
       <c r="AK20" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL20" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM20" s="1">
         <v>3</v>
@@ -6179,44 +6857,80 @@
       </c>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
-      <c r="AS20" s="1"/>
-      <c r="AT20" s="1"/>
+      <c r="AS20" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>132</v>
+      </c>
       <c r="AU20" s="1"/>
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
-      <c r="AX20" s="1"/>
-      <c r="AY20" s="1"/>
+      <c r="AX20" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ20" s="1"/>
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
-      <c r="BC20" s="1"/>
-      <c r="BD20" s="1"/>
+      <c r="BC20" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>132</v>
+      </c>
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
       <c r="BG20" s="1"/>
-      <c r="BH20" s="1"/>
+      <c r="BH20" t="s">
+        <v>132</v>
+      </c>
       <c r="BI20" s="1"/>
-      <c r="BJ20" s="1"/>
+      <c r="BJ20" t="s">
+        <v>132</v>
+      </c>
       <c r="BK20" s="1"/>
-      <c r="BL20" s="1"/>
+      <c r="BL20" t="s">
+        <v>132</v>
+      </c>
       <c r="BM20" s="1"/>
-      <c r="BN20" s="1"/>
+      <c r="BN20" t="s">
+        <v>132</v>
+      </c>
       <c r="BO20" s="1"/>
-      <c r="BP20" s="1"/>
+      <c r="BP20" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ20" s="1"/>
-      <c r="BR20" s="1"/>
+      <c r="BR20" t="s">
+        <v>132</v>
+      </c>
       <c r="BS20" s="1"/>
-      <c r="BT20" s="1"/>
+      <c r="BT20" t="s">
+        <v>132</v>
+      </c>
       <c r="BU20" s="1"/>
-      <c r="BV20" s="1"/>
+      <c r="BV20" t="s">
+        <v>132</v>
+      </c>
       <c r="BW20" s="1"/>
-      <c r="BX20" s="1"/>
+      <c r="BX20" t="s">
+        <v>132</v>
+      </c>
       <c r="BY20" s="1"/>
-      <c r="BZ20" s="1"/>
+      <c r="BZ20" t="s">
+        <v>132</v>
+      </c>
       <c r="CA20" s="1"/>
-      <c r="CB20" s="1"/>
+      <c r="CB20" t="s">
+        <v>132</v>
+      </c>
       <c r="CC20" s="1"/>
-      <c r="CD20" s="1"/>
+      <c r="CD20" t="s">
+        <v>132</v>
+      </c>
       <c r="CE20" s="1"/>
       <c r="CF20" s="1"/>
       <c r="CG20" s="1"/>
@@ -6419,13 +7133,13 @@
         <v>104</v>
       </c>
       <c r="AJ21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AK21" t="s">
         <v>104</v>
       </c>
       <c r="AL21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AM21" s="1">
         <v>16</v>
@@ -6434,7 +7148,7 @@
         <v>15</v>
       </c>
       <c r="AO21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AP21" t="s">
         <v>52</v>
@@ -6443,44 +7157,80 @@
         <v>9</v>
       </c>
       <c r="AR21" s="1"/>
-      <c r="AS21" s="1"/>
-      <c r="AT21" s="1"/>
+      <c r="AS21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>132</v>
+      </c>
       <c r="AU21" s="1"/>
       <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
-      <c r="AX21" s="1"/>
-      <c r="AY21" s="1"/>
+      <c r="AX21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
-      <c r="BC21" s="1"/>
-      <c r="BD21" s="1"/>
+      <c r="BC21" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>132</v>
+      </c>
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
       <c r="BG21" s="1"/>
-      <c r="BH21" s="1"/>
+      <c r="BH21" t="s">
+        <v>132</v>
+      </c>
       <c r="BI21" s="1"/>
-      <c r="BJ21" s="1"/>
+      <c r="BJ21" t="s">
+        <v>132</v>
+      </c>
       <c r="BK21" s="1"/>
-      <c r="BL21" s="1"/>
+      <c r="BL21" t="s">
+        <v>132</v>
+      </c>
       <c r="BM21" s="1"/>
-      <c r="BN21" s="1"/>
+      <c r="BN21" t="s">
+        <v>132</v>
+      </c>
       <c r="BO21" s="1"/>
-      <c r="BP21" s="1"/>
+      <c r="BP21" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ21" s="1"/>
-      <c r="BR21" s="1"/>
+      <c r="BR21" t="s">
+        <v>132</v>
+      </c>
       <c r="BS21" s="1"/>
-      <c r="BT21" s="1"/>
+      <c r="BT21" t="s">
+        <v>132</v>
+      </c>
       <c r="BU21" s="1"/>
-      <c r="BV21" s="1"/>
+      <c r="BV21" t="s">
+        <v>132</v>
+      </c>
       <c r="BW21" s="1"/>
-      <c r="BX21" s="1"/>
+      <c r="BX21" t="s">
+        <v>132</v>
+      </c>
       <c r="BY21" s="1"/>
-      <c r="BZ21" s="1"/>
+      <c r="BZ21" t="s">
+        <v>132</v>
+      </c>
       <c r="CA21" s="1"/>
-      <c r="CB21" s="1"/>
+      <c r="CB21" t="s">
+        <v>132</v>
+      </c>
       <c r="CC21" s="1"/>
-      <c r="CD21" s="1"/>
+      <c r="CD21" t="s">
+        <v>132</v>
+      </c>
       <c r="CE21" s="1"/>
       <c r="CF21" s="1"/>
       <c r="CG21" s="1"/>
@@ -6683,13 +7433,13 @@
         <v>104</v>
       </c>
       <c r="AJ22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AK22" t="s">
         <v>104</v>
       </c>
       <c r="AL22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AM22" s="1">
         <v>16</v>
@@ -6698,7 +7448,7 @@
         <v>15</v>
       </c>
       <c r="AO22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AP22" t="s">
         <v>52</v>
@@ -6707,44 +7457,80 @@
         <v>9</v>
       </c>
       <c r="AR22" s="1"/>
-      <c r="AS22" s="1"/>
-      <c r="AT22" s="1"/>
+      <c r="AS22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>132</v>
+      </c>
       <c r="AU22" s="1"/>
       <c r="AV22" s="1"/>
       <c r="AW22" s="1"/>
-      <c r="AX22" s="1"/>
-      <c r="AY22" s="1"/>
+      <c r="AX22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
-      <c r="BC22" s="1"/>
-      <c r="BD22" s="1"/>
+      <c r="BC22" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>132</v>
+      </c>
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
       <c r="BG22" s="1"/>
-      <c r="BH22" s="1"/>
+      <c r="BH22" t="s">
+        <v>132</v>
+      </c>
       <c r="BI22" s="1"/>
-      <c r="BJ22" s="1"/>
+      <c r="BJ22" t="s">
+        <v>132</v>
+      </c>
       <c r="BK22" s="1"/>
-      <c r="BL22" s="1"/>
+      <c r="BL22" t="s">
+        <v>132</v>
+      </c>
       <c r="BM22" s="1"/>
-      <c r="BN22" s="1"/>
+      <c r="BN22" t="s">
+        <v>132</v>
+      </c>
       <c r="BO22" s="1"/>
-      <c r="BP22" s="1"/>
+      <c r="BP22" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ22" s="1"/>
-      <c r="BR22" s="1"/>
+      <c r="BR22" t="s">
+        <v>132</v>
+      </c>
       <c r="BS22" s="1"/>
-      <c r="BT22" s="1"/>
+      <c r="BT22" t="s">
+        <v>132</v>
+      </c>
       <c r="BU22" s="1"/>
-      <c r="BV22" s="1"/>
+      <c r="BV22" t="s">
+        <v>132</v>
+      </c>
       <c r="BW22" s="1"/>
-      <c r="BX22" s="1"/>
+      <c r="BX22" t="s">
+        <v>132</v>
+      </c>
       <c r="BY22" s="1"/>
-      <c r="BZ22" s="1"/>
+      <c r="BZ22" t="s">
+        <v>132</v>
+      </c>
       <c r="CA22" s="1"/>
-      <c r="CB22" s="1"/>
+      <c r="CB22" t="s">
+        <v>132</v>
+      </c>
       <c r="CC22" s="1"/>
-      <c r="CD22" s="1"/>
+      <c r="CD22" t="s">
+        <v>132</v>
+      </c>
       <c r="CE22" s="1"/>
       <c r="CF22" s="1"/>
       <c r="CG22" s="1"/>
@@ -6947,13 +7733,13 @@
         <v>104</v>
       </c>
       <c r="AJ23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AK23" t="s">
         <v>104</v>
       </c>
       <c r="AL23" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AM23" s="1">
         <v>12</v>
@@ -6962,7 +7748,7 @@
         <v>12</v>
       </c>
       <c r="AO23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AP23" t="s">
         <v>52</v>
@@ -6971,44 +7757,80 @@
         <v>8</v>
       </c>
       <c r="AR23" s="1"/>
-      <c r="AS23" s="1"/>
-      <c r="AT23" s="1"/>
+      <c r="AS23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>132</v>
+      </c>
       <c r="AU23" s="1"/>
       <c r="AV23" s="1"/>
       <c r="AW23" s="1"/>
-      <c r="AX23" s="1"/>
-      <c r="AY23" s="1"/>
+      <c r="AX23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
-      <c r="BC23" s="1"/>
-      <c r="BD23" s="1"/>
+      <c r="BC23" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>132</v>
+      </c>
       <c r="BE23" s="1"/>
       <c r="BF23" s="1"/>
       <c r="BG23" s="1"/>
-      <c r="BH23" s="1"/>
+      <c r="BH23" t="s">
+        <v>132</v>
+      </c>
       <c r="BI23" s="1"/>
-      <c r="BJ23" s="1"/>
+      <c r="BJ23" t="s">
+        <v>132</v>
+      </c>
       <c r="BK23" s="1"/>
-      <c r="BL23" s="1"/>
+      <c r="BL23" t="s">
+        <v>132</v>
+      </c>
       <c r="BM23" s="1"/>
-      <c r="BN23" s="1"/>
+      <c r="BN23" t="s">
+        <v>132</v>
+      </c>
       <c r="BO23" s="1"/>
-      <c r="BP23" s="1"/>
+      <c r="BP23" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ23" s="1"/>
-      <c r="BR23" s="1"/>
+      <c r="BR23" t="s">
+        <v>132</v>
+      </c>
       <c r="BS23" s="1"/>
-      <c r="BT23" s="1"/>
+      <c r="BT23" t="s">
+        <v>132</v>
+      </c>
       <c r="BU23" s="1"/>
-      <c r="BV23" s="1"/>
+      <c r="BV23" t="s">
+        <v>132</v>
+      </c>
       <c r="BW23" s="1"/>
-      <c r="BX23" s="1"/>
+      <c r="BX23" t="s">
+        <v>132</v>
+      </c>
       <c r="BY23" s="1"/>
-      <c r="BZ23" s="1"/>
+      <c r="BZ23" t="s">
+        <v>132</v>
+      </c>
       <c r="CA23" s="1"/>
-      <c r="CB23" s="1"/>
+      <c r="CB23" t="s">
+        <v>132</v>
+      </c>
       <c r="CC23" s="1"/>
-      <c r="CD23" s="1"/>
+      <c r="CD23" t="s">
+        <v>132</v>
+      </c>
       <c r="CE23" s="1"/>
       <c r="CF23" s="1"/>
       <c r="CG23" s="1"/>
@@ -7211,13 +8033,13 @@
         <v>104</v>
       </c>
       <c r="AJ24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AK24" t="s">
         <v>104</v>
       </c>
       <c r="AL24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AM24" s="1">
         <v>13</v>
@@ -7226,7 +8048,7 @@
         <v>12</v>
       </c>
       <c r="AO24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AP24" t="s">
         <v>52</v>
@@ -7235,44 +8057,80 @@
         <v>8</v>
       </c>
       <c r="AR24" s="1"/>
-      <c r="AS24" s="1"/>
-      <c r="AT24" s="1"/>
+      <c r="AS24" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>132</v>
+      </c>
       <c r="AU24" s="1"/>
       <c r="AV24" s="1"/>
       <c r="AW24" s="1"/>
-      <c r="AX24" s="1"/>
-      <c r="AY24" s="1"/>
+      <c r="AX24" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
-      <c r="BC24" s="1"/>
-      <c r="BD24" s="1"/>
+      <c r="BC24" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>132</v>
+      </c>
       <c r="BE24" s="1"/>
       <c r="BF24" s="1"/>
       <c r="BG24" s="1"/>
-      <c r="BH24" s="1"/>
+      <c r="BH24" t="s">
+        <v>132</v>
+      </c>
       <c r="BI24" s="1"/>
-      <c r="BJ24" s="1"/>
+      <c r="BJ24" t="s">
+        <v>132</v>
+      </c>
       <c r="BK24" s="1"/>
-      <c r="BL24" s="1"/>
+      <c r="BL24" t="s">
+        <v>132</v>
+      </c>
       <c r="BM24" s="1"/>
-      <c r="BN24" s="1"/>
+      <c r="BN24" t="s">
+        <v>132</v>
+      </c>
       <c r="BO24" s="1"/>
-      <c r="BP24" s="1"/>
+      <c r="BP24" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ24" s="1"/>
-      <c r="BR24" s="1"/>
+      <c r="BR24" t="s">
+        <v>132</v>
+      </c>
       <c r="BS24" s="1"/>
-      <c r="BT24" s="1"/>
+      <c r="BT24" t="s">
+        <v>132</v>
+      </c>
       <c r="BU24" s="1"/>
-      <c r="BV24" s="1"/>
+      <c r="BV24" t="s">
+        <v>132</v>
+      </c>
       <c r="BW24" s="1"/>
-      <c r="BX24" s="1"/>
+      <c r="BX24" t="s">
+        <v>132</v>
+      </c>
       <c r="BY24" s="1"/>
-      <c r="BZ24" s="1"/>
+      <c r="BZ24" t="s">
+        <v>132</v>
+      </c>
       <c r="CA24" s="1"/>
-      <c r="CB24" s="1"/>
+      <c r="CB24" t="s">
+        <v>132</v>
+      </c>
       <c r="CC24" s="1"/>
-      <c r="CD24" s="1"/>
+      <c r="CD24" t="s">
+        <v>132</v>
+      </c>
       <c r="CE24" s="1"/>
       <c r="CF24" s="1"/>
       <c r="CG24" s="1"/>
@@ -7481,7 +8339,7 @@
         <v>104</v>
       </c>
       <c r="AL25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AM25" s="1">
         <v>8</v>
@@ -7493,7 +8351,7 @@
         <v>73</v>
       </c>
       <c r="AP25" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AQ25" s="1">
         <v>8</v>
@@ -7501,44 +8359,80 @@
       <c r="AR25" s="1">
         <v>8</v>
       </c>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
+      <c r="AS25" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>132</v>
+      </c>
       <c r="AU25" s="1"/>
       <c r="AV25" s="1"/>
       <c r="AW25" s="1"/>
-      <c r="AX25" s="1"/>
-      <c r="AY25" s="1"/>
+      <c r="AX25" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
-      <c r="BC25" s="1"/>
-      <c r="BD25" s="1"/>
+      <c r="BC25" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>132</v>
+      </c>
       <c r="BE25" s="1"/>
       <c r="BF25" s="1"/>
       <c r="BG25" s="1"/>
-      <c r="BH25" s="1"/>
+      <c r="BH25" t="s">
+        <v>132</v>
+      </c>
       <c r="BI25" s="1"/>
-      <c r="BJ25" s="1"/>
+      <c r="BJ25" t="s">
+        <v>132</v>
+      </c>
       <c r="BK25" s="1"/>
-      <c r="BL25" s="1"/>
+      <c r="BL25" t="s">
+        <v>132</v>
+      </c>
       <c r="BM25" s="1"/>
-      <c r="BN25" s="1"/>
+      <c r="BN25" t="s">
+        <v>132</v>
+      </c>
       <c r="BO25" s="1"/>
-      <c r="BP25" s="1"/>
+      <c r="BP25" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ25" s="1"/>
-      <c r="BR25" s="1"/>
+      <c r="BR25" t="s">
+        <v>132</v>
+      </c>
       <c r="BS25" s="1"/>
-      <c r="BT25" s="1"/>
+      <c r="BT25" t="s">
+        <v>132</v>
+      </c>
       <c r="BU25" s="1"/>
-      <c r="BV25" s="1"/>
+      <c r="BV25" t="s">
+        <v>132</v>
+      </c>
       <c r="BW25" s="1"/>
-      <c r="BX25" s="1"/>
+      <c r="BX25" t="s">
+        <v>132</v>
+      </c>
       <c r="BY25" s="1"/>
-      <c r="BZ25" s="1"/>
+      <c r="BZ25" t="s">
+        <v>132</v>
+      </c>
       <c r="CA25" s="1"/>
-      <c r="CB25" s="1"/>
+      <c r="CB25" t="s">
+        <v>132</v>
+      </c>
       <c r="CC25" s="1"/>
-      <c r="CD25" s="1"/>
+      <c r="CD25" t="s">
+        <v>132</v>
+      </c>
       <c r="CE25" s="1"/>
       <c r="CF25" s="1"/>
       <c r="CG25" s="1"/>
@@ -7738,16 +8632,16 @@
         <v>62</v>
       </c>
       <c r="AI26" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ26" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="AK26" t="s">
         <v>104</v>
       </c>
       <c r="AL26" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AM26" s="1">
         <v>21</v>
@@ -7756,53 +8650,91 @@
         <v>21</v>
       </c>
       <c r="AO26" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AP26" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AQ26" s="1">
         <v>20</v>
       </c>
-      <c r="AR26" s="1"/>
-      <c r="AS26" s="1"/>
-      <c r="AT26" s="1"/>
+      <c r="AR26" s="1">
+        <v>19</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>132</v>
+      </c>
       <c r="AU26" s="1"/>
       <c r="AV26" s="1"/>
       <c r="AW26" s="1"/>
-      <c r="AX26" s="1"/>
-      <c r="AY26" s="1"/>
+      <c r="AX26" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
-      <c r="BC26" s="1"/>
-      <c r="BD26" s="1"/>
+      <c r="BC26" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>132</v>
+      </c>
       <c r="BE26" s="1"/>
       <c r="BF26" s="1"/>
       <c r="BG26" s="1"/>
-      <c r="BH26" s="1"/>
+      <c r="BH26" t="s">
+        <v>132</v>
+      </c>
       <c r="BI26" s="1"/>
-      <c r="BJ26" s="1"/>
+      <c r="BJ26" t="s">
+        <v>132</v>
+      </c>
       <c r="BK26" s="1"/>
-      <c r="BL26" s="1"/>
+      <c r="BL26" t="s">
+        <v>132</v>
+      </c>
       <c r="BM26" s="1"/>
-      <c r="BN26" s="1"/>
+      <c r="BN26" t="s">
+        <v>132</v>
+      </c>
       <c r="BO26" s="1"/>
-      <c r="BP26" s="1"/>
+      <c r="BP26" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ26" s="1"/>
-      <c r="BR26" s="1"/>
+      <c r="BR26" t="s">
+        <v>132</v>
+      </c>
       <c r="BS26" s="1"/>
-      <c r="BT26" s="1"/>
+      <c r="BT26" t="s">
+        <v>132</v>
+      </c>
       <c r="BU26" s="1"/>
-      <c r="BV26" s="1"/>
+      <c r="BV26" t="s">
+        <v>132</v>
+      </c>
       <c r="BW26" s="1"/>
-      <c r="BX26" s="1"/>
+      <c r="BX26" t="s">
+        <v>132</v>
+      </c>
       <c r="BY26" s="1"/>
-      <c r="BZ26" s="1"/>
+      <c r="BZ26" t="s">
+        <v>132</v>
+      </c>
       <c r="CA26" s="1"/>
-      <c r="CB26" s="1"/>
+      <c r="CB26" t="s">
+        <v>132</v>
+      </c>
       <c r="CC26" s="1"/>
-      <c r="CD26" s="1"/>
+      <c r="CD26" t="s">
+        <v>132</v>
+      </c>
       <c r="CE26" s="1"/>
       <c r="CF26" s="1"/>
       <c r="CG26" s="1"/>
@@ -7895,7 +8827,7 @@
       <c r="FP26" s="1"/>
       <c r="FQ26" s="1"/>
       <c r="FR26" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27">
@@ -8002,16 +8934,16 @@
         <v>62</v>
       </c>
       <c r="AI27" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AJ27" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK27" t="s">
         <v>104</v>
       </c>
       <c r="AL27" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AM27" s="1">
         <v>3</v>
@@ -8025,44 +8957,80 @@
       </c>
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1"/>
-      <c r="AS27" s="1"/>
-      <c r="AT27" s="1"/>
+      <c r="AS27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>132</v>
+      </c>
       <c r="AU27" s="1"/>
       <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
-      <c r="AX27" s="1"/>
-      <c r="AY27" s="1"/>
+      <c r="AX27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
-      <c r="BC27" s="1"/>
-      <c r="BD27" s="1"/>
+      <c r="BC27" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>132</v>
+      </c>
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
       <c r="BG27" s="1"/>
-      <c r="BH27" s="1"/>
+      <c r="BH27" t="s">
+        <v>132</v>
+      </c>
       <c r="BI27" s="1"/>
-      <c r="BJ27" s="1"/>
+      <c r="BJ27" t="s">
+        <v>132</v>
+      </c>
       <c r="BK27" s="1"/>
-      <c r="BL27" s="1"/>
+      <c r="BL27" t="s">
+        <v>132</v>
+      </c>
       <c r="BM27" s="1"/>
-      <c r="BN27" s="1"/>
+      <c r="BN27" t="s">
+        <v>132</v>
+      </c>
       <c r="BO27" s="1"/>
-      <c r="BP27" s="1"/>
+      <c r="BP27" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ27" s="1"/>
-      <c r="BR27" s="1"/>
+      <c r="BR27" t="s">
+        <v>132</v>
+      </c>
       <c r="BS27" s="1"/>
-      <c r="BT27" s="1"/>
+      <c r="BT27" t="s">
+        <v>132</v>
+      </c>
       <c r="BU27" s="1"/>
-      <c r="BV27" s="1"/>
+      <c r="BV27" t="s">
+        <v>132</v>
+      </c>
       <c r="BW27" s="1"/>
-      <c r="BX27" s="1"/>
+      <c r="BX27" t="s">
+        <v>132</v>
+      </c>
       <c r="BY27" s="1"/>
-      <c r="BZ27" s="1"/>
+      <c r="BZ27" t="s">
+        <v>132</v>
+      </c>
       <c r="CA27" s="1"/>
-      <c r="CB27" s="1"/>
+      <c r="CB27" t="s">
+        <v>132</v>
+      </c>
       <c r="CC27" s="1"/>
-      <c r="CD27" s="1"/>
+      <c r="CD27" t="s">
+        <v>132</v>
+      </c>
       <c r="CE27" s="1"/>
       <c r="CF27" s="1"/>
       <c r="CG27" s="1"/>
@@ -8262,16 +9230,16 @@
         <v>62</v>
       </c>
       <c r="AI28" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ28" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK28" t="s">
         <v>104</v>
       </c>
       <c r="AL28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AM28" s="1">
         <v>3</v>
@@ -8285,44 +9253,80 @@
       </c>
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
-      <c r="AS28" s="1"/>
-      <c r="AT28" s="1"/>
+      <c r="AS28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>132</v>
+      </c>
       <c r="AU28" s="1"/>
       <c r="AV28" s="1"/>
       <c r="AW28" s="1"/>
-      <c r="AX28" s="1"/>
-      <c r="AY28" s="1"/>
+      <c r="AX28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
-      <c r="BC28" s="1"/>
-      <c r="BD28" s="1"/>
+      <c r="BC28" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>132</v>
+      </c>
       <c r="BE28" s="1"/>
       <c r="BF28" s="1"/>
       <c r="BG28" s="1"/>
-      <c r="BH28" s="1"/>
+      <c r="BH28" t="s">
+        <v>132</v>
+      </c>
       <c r="BI28" s="1"/>
-      <c r="BJ28" s="1"/>
+      <c r="BJ28" t="s">
+        <v>132</v>
+      </c>
       <c r="BK28" s="1"/>
-      <c r="BL28" s="1"/>
+      <c r="BL28" t="s">
+        <v>132</v>
+      </c>
       <c r="BM28" s="1"/>
-      <c r="BN28" s="1"/>
+      <c r="BN28" t="s">
+        <v>132</v>
+      </c>
       <c r="BO28" s="1"/>
-      <c r="BP28" s="1"/>
+      <c r="BP28" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ28" s="1"/>
-      <c r="BR28" s="1"/>
+      <c r="BR28" t="s">
+        <v>132</v>
+      </c>
       <c r="BS28" s="1"/>
-      <c r="BT28" s="1"/>
+      <c r="BT28" t="s">
+        <v>132</v>
+      </c>
       <c r="BU28" s="1"/>
-      <c r="BV28" s="1"/>
+      <c r="BV28" t="s">
+        <v>132</v>
+      </c>
       <c r="BW28" s="1"/>
-      <c r="BX28" s="1"/>
+      <c r="BX28" t="s">
+        <v>132</v>
+      </c>
       <c r="BY28" s="1"/>
-      <c r="BZ28" s="1"/>
+      <c r="BZ28" t="s">
+        <v>132</v>
+      </c>
       <c r="CA28" s="1"/>
-      <c r="CB28" s="1"/>
+      <c r="CB28" t="s">
+        <v>132</v>
+      </c>
       <c r="CC28" s="1"/>
-      <c r="CD28" s="1"/>
+      <c r="CD28" t="s">
+        <v>132</v>
+      </c>
       <c r="CE28" s="1"/>
       <c r="CF28" s="1"/>
       <c r="CG28" s="1"/>
@@ -8415,7 +9419,7 @@
       <c r="FP28" s="1"/>
       <c r="FQ28" s="1"/>
       <c r="FR28" t="s">
-        <v>62</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29">
@@ -8522,16 +9526,16 @@
         <v>62</v>
       </c>
       <c r="AI29" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ29" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK29" t="s">
         <v>104</v>
       </c>
       <c r="AL29" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AM29" s="1">
         <v>6</v>
@@ -8545,44 +9549,80 @@
       </c>
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
-      <c r="AS29" s="1"/>
-      <c r="AT29" s="1"/>
+      <c r="AS29" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>132</v>
+      </c>
       <c r="AU29" s="1"/>
       <c r="AV29" s="1"/>
       <c r="AW29" s="1"/>
-      <c r="AX29" s="1"/>
-      <c r="AY29" s="1"/>
+      <c r="AX29" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
-      <c r="BC29" s="1"/>
-      <c r="BD29" s="1"/>
+      <c r="BC29" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>132</v>
+      </c>
       <c r="BE29" s="1"/>
       <c r="BF29" s="1"/>
       <c r="BG29" s="1"/>
-      <c r="BH29" s="1"/>
+      <c r="BH29" t="s">
+        <v>132</v>
+      </c>
       <c r="BI29" s="1"/>
-      <c r="BJ29" s="1"/>
+      <c r="BJ29" t="s">
+        <v>132</v>
+      </c>
       <c r="BK29" s="1"/>
-      <c r="BL29" s="1"/>
+      <c r="BL29" t="s">
+        <v>132</v>
+      </c>
       <c r="BM29" s="1"/>
-      <c r="BN29" s="1"/>
+      <c r="BN29" t="s">
+        <v>132</v>
+      </c>
       <c r="BO29" s="1"/>
-      <c r="BP29" s="1"/>
+      <c r="BP29" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ29" s="1"/>
-      <c r="BR29" s="1"/>
+      <c r="BR29" t="s">
+        <v>132</v>
+      </c>
       <c r="BS29" s="1"/>
-      <c r="BT29" s="1"/>
+      <c r="BT29" t="s">
+        <v>132</v>
+      </c>
       <c r="BU29" s="1"/>
-      <c r="BV29" s="1"/>
+      <c r="BV29" t="s">
+        <v>132</v>
+      </c>
       <c r="BW29" s="1"/>
-      <c r="BX29" s="1"/>
+      <c r="BX29" t="s">
+        <v>132</v>
+      </c>
       <c r="BY29" s="1"/>
-      <c r="BZ29" s="1"/>
+      <c r="BZ29" t="s">
+        <v>132</v>
+      </c>
       <c r="CA29" s="1"/>
-      <c r="CB29" s="1"/>
+      <c r="CB29" t="s">
+        <v>132</v>
+      </c>
       <c r="CC29" s="1"/>
-      <c r="CD29" s="1"/>
+      <c r="CD29" t="s">
+        <v>132</v>
+      </c>
       <c r="CE29" s="1"/>
       <c r="CF29" s="1"/>
       <c r="CG29" s="1"/>
@@ -8675,7 +9715,7 @@
       <c r="FP29" s="1"/>
       <c r="FQ29" s="1"/>
       <c r="FR29" t="s">
-        <v>62</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30">
@@ -8782,7 +9822,7 @@
         <v>62</v>
       </c>
       <c r="AI30" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ30" t="s">
         <v>62</v>
@@ -8791,7 +9831,7 @@
         <v>104</v>
       </c>
       <c r="AL30" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AM30" s="1">
         <v>12</v>
@@ -8805,44 +9845,80 @@
       </c>
       <c r="AQ30" s="1"/>
       <c r="AR30" s="1"/>
-      <c r="AS30" s="1"/>
-      <c r="AT30" s="1"/>
+      <c r="AS30" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>132</v>
+      </c>
       <c r="AU30" s="1"/>
       <c r="AV30" s="1"/>
       <c r="AW30" s="1"/>
-      <c r="AX30" s="1"/>
-      <c r="AY30" s="1"/>
+      <c r="AX30" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
-      <c r="BC30" s="1"/>
-      <c r="BD30" s="1"/>
+      <c r="BC30" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>132</v>
+      </c>
       <c r="BE30" s="1"/>
       <c r="BF30" s="1"/>
       <c r="BG30" s="1"/>
-      <c r="BH30" s="1"/>
+      <c r="BH30" t="s">
+        <v>132</v>
+      </c>
       <c r="BI30" s="1"/>
-      <c r="BJ30" s="1"/>
+      <c r="BJ30" t="s">
+        <v>132</v>
+      </c>
       <c r="BK30" s="1"/>
-      <c r="BL30" s="1"/>
+      <c r="BL30" t="s">
+        <v>132</v>
+      </c>
       <c r="BM30" s="1"/>
-      <c r="BN30" s="1"/>
+      <c r="BN30" t="s">
+        <v>132</v>
+      </c>
       <c r="BO30" s="1"/>
-      <c r="BP30" s="1"/>
+      <c r="BP30" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ30" s="1"/>
-      <c r="BR30" s="1"/>
+      <c r="BR30" t="s">
+        <v>132</v>
+      </c>
       <c r="BS30" s="1"/>
-      <c r="BT30" s="1"/>
+      <c r="BT30" t="s">
+        <v>132</v>
+      </c>
       <c r="BU30" s="1"/>
-      <c r="BV30" s="1"/>
+      <c r="BV30" t="s">
+        <v>132</v>
+      </c>
       <c r="BW30" s="1"/>
-      <c r="BX30" s="1"/>
+      <c r="BX30" t="s">
+        <v>132</v>
+      </c>
       <c r="BY30" s="1"/>
-      <c r="BZ30" s="1"/>
+      <c r="BZ30" t="s">
+        <v>132</v>
+      </c>
       <c r="CA30" s="1"/>
-      <c r="CB30" s="1"/>
+      <c r="CB30" t="s">
+        <v>132</v>
+      </c>
       <c r="CC30" s="1"/>
-      <c r="CD30" s="1"/>
+      <c r="CD30" t="s">
+        <v>132</v>
+      </c>
       <c r="CE30" s="1"/>
       <c r="CF30" s="1"/>
       <c r="CG30" s="1"/>
@@ -9042,7 +10118,7 @@
         <v>62</v>
       </c>
       <c r="AI31" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ31" t="s">
         <v>62</v>
@@ -9051,7 +10127,7 @@
         <v>104</v>
       </c>
       <c r="AL31" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AM31" s="1">
         <v>15</v>
@@ -9065,44 +10141,80 @@
       </c>
       <c r="AQ31" s="1"/>
       <c r="AR31" s="1"/>
-      <c r="AS31" s="1"/>
-      <c r="AT31" s="1"/>
+      <c r="AS31" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>132</v>
+      </c>
       <c r="AU31" s="1"/>
       <c r="AV31" s="1"/>
       <c r="AW31" s="1"/>
-      <c r="AX31" s="1"/>
-      <c r="AY31" s="1"/>
+      <c r="AX31" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
-      <c r="BC31" s="1"/>
-      <c r="BD31" s="1"/>
+      <c r="BC31" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>132</v>
+      </c>
       <c r="BE31" s="1"/>
       <c r="BF31" s="1"/>
       <c r="BG31" s="1"/>
-      <c r="BH31" s="1"/>
+      <c r="BH31" t="s">
+        <v>132</v>
+      </c>
       <c r="BI31" s="1"/>
-      <c r="BJ31" s="1"/>
+      <c r="BJ31" t="s">
+        <v>132</v>
+      </c>
       <c r="BK31" s="1"/>
-      <c r="BL31" s="1"/>
+      <c r="BL31" t="s">
+        <v>132</v>
+      </c>
       <c r="BM31" s="1"/>
-      <c r="BN31" s="1"/>
+      <c r="BN31" t="s">
+        <v>132</v>
+      </c>
       <c r="BO31" s="1"/>
-      <c r="BP31" s="1"/>
+      <c r="BP31" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ31" s="1"/>
-      <c r="BR31" s="1"/>
+      <c r="BR31" t="s">
+        <v>132</v>
+      </c>
       <c r="BS31" s="1"/>
-      <c r="BT31" s="1"/>
+      <c r="BT31" t="s">
+        <v>132</v>
+      </c>
       <c r="BU31" s="1"/>
-      <c r="BV31" s="1"/>
+      <c r="BV31" t="s">
+        <v>132</v>
+      </c>
       <c r="BW31" s="1"/>
-      <c r="BX31" s="1"/>
+      <c r="BX31" t="s">
+        <v>132</v>
+      </c>
       <c r="BY31" s="1"/>
-      <c r="BZ31" s="1"/>
+      <c r="BZ31" t="s">
+        <v>132</v>
+      </c>
       <c r="CA31" s="1"/>
-      <c r="CB31" s="1"/>
+      <c r="CB31" t="s">
+        <v>132</v>
+      </c>
       <c r="CC31" s="1"/>
-      <c r="CD31" s="1"/>
+      <c r="CD31" t="s">
+        <v>132</v>
+      </c>
       <c r="CE31" s="1"/>
       <c r="CF31" s="1"/>
       <c r="CG31" s="1"/>
@@ -9195,7 +10307,7 @@
       <c r="FP31" s="1"/>
       <c r="FQ31" s="1"/>
       <c r="FR31" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
@@ -9302,7 +10414,7 @@
         <v>62</v>
       </c>
       <c r="AI32" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ32" t="s">
         <v>62</v>
@@ -9311,7 +10423,7 @@
         <v>104</v>
       </c>
       <c r="AL32" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AM32" s="1">
         <v>11</v>
@@ -9325,44 +10437,80 @@
       </c>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
-      <c r="AS32" s="1"/>
-      <c r="AT32" s="1"/>
+      <c r="AS32" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>132</v>
+      </c>
       <c r="AU32" s="1"/>
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
-      <c r="AX32" s="1"/>
-      <c r="AY32" s="1"/>
+      <c r="AX32" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
-      <c r="BC32" s="1"/>
-      <c r="BD32" s="1"/>
+      <c r="BC32" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>132</v>
+      </c>
       <c r="BE32" s="1"/>
       <c r="BF32" s="1"/>
       <c r="BG32" s="1"/>
-      <c r="BH32" s="1"/>
+      <c r="BH32" t="s">
+        <v>132</v>
+      </c>
       <c r="BI32" s="1"/>
-      <c r="BJ32" s="1"/>
+      <c r="BJ32" t="s">
+        <v>132</v>
+      </c>
       <c r="BK32" s="1"/>
-      <c r="BL32" s="1"/>
+      <c r="BL32" t="s">
+        <v>132</v>
+      </c>
       <c r="BM32" s="1"/>
-      <c r="BN32" s="1"/>
+      <c r="BN32" t="s">
+        <v>132</v>
+      </c>
       <c r="BO32" s="1"/>
-      <c r="BP32" s="1"/>
+      <c r="BP32" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ32" s="1"/>
-      <c r="BR32" s="1"/>
+      <c r="BR32" t="s">
+        <v>132</v>
+      </c>
       <c r="BS32" s="1"/>
-      <c r="BT32" s="1"/>
+      <c r="BT32" t="s">
+        <v>132</v>
+      </c>
       <c r="BU32" s="1"/>
-      <c r="BV32" s="1"/>
+      <c r="BV32" t="s">
+        <v>132</v>
+      </c>
       <c r="BW32" s="1"/>
-      <c r="BX32" s="1"/>
+      <c r="BX32" t="s">
+        <v>132</v>
+      </c>
       <c r="BY32" s="1"/>
-      <c r="BZ32" s="1"/>
+      <c r="BZ32" t="s">
+        <v>132</v>
+      </c>
       <c r="CA32" s="1"/>
-      <c r="CB32" s="1"/>
+      <c r="CB32" t="s">
+        <v>132</v>
+      </c>
       <c r="CC32" s="1"/>
-      <c r="CD32" s="1"/>
+      <c r="CD32" t="s">
+        <v>132</v>
+      </c>
       <c r="CE32" s="1"/>
       <c r="CF32" s="1"/>
       <c r="CG32" s="1"/>
@@ -9455,7 +10603,7 @@
       <c r="FP32" s="1"/>
       <c r="FQ32" s="1"/>
       <c r="FR32" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33">
@@ -9562,7 +10710,7 @@
         <v>62</v>
       </c>
       <c r="AI33" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ33" t="s">
         <v>62</v>
@@ -9571,7 +10719,7 @@
         <v>104</v>
       </c>
       <c r="AL33" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AM33" s="1">
         <v>15</v>
@@ -9585,44 +10733,80 @@
       </c>
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
-      <c r="AS33" s="1"/>
-      <c r="AT33" s="1"/>
+      <c r="AS33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>132</v>
+      </c>
       <c r="AU33" s="1"/>
       <c r="AV33" s="1"/>
       <c r="AW33" s="1"/>
-      <c r="AX33" s="1"/>
-      <c r="AY33" s="1"/>
+      <c r="AX33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ33" s="1"/>
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
-      <c r="BC33" s="1"/>
-      <c r="BD33" s="1"/>
+      <c r="BC33" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>132</v>
+      </c>
       <c r="BE33" s="1"/>
       <c r="BF33" s="1"/>
       <c r="BG33" s="1"/>
-      <c r="BH33" s="1"/>
+      <c r="BH33" t="s">
+        <v>132</v>
+      </c>
       <c r="BI33" s="1"/>
-      <c r="BJ33" s="1"/>
+      <c r="BJ33" t="s">
+        <v>132</v>
+      </c>
       <c r="BK33" s="1"/>
-      <c r="BL33" s="1"/>
+      <c r="BL33" t="s">
+        <v>132</v>
+      </c>
       <c r="BM33" s="1"/>
-      <c r="BN33" s="1"/>
+      <c r="BN33" t="s">
+        <v>132</v>
+      </c>
       <c r="BO33" s="1"/>
-      <c r="BP33" s="1"/>
+      <c r="BP33" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ33" s="1"/>
-      <c r="BR33" s="1"/>
+      <c r="BR33" t="s">
+        <v>132</v>
+      </c>
       <c r="BS33" s="1"/>
-      <c r="BT33" s="1"/>
+      <c r="BT33" t="s">
+        <v>132</v>
+      </c>
       <c r="BU33" s="1"/>
-      <c r="BV33" s="1"/>
+      <c r="BV33" t="s">
+        <v>132</v>
+      </c>
       <c r="BW33" s="1"/>
-      <c r="BX33" s="1"/>
+      <c r="BX33" t="s">
+        <v>132</v>
+      </c>
       <c r="BY33" s="1"/>
-      <c r="BZ33" s="1"/>
+      <c r="BZ33" t="s">
+        <v>132</v>
+      </c>
       <c r="CA33" s="1"/>
-      <c r="CB33" s="1"/>
+      <c r="CB33" t="s">
+        <v>132</v>
+      </c>
       <c r="CC33" s="1"/>
-      <c r="CD33" s="1"/>
+      <c r="CD33" t="s">
+        <v>132</v>
+      </c>
       <c r="CE33" s="1"/>
       <c r="CF33" s="1"/>
       <c r="CG33" s="1"/>
@@ -9715,7 +10899,7 @@
       <c r="FP33" s="1"/>
       <c r="FQ33" s="1"/>
       <c r="FR33" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34">
@@ -9839,44 +11023,80 @@
       </c>
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
-      <c r="AS34" s="1"/>
-      <c r="AT34" s="1"/>
+      <c r="AS34" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>132</v>
+      </c>
       <c r="AU34" s="1"/>
       <c r="AV34" s="1"/>
       <c r="AW34" s="1"/>
-      <c r="AX34" s="1"/>
-      <c r="AY34" s="1"/>
+      <c r="AX34" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ34" s="1"/>
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
-      <c r="BC34" s="1"/>
-      <c r="BD34" s="1"/>
+      <c r="BC34" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>132</v>
+      </c>
       <c r="BE34" s="1"/>
       <c r="BF34" s="1"/>
       <c r="BG34" s="1"/>
-      <c r="BH34" s="1"/>
+      <c r="BH34" t="s">
+        <v>132</v>
+      </c>
       <c r="BI34" s="1"/>
-      <c r="BJ34" s="1"/>
+      <c r="BJ34" t="s">
+        <v>132</v>
+      </c>
       <c r="BK34" s="1"/>
-      <c r="BL34" s="1"/>
+      <c r="BL34" t="s">
+        <v>132</v>
+      </c>
       <c r="BM34" s="1"/>
-      <c r="BN34" s="1"/>
+      <c r="BN34" t="s">
+        <v>132</v>
+      </c>
       <c r="BO34" s="1"/>
-      <c r="BP34" s="1"/>
+      <c r="BP34" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ34" s="1"/>
-      <c r="BR34" s="1"/>
+      <c r="BR34" t="s">
+        <v>132</v>
+      </c>
       <c r="BS34" s="1"/>
-      <c r="BT34" s="1"/>
+      <c r="BT34" t="s">
+        <v>132</v>
+      </c>
       <c r="BU34" s="1"/>
-      <c r="BV34" s="1"/>
+      <c r="BV34" t="s">
+        <v>132</v>
+      </c>
       <c r="BW34" s="1"/>
-      <c r="BX34" s="1"/>
+      <c r="BX34" t="s">
+        <v>132</v>
+      </c>
       <c r="BY34" s="1"/>
-      <c r="BZ34" s="1"/>
+      <c r="BZ34" t="s">
+        <v>132</v>
+      </c>
       <c r="CA34" s="1"/>
-      <c r="CB34" s="1"/>
+      <c r="CB34" t="s">
+        <v>132</v>
+      </c>
       <c r="CC34" s="1"/>
-      <c r="CD34" s="1"/>
+      <c r="CD34" t="s">
+        <v>132</v>
+      </c>
       <c r="CE34" s="1"/>
       <c r="CF34" s="1"/>
       <c r="CG34" s="1"/>
@@ -10093,44 +11313,80 @@
       </c>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
-      <c r="AS35" s="1"/>
-      <c r="AT35" s="1"/>
+      <c r="AS35" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>132</v>
+      </c>
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
       <c r="AW35" s="1"/>
-      <c r="AX35" s="1"/>
-      <c r="AY35" s="1"/>
+      <c r="AX35" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ35" s="1"/>
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
-      <c r="BC35" s="1"/>
-      <c r="BD35" s="1"/>
+      <c r="BC35" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>132</v>
+      </c>
       <c r="BE35" s="1"/>
       <c r="BF35" s="1"/>
       <c r="BG35" s="1"/>
-      <c r="BH35" s="1"/>
+      <c r="BH35" t="s">
+        <v>132</v>
+      </c>
       <c r="BI35" s="1"/>
-      <c r="BJ35" s="1"/>
+      <c r="BJ35" t="s">
+        <v>132</v>
+      </c>
       <c r="BK35" s="1"/>
-      <c r="BL35" s="1"/>
+      <c r="BL35" t="s">
+        <v>132</v>
+      </c>
       <c r="BM35" s="1"/>
-      <c r="BN35" s="1"/>
+      <c r="BN35" t="s">
+        <v>132</v>
+      </c>
       <c r="BO35" s="1"/>
-      <c r="BP35" s="1"/>
+      <c r="BP35" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ35" s="1"/>
-      <c r="BR35" s="1"/>
+      <c r="BR35" t="s">
+        <v>132</v>
+      </c>
       <c r="BS35" s="1"/>
-      <c r="BT35" s="1"/>
+      <c r="BT35" t="s">
+        <v>132</v>
+      </c>
       <c r="BU35" s="1"/>
-      <c r="BV35" s="1"/>
+      <c r="BV35" t="s">
+        <v>132</v>
+      </c>
       <c r="BW35" s="1"/>
-      <c r="BX35" s="1"/>
+      <c r="BX35" t="s">
+        <v>132</v>
+      </c>
       <c r="BY35" s="1"/>
-      <c r="BZ35" s="1"/>
+      <c r="BZ35" t="s">
+        <v>132</v>
+      </c>
       <c r="CA35" s="1"/>
-      <c r="CB35" s="1"/>
+      <c r="CB35" t="s">
+        <v>132</v>
+      </c>
       <c r="CC35" s="1"/>
-      <c r="CD35" s="1"/>
+      <c r="CD35" t="s">
+        <v>132</v>
+      </c>
       <c r="CE35" s="1"/>
       <c r="CF35" s="1"/>
       <c r="CG35" s="1"/>
@@ -10347,44 +11603,80 @@
       </c>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
-      <c r="AS36" s="1"/>
-      <c r="AT36" s="1"/>
+      <c r="AS36" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>132</v>
+      </c>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
       <c r="AW36" s="1"/>
-      <c r="AX36" s="1"/>
-      <c r="AY36" s="1"/>
+      <c r="AX36" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ36" s="1"/>
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
-      <c r="BC36" s="1"/>
-      <c r="BD36" s="1"/>
+      <c r="BC36" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>132</v>
+      </c>
       <c r="BE36" s="1"/>
       <c r="BF36" s="1"/>
       <c r="BG36" s="1"/>
-      <c r="BH36" s="1"/>
+      <c r="BH36" t="s">
+        <v>132</v>
+      </c>
       <c r="BI36" s="1"/>
-      <c r="BJ36" s="1"/>
+      <c r="BJ36" t="s">
+        <v>132</v>
+      </c>
       <c r="BK36" s="1"/>
-      <c r="BL36" s="1"/>
+      <c r="BL36" t="s">
+        <v>132</v>
+      </c>
       <c r="BM36" s="1"/>
-      <c r="BN36" s="1"/>
+      <c r="BN36" t="s">
+        <v>132</v>
+      </c>
       <c r="BO36" s="1"/>
-      <c r="BP36" s="1"/>
+      <c r="BP36" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ36" s="1"/>
-      <c r="BR36" s="1"/>
+      <c r="BR36" t="s">
+        <v>132</v>
+      </c>
       <c r="BS36" s="1"/>
-      <c r="BT36" s="1"/>
+      <c r="BT36" t="s">
+        <v>132</v>
+      </c>
       <c r="BU36" s="1"/>
-      <c r="BV36" s="1"/>
+      <c r="BV36" t="s">
+        <v>132</v>
+      </c>
       <c r="BW36" s="1"/>
-      <c r="BX36" s="1"/>
+      <c r="BX36" t="s">
+        <v>132</v>
+      </c>
       <c r="BY36" s="1"/>
-      <c r="BZ36" s="1"/>
+      <c r="BZ36" t="s">
+        <v>132</v>
+      </c>
       <c r="CA36" s="1"/>
-      <c r="CB36" s="1"/>
+      <c r="CB36" t="s">
+        <v>132</v>
+      </c>
       <c r="CC36" s="1"/>
-      <c r="CD36" s="1"/>
+      <c r="CD36" t="s">
+        <v>132</v>
+      </c>
       <c r="CE36" s="1"/>
       <c r="CF36" s="1"/>
       <c r="CG36" s="1"/>
@@ -10601,44 +11893,80 @@
       </c>
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
-      <c r="AS37" s="1"/>
-      <c r="AT37" s="1"/>
+      <c r="AS37" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>132</v>
+      </c>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
       <c r="AW37" s="1"/>
-      <c r="AX37" s="1"/>
-      <c r="AY37" s="1"/>
+      <c r="AX37" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
-      <c r="BC37" s="1"/>
-      <c r="BD37" s="1"/>
+      <c r="BC37" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>132</v>
+      </c>
       <c r="BE37" s="1"/>
       <c r="BF37" s="1"/>
       <c r="BG37" s="1"/>
-      <c r="BH37" s="1"/>
+      <c r="BH37" t="s">
+        <v>132</v>
+      </c>
       <c r="BI37" s="1"/>
-      <c r="BJ37" s="1"/>
+      <c r="BJ37" t="s">
+        <v>132</v>
+      </c>
       <c r="BK37" s="1"/>
-      <c r="BL37" s="1"/>
+      <c r="BL37" t="s">
+        <v>132</v>
+      </c>
       <c r="BM37" s="1"/>
-      <c r="BN37" s="1"/>
+      <c r="BN37" t="s">
+        <v>132</v>
+      </c>
       <c r="BO37" s="1"/>
-      <c r="BP37" s="1"/>
+      <c r="BP37" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ37" s="1"/>
-      <c r="BR37" s="1"/>
+      <c r="BR37" t="s">
+        <v>132</v>
+      </c>
       <c r="BS37" s="1"/>
-      <c r="BT37" s="1"/>
+      <c r="BT37" t="s">
+        <v>132</v>
+      </c>
       <c r="BU37" s="1"/>
-      <c r="BV37" s="1"/>
+      <c r="BV37" t="s">
+        <v>132</v>
+      </c>
       <c r="BW37" s="1"/>
-      <c r="BX37" s="1"/>
+      <c r="BX37" t="s">
+        <v>132</v>
+      </c>
       <c r="BY37" s="1"/>
-      <c r="BZ37" s="1"/>
+      <c r="BZ37" t="s">
+        <v>132</v>
+      </c>
       <c r="CA37" s="1"/>
-      <c r="CB37" s="1"/>
+      <c r="CB37" t="s">
+        <v>132</v>
+      </c>
       <c r="CC37" s="1"/>
-      <c r="CD37" s="1"/>
+      <c r="CD37" t="s">
+        <v>132</v>
+      </c>
       <c r="CE37" s="1"/>
       <c r="CF37" s="1"/>
       <c r="CG37" s="1"/>
@@ -10855,44 +12183,80 @@
       </c>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
-      <c r="AS38" s="1"/>
-      <c r="AT38" s="1"/>
+      <c r="AS38" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>132</v>
+      </c>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
       <c r="AW38" s="1"/>
-      <c r="AX38" s="1"/>
-      <c r="AY38" s="1"/>
+      <c r="AX38" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
-      <c r="BC38" s="1"/>
-      <c r="BD38" s="1"/>
+      <c r="BC38" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>132</v>
+      </c>
       <c r="BE38" s="1"/>
       <c r="BF38" s="1"/>
       <c r="BG38" s="1"/>
-      <c r="BH38" s="1"/>
+      <c r="BH38" t="s">
+        <v>132</v>
+      </c>
       <c r="BI38" s="1"/>
-      <c r="BJ38" s="1"/>
+      <c r="BJ38" t="s">
+        <v>132</v>
+      </c>
       <c r="BK38" s="1"/>
-      <c r="BL38" s="1"/>
+      <c r="BL38" t="s">
+        <v>132</v>
+      </c>
       <c r="BM38" s="1"/>
-      <c r="BN38" s="1"/>
+      <c r="BN38" t="s">
+        <v>132</v>
+      </c>
       <c r="BO38" s="1"/>
-      <c r="BP38" s="1"/>
+      <c r="BP38" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ38" s="1"/>
-      <c r="BR38" s="1"/>
+      <c r="BR38" t="s">
+        <v>132</v>
+      </c>
       <c r="BS38" s="1"/>
-      <c r="BT38" s="1"/>
+      <c r="BT38" t="s">
+        <v>132</v>
+      </c>
       <c r="BU38" s="1"/>
-      <c r="BV38" s="1"/>
+      <c r="BV38" t="s">
+        <v>132</v>
+      </c>
       <c r="BW38" s="1"/>
-      <c r="BX38" s="1"/>
+      <c r="BX38" t="s">
+        <v>132</v>
+      </c>
       <c r="BY38" s="1"/>
-      <c r="BZ38" s="1"/>
+      <c r="BZ38" t="s">
+        <v>132</v>
+      </c>
       <c r="CA38" s="1"/>
-      <c r="CB38" s="1"/>
+      <c r="CB38" t="s">
+        <v>132</v>
+      </c>
       <c r="CC38" s="1"/>
-      <c r="CD38" s="1"/>
+      <c r="CD38" t="s">
+        <v>132</v>
+      </c>
       <c r="CE38" s="1"/>
       <c r="CF38" s="1"/>
       <c r="CG38" s="1"/>
@@ -11016,7 +12380,9 @@
       <c r="I39" s="1">
         <v>3</v>
       </c>
-      <c r="J39" s="1"/>
+      <c r="J39" s="1">
+        <v>3</v>
+      </c>
       <c r="K39" t="s">
         <v>64</v>
       </c>
@@ -11107,44 +12473,80 @@
       </c>
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
-      <c r="AS39" s="1"/>
-      <c r="AT39" s="1"/>
+      <c r="AS39" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>132</v>
+      </c>
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
       <c r="AW39" s="1"/>
-      <c r="AX39" s="1"/>
-      <c r="AY39" s="1"/>
+      <c r="AX39" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ39" s="1"/>
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
-      <c r="BC39" s="1"/>
-      <c r="BD39" s="1"/>
+      <c r="BC39" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>132</v>
+      </c>
       <c r="BE39" s="1"/>
       <c r="BF39" s="1"/>
       <c r="BG39" s="1"/>
-      <c r="BH39" s="1"/>
+      <c r="BH39" t="s">
+        <v>132</v>
+      </c>
       <c r="BI39" s="1"/>
-      <c r="BJ39" s="1"/>
+      <c r="BJ39" t="s">
+        <v>132</v>
+      </c>
       <c r="BK39" s="1"/>
-      <c r="BL39" s="1"/>
+      <c r="BL39" t="s">
+        <v>132</v>
+      </c>
       <c r="BM39" s="1"/>
-      <c r="BN39" s="1"/>
+      <c r="BN39" t="s">
+        <v>132</v>
+      </c>
       <c r="BO39" s="1"/>
-      <c r="BP39" s="1"/>
+      <c r="BP39" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ39" s="1"/>
-      <c r="BR39" s="1"/>
+      <c r="BR39" t="s">
+        <v>132</v>
+      </c>
       <c r="BS39" s="1"/>
-      <c r="BT39" s="1"/>
+      <c r="BT39" t="s">
+        <v>132</v>
+      </c>
       <c r="BU39" s="1"/>
-      <c r="BV39" s="1"/>
+      <c r="BV39" t="s">
+        <v>132</v>
+      </c>
       <c r="BW39" s="1"/>
-      <c r="BX39" s="1"/>
+      <c r="BX39" t="s">
+        <v>132</v>
+      </c>
       <c r="BY39" s="1"/>
-      <c r="BZ39" s="1"/>
+      <c r="BZ39" t="s">
+        <v>132</v>
+      </c>
       <c r="CA39" s="1"/>
-      <c r="CB39" s="1"/>
+      <c r="CB39" t="s">
+        <v>132</v>
+      </c>
       <c r="CC39" s="1"/>
-      <c r="CD39" s="1"/>
+      <c r="CD39" t="s">
+        <v>132</v>
+      </c>
       <c r="CE39" s="1"/>
       <c r="CF39" s="1"/>
       <c r="CG39" s="1"/>
@@ -11268,7 +12670,9 @@
       <c r="I40" s="1">
         <v>2</v>
       </c>
-      <c r="J40" s="1"/>
+      <c r="J40" s="1">
+        <v>2</v>
+      </c>
       <c r="K40" t="s">
         <v>64</v>
       </c>
@@ -11359,44 +12763,80 @@
       </c>
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
-      <c r="AS40" s="1"/>
-      <c r="AT40" s="1"/>
+      <c r="AS40" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>132</v>
+      </c>
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
       <c r="AW40" s="1"/>
-      <c r="AX40" s="1"/>
-      <c r="AY40" s="1"/>
+      <c r="AX40" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ40" s="1"/>
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
-      <c r="BC40" s="1"/>
-      <c r="BD40" s="1"/>
+      <c r="BC40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>132</v>
+      </c>
       <c r="BE40" s="1"/>
       <c r="BF40" s="1"/>
       <c r="BG40" s="1"/>
-      <c r="BH40" s="1"/>
+      <c r="BH40" t="s">
+        <v>132</v>
+      </c>
       <c r="BI40" s="1"/>
-      <c r="BJ40" s="1"/>
+      <c r="BJ40" t="s">
+        <v>132</v>
+      </c>
       <c r="BK40" s="1"/>
-      <c r="BL40" s="1"/>
+      <c r="BL40" t="s">
+        <v>132</v>
+      </c>
       <c r="BM40" s="1"/>
-      <c r="BN40" s="1"/>
+      <c r="BN40" t="s">
+        <v>132</v>
+      </c>
       <c r="BO40" s="1"/>
-      <c r="BP40" s="1"/>
+      <c r="BP40" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ40" s="1"/>
-      <c r="BR40" s="1"/>
+      <c r="BR40" t="s">
+        <v>132</v>
+      </c>
       <c r="BS40" s="1"/>
-      <c r="BT40" s="1"/>
+      <c r="BT40" t="s">
+        <v>132</v>
+      </c>
       <c r="BU40" s="1"/>
-      <c r="BV40" s="1"/>
+      <c r="BV40" t="s">
+        <v>132</v>
+      </c>
       <c r="BW40" s="1"/>
-      <c r="BX40" s="1"/>
+      <c r="BX40" t="s">
+        <v>132</v>
+      </c>
       <c r="BY40" s="1"/>
-      <c r="BZ40" s="1"/>
+      <c r="BZ40" t="s">
+        <v>132</v>
+      </c>
       <c r="CA40" s="1"/>
-      <c r="CB40" s="1"/>
+      <c r="CB40" t="s">
+        <v>132</v>
+      </c>
       <c r="CC40" s="1"/>
-      <c r="CD40" s="1"/>
+      <c r="CD40" t="s">
+        <v>132</v>
+      </c>
       <c r="CE40" s="1"/>
       <c r="CF40" s="1"/>
       <c r="CG40" s="1"/>
@@ -11520,7 +12960,9 @@
       <c r="I41" s="1">
         <v>2</v>
       </c>
-      <c r="J41" s="1"/>
+      <c r="J41" s="1">
+        <v>2</v>
+      </c>
       <c r="K41" t="s">
         <v>64</v>
       </c>
@@ -11611,44 +13053,80 @@
       </c>
       <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
-      <c r="AS41" s="1"/>
-      <c r="AT41" s="1"/>
+      <c r="AS41" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>132</v>
+      </c>
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
       <c r="AW41" s="1"/>
-      <c r="AX41" s="1"/>
-      <c r="AY41" s="1"/>
+      <c r="AX41" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ41" s="1"/>
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
-      <c r="BC41" s="1"/>
-      <c r="BD41" s="1"/>
+      <c r="BC41" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>132</v>
+      </c>
       <c r="BE41" s="1"/>
       <c r="BF41" s="1"/>
       <c r="BG41" s="1"/>
-      <c r="BH41" s="1"/>
+      <c r="BH41" t="s">
+        <v>132</v>
+      </c>
       <c r="BI41" s="1"/>
-      <c r="BJ41" s="1"/>
+      <c r="BJ41" t="s">
+        <v>132</v>
+      </c>
       <c r="BK41" s="1"/>
-      <c r="BL41" s="1"/>
+      <c r="BL41" t="s">
+        <v>132</v>
+      </c>
       <c r="BM41" s="1"/>
-      <c r="BN41" s="1"/>
+      <c r="BN41" t="s">
+        <v>132</v>
+      </c>
       <c r="BO41" s="1"/>
-      <c r="BP41" s="1"/>
+      <c r="BP41" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ41" s="1"/>
-      <c r="BR41" s="1"/>
+      <c r="BR41" t="s">
+        <v>132</v>
+      </c>
       <c r="BS41" s="1"/>
-      <c r="BT41" s="1"/>
+      <c r="BT41" t="s">
+        <v>132</v>
+      </c>
       <c r="BU41" s="1"/>
-      <c r="BV41" s="1"/>
+      <c r="BV41" t="s">
+        <v>132</v>
+      </c>
       <c r="BW41" s="1"/>
-      <c r="BX41" s="1"/>
+      <c r="BX41" t="s">
+        <v>132</v>
+      </c>
       <c r="BY41" s="1"/>
-      <c r="BZ41" s="1"/>
+      <c r="BZ41" t="s">
+        <v>132</v>
+      </c>
       <c r="CA41" s="1"/>
-      <c r="CB41" s="1"/>
+      <c r="CB41" t="s">
+        <v>132</v>
+      </c>
       <c r="CC41" s="1"/>
-      <c r="CD41" s="1"/>
+      <c r="CD41" t="s">
+        <v>132</v>
+      </c>
       <c r="CE41" s="1"/>
       <c r="CF41" s="1"/>
       <c r="CG41" s="1"/>
@@ -11772,7 +13250,9 @@
       <c r="I42" s="1">
         <v>3</v>
       </c>
-      <c r="J42" s="1"/>
+      <c r="J42" s="1">
+        <v>3</v>
+      </c>
       <c r="K42" t="s">
         <v>64</v>
       </c>
@@ -11863,44 +13343,80 @@
       </c>
       <c r="AQ42" s="1"/>
       <c r="AR42" s="1"/>
-      <c r="AS42" s="1"/>
-      <c r="AT42" s="1"/>
+      <c r="AS42" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>132</v>
+      </c>
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
       <c r="AW42" s="1"/>
-      <c r="AX42" s="1"/>
-      <c r="AY42" s="1"/>
+      <c r="AX42" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ42" s="1"/>
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
-      <c r="BC42" s="1"/>
-      <c r="BD42" s="1"/>
+      <c r="BC42" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>132</v>
+      </c>
       <c r="BE42" s="1"/>
       <c r="BF42" s="1"/>
       <c r="BG42" s="1"/>
-      <c r="BH42" s="1"/>
+      <c r="BH42" t="s">
+        <v>132</v>
+      </c>
       <c r="BI42" s="1"/>
-      <c r="BJ42" s="1"/>
+      <c r="BJ42" t="s">
+        <v>132</v>
+      </c>
       <c r="BK42" s="1"/>
-      <c r="BL42" s="1"/>
+      <c r="BL42" t="s">
+        <v>132</v>
+      </c>
       <c r="BM42" s="1"/>
-      <c r="BN42" s="1"/>
+      <c r="BN42" t="s">
+        <v>132</v>
+      </c>
       <c r="BO42" s="1"/>
-      <c r="BP42" s="1"/>
+      <c r="BP42" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ42" s="1"/>
-      <c r="BR42" s="1"/>
+      <c r="BR42" t="s">
+        <v>132</v>
+      </c>
       <c r="BS42" s="1"/>
-      <c r="BT42" s="1"/>
+      <c r="BT42" t="s">
+        <v>132</v>
+      </c>
       <c r="BU42" s="1"/>
-      <c r="BV42" s="1"/>
+      <c r="BV42" t="s">
+        <v>132</v>
+      </c>
       <c r="BW42" s="1"/>
-      <c r="BX42" s="1"/>
+      <c r="BX42" t="s">
+        <v>132</v>
+      </c>
       <c r="BY42" s="1"/>
-      <c r="BZ42" s="1"/>
+      <c r="BZ42" t="s">
+        <v>132</v>
+      </c>
       <c r="CA42" s="1"/>
-      <c r="CB42" s="1"/>
+      <c r="CB42" t="s">
+        <v>132</v>
+      </c>
       <c r="CC42" s="1"/>
-      <c r="CD42" s="1"/>
+      <c r="CD42" t="s">
+        <v>132</v>
+      </c>
       <c r="CE42" s="1"/>
       <c r="CF42" s="1"/>
       <c r="CG42" s="1"/>
@@ -12024,7 +13540,9 @@
       <c r="I43" s="1">
         <v>3</v>
       </c>
-      <c r="J43" s="1"/>
+      <c r="J43" s="1">
+        <v>3</v>
+      </c>
       <c r="K43" t="s">
         <v>64</v>
       </c>
@@ -12115,44 +13633,80 @@
       </c>
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1"/>
-      <c r="AS43" s="1"/>
-      <c r="AT43" s="1"/>
+      <c r="AS43" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>132</v>
+      </c>
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
       <c r="AW43" s="1"/>
-      <c r="AX43" s="1"/>
-      <c r="AY43" s="1"/>
+      <c r="AX43" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ43" s="1"/>
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
-      <c r="BC43" s="1"/>
-      <c r="BD43" s="1"/>
+      <c r="BC43" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>132</v>
+      </c>
       <c r="BE43" s="1"/>
       <c r="BF43" s="1"/>
       <c r="BG43" s="1"/>
-      <c r="BH43" s="1"/>
+      <c r="BH43" t="s">
+        <v>132</v>
+      </c>
       <c r="BI43" s="1"/>
-      <c r="BJ43" s="1"/>
+      <c r="BJ43" t="s">
+        <v>132</v>
+      </c>
       <c r="BK43" s="1"/>
-      <c r="BL43" s="1"/>
+      <c r="BL43" t="s">
+        <v>132</v>
+      </c>
       <c r="BM43" s="1"/>
-      <c r="BN43" s="1"/>
+      <c r="BN43" t="s">
+        <v>132</v>
+      </c>
       <c r="BO43" s="1"/>
-      <c r="BP43" s="1"/>
+      <c r="BP43" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ43" s="1"/>
-      <c r="BR43" s="1"/>
+      <c r="BR43" t="s">
+        <v>132</v>
+      </c>
       <c r="BS43" s="1"/>
-      <c r="BT43" s="1"/>
+      <c r="BT43" t="s">
+        <v>132</v>
+      </c>
       <c r="BU43" s="1"/>
-      <c r="BV43" s="1"/>
+      <c r="BV43" t="s">
+        <v>132</v>
+      </c>
       <c r="BW43" s="1"/>
-      <c r="BX43" s="1"/>
+      <c r="BX43" t="s">
+        <v>132</v>
+      </c>
       <c r="BY43" s="1"/>
-      <c r="BZ43" s="1"/>
+      <c r="BZ43" t="s">
+        <v>132</v>
+      </c>
       <c r="CA43" s="1"/>
-      <c r="CB43" s="1"/>
+      <c r="CB43" t="s">
+        <v>132</v>
+      </c>
       <c r="CC43" s="1"/>
-      <c r="CD43" s="1"/>
+      <c r="CD43" t="s">
+        <v>132</v>
+      </c>
       <c r="CE43" s="1"/>
       <c r="CF43" s="1"/>
       <c r="CG43" s="1"/>
@@ -12361,44 +13915,80 @@
       </c>
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
-      <c r="AS44" s="1"/>
-      <c r="AT44" s="1"/>
+      <c r="AS44" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>132</v>
+      </c>
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
       <c r="AW44" s="1"/>
-      <c r="AX44" s="1"/>
-      <c r="AY44" s="1"/>
+      <c r="AX44" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY44" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ44" s="1"/>
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
-      <c r="BC44" s="1"/>
-      <c r="BD44" s="1"/>
+      <c r="BC44" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD44" t="s">
+        <v>132</v>
+      </c>
       <c r="BE44" s="1"/>
       <c r="BF44" s="1"/>
       <c r="BG44" s="1"/>
-      <c r="BH44" s="1"/>
+      <c r="BH44" t="s">
+        <v>132</v>
+      </c>
       <c r="BI44" s="1"/>
-      <c r="BJ44" s="1"/>
+      <c r="BJ44" t="s">
+        <v>132</v>
+      </c>
       <c r="BK44" s="1"/>
-      <c r="BL44" s="1"/>
+      <c r="BL44" t="s">
+        <v>132</v>
+      </c>
       <c r="BM44" s="1"/>
-      <c r="BN44" s="1"/>
+      <c r="BN44" t="s">
+        <v>132</v>
+      </c>
       <c r="BO44" s="1"/>
-      <c r="BP44" s="1"/>
+      <c r="BP44" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ44" s="1"/>
-      <c r="BR44" s="1"/>
+      <c r="BR44" t="s">
+        <v>132</v>
+      </c>
       <c r="BS44" s="1"/>
-      <c r="BT44" s="1"/>
+      <c r="BT44" t="s">
+        <v>132</v>
+      </c>
       <c r="BU44" s="1"/>
-      <c r="BV44" s="1"/>
+      <c r="BV44" t="s">
+        <v>132</v>
+      </c>
       <c r="BW44" s="1"/>
-      <c r="BX44" s="1"/>
+      <c r="BX44" t="s">
+        <v>132</v>
+      </c>
       <c r="BY44" s="1"/>
-      <c r="BZ44" s="1"/>
+      <c r="BZ44" t="s">
+        <v>132</v>
+      </c>
       <c r="CA44" s="1"/>
-      <c r="CB44" s="1"/>
+      <c r="CB44" t="s">
+        <v>132</v>
+      </c>
       <c r="CC44" s="1"/>
-      <c r="CD44" s="1"/>
+      <c r="CD44" t="s">
+        <v>132</v>
+      </c>
       <c r="CE44" s="1"/>
       <c r="CF44" s="1"/>
       <c r="CG44" s="1"/>
@@ -12491,7 +14081,7 @@
       <c r="FP44" s="1"/>
       <c r="FQ44" s="1"/>
       <c r="FR44" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45">
@@ -12607,44 +14197,80 @@
       </c>
       <c r="AQ45" s="1"/>
       <c r="AR45" s="1"/>
-      <c r="AS45" s="1"/>
-      <c r="AT45" s="1"/>
+      <c r="AS45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>132</v>
+      </c>
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
       <c r="AW45" s="1"/>
-      <c r="AX45" s="1"/>
-      <c r="AY45" s="1"/>
+      <c r="AX45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY45" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ45" s="1"/>
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
-      <c r="BC45" s="1"/>
-      <c r="BD45" s="1"/>
+      <c r="BC45" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD45" t="s">
+        <v>132</v>
+      </c>
       <c r="BE45" s="1"/>
       <c r="BF45" s="1"/>
       <c r="BG45" s="1"/>
-      <c r="BH45" s="1"/>
+      <c r="BH45" t="s">
+        <v>132</v>
+      </c>
       <c r="BI45" s="1"/>
-      <c r="BJ45" s="1"/>
+      <c r="BJ45" t="s">
+        <v>132</v>
+      </c>
       <c r="BK45" s="1"/>
-      <c r="BL45" s="1"/>
+      <c r="BL45" t="s">
+        <v>132</v>
+      </c>
       <c r="BM45" s="1"/>
-      <c r="BN45" s="1"/>
+      <c r="BN45" t="s">
+        <v>132</v>
+      </c>
       <c r="BO45" s="1"/>
-      <c r="BP45" s="1"/>
+      <c r="BP45" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ45" s="1"/>
-      <c r="BR45" s="1"/>
+      <c r="BR45" t="s">
+        <v>132</v>
+      </c>
       <c r="BS45" s="1"/>
-      <c r="BT45" s="1"/>
+      <c r="BT45" t="s">
+        <v>132</v>
+      </c>
       <c r="BU45" s="1"/>
-      <c r="BV45" s="1"/>
+      <c r="BV45" t="s">
+        <v>132</v>
+      </c>
       <c r="BW45" s="1"/>
-      <c r="BX45" s="1"/>
+      <c r="BX45" t="s">
+        <v>132</v>
+      </c>
       <c r="BY45" s="1"/>
-      <c r="BZ45" s="1"/>
+      <c r="BZ45" t="s">
+        <v>132</v>
+      </c>
       <c r="CA45" s="1"/>
-      <c r="CB45" s="1"/>
+      <c r="CB45" t="s">
+        <v>132</v>
+      </c>
       <c r="CC45" s="1"/>
-      <c r="CD45" s="1"/>
+      <c r="CD45" t="s">
+        <v>132</v>
+      </c>
       <c r="CE45" s="1"/>
       <c r="CF45" s="1"/>
       <c r="CG45" s="1"/>
@@ -12737,7 +14363,7 @@
       <c r="FP45" s="1"/>
       <c r="FQ45" s="1"/>
       <c r="FR45" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46">
@@ -12853,44 +14479,80 @@
       </c>
       <c r="AQ46" s="1"/>
       <c r="AR46" s="1"/>
-      <c r="AS46" s="1"/>
-      <c r="AT46" s="1"/>
+      <c r="AS46" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>132</v>
+      </c>
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
       <c r="AW46" s="1"/>
-      <c r="AX46" s="1"/>
-      <c r="AY46" s="1"/>
+      <c r="AX46" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>132</v>
+      </c>
       <c r="AZ46" s="1"/>
       <c r="BA46" s="1"/>
       <c r="BB46" s="1"/>
-      <c r="BC46" s="1"/>
-      <c r="BD46" s="1"/>
+      <c r="BC46" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD46" t="s">
+        <v>132</v>
+      </c>
       <c r="BE46" s="1"/>
       <c r="BF46" s="1"/>
       <c r="BG46" s="1"/>
-      <c r="BH46" s="1"/>
+      <c r="BH46" t="s">
+        <v>132</v>
+      </c>
       <c r="BI46" s="1"/>
-      <c r="BJ46" s="1"/>
+      <c r="BJ46" t="s">
+        <v>132</v>
+      </c>
       <c r="BK46" s="1"/>
-      <c r="BL46" s="1"/>
+      <c r="BL46" t="s">
+        <v>132</v>
+      </c>
       <c r="BM46" s="1"/>
-      <c r="BN46" s="1"/>
+      <c r="BN46" t="s">
+        <v>132</v>
+      </c>
       <c r="BO46" s="1"/>
-      <c r="BP46" s="1"/>
+      <c r="BP46" t="s">
+        <v>132</v>
+      </c>
       <c r="BQ46" s="1"/>
-      <c r="BR46" s="1"/>
+      <c r="BR46" t="s">
+        <v>132</v>
+      </c>
       <c r="BS46" s="1"/>
-      <c r="BT46" s="1"/>
+      <c r="BT46" t="s">
+        <v>132</v>
+      </c>
       <c r="BU46" s="1"/>
-      <c r="BV46" s="1"/>
+      <c r="BV46" t="s">
+        <v>132</v>
+      </c>
       <c r="BW46" s="1"/>
-      <c r="BX46" s="1"/>
+      <c r="BX46" t="s">
+        <v>132</v>
+      </c>
       <c r="BY46" s="1"/>
-      <c r="BZ46" s="1"/>
+      <c r="BZ46" t="s">
+        <v>132</v>
+      </c>
       <c r="CA46" s="1"/>
-      <c r="CB46" s="1"/>
+      <c r="CB46" t="s">
+        <v>132</v>
+      </c>
       <c r="CC46" s="1"/>
-      <c r="CD46" s="1"/>
+      <c r="CD46" t="s">
+        <v>132</v>
+      </c>
       <c r="CE46" s="1"/>
       <c r="CF46" s="1"/>
       <c r="CG46" s="1"/>

--- a/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
+++ b/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2469" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2653" uniqueCount="273">
   <si>
     <t>crop</t>
   </si>
@@ -270,6 +270,9 @@
     <t>2024-04-15</t>
   </si>
   <si>
+    <t>2024-05-23</t>
+  </si>
+  <si>
     <t>sow_fert_type_npk_2</t>
   </si>
   <si>
@@ -322,6 +325,18 @@
   </si>
   <si>
     <t>sow_fert_dose_5</t>
+  </si>
+  <si>
+    <t>sow_fert_date_6</t>
+  </si>
+  <si>
+    <t>sow_fert_type_npk_6</t>
+  </si>
+  <si>
+    <t>sow_fert_type_name_6</t>
+  </si>
+  <si>
+    <t>sow_fert_dose_6</t>
   </si>
   <si>
     <t>transp_harden_date_srt</t>
@@ -862,7 +877,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FR46"/>
+  <dimension ref="A1:FV46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -927,85 +942,85 @@
         <v>83</v>
       </c>
       <c r="T1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Z1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AB1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AD1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AE1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AH1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AI1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL1" t="s">
         <v>107</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN1" t="s">
         <v>112</v>
       </c>
-      <c r="AL1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>122</v>
-      </c>
       <c r="AO1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AP1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AQ1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AR1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT1" t="s">
         <v>130</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>133</v>
       </c>
       <c r="AU1" t="s">
         <v>134</v>
@@ -1017,379 +1032,391 @@
         <v>136</v>
       </c>
       <c r="AX1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AY1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AZ1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BA1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BB1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BC1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BD1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BE1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BF1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BG1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BH1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BI1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="BJ1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="BK1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BL1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BM1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BN1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BO1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BP1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BQ1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BR1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BS1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BT1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BU1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BV1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BW1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BX1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BY1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BZ1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="CA1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="CB1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="CC1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="CD1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="CE1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="CF1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="CG1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="CH1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="CI1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="CJ1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="CK1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CL1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="CM1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="CN1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="CO1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="CP1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CQ1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CR1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CS1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CT1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CU1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CV1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CW1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CX1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CY1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CZ1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="DA1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="DB1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="DC1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="DD1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="DE1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="DF1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="DG1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="DH1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DI1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="DJ1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="DK1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="DL1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="DM1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="DN1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="DO1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="DP1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="DQ1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="DR1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="DS1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="DT1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="DU1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="DV1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="DW1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="DX1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="DY1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="DZ1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="EA1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="EB1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="EC1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="ED1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="EE1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="EF1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="EG1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="EH1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="EI1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="EJ1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="EK1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="EL1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="EM1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="EN1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="EO1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="EP1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EQ1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="ER1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="ES1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="ET1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="EU1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="EV1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="EW1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="EX1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="EY1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="EZ1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="FA1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="FB1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="FC1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="FD1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="FE1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="FF1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="FG1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="FH1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="FI1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="FJ1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="FK1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="FL1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="FM1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="FN1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="FO1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="FP1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FQ1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="FR1" t="s">
-        <v>261</v>
+        <v>262</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>263</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>264</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>265</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="2">
@@ -1499,8 +1526,12 @@
       <c r="AL2" t="s">
         <v>62</v>
       </c>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
+      <c r="AM2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>62</v>
+      </c>
       <c r="AO2" t="s">
         <v>62</v>
       </c>
@@ -1510,83 +1541,87 @@
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
       <c r="AS2" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT2" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
+      <c r="AW2" t="s">
+        <v>137</v>
+      </c>
       <c r="AX2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
+      <c r="BB2" t="s">
+        <v>137</v>
+      </c>
       <c r="BC2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
-      <c r="BG2" s="1"/>
+      <c r="BG2" t="s">
+        <v>137</v>
+      </c>
       <c r="BH2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI2" s="1"/>
-      <c r="BJ2" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM2" s="1"/>
       <c r="BN2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO2" s="1"/>
       <c r="BP2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ2" s="1"/>
       <c r="BR2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS2" s="1"/>
       <c r="BT2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU2" s="1"/>
       <c r="BV2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW2" s="1"/>
       <c r="BX2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY2" s="1"/>
       <c r="BZ2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA2" s="1"/>
       <c r="CB2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC2" s="1"/>
       <c r="CD2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE2" s="1"/>
-      <c r="CF2" s="1"/>
+      <c r="CF2" t="s">
+        <v>137</v>
+      </c>
       <c r="CG2" s="1"/>
-      <c r="CH2" s="1"/>
+      <c r="CH2" t="s">
+        <v>137</v>
+      </c>
       <c r="CI2" s="1"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
@@ -1674,7 +1709,11 @@
       <c r="FO2" s="1"/>
       <c r="FP2" s="1"/>
       <c r="FQ2" s="1"/>
-      <c r="FR2" t="s">
+      <c r="FR2" s="1"/>
+      <c r="FS2" s="1"/>
+      <c r="FT2" s="1"/>
+      <c r="FU2" s="1"/>
+      <c r="FV2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1744,7 +1783,7 @@
         <v>82</v>
       </c>
       <c r="W3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X3" t="s">
         <v>76</v>
@@ -1780,28 +1819,28 @@
         <v>62</v>
       </c>
       <c r="AI3" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN3" t="s">
         <v>73</v>
       </c>
-      <c r="AK3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>8</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>8</v>
-      </c>
       <c r="AO3" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="AP3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AQ3" s="1">
         <v>8</v>
@@ -1810,83 +1849,91 @@
         <v>8</v>
       </c>
       <c r="AS3" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="AT3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>137</v>
+      </c>
       <c r="AX3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
-      <c r="BB3" s="1"/>
+      <c r="BB3" t="s">
+        <v>137</v>
+      </c>
       <c r="BC3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
-      <c r="BG3" s="1"/>
+      <c r="BG3" t="s">
+        <v>137</v>
+      </c>
       <c r="BH3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI3" s="1"/>
-      <c r="BJ3" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ3" s="1"/>
       <c r="BK3" s="1"/>
       <c r="BL3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM3" s="1"/>
       <c r="BN3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO3" s="1"/>
       <c r="BP3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ3" s="1"/>
       <c r="BR3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS3" s="1"/>
       <c r="BT3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU3" s="1"/>
       <c r="BV3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW3" s="1"/>
       <c r="BX3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY3" s="1"/>
       <c r="BZ3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA3" s="1"/>
       <c r="CB3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC3" s="1"/>
       <c r="CD3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE3" s="1"/>
-      <c r="CF3" s="1"/>
+      <c r="CF3" t="s">
+        <v>137</v>
+      </c>
       <c r="CG3" s="1"/>
-      <c r="CH3" s="1"/>
+      <c r="CH3" t="s">
+        <v>137</v>
+      </c>
       <c r="CI3" s="1"/>
       <c r="CJ3" s="1"/>
       <c r="CK3" s="1"/>
@@ -1974,7 +2021,11 @@
       <c r="FO3" s="1"/>
       <c r="FP3" s="1"/>
       <c r="FQ3" s="1"/>
-      <c r="FR3" t="s">
+      <c r="FR3" s="1"/>
+      <c r="FS3" s="1"/>
+      <c r="FT3" s="1"/>
+      <c r="FU3" s="1"/>
+      <c r="FV3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2044,7 +2095,7 @@
         <v>82</v>
       </c>
       <c r="W4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X4" t="s">
         <v>76</v>
@@ -2086,101 +2137,109 @@
         <v>62</v>
       </c>
       <c r="AK4" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="AL4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM4" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ4" s="1">
         <v>1</v>
       </c>
-      <c r="AN4" s="1"/>
-      <c r="AO4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
       <c r="AS4" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT4" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
+      <c r="AW4" t="s">
+        <v>137</v>
+      </c>
       <c r="AX4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
-      <c r="BB4" s="1"/>
+      <c r="BB4" t="s">
+        <v>137</v>
+      </c>
       <c r="BC4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
-      <c r="BG4" s="1"/>
+      <c r="BG4" t="s">
+        <v>137</v>
+      </c>
       <c r="BH4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI4" s="1"/>
-      <c r="BJ4" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM4" s="1"/>
       <c r="BN4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO4" s="1"/>
       <c r="BP4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ4" s="1"/>
       <c r="BR4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS4" s="1"/>
       <c r="BT4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU4" s="1"/>
       <c r="BV4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW4" s="1"/>
       <c r="BX4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY4" s="1"/>
       <c r="BZ4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA4" s="1"/>
       <c r="CB4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC4" s="1"/>
       <c r="CD4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE4" s="1"/>
-      <c r="CF4" s="1"/>
+      <c r="CF4" t="s">
+        <v>137</v>
+      </c>
       <c r="CG4" s="1"/>
-      <c r="CH4" s="1"/>
+      <c r="CH4" t="s">
+        <v>137</v>
+      </c>
       <c r="CI4" s="1"/>
       <c r="CJ4" s="1"/>
       <c r="CK4" s="1"/>
@@ -2268,7 +2327,11 @@
       <c r="FO4" s="1"/>
       <c r="FP4" s="1"/>
       <c r="FQ4" s="1"/>
-      <c r="FR4" t="s">
+      <c r="FR4" s="1"/>
+      <c r="FS4" s="1"/>
+      <c r="FT4" s="1"/>
+      <c r="FU4" s="1"/>
+      <c r="FV4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2374,28 +2437,28 @@
         <v>62</v>
       </c>
       <c r="AI5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM5" t="s">
         <v>48</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK5" t="s">
+      <c r="AN5" t="s">
         <v>113</v>
       </c>
-      <c r="AL5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>19</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>19</v>
-      </c>
       <c r="AO5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="AP5" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AQ5" s="1">
         <v>19</v>
@@ -2404,83 +2467,91 @@
         <v>19</v>
       </c>
       <c r="AS5" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="AT5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>19</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>19</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>137</v>
+      </c>
       <c r="AX5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1"/>
-      <c r="BB5" s="1"/>
+      <c r="BB5" t="s">
+        <v>137</v>
+      </c>
       <c r="BC5" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
-      <c r="BG5" s="1"/>
+      <c r="BG5" t="s">
+        <v>137</v>
+      </c>
       <c r="BH5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI5" s="1"/>
-      <c r="BJ5" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM5" s="1"/>
       <c r="BN5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO5" s="1"/>
       <c r="BP5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ5" s="1"/>
       <c r="BR5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS5" s="1"/>
       <c r="BT5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU5" s="1"/>
       <c r="BV5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW5" s="1"/>
       <c r="BX5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY5" s="1"/>
       <c r="BZ5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA5" s="1"/>
       <c r="CB5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC5" s="1"/>
       <c r="CD5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE5" s="1"/>
-      <c r="CF5" s="1"/>
+      <c r="CF5" t="s">
+        <v>137</v>
+      </c>
       <c r="CG5" s="1"/>
-      <c r="CH5" s="1"/>
+      <c r="CH5" t="s">
+        <v>137</v>
+      </c>
       <c r="CI5" s="1"/>
       <c r="CJ5" s="1"/>
       <c r="CK5" s="1"/>
@@ -2568,7 +2639,11 @@
       <c r="FO5" s="1"/>
       <c r="FP5" s="1"/>
       <c r="FQ5" s="1"/>
-      <c r="FR5" t="s">
+      <c r="FR5" s="1"/>
+      <c r="FS5" s="1"/>
+      <c r="FT5" s="1"/>
+      <c r="FU5" s="1"/>
+      <c r="FV5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2674,113 +2749,121 @@
         <v>62</v>
       </c>
       <c r="AI6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM6" t="s">
         <v>48</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>18</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>18</v>
+      <c r="AN6" t="s">
+        <v>114</v>
       </c>
       <c r="AO6" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="AP6" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AQ6" s="1">
         <v>18</v>
       </c>
       <c r="AR6" s="1">
+        <v>18</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>18</v>
+      </c>
+      <c r="AV6" s="1">
         <v>17</v>
       </c>
-      <c r="AS6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
+      <c r="AW6" t="s">
+        <v>137</v>
+      </c>
       <c r="AX6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1"/>
-      <c r="BB6" s="1"/>
+      <c r="BB6" t="s">
+        <v>137</v>
+      </c>
       <c r="BC6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
-      <c r="BG6" s="1"/>
+      <c r="BG6" t="s">
+        <v>137</v>
+      </c>
       <c r="BH6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI6" s="1"/>
-      <c r="BJ6" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ6" s="1"/>
       <c r="BK6" s="1"/>
       <c r="BL6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM6" s="1"/>
       <c r="BN6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO6" s="1"/>
       <c r="BP6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ6" s="1"/>
       <c r="BR6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS6" s="1"/>
       <c r="BT6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU6" s="1"/>
       <c r="BV6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW6" s="1"/>
       <c r="BX6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY6" s="1"/>
       <c r="BZ6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA6" s="1"/>
       <c r="CB6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC6" s="1"/>
       <c r="CD6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE6" s="1"/>
-      <c r="CF6" s="1"/>
+      <c r="CF6" t="s">
+        <v>137</v>
+      </c>
       <c r="CG6" s="1"/>
-      <c r="CH6" s="1"/>
+      <c r="CH6" t="s">
+        <v>137</v>
+      </c>
       <c r="CI6" s="1"/>
       <c r="CJ6" s="1"/>
       <c r="CK6" s="1"/>
@@ -2868,7 +2951,11 @@
       <c r="FO6" s="1"/>
       <c r="FP6" s="1"/>
       <c r="FQ6" s="1"/>
-      <c r="FR6" t="s">
+      <c r="FR6" s="1"/>
+      <c r="FS6" s="1"/>
+      <c r="FT6" s="1"/>
+      <c r="FU6" s="1"/>
+      <c r="FV6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2974,28 +3061,28 @@
         <v>62</v>
       </c>
       <c r="AI7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM7" t="s">
         <v>48</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>20</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>20</v>
+      <c r="AN7" t="s">
+        <v>114</v>
       </c>
       <c r="AO7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AP7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AQ7" s="1">
         <v>20</v>
@@ -3004,83 +3091,91 @@
         <v>20</v>
       </c>
       <c r="AS7" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="AT7" t="s">
         <v>132</v>
       </c>
-      <c r="AU7" s="1"/>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="1"/>
+      <c r="AU7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>137</v>
+      </c>
       <c r="AX7" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
-      <c r="BB7" s="1"/>
+      <c r="BB7" t="s">
+        <v>137</v>
+      </c>
       <c r="BC7" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
-      <c r="BG7" s="1"/>
+      <c r="BG7" t="s">
+        <v>137</v>
+      </c>
       <c r="BH7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI7" s="1"/>
-      <c r="BJ7" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM7" s="1"/>
       <c r="BN7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO7" s="1"/>
       <c r="BP7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ7" s="1"/>
       <c r="BR7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS7" s="1"/>
       <c r="BT7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU7" s="1"/>
       <c r="BV7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW7" s="1"/>
       <c r="BX7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY7" s="1"/>
       <c r="BZ7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA7" s="1"/>
       <c r="CB7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC7" s="1"/>
       <c r="CD7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE7" s="1"/>
-      <c r="CF7" s="1"/>
+      <c r="CF7" t="s">
+        <v>137</v>
+      </c>
       <c r="CG7" s="1"/>
-      <c r="CH7" s="1"/>
+      <c r="CH7" t="s">
+        <v>137</v>
+      </c>
       <c r="CI7" s="1"/>
       <c r="CJ7" s="1"/>
       <c r="CK7" s="1"/>
@@ -3168,7 +3263,11 @@
       <c r="FO7" s="1"/>
       <c r="FP7" s="1"/>
       <c r="FQ7" s="1"/>
-      <c r="FR7" t="s">
+      <c r="FR7" s="1"/>
+      <c r="FS7" s="1"/>
+      <c r="FT7" s="1"/>
+      <c r="FU7" s="1"/>
+      <c r="FV7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3274,28 +3373,28 @@
         <v>62</v>
       </c>
       <c r="AI8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM8" t="s">
         <v>48</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>20</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>20</v>
+      <c r="AN8" t="s">
+        <v>114</v>
       </c>
       <c r="AO8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AP8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AQ8" s="1">
         <v>20</v>
@@ -3304,83 +3403,91 @@
         <v>20</v>
       </c>
       <c r="AS8" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="AT8" t="s">
         <v>132</v>
       </c>
-      <c r="AU8" s="1"/>
-      <c r="AV8" s="1"/>
-      <c r="AW8" s="1"/>
+      <c r="AU8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>137</v>
+      </c>
       <c r="AX8" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
       <c r="BA8" s="1"/>
-      <c r="BB8" s="1"/>
+      <c r="BB8" t="s">
+        <v>137</v>
+      </c>
       <c r="BC8" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
-      <c r="BG8" s="1"/>
+      <c r="BG8" t="s">
+        <v>137</v>
+      </c>
       <c r="BH8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI8" s="1"/>
-      <c r="BJ8" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM8" s="1"/>
       <c r="BN8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO8" s="1"/>
       <c r="BP8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ8" s="1"/>
       <c r="BR8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS8" s="1"/>
       <c r="BT8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU8" s="1"/>
       <c r="BV8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW8" s="1"/>
       <c r="BX8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY8" s="1"/>
       <c r="BZ8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA8" s="1"/>
       <c r="CB8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC8" s="1"/>
       <c r="CD8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE8" s="1"/>
-      <c r="CF8" s="1"/>
+      <c r="CF8" t="s">
+        <v>137</v>
+      </c>
       <c r="CG8" s="1"/>
-      <c r="CH8" s="1"/>
+      <c r="CH8" t="s">
+        <v>137</v>
+      </c>
       <c r="CI8" s="1"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
@@ -3468,7 +3575,11 @@
       <c r="FO8" s="1"/>
       <c r="FP8" s="1"/>
       <c r="FQ8" s="1"/>
-      <c r="FR8" t="s">
+      <c r="FR8" s="1"/>
+      <c r="FS8" s="1"/>
+      <c r="FT8" s="1"/>
+      <c r="FU8" s="1"/>
+      <c r="FV8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3552,7 +3663,7 @@
         <v>82</v>
       </c>
       <c r="AA9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB9" t="s">
         <v>76</v>
@@ -3576,109 +3687,117 @@
         <v>82</v>
       </c>
       <c r="AI9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM9" t="s">
         <v>73</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM9" s="1">
+      <c r="AN9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ9" s="1">
         <v>16</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AR9" s="1">
         <v>16</v>
       </c>
-      <c r="AO9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
       <c r="AS9" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT9" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
+      <c r="AW9" t="s">
+        <v>137</v>
+      </c>
       <c r="AX9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
       <c r="BA9" s="1"/>
-      <c r="BB9" s="1"/>
+      <c r="BB9" t="s">
+        <v>137</v>
+      </c>
       <c r="BC9" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
-      <c r="BG9" s="1"/>
+      <c r="BG9" t="s">
+        <v>137</v>
+      </c>
       <c r="BH9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI9" s="1"/>
-      <c r="BJ9" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM9" s="1"/>
       <c r="BN9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO9" s="1"/>
       <c r="BP9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ9" s="1"/>
       <c r="BR9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS9" s="1"/>
       <c r="BT9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU9" s="1"/>
       <c r="BV9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW9" s="1"/>
       <c r="BX9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY9" s="1"/>
       <c r="BZ9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA9" s="1"/>
       <c r="CB9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC9" s="1"/>
       <c r="CD9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE9" s="1"/>
-      <c r="CF9" s="1"/>
+      <c r="CF9" t="s">
+        <v>137</v>
+      </c>
       <c r="CG9" s="1"/>
-      <c r="CH9" s="1"/>
+      <c r="CH9" t="s">
+        <v>137</v>
+      </c>
       <c r="CI9" s="1"/>
       <c r="CJ9" s="1"/>
       <c r="CK9" s="1"/>
@@ -3766,8 +3885,12 @@
       <c r="FO9" s="1"/>
       <c r="FP9" s="1"/>
       <c r="FQ9" s="1"/>
-      <c r="FR9" t="s">
-        <v>262</v>
+      <c r="FR9" s="1"/>
+      <c r="FS9" s="1"/>
+      <c r="FT9" s="1"/>
+      <c r="FU9" s="1"/>
+      <c r="FV9" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="10">
@@ -3850,7 +3973,7 @@
         <v>82</v>
       </c>
       <c r="AA10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB10" t="s">
         <v>76</v>
@@ -3862,7 +3985,7 @@
         <v>82</v>
       </c>
       <c r="AE10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="s">
         <v>76</v>
@@ -3874,107 +3997,115 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM10" t="s">
         <v>73</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM10" s="1">
+      <c r="AN10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ10" s="1">
         <v>12</v>
       </c>
-      <c r="AN10" s="1"/>
-      <c r="AO10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
       <c r="AS10" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT10" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU10" s="1"/>
       <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
+      <c r="AW10" t="s">
+        <v>137</v>
+      </c>
       <c r="AX10" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
-      <c r="BB10" s="1"/>
+      <c r="BB10" t="s">
+        <v>137</v>
+      </c>
       <c r="BC10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
-      <c r="BG10" s="1"/>
+      <c r="BG10" t="s">
+        <v>137</v>
+      </c>
       <c r="BH10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI10" s="1"/>
-      <c r="BJ10" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM10" s="1"/>
       <c r="BN10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO10" s="1"/>
       <c r="BP10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ10" s="1"/>
       <c r="BR10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS10" s="1"/>
       <c r="BT10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU10" s="1"/>
       <c r="BV10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW10" s="1"/>
       <c r="BX10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY10" s="1"/>
       <c r="BZ10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA10" s="1"/>
       <c r="CB10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC10" s="1"/>
       <c r="CD10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE10" s="1"/>
-      <c r="CF10" s="1"/>
+      <c r="CF10" t="s">
+        <v>137</v>
+      </c>
       <c r="CG10" s="1"/>
-      <c r="CH10" s="1"/>
+      <c r="CH10" t="s">
+        <v>137</v>
+      </c>
       <c r="CI10" s="1"/>
       <c r="CJ10" s="1"/>
       <c r="CK10" s="1"/>
@@ -4062,7 +4193,11 @@
       <c r="FO10" s="1"/>
       <c r="FP10" s="1"/>
       <c r="FQ10" s="1"/>
-      <c r="FR10" t="s">
+      <c r="FR10" s="1"/>
+      <c r="FS10" s="1"/>
+      <c r="FT10" s="1"/>
+      <c r="FU10" s="1"/>
+      <c r="FV10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4146,7 +4281,7 @@
         <v>82</v>
       </c>
       <c r="AA11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB11" t="s">
         <v>76</v>
@@ -4158,7 +4293,7 @@
         <v>82</v>
       </c>
       <c r="AE11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF11" t="s">
         <v>76</v>
@@ -4170,107 +4305,115 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM11" t="s">
         <v>73</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM11" s="1">
+      <c r="AN11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ11" s="1">
         <v>3</v>
       </c>
-      <c r="AN11" s="1"/>
-      <c r="AO11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
       <c r="AS11" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT11" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
+      <c r="AW11" t="s">
+        <v>137</v>
+      </c>
       <c r="AX11" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
+      <c r="BB11" t="s">
+        <v>137</v>
+      </c>
       <c r="BC11" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
-      <c r="BG11" s="1"/>
+      <c r="BG11" t="s">
+        <v>137</v>
+      </c>
       <c r="BH11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI11" s="1"/>
-      <c r="BJ11" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM11" s="1"/>
       <c r="BN11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO11" s="1"/>
       <c r="BP11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ11" s="1"/>
       <c r="BR11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS11" s="1"/>
       <c r="BT11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU11" s="1"/>
       <c r="BV11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW11" s="1"/>
       <c r="BX11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY11" s="1"/>
       <c r="BZ11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA11" s="1"/>
       <c r="CB11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC11" s="1"/>
       <c r="CD11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE11" s="1"/>
-      <c r="CF11" s="1"/>
+      <c r="CF11" t="s">
+        <v>137</v>
+      </c>
       <c r="CG11" s="1"/>
-      <c r="CH11" s="1"/>
+      <c r="CH11" t="s">
+        <v>137</v>
+      </c>
       <c r="CI11" s="1"/>
       <c r="CJ11" s="1"/>
       <c r="CK11" s="1"/>
@@ -4358,7 +4501,11 @@
       <c r="FO11" s="1"/>
       <c r="FP11" s="1"/>
       <c r="FQ11" s="1"/>
-      <c r="FR11" t="s">
+      <c r="FR11" s="1"/>
+      <c r="FS11" s="1"/>
+      <c r="FT11" s="1"/>
+      <c r="FU11" s="1"/>
+      <c r="FV11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4442,7 +4589,7 @@
         <v>82</v>
       </c>
       <c r="AA12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB12" t="s">
         <v>76</v>
@@ -4454,7 +4601,7 @@
         <v>82</v>
       </c>
       <c r="AE12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF12" t="s">
         <v>76</v>
@@ -4466,107 +4613,115 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM12" t="s">
         <v>73</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM12" s="1">
+      <c r="AN12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ12" s="1">
         <v>4</v>
       </c>
-      <c r="AN12" s="1"/>
-      <c r="AO12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
       <c r="AS12" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT12" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
+      <c r="AW12" t="s">
+        <v>137</v>
+      </c>
       <c r="AX12" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1"/>
-      <c r="BB12" s="1"/>
+      <c r="BB12" t="s">
+        <v>137</v>
+      </c>
       <c r="BC12" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
-      <c r="BG12" s="1"/>
+      <c r="BG12" t="s">
+        <v>137</v>
+      </c>
       <c r="BH12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI12" s="1"/>
-      <c r="BJ12" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
       <c r="BL12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM12" s="1"/>
       <c r="BN12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO12" s="1"/>
       <c r="BP12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ12" s="1"/>
       <c r="BR12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS12" s="1"/>
       <c r="BT12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU12" s="1"/>
       <c r="BV12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW12" s="1"/>
       <c r="BX12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY12" s="1"/>
       <c r="BZ12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA12" s="1"/>
       <c r="CB12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC12" s="1"/>
       <c r="CD12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE12" s="1"/>
-      <c r="CF12" s="1"/>
+      <c r="CF12" t="s">
+        <v>137</v>
+      </c>
       <c r="CG12" s="1"/>
-      <c r="CH12" s="1"/>
+      <c r="CH12" t="s">
+        <v>137</v>
+      </c>
       <c r="CI12" s="1"/>
       <c r="CJ12" s="1"/>
       <c r="CK12" s="1"/>
@@ -4654,7 +4809,11 @@
       <c r="FO12" s="1"/>
       <c r="FP12" s="1"/>
       <c r="FQ12" s="1"/>
-      <c r="FR12" t="s">
+      <c r="FR12" s="1"/>
+      <c r="FS12" s="1"/>
+      <c r="FT12" s="1"/>
+      <c r="FU12" s="1"/>
+      <c r="FV12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4738,7 +4897,7 @@
         <v>82</v>
       </c>
       <c r="AA13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB13" t="s">
         <v>76</v>
@@ -4750,7 +4909,7 @@
         <v>82</v>
       </c>
       <c r="AE13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF13" t="s">
         <v>76</v>
@@ -4762,107 +4921,115 @@
         <v>82</v>
       </c>
       <c r="AI13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM13" t="s">
         <v>73</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM13" s="1">
+      <c r="AN13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ13" s="1">
         <v>25</v>
       </c>
-      <c r="AN13" s="1"/>
-      <c r="AO13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
       <c r="AS13" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT13" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
+      <c r="AW13" t="s">
+        <v>137</v>
+      </c>
       <c r="AX13" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
       <c r="BA13" s="1"/>
-      <c r="BB13" s="1"/>
+      <c r="BB13" t="s">
+        <v>137</v>
+      </c>
       <c r="BC13" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
-      <c r="BG13" s="1"/>
+      <c r="BG13" t="s">
+        <v>137</v>
+      </c>
       <c r="BH13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI13" s="1"/>
-      <c r="BJ13" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
       <c r="BL13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM13" s="1"/>
       <c r="BN13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO13" s="1"/>
       <c r="BP13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ13" s="1"/>
       <c r="BR13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS13" s="1"/>
       <c r="BT13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU13" s="1"/>
       <c r="BV13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW13" s="1"/>
       <c r="BX13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY13" s="1"/>
       <c r="BZ13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA13" s="1"/>
       <c r="CB13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC13" s="1"/>
       <c r="CD13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE13" s="1"/>
-      <c r="CF13" s="1"/>
+      <c r="CF13" t="s">
+        <v>137</v>
+      </c>
       <c r="CG13" s="1"/>
-      <c r="CH13" s="1"/>
+      <c r="CH13" t="s">
+        <v>137</v>
+      </c>
       <c r="CI13" s="1"/>
       <c r="CJ13" s="1"/>
       <c r="CK13" s="1"/>
@@ -4950,7 +5117,11 @@
       <c r="FO13" s="1"/>
       <c r="FP13" s="1"/>
       <c r="FQ13" s="1"/>
-      <c r="FR13" t="s">
+      <c r="FR13" s="1"/>
+      <c r="FS13" s="1"/>
+      <c r="FT13" s="1"/>
+      <c r="FU13" s="1"/>
+      <c r="FV13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5034,7 +5205,7 @@
         <v>82</v>
       </c>
       <c r="AA14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB14" t="s">
         <v>76</v>
@@ -5046,7 +5217,7 @@
         <v>82</v>
       </c>
       <c r="AE14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="s">
         <v>76</v>
@@ -5058,107 +5229,115 @@
         <v>82</v>
       </c>
       <c r="AI14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM14" t="s">
         <v>73</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM14" s="1">
+      <c r="AN14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ14" s="1">
         <v>5</v>
       </c>
-      <c r="AN14" s="1"/>
-      <c r="AO14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
       <c r="AS14" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT14" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
+      <c r="AW14" t="s">
+        <v>137</v>
+      </c>
       <c r="AX14" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
       <c r="BA14" s="1"/>
-      <c r="BB14" s="1"/>
+      <c r="BB14" t="s">
+        <v>137</v>
+      </c>
       <c r="BC14" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
-      <c r="BG14" s="1"/>
+      <c r="BG14" t="s">
+        <v>137</v>
+      </c>
       <c r="BH14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI14" s="1"/>
-      <c r="BJ14" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
       <c r="BL14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM14" s="1"/>
       <c r="BN14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO14" s="1"/>
       <c r="BP14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ14" s="1"/>
       <c r="BR14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS14" s="1"/>
       <c r="BT14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU14" s="1"/>
       <c r="BV14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW14" s="1"/>
       <c r="BX14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY14" s="1"/>
       <c r="BZ14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA14" s="1"/>
       <c r="CB14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC14" s="1"/>
       <c r="CD14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE14" s="1"/>
-      <c r="CF14" s="1"/>
+      <c r="CF14" t="s">
+        <v>137</v>
+      </c>
       <c r="CG14" s="1"/>
-      <c r="CH14" s="1"/>
+      <c r="CH14" t="s">
+        <v>137</v>
+      </c>
       <c r="CI14" s="1"/>
       <c r="CJ14" s="1"/>
       <c r="CK14" s="1"/>
@@ -5246,7 +5425,11 @@
       <c r="FO14" s="1"/>
       <c r="FP14" s="1"/>
       <c r="FQ14" s="1"/>
-      <c r="FR14" t="s">
+      <c r="FR14" s="1"/>
+      <c r="FS14" s="1"/>
+      <c r="FT14" s="1"/>
+      <c r="FU14" s="1"/>
+      <c r="FV14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5330,7 +5513,7 @@
         <v>82</v>
       </c>
       <c r="AA15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB15" t="s">
         <v>76</v>
@@ -5342,7 +5525,7 @@
         <v>82</v>
       </c>
       <c r="AE15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="s">
         <v>76</v>
@@ -5354,107 +5537,115 @@
         <v>82</v>
       </c>
       <c r="AI15" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="AJ15" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AK15" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AL15" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM15" s="1">
+        <v>82</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ15" s="1">
         <v>3</v>
       </c>
-      <c r="AN15" s="1"/>
-      <c r="AO15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
       <c r="AS15" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT15" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
+      <c r="AW15" t="s">
+        <v>137</v>
+      </c>
       <c r="AX15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
+      <c r="BB15" t="s">
+        <v>137</v>
+      </c>
       <c r="BC15" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
       <c r="BF15" s="1"/>
-      <c r="BG15" s="1"/>
+      <c r="BG15" t="s">
+        <v>137</v>
+      </c>
       <c r="BH15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI15" s="1"/>
-      <c r="BJ15" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ15" s="1"/>
       <c r="BK15" s="1"/>
       <c r="BL15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM15" s="1"/>
       <c r="BN15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO15" s="1"/>
       <c r="BP15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ15" s="1"/>
       <c r="BR15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS15" s="1"/>
       <c r="BT15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU15" s="1"/>
       <c r="BV15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW15" s="1"/>
       <c r="BX15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY15" s="1"/>
       <c r="BZ15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA15" s="1"/>
       <c r="CB15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC15" s="1"/>
       <c r="CD15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE15" s="1"/>
-      <c r="CF15" s="1"/>
+      <c r="CF15" t="s">
+        <v>137</v>
+      </c>
       <c r="CG15" s="1"/>
-      <c r="CH15" s="1"/>
+      <c r="CH15" t="s">
+        <v>137</v>
+      </c>
       <c r="CI15" s="1"/>
       <c r="CJ15" s="1"/>
       <c r="CK15" s="1"/>
@@ -5542,7 +5733,11 @@
       <c r="FO15" s="1"/>
       <c r="FP15" s="1"/>
       <c r="FQ15" s="1"/>
-      <c r="FR15" t="s">
+      <c r="FR15" s="1"/>
+      <c r="FS15" s="1"/>
+      <c r="FT15" s="1"/>
+      <c r="FU15" s="1"/>
+      <c r="FV15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5626,7 +5821,7 @@
         <v>82</v>
       </c>
       <c r="AA16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB16" t="s">
         <v>76</v>
@@ -5638,7 +5833,7 @@
         <v>82</v>
       </c>
       <c r="AE16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF16" t="s">
         <v>76</v>
@@ -5650,107 +5845,115 @@
         <v>82</v>
       </c>
       <c r="AI16" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="AJ16" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AK16" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AL16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM16" s="1">
+        <v>82</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ16" s="1">
         <v>6</v>
       </c>
-      <c r="AN16" s="1"/>
-      <c r="AO16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
       <c r="AS16" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT16" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
-      <c r="AW16" s="1"/>
+      <c r="AW16" t="s">
+        <v>137</v>
+      </c>
       <c r="AX16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY16" s="1"/>
       <c r="AZ16" s="1"/>
       <c r="BA16" s="1"/>
-      <c r="BB16" s="1"/>
+      <c r="BB16" t="s">
+        <v>137</v>
+      </c>
       <c r="BC16" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
-      <c r="BG16" s="1"/>
+      <c r="BG16" t="s">
+        <v>137</v>
+      </c>
       <c r="BH16" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI16" s="1"/>
-      <c r="BJ16" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ16" s="1"/>
       <c r="BK16" s="1"/>
       <c r="BL16" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM16" s="1"/>
       <c r="BN16" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO16" s="1"/>
       <c r="BP16" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ16" s="1"/>
       <c r="BR16" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS16" s="1"/>
       <c r="BT16" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU16" s="1"/>
       <c r="BV16" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW16" s="1"/>
       <c r="BX16" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY16" s="1"/>
       <c r="BZ16" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA16" s="1"/>
       <c r="CB16" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC16" s="1"/>
       <c r="CD16" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE16" s="1"/>
-      <c r="CF16" s="1"/>
+      <c r="CF16" t="s">
+        <v>137</v>
+      </c>
       <c r="CG16" s="1"/>
-      <c r="CH16" s="1"/>
+      <c r="CH16" t="s">
+        <v>137</v>
+      </c>
       <c r="CI16" s="1"/>
       <c r="CJ16" s="1"/>
       <c r="CK16" s="1"/>
@@ -5838,7 +6041,11 @@
       <c r="FO16" s="1"/>
       <c r="FP16" s="1"/>
       <c r="FQ16" s="1"/>
-      <c r="FR16" t="s">
+      <c r="FR16" s="1"/>
+      <c r="FS16" s="1"/>
+      <c r="FT16" s="1"/>
+      <c r="FU16" s="1"/>
+      <c r="FV16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5922,7 +6129,7 @@
         <v>82</v>
       </c>
       <c r="AA17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB17" t="s">
         <v>76</v>
@@ -5934,7 +6141,7 @@
         <v>82</v>
       </c>
       <c r="AE17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF17" t="s">
         <v>76</v>
@@ -5946,107 +6153,115 @@
         <v>82</v>
       </c>
       <c r="AI17" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="AJ17" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AK17" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM17" s="1">
+        <v>82</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ17" s="1">
         <v>2</v>
       </c>
-      <c r="AN17" s="1"/>
-      <c r="AO17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ17" s="1"/>
       <c r="AR17" s="1"/>
       <c r="AS17" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT17" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU17" s="1"/>
       <c r="AV17" s="1"/>
-      <c r="AW17" s="1"/>
+      <c r="AW17" t="s">
+        <v>137</v>
+      </c>
       <c r="AX17" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY17" s="1"/>
       <c r="AZ17" s="1"/>
       <c r="BA17" s="1"/>
-      <c r="BB17" s="1"/>
+      <c r="BB17" t="s">
+        <v>137</v>
+      </c>
       <c r="BC17" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD17" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
       <c r="BF17" s="1"/>
-      <c r="BG17" s="1"/>
+      <c r="BG17" t="s">
+        <v>137</v>
+      </c>
       <c r="BH17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI17" s="1"/>
-      <c r="BJ17" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ17" s="1"/>
       <c r="BK17" s="1"/>
       <c r="BL17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM17" s="1"/>
       <c r="BN17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO17" s="1"/>
       <c r="BP17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ17" s="1"/>
       <c r="BR17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS17" s="1"/>
       <c r="BT17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU17" s="1"/>
       <c r="BV17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW17" s="1"/>
       <c r="BX17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY17" s="1"/>
       <c r="BZ17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA17" s="1"/>
       <c r="CB17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC17" s="1"/>
       <c r="CD17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE17" s="1"/>
-      <c r="CF17" s="1"/>
+      <c r="CF17" t="s">
+        <v>137</v>
+      </c>
       <c r="CG17" s="1"/>
-      <c r="CH17" s="1"/>
+      <c r="CH17" t="s">
+        <v>137</v>
+      </c>
       <c r="CI17" s="1"/>
       <c r="CJ17" s="1"/>
       <c r="CK17" s="1"/>
@@ -6134,7 +6349,11 @@
       <c r="FO17" s="1"/>
       <c r="FP17" s="1"/>
       <c r="FQ17" s="1"/>
-      <c r="FR17" t="s">
+      <c r="FR17" s="1"/>
+      <c r="FS17" s="1"/>
+      <c r="FT17" s="1"/>
+      <c r="FU17" s="1"/>
+      <c r="FV17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6218,7 +6437,7 @@
         <v>82</v>
       </c>
       <c r="AA18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB18" t="s">
         <v>76</v>
@@ -6230,7 +6449,7 @@
         <v>82</v>
       </c>
       <c r="AE18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF18" t="s">
         <v>76</v>
@@ -6242,107 +6461,115 @@
         <v>82</v>
       </c>
       <c r="AI18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM18" t="s">
         <v>73</v>
       </c>
-      <c r="AJ18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM18" s="1">
+      <c r="AN18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ18" s="1">
         <v>1</v>
       </c>
-      <c r="AN18" s="1"/>
-      <c r="AO18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
       <c r="AS18" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT18" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU18" s="1"/>
       <c r="AV18" s="1"/>
-      <c r="AW18" s="1"/>
+      <c r="AW18" t="s">
+        <v>137</v>
+      </c>
       <c r="AX18" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY18" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
       <c r="BA18" s="1"/>
-      <c r="BB18" s="1"/>
+      <c r="BB18" t="s">
+        <v>137</v>
+      </c>
       <c r="BC18" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
-      <c r="BG18" s="1"/>
+      <c r="BG18" t="s">
+        <v>137</v>
+      </c>
       <c r="BH18" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI18" s="1"/>
-      <c r="BJ18" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ18" s="1"/>
       <c r="BK18" s="1"/>
       <c r="BL18" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM18" s="1"/>
       <c r="BN18" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO18" s="1"/>
       <c r="BP18" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ18" s="1"/>
       <c r="BR18" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS18" s="1"/>
       <c r="BT18" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU18" s="1"/>
       <c r="BV18" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW18" s="1"/>
       <c r="BX18" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY18" s="1"/>
       <c r="BZ18" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA18" s="1"/>
       <c r="CB18" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC18" s="1"/>
       <c r="CD18" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE18" s="1"/>
-      <c r="CF18" s="1"/>
+      <c r="CF18" t="s">
+        <v>137</v>
+      </c>
       <c r="CG18" s="1"/>
-      <c r="CH18" s="1"/>
+      <c r="CH18" t="s">
+        <v>137</v>
+      </c>
       <c r="CI18" s="1"/>
       <c r="CJ18" s="1"/>
       <c r="CK18" s="1"/>
@@ -6430,7 +6657,11 @@
       <c r="FO18" s="1"/>
       <c r="FP18" s="1"/>
       <c r="FQ18" s="1"/>
-      <c r="FR18" t="s">
+      <c r="FR18" s="1"/>
+      <c r="FS18" s="1"/>
+      <c r="FT18" s="1"/>
+      <c r="FU18" s="1"/>
+      <c r="FV18" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6514,7 +6745,7 @@
         <v>82</v>
       </c>
       <c r="AA19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB19" t="s">
         <v>76</v>
@@ -6526,7 +6757,7 @@
         <v>82</v>
       </c>
       <c r="AE19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF19" t="s">
         <v>76</v>
@@ -6538,107 +6769,115 @@
         <v>82</v>
       </c>
       <c r="AI19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM19" t="s">
         <v>73</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM19" s="1">
+      <c r="AN19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ19" s="1">
         <v>2</v>
       </c>
-      <c r="AN19" s="1"/>
-      <c r="AO19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
       <c r="AS19" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT19" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU19" s="1"/>
       <c r="AV19" s="1"/>
-      <c r="AW19" s="1"/>
+      <c r="AW19" t="s">
+        <v>137</v>
+      </c>
       <c r="AX19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY19" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY19" s="1"/>
       <c r="AZ19" s="1"/>
       <c r="BA19" s="1"/>
-      <c r="BB19" s="1"/>
+      <c r="BB19" t="s">
+        <v>137</v>
+      </c>
       <c r="BC19" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD19" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
       <c r="BF19" s="1"/>
-      <c r="BG19" s="1"/>
+      <c r="BG19" t="s">
+        <v>137</v>
+      </c>
       <c r="BH19" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI19" s="1"/>
-      <c r="BJ19" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ19" s="1"/>
       <c r="BK19" s="1"/>
       <c r="BL19" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM19" s="1"/>
       <c r="BN19" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO19" s="1"/>
       <c r="BP19" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ19" s="1"/>
       <c r="BR19" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS19" s="1"/>
       <c r="BT19" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU19" s="1"/>
       <c r="BV19" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW19" s="1"/>
       <c r="BX19" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY19" s="1"/>
       <c r="BZ19" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA19" s="1"/>
       <c r="CB19" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC19" s="1"/>
       <c r="CD19" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE19" s="1"/>
-      <c r="CF19" s="1"/>
+      <c r="CF19" t="s">
+        <v>137</v>
+      </c>
       <c r="CG19" s="1"/>
-      <c r="CH19" s="1"/>
+      <c r="CH19" t="s">
+        <v>137</v>
+      </c>
       <c r="CI19" s="1"/>
       <c r="CJ19" s="1"/>
       <c r="CK19" s="1"/>
@@ -6726,7 +6965,11 @@
       <c r="FO19" s="1"/>
       <c r="FP19" s="1"/>
       <c r="FQ19" s="1"/>
-      <c r="FR19" t="s">
+      <c r="FR19" s="1"/>
+      <c r="FS19" s="1"/>
+      <c r="FT19" s="1"/>
+      <c r="FU19" s="1"/>
+      <c r="FV19" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6810,7 +7053,7 @@
         <v>82</v>
       </c>
       <c r="AA20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB20" t="s">
         <v>76</v>
@@ -6822,7 +7065,7 @@
         <v>82</v>
       </c>
       <c r="AE20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF20" t="s">
         <v>76</v>
@@ -6834,107 +7077,115 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM20" t="s">
         <v>73</v>
       </c>
-      <c r="AJ20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM20" s="1">
+      <c r="AN20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ20" s="1">
         <v>3</v>
       </c>
-      <c r="AN20" s="1"/>
-      <c r="AO20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
       <c r="AS20" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT20" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU20" s="1"/>
       <c r="AV20" s="1"/>
-      <c r="AW20" s="1"/>
+      <c r="AW20" t="s">
+        <v>137</v>
+      </c>
       <c r="AX20" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY20" s="1"/>
       <c r="AZ20" s="1"/>
       <c r="BA20" s="1"/>
-      <c r="BB20" s="1"/>
+      <c r="BB20" t="s">
+        <v>137</v>
+      </c>
       <c r="BC20" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD20" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
-      <c r="BG20" s="1"/>
+      <c r="BG20" t="s">
+        <v>137</v>
+      </c>
       <c r="BH20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI20" s="1"/>
-      <c r="BJ20" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ20" s="1"/>
       <c r="BK20" s="1"/>
       <c r="BL20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM20" s="1"/>
       <c r="BN20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO20" s="1"/>
       <c r="BP20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ20" s="1"/>
       <c r="BR20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS20" s="1"/>
       <c r="BT20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU20" s="1"/>
       <c r="BV20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW20" s="1"/>
       <c r="BX20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY20" s="1"/>
       <c r="BZ20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA20" s="1"/>
       <c r="CB20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC20" s="1"/>
       <c r="CD20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE20" s="1"/>
-      <c r="CF20" s="1"/>
+      <c r="CF20" t="s">
+        <v>137</v>
+      </c>
       <c r="CG20" s="1"/>
-      <c r="CH20" s="1"/>
+      <c r="CH20" t="s">
+        <v>137</v>
+      </c>
       <c r="CI20" s="1"/>
       <c r="CJ20" s="1"/>
       <c r="CK20" s="1"/>
@@ -7022,7 +7273,11 @@
       <c r="FO20" s="1"/>
       <c r="FP20" s="1"/>
       <c r="FQ20" s="1"/>
-      <c r="FR20" t="s">
+      <c r="FR20" s="1"/>
+      <c r="FS20" s="1"/>
+      <c r="FT20" s="1"/>
+      <c r="FU20" s="1"/>
+      <c r="FV20" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7094,7 +7349,7 @@
         <v>82</v>
       </c>
       <c r="W21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X21" t="s">
         <v>76</v>
@@ -7130,111 +7385,119 @@
         <v>82</v>
       </c>
       <c r="AI21" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ21" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM21" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ21" s="1">
         <v>16</v>
       </c>
-      <c r="AN21" s="1">
+      <c r="AR21" s="1">
         <v>15</v>
       </c>
-      <c r="AO21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP21" t="s">
+      <c r="AS21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT21" t="s">
         <v>52</v>
       </c>
-      <c r="AQ21" s="1">
+      <c r="AU21" s="1">
         <v>9</v>
       </c>
-      <c r="AR21" s="1"/>
-      <c r="AS21" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU21" s="1"/>
       <c r="AV21" s="1"/>
-      <c r="AW21" s="1"/>
+      <c r="AW21" t="s">
+        <v>137</v>
+      </c>
       <c r="AX21" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY21" s="1"/>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
-      <c r="BB21" s="1"/>
+      <c r="BB21" t="s">
+        <v>137</v>
+      </c>
       <c r="BC21" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
-      <c r="BG21" s="1"/>
+      <c r="BG21" t="s">
+        <v>137</v>
+      </c>
       <c r="BH21" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI21" s="1"/>
-      <c r="BJ21" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ21" s="1"/>
       <c r="BK21" s="1"/>
       <c r="BL21" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM21" s="1"/>
       <c r="BN21" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO21" s="1"/>
       <c r="BP21" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ21" s="1"/>
       <c r="BR21" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS21" s="1"/>
       <c r="BT21" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU21" s="1"/>
       <c r="BV21" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW21" s="1"/>
       <c r="BX21" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY21" s="1"/>
       <c r="BZ21" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA21" s="1"/>
       <c r="CB21" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC21" s="1"/>
       <c r="CD21" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE21" s="1"/>
-      <c r="CF21" s="1"/>
+      <c r="CF21" t="s">
+        <v>137</v>
+      </c>
       <c r="CG21" s="1"/>
-      <c r="CH21" s="1"/>
+      <c r="CH21" t="s">
+        <v>137</v>
+      </c>
       <c r="CI21" s="1"/>
       <c r="CJ21" s="1"/>
       <c r="CK21" s="1"/>
@@ -7322,7 +7585,11 @@
       <c r="FO21" s="1"/>
       <c r="FP21" s="1"/>
       <c r="FQ21" s="1"/>
-      <c r="FR21" t="s">
+      <c r="FR21" s="1"/>
+      <c r="FS21" s="1"/>
+      <c r="FT21" s="1"/>
+      <c r="FU21" s="1"/>
+      <c r="FV21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7394,7 +7661,7 @@
         <v>82</v>
       </c>
       <c r="W22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X22" t="s">
         <v>76</v>
@@ -7430,111 +7697,119 @@
         <v>82</v>
       </c>
       <c r="AI22" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ22" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL22" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM22" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ22" s="1">
         <v>16</v>
       </c>
-      <c r="AN22" s="1">
+      <c r="AR22" s="1">
         <v>15</v>
       </c>
-      <c r="AO22" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP22" t="s">
+      <c r="AS22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT22" t="s">
         <v>52</v>
       </c>
-      <c r="AQ22" s="1">
+      <c r="AU22" s="1">
         <v>9</v>
       </c>
-      <c r="AR22" s="1"/>
-      <c r="AS22" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU22" s="1"/>
       <c r="AV22" s="1"/>
-      <c r="AW22" s="1"/>
+      <c r="AW22" t="s">
+        <v>137</v>
+      </c>
       <c r="AX22" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY22" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY22" s="1"/>
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
-      <c r="BB22" s="1"/>
+      <c r="BB22" t="s">
+        <v>137</v>
+      </c>
       <c r="BC22" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
-      <c r="BG22" s="1"/>
+      <c r="BG22" t="s">
+        <v>137</v>
+      </c>
       <c r="BH22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI22" s="1"/>
-      <c r="BJ22" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ22" s="1"/>
       <c r="BK22" s="1"/>
       <c r="BL22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM22" s="1"/>
       <c r="BN22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO22" s="1"/>
       <c r="BP22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ22" s="1"/>
       <c r="BR22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS22" s="1"/>
       <c r="BT22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU22" s="1"/>
       <c r="BV22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW22" s="1"/>
       <c r="BX22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY22" s="1"/>
       <c r="BZ22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA22" s="1"/>
       <c r="CB22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC22" s="1"/>
       <c r="CD22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE22" s="1"/>
-      <c r="CF22" s="1"/>
+      <c r="CF22" t="s">
+        <v>137</v>
+      </c>
       <c r="CG22" s="1"/>
-      <c r="CH22" s="1"/>
+      <c r="CH22" t="s">
+        <v>137</v>
+      </c>
       <c r="CI22" s="1"/>
       <c r="CJ22" s="1"/>
       <c r="CK22" s="1"/>
@@ -7622,7 +7897,11 @@
       <c r="FO22" s="1"/>
       <c r="FP22" s="1"/>
       <c r="FQ22" s="1"/>
-      <c r="FR22" t="s">
+      <c r="FR22" s="1"/>
+      <c r="FS22" s="1"/>
+      <c r="FT22" s="1"/>
+      <c r="FU22" s="1"/>
+      <c r="FV22" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7694,7 +7973,7 @@
         <v>82</v>
       </c>
       <c r="W23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X23" t="s">
         <v>76</v>
@@ -7730,111 +8009,119 @@
         <v>82</v>
       </c>
       <c r="AI23" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ23" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL23" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM23" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ23" s="1">
         <v>12</v>
       </c>
-      <c r="AN23" s="1">
+      <c r="AR23" s="1">
         <v>12</v>
       </c>
-      <c r="AO23" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP23" t="s">
+      <c r="AS23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT23" t="s">
         <v>52</v>
       </c>
-      <c r="AQ23" s="1">
+      <c r="AU23" s="1">
         <v>8</v>
       </c>
-      <c r="AR23" s="1"/>
-      <c r="AS23" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU23" s="1"/>
       <c r="AV23" s="1"/>
-      <c r="AW23" s="1"/>
+      <c r="AW23" t="s">
+        <v>137</v>
+      </c>
       <c r="AX23" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY23" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
-      <c r="BB23" s="1"/>
+      <c r="BB23" t="s">
+        <v>137</v>
+      </c>
       <c r="BC23" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
       <c r="BF23" s="1"/>
-      <c r="BG23" s="1"/>
+      <c r="BG23" t="s">
+        <v>137</v>
+      </c>
       <c r="BH23" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI23" s="1"/>
-      <c r="BJ23" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ23" s="1"/>
       <c r="BK23" s="1"/>
       <c r="BL23" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM23" s="1"/>
       <c r="BN23" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO23" s="1"/>
       <c r="BP23" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ23" s="1"/>
       <c r="BR23" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS23" s="1"/>
       <c r="BT23" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU23" s="1"/>
       <c r="BV23" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW23" s="1"/>
       <c r="BX23" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY23" s="1"/>
       <c r="BZ23" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA23" s="1"/>
       <c r="CB23" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC23" s="1"/>
       <c r="CD23" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE23" s="1"/>
-      <c r="CF23" s="1"/>
+      <c r="CF23" t="s">
+        <v>137</v>
+      </c>
       <c r="CG23" s="1"/>
-      <c r="CH23" s="1"/>
+      <c r="CH23" t="s">
+        <v>137</v>
+      </c>
       <c r="CI23" s="1"/>
       <c r="CJ23" s="1"/>
       <c r="CK23" s="1"/>
@@ -7922,7 +8209,11 @@
       <c r="FO23" s="1"/>
       <c r="FP23" s="1"/>
       <c r="FQ23" s="1"/>
-      <c r="FR23" t="s">
+      <c r="FR23" s="1"/>
+      <c r="FS23" s="1"/>
+      <c r="FT23" s="1"/>
+      <c r="FU23" s="1"/>
+      <c r="FV23" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7994,7 +8285,7 @@
         <v>82</v>
       </c>
       <c r="W24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X24" t="s">
         <v>76</v>
@@ -8030,111 +8321,119 @@
         <v>82</v>
       </c>
       <c r="AI24" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ24" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="AK24" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM24" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ24" s="1">
         <v>13</v>
       </c>
-      <c r="AN24" s="1">
+      <c r="AR24" s="1">
         <v>12</v>
       </c>
-      <c r="AO24" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP24" t="s">
+      <c r="AS24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT24" t="s">
         <v>52</v>
       </c>
-      <c r="AQ24" s="1">
+      <c r="AU24" s="1">
         <v>8</v>
       </c>
-      <c r="AR24" s="1"/>
-      <c r="AS24" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU24" s="1"/>
       <c r="AV24" s="1"/>
-      <c r="AW24" s="1"/>
+      <c r="AW24" t="s">
+        <v>137</v>
+      </c>
       <c r="AX24" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY24" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
-      <c r="BB24" s="1"/>
+      <c r="BB24" t="s">
+        <v>137</v>
+      </c>
       <c r="BC24" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD24" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
       <c r="BF24" s="1"/>
-      <c r="BG24" s="1"/>
+      <c r="BG24" t="s">
+        <v>137</v>
+      </c>
       <c r="BH24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI24" s="1"/>
-      <c r="BJ24" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ24" s="1"/>
       <c r="BK24" s="1"/>
       <c r="BL24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM24" s="1"/>
       <c r="BN24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO24" s="1"/>
       <c r="BP24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ24" s="1"/>
       <c r="BR24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS24" s="1"/>
       <c r="BT24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU24" s="1"/>
       <c r="BV24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW24" s="1"/>
       <c r="BX24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY24" s="1"/>
       <c r="BZ24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA24" s="1"/>
       <c r="CB24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC24" s="1"/>
       <c r="CD24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE24" s="1"/>
-      <c r="CF24" s="1"/>
+      <c r="CF24" t="s">
+        <v>137</v>
+      </c>
       <c r="CG24" s="1"/>
-      <c r="CH24" s="1"/>
+      <c r="CH24" t="s">
+        <v>137</v>
+      </c>
       <c r="CI24" s="1"/>
       <c r="CJ24" s="1"/>
       <c r="CK24" s="1"/>
@@ -8222,7 +8521,11 @@
       <c r="FO24" s="1"/>
       <c r="FP24" s="1"/>
       <c r="FQ24" s="1"/>
-      <c r="FR24" t="s">
+      <c r="FR24" s="1"/>
+      <c r="FS24" s="1"/>
+      <c r="FT24" s="1"/>
+      <c r="FU24" s="1"/>
+      <c r="FV24" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8294,7 +8597,7 @@
         <v>82</v>
       </c>
       <c r="W25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X25" t="s">
         <v>76</v>
@@ -8306,7 +8609,7 @@
         <v>82</v>
       </c>
       <c r="AA25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB25" t="s">
         <v>76</v>
@@ -8330,28 +8633,28 @@
         <v>62</v>
       </c>
       <c r="AI25" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN25" t="s">
         <v>73</v>
       </c>
-      <c r="AK25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM25" s="1">
-        <v>8</v>
-      </c>
-      <c r="AN25" s="1">
-        <v>8</v>
-      </c>
       <c r="AO25" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="AP25" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AQ25" s="1">
         <v>8</v>
@@ -8360,83 +8663,91 @@
         <v>8</v>
       </c>
       <c r="AS25" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="AT25" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU25" s="1"/>
-      <c r="AV25" s="1"/>
-      <c r="AW25" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="AU25" s="1">
+        <v>8</v>
+      </c>
+      <c r="AV25" s="1">
+        <v>8</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>137</v>
+      </c>
       <c r="AX25" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY25" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY25" s="1"/>
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1"/>
-      <c r="BB25" s="1"/>
+      <c r="BB25" t="s">
+        <v>137</v>
+      </c>
       <c r="BC25" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD25" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD25" s="1"/>
       <c r="BE25" s="1"/>
       <c r="BF25" s="1"/>
-      <c r="BG25" s="1"/>
+      <c r="BG25" t="s">
+        <v>137</v>
+      </c>
       <c r="BH25" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI25" s="1"/>
-      <c r="BJ25" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ25" s="1"/>
       <c r="BK25" s="1"/>
       <c r="BL25" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM25" s="1"/>
       <c r="BN25" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO25" s="1"/>
       <c r="BP25" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ25" s="1"/>
       <c r="BR25" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS25" s="1"/>
       <c r="BT25" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU25" s="1"/>
       <c r="BV25" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW25" s="1"/>
       <c r="BX25" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY25" s="1"/>
       <c r="BZ25" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA25" s="1"/>
       <c r="CB25" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC25" s="1"/>
       <c r="CD25" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE25" s="1"/>
-      <c r="CF25" s="1"/>
+      <c r="CF25" t="s">
+        <v>137</v>
+      </c>
       <c r="CG25" s="1"/>
-      <c r="CH25" s="1"/>
+      <c r="CH25" t="s">
+        <v>137</v>
+      </c>
       <c r="CI25" s="1"/>
       <c r="CJ25" s="1"/>
       <c r="CK25" s="1"/>
@@ -8524,7 +8835,11 @@
       <c r="FO25" s="1"/>
       <c r="FP25" s="1"/>
       <c r="FQ25" s="1"/>
-      <c r="FR25" t="s">
+      <c r="FR25" s="1"/>
+      <c r="FS25" s="1"/>
+      <c r="FT25" s="1"/>
+      <c r="FU25" s="1"/>
+      <c r="FV25" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8596,7 +8911,7 @@
         <v>82</v>
       </c>
       <c r="W26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X26" t="s">
         <v>76</v>
@@ -8632,113 +8947,121 @@
         <v>62</v>
       </c>
       <c r="AI26" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ26" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="AK26" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL26" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM26" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ26" s="1">
         <v>21</v>
       </c>
-      <c r="AN26" s="1">
+      <c r="AR26" s="1">
         <v>21</v>
       </c>
-      <c r="AO26" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ26" s="1">
-        <v>20</v>
-      </c>
-      <c r="AR26" s="1">
-        <v>19</v>
-      </c>
       <c r="AS26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AT26" t="s">
         <v>132</v>
       </c>
-      <c r="AU26" s="1"/>
-      <c r="AV26" s="1"/>
-      <c r="AW26" s="1"/>
+      <c r="AU26" s="1">
+        <v>20</v>
+      </c>
+      <c r="AV26" s="1">
+        <v>19</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>137</v>
+      </c>
       <c r="AX26" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY26" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
-      <c r="BB26" s="1"/>
+      <c r="BB26" t="s">
+        <v>137</v>
+      </c>
       <c r="BC26" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD26" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
       <c r="BF26" s="1"/>
-      <c r="BG26" s="1"/>
+      <c r="BG26" t="s">
+        <v>137</v>
+      </c>
       <c r="BH26" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI26" s="1"/>
-      <c r="BJ26" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ26" s="1"/>
       <c r="BK26" s="1"/>
       <c r="BL26" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM26" s="1"/>
       <c r="BN26" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO26" s="1"/>
       <c r="BP26" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ26" s="1"/>
       <c r="BR26" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS26" s="1"/>
       <c r="BT26" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU26" s="1"/>
       <c r="BV26" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW26" s="1"/>
       <c r="BX26" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY26" s="1"/>
       <c r="BZ26" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA26" s="1"/>
       <c r="CB26" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC26" s="1"/>
       <c r="CD26" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE26" s="1"/>
-      <c r="CF26" s="1"/>
+      <c r="CF26" t="s">
+        <v>137</v>
+      </c>
       <c r="CG26" s="1"/>
-      <c r="CH26" s="1"/>
+      <c r="CH26" t="s">
+        <v>137</v>
+      </c>
       <c r="CI26" s="1"/>
       <c r="CJ26" s="1"/>
       <c r="CK26" s="1"/>
@@ -8826,8 +9149,12 @@
       <c r="FO26" s="1"/>
       <c r="FP26" s="1"/>
       <c r="FQ26" s="1"/>
-      <c r="FR26" t="s">
-        <v>263</v>
+      <c r="FR26" s="1"/>
+      <c r="FS26" s="1"/>
+      <c r="FT26" s="1"/>
+      <c r="FU26" s="1"/>
+      <c r="FV26" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="27">
@@ -8898,7 +9225,7 @@
         <v>82</v>
       </c>
       <c r="W27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X27" t="s">
         <v>76</v>
@@ -8934,107 +9261,115 @@
         <v>62</v>
       </c>
       <c r="AI27" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="AJ27" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL27" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM27" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ27" s="1">
         <v>3</v>
       </c>
-      <c r="AN27" s="1"/>
-      <c r="AO27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ27" s="1"/>
       <c r="AR27" s="1"/>
       <c r="AS27" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT27" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU27" s="1"/>
       <c r="AV27" s="1"/>
-      <c r="AW27" s="1"/>
+      <c r="AW27" t="s">
+        <v>137</v>
+      </c>
       <c r="AX27" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY27" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
-      <c r="BB27" s="1"/>
+      <c r="BB27" t="s">
+        <v>137</v>
+      </c>
       <c r="BC27" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD27" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
-      <c r="BG27" s="1"/>
+      <c r="BG27" t="s">
+        <v>137</v>
+      </c>
       <c r="BH27" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI27" s="1"/>
-      <c r="BJ27" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ27" s="1"/>
       <c r="BK27" s="1"/>
       <c r="BL27" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM27" s="1"/>
       <c r="BN27" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO27" s="1"/>
       <c r="BP27" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ27" s="1"/>
       <c r="BR27" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS27" s="1"/>
       <c r="BT27" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU27" s="1"/>
       <c r="BV27" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW27" s="1"/>
       <c r="BX27" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY27" s="1"/>
       <c r="BZ27" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA27" s="1"/>
       <c r="CB27" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC27" s="1"/>
       <c r="CD27" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE27" s="1"/>
-      <c r="CF27" s="1"/>
+      <c r="CF27" t="s">
+        <v>137</v>
+      </c>
       <c r="CG27" s="1"/>
-      <c r="CH27" s="1"/>
+      <c r="CH27" t="s">
+        <v>137</v>
+      </c>
       <c r="CI27" s="1"/>
       <c r="CJ27" s="1"/>
       <c r="CK27" s="1"/>
@@ -9122,7 +9457,11 @@
       <c r="FO27" s="1"/>
       <c r="FP27" s="1"/>
       <c r="FQ27" s="1"/>
-      <c r="FR27" t="s">
+      <c r="FR27" s="1"/>
+      <c r="FS27" s="1"/>
+      <c r="FT27" s="1"/>
+      <c r="FU27" s="1"/>
+      <c r="FV27" t="s">
         <v>62</v>
       </c>
     </row>
@@ -9194,7 +9533,7 @@
         <v>82</v>
       </c>
       <c r="W28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X28" t="s">
         <v>76</v>
@@ -9230,107 +9569,115 @@
         <v>62</v>
       </c>
       <c r="AI28" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ28" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL28" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM28" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ28" s="1">
         <v>3</v>
       </c>
-      <c r="AN28" s="1"/>
-      <c r="AO28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
       <c r="AS28" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT28" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU28" s="1"/>
       <c r="AV28" s="1"/>
-      <c r="AW28" s="1"/>
+      <c r="AW28" t="s">
+        <v>137</v>
+      </c>
       <c r="AX28" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY28" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
-      <c r="BB28" s="1"/>
+      <c r="BB28" t="s">
+        <v>137</v>
+      </c>
       <c r="BC28" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD28" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
       <c r="BF28" s="1"/>
-      <c r="BG28" s="1"/>
+      <c r="BG28" t="s">
+        <v>137</v>
+      </c>
       <c r="BH28" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI28" s="1"/>
-      <c r="BJ28" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ28" s="1"/>
       <c r="BK28" s="1"/>
       <c r="BL28" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM28" s="1"/>
       <c r="BN28" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO28" s="1"/>
       <c r="BP28" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ28" s="1"/>
       <c r="BR28" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS28" s="1"/>
       <c r="BT28" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU28" s="1"/>
       <c r="BV28" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW28" s="1"/>
       <c r="BX28" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY28" s="1"/>
       <c r="BZ28" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA28" s="1"/>
       <c r="CB28" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC28" s="1"/>
       <c r="CD28" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE28" s="1"/>
-      <c r="CF28" s="1"/>
+      <c r="CF28" t="s">
+        <v>137</v>
+      </c>
       <c r="CG28" s="1"/>
-      <c r="CH28" s="1"/>
+      <c r="CH28" t="s">
+        <v>137</v>
+      </c>
       <c r="CI28" s="1"/>
       <c r="CJ28" s="1"/>
       <c r="CK28" s="1"/>
@@ -9418,8 +9765,12 @@
       <c r="FO28" s="1"/>
       <c r="FP28" s="1"/>
       <c r="FQ28" s="1"/>
-      <c r="FR28" t="s">
-        <v>264</v>
+      <c r="FR28" s="1"/>
+      <c r="FS28" s="1"/>
+      <c r="FT28" s="1"/>
+      <c r="FU28" s="1"/>
+      <c r="FV28" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="29">
@@ -9490,7 +9841,7 @@
         <v>82</v>
       </c>
       <c r="W29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X29" t="s">
         <v>76</v>
@@ -9526,107 +9877,115 @@
         <v>62</v>
       </c>
       <c r="AI29" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ29" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL29" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM29" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ29" s="1">
         <v>6</v>
       </c>
-      <c r="AN29" s="1"/>
-      <c r="AO29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
       <c r="AS29" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT29" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU29" s="1"/>
       <c r="AV29" s="1"/>
-      <c r="AW29" s="1"/>
+      <c r="AW29" t="s">
+        <v>137</v>
+      </c>
       <c r="AX29" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY29" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
-      <c r="BB29" s="1"/>
+      <c r="BB29" t="s">
+        <v>137</v>
+      </c>
       <c r="BC29" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD29" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
       <c r="BF29" s="1"/>
-      <c r="BG29" s="1"/>
+      <c r="BG29" t="s">
+        <v>137</v>
+      </c>
       <c r="BH29" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI29" s="1"/>
-      <c r="BJ29" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ29" s="1"/>
       <c r="BK29" s="1"/>
       <c r="BL29" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM29" s="1"/>
       <c r="BN29" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO29" s="1"/>
       <c r="BP29" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ29" s="1"/>
       <c r="BR29" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS29" s="1"/>
       <c r="BT29" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU29" s="1"/>
       <c r="BV29" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW29" s="1"/>
       <c r="BX29" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY29" s="1"/>
       <c r="BZ29" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA29" s="1"/>
       <c r="CB29" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC29" s="1"/>
       <c r="CD29" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE29" s="1"/>
-      <c r="CF29" s="1"/>
+      <c r="CF29" t="s">
+        <v>137</v>
+      </c>
       <c r="CG29" s="1"/>
-      <c r="CH29" s="1"/>
+      <c r="CH29" t="s">
+        <v>137</v>
+      </c>
       <c r="CI29" s="1"/>
       <c r="CJ29" s="1"/>
       <c r="CK29" s="1"/>
@@ -9714,8 +10073,12 @@
       <c r="FO29" s="1"/>
       <c r="FP29" s="1"/>
       <c r="FQ29" s="1"/>
-      <c r="FR29" t="s">
-        <v>264</v>
+      <c r="FR29" s="1"/>
+      <c r="FS29" s="1"/>
+      <c r="FT29" s="1"/>
+      <c r="FU29" s="1"/>
+      <c r="FV29" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="30">
@@ -9786,7 +10149,7 @@
         <v>82</v>
       </c>
       <c r="W30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X30" t="s">
         <v>76</v>
@@ -9822,107 +10185,115 @@
         <v>62</v>
       </c>
       <c r="AI30" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ30" t="s">
         <v>62</v>
       </c>
       <c r="AK30" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL30" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM30" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ30" s="1">
         <v>12</v>
       </c>
-      <c r="AN30" s="1"/>
-      <c r="AO30" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ30" s="1"/>
       <c r="AR30" s="1"/>
       <c r="AS30" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT30" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU30" s="1"/>
       <c r="AV30" s="1"/>
-      <c r="AW30" s="1"/>
+      <c r="AW30" t="s">
+        <v>137</v>
+      </c>
       <c r="AX30" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY30" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY30" s="1"/>
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1"/>
-      <c r="BB30" s="1"/>
+      <c r="BB30" t="s">
+        <v>137</v>
+      </c>
       <c r="BC30" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD30" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
       <c r="BF30" s="1"/>
-      <c r="BG30" s="1"/>
+      <c r="BG30" t="s">
+        <v>137</v>
+      </c>
       <c r="BH30" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI30" s="1"/>
-      <c r="BJ30" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ30" s="1"/>
       <c r="BK30" s="1"/>
       <c r="BL30" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM30" s="1"/>
       <c r="BN30" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO30" s="1"/>
       <c r="BP30" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ30" s="1"/>
       <c r="BR30" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS30" s="1"/>
       <c r="BT30" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU30" s="1"/>
       <c r="BV30" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW30" s="1"/>
       <c r="BX30" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY30" s="1"/>
       <c r="BZ30" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA30" s="1"/>
       <c r="CB30" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC30" s="1"/>
       <c r="CD30" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE30" s="1"/>
-      <c r="CF30" s="1"/>
+      <c r="CF30" t="s">
+        <v>137</v>
+      </c>
       <c r="CG30" s="1"/>
-      <c r="CH30" s="1"/>
+      <c r="CH30" t="s">
+        <v>137</v>
+      </c>
       <c r="CI30" s="1"/>
       <c r="CJ30" s="1"/>
       <c r="CK30" s="1"/>
@@ -10010,7 +10381,11 @@
       <c r="FO30" s="1"/>
       <c r="FP30" s="1"/>
       <c r="FQ30" s="1"/>
-      <c r="FR30" t="s">
+      <c r="FR30" s="1"/>
+      <c r="FS30" s="1"/>
+      <c r="FT30" s="1"/>
+      <c r="FU30" s="1"/>
+      <c r="FV30" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10082,7 +10457,7 @@
         <v>82</v>
       </c>
       <c r="W31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X31" t="s">
         <v>76</v>
@@ -10118,107 +10493,115 @@
         <v>62</v>
       </c>
       <c r="AI31" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ31" t="s">
         <v>62</v>
       </c>
       <c r="AK31" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL31" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM31" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ31" s="1">
         <v>15</v>
       </c>
-      <c r="AN31" s="1"/>
-      <c r="AO31" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ31" s="1"/>
       <c r="AR31" s="1"/>
       <c r="AS31" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT31" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU31" s="1"/>
       <c r="AV31" s="1"/>
-      <c r="AW31" s="1"/>
+      <c r="AW31" t="s">
+        <v>137</v>
+      </c>
       <c r="AX31" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY31" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1"/>
-      <c r="BB31" s="1"/>
+      <c r="BB31" t="s">
+        <v>137</v>
+      </c>
       <c r="BC31" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD31" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
       <c r="BF31" s="1"/>
-      <c r="BG31" s="1"/>
+      <c r="BG31" t="s">
+        <v>137</v>
+      </c>
       <c r="BH31" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI31" s="1"/>
-      <c r="BJ31" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
       <c r="BL31" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM31" s="1"/>
       <c r="BN31" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO31" s="1"/>
       <c r="BP31" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ31" s="1"/>
       <c r="BR31" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS31" s="1"/>
       <c r="BT31" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU31" s="1"/>
       <c r="BV31" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW31" s="1"/>
       <c r="BX31" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY31" s="1"/>
       <c r="BZ31" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA31" s="1"/>
       <c r="CB31" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC31" s="1"/>
       <c r="CD31" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE31" s="1"/>
-      <c r="CF31" s="1"/>
+      <c r="CF31" t="s">
+        <v>137</v>
+      </c>
       <c r="CG31" s="1"/>
-      <c r="CH31" s="1"/>
+      <c r="CH31" t="s">
+        <v>137</v>
+      </c>
       <c r="CI31" s="1"/>
       <c r="CJ31" s="1"/>
       <c r="CK31" s="1"/>
@@ -10306,8 +10689,12 @@
       <c r="FO31" s="1"/>
       <c r="FP31" s="1"/>
       <c r="FQ31" s="1"/>
-      <c r="FR31" t="s">
-        <v>265</v>
+      <c r="FR31" s="1"/>
+      <c r="FS31" s="1"/>
+      <c r="FT31" s="1"/>
+      <c r="FU31" s="1"/>
+      <c r="FV31" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="32">
@@ -10378,7 +10765,7 @@
         <v>82</v>
       </c>
       <c r="W32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X32" t="s">
         <v>76</v>
@@ -10414,107 +10801,115 @@
         <v>62</v>
       </c>
       <c r="AI32" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ32" t="s">
         <v>62</v>
       </c>
       <c r="AK32" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL32" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM32" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ32" s="1">
         <v>11</v>
       </c>
-      <c r="AN32" s="1"/>
-      <c r="AO32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
       <c r="AS32" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT32" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU32" s="1"/>
       <c r="AV32" s="1"/>
-      <c r="AW32" s="1"/>
+      <c r="AW32" t="s">
+        <v>137</v>
+      </c>
       <c r="AX32" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY32" s="1"/>
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1"/>
-      <c r="BB32" s="1"/>
+      <c r="BB32" t="s">
+        <v>137</v>
+      </c>
       <c r="BC32" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD32" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD32" s="1"/>
       <c r="BE32" s="1"/>
       <c r="BF32" s="1"/>
-      <c r="BG32" s="1"/>
+      <c r="BG32" t="s">
+        <v>137</v>
+      </c>
       <c r="BH32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI32" s="1"/>
-      <c r="BJ32" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ32" s="1"/>
       <c r="BK32" s="1"/>
       <c r="BL32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM32" s="1"/>
       <c r="BN32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO32" s="1"/>
       <c r="BP32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ32" s="1"/>
       <c r="BR32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS32" s="1"/>
       <c r="BT32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU32" s="1"/>
       <c r="BV32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW32" s="1"/>
       <c r="BX32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY32" s="1"/>
       <c r="BZ32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA32" s="1"/>
       <c r="CB32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC32" s="1"/>
       <c r="CD32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE32" s="1"/>
-      <c r="CF32" s="1"/>
+      <c r="CF32" t="s">
+        <v>137</v>
+      </c>
       <c r="CG32" s="1"/>
-      <c r="CH32" s="1"/>
+      <c r="CH32" t="s">
+        <v>137</v>
+      </c>
       <c r="CI32" s="1"/>
       <c r="CJ32" s="1"/>
       <c r="CK32" s="1"/>
@@ -10602,8 +10997,12 @@
       <c r="FO32" s="1"/>
       <c r="FP32" s="1"/>
       <c r="FQ32" s="1"/>
-      <c r="FR32" t="s">
-        <v>266</v>
+      <c r="FR32" s="1"/>
+      <c r="FS32" s="1"/>
+      <c r="FT32" s="1"/>
+      <c r="FU32" s="1"/>
+      <c r="FV32" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="33">
@@ -10674,7 +11073,7 @@
         <v>82</v>
       </c>
       <c r="W33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X33" t="s">
         <v>76</v>
@@ -10710,107 +11109,115 @@
         <v>62</v>
       </c>
       <c r="AI33" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ33" t="s">
         <v>62</v>
       </c>
       <c r="AK33" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL33" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM33" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ33" s="1">
         <v>15</v>
       </c>
-      <c r="AN33" s="1"/>
-      <c r="AO33" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
       <c r="AS33" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT33" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU33" s="1"/>
       <c r="AV33" s="1"/>
-      <c r="AW33" s="1"/>
+      <c r="AW33" t="s">
+        <v>137</v>
+      </c>
       <c r="AX33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY33" s="1"/>
       <c r="AZ33" s="1"/>
       <c r="BA33" s="1"/>
-      <c r="BB33" s="1"/>
+      <c r="BB33" t="s">
+        <v>137</v>
+      </c>
       <c r="BC33" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
       <c r="BF33" s="1"/>
-      <c r="BG33" s="1"/>
+      <c r="BG33" t="s">
+        <v>137</v>
+      </c>
       <c r="BH33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI33" s="1"/>
-      <c r="BJ33" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ33" s="1"/>
       <c r="BK33" s="1"/>
       <c r="BL33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM33" s="1"/>
       <c r="BN33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO33" s="1"/>
       <c r="BP33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ33" s="1"/>
       <c r="BR33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS33" s="1"/>
       <c r="BT33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU33" s="1"/>
       <c r="BV33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW33" s="1"/>
       <c r="BX33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY33" s="1"/>
       <c r="BZ33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA33" s="1"/>
       <c r="CB33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC33" s="1"/>
       <c r="CD33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE33" s="1"/>
-      <c r="CF33" s="1"/>
+      <c r="CF33" t="s">
+        <v>137</v>
+      </c>
       <c r="CG33" s="1"/>
-      <c r="CH33" s="1"/>
+      <c r="CH33" t="s">
+        <v>137</v>
+      </c>
       <c r="CI33" s="1"/>
       <c r="CJ33" s="1"/>
       <c r="CK33" s="1"/>
@@ -10898,8 +11305,12 @@
       <c r="FO33" s="1"/>
       <c r="FP33" s="1"/>
       <c r="FQ33" s="1"/>
-      <c r="FR33" t="s">
-        <v>265</v>
+      <c r="FR33" s="1"/>
+      <c r="FS33" s="1"/>
+      <c r="FT33" s="1"/>
+      <c r="FU33" s="1"/>
+      <c r="FV33" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="34">
@@ -11013,8 +11424,12 @@
       <c r="AL34" t="s">
         <v>62</v>
       </c>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="1"/>
+      <c r="AM34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>62</v>
+      </c>
       <c r="AO34" t="s">
         <v>62</v>
       </c>
@@ -11024,83 +11439,87 @@
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
       <c r="AS34" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT34" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU34" s="1"/>
       <c r="AV34" s="1"/>
-      <c r="AW34" s="1"/>
+      <c r="AW34" t="s">
+        <v>137</v>
+      </c>
       <c r="AX34" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY34" s="1"/>
       <c r="AZ34" s="1"/>
       <c r="BA34" s="1"/>
-      <c r="BB34" s="1"/>
+      <c r="BB34" t="s">
+        <v>137</v>
+      </c>
       <c r="BC34" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD34" s="1"/>
       <c r="BE34" s="1"/>
       <c r="BF34" s="1"/>
-      <c r="BG34" s="1"/>
+      <c r="BG34" t="s">
+        <v>137</v>
+      </c>
       <c r="BH34" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI34" s="1"/>
-      <c r="BJ34" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ34" s="1"/>
       <c r="BK34" s="1"/>
       <c r="BL34" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM34" s="1"/>
       <c r="BN34" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO34" s="1"/>
       <c r="BP34" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ34" s="1"/>
       <c r="BR34" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS34" s="1"/>
       <c r="BT34" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU34" s="1"/>
       <c r="BV34" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW34" s="1"/>
       <c r="BX34" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY34" s="1"/>
       <c r="BZ34" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA34" s="1"/>
       <c r="CB34" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC34" s="1"/>
       <c r="CD34" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE34" s="1"/>
-      <c r="CF34" s="1"/>
+      <c r="CF34" t="s">
+        <v>137</v>
+      </c>
       <c r="CG34" s="1"/>
-      <c r="CH34" s="1"/>
+      <c r="CH34" t="s">
+        <v>137</v>
+      </c>
       <c r="CI34" s="1"/>
       <c r="CJ34" s="1"/>
       <c r="CK34" s="1"/>
@@ -11188,7 +11607,11 @@
       <c r="FO34" s="1"/>
       <c r="FP34" s="1"/>
       <c r="FQ34" s="1"/>
-      <c r="FR34" t="s">
+      <c r="FR34" s="1"/>
+      <c r="FS34" s="1"/>
+      <c r="FT34" s="1"/>
+      <c r="FU34" s="1"/>
+      <c r="FV34" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11303,8 +11726,12 @@
       <c r="AL35" t="s">
         <v>62</v>
       </c>
-      <c r="AM35" s="1"/>
-      <c r="AN35" s="1"/>
+      <c r="AM35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>62</v>
+      </c>
       <c r="AO35" t="s">
         <v>62</v>
       </c>
@@ -11314,83 +11741,87 @@
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
       <c r="AS35" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT35" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
-      <c r="AW35" s="1"/>
+      <c r="AW35" t="s">
+        <v>137</v>
+      </c>
       <c r="AX35" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY35" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY35" s="1"/>
       <c r="AZ35" s="1"/>
       <c r="BA35" s="1"/>
-      <c r="BB35" s="1"/>
+      <c r="BB35" t="s">
+        <v>137</v>
+      </c>
       <c r="BC35" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD35" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
       <c r="BF35" s="1"/>
-      <c r="BG35" s="1"/>
+      <c r="BG35" t="s">
+        <v>137</v>
+      </c>
       <c r="BH35" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI35" s="1"/>
-      <c r="BJ35" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ35" s="1"/>
       <c r="BK35" s="1"/>
       <c r="BL35" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM35" s="1"/>
       <c r="BN35" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO35" s="1"/>
       <c r="BP35" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ35" s="1"/>
       <c r="BR35" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS35" s="1"/>
       <c r="BT35" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU35" s="1"/>
       <c r="BV35" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW35" s="1"/>
       <c r="BX35" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY35" s="1"/>
       <c r="BZ35" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA35" s="1"/>
       <c r="CB35" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC35" s="1"/>
       <c r="CD35" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE35" s="1"/>
-      <c r="CF35" s="1"/>
+      <c r="CF35" t="s">
+        <v>137</v>
+      </c>
       <c r="CG35" s="1"/>
-      <c r="CH35" s="1"/>
+      <c r="CH35" t="s">
+        <v>137</v>
+      </c>
       <c r="CI35" s="1"/>
       <c r="CJ35" s="1"/>
       <c r="CK35" s="1"/>
@@ -11478,7 +11909,11 @@
       <c r="FO35" s="1"/>
       <c r="FP35" s="1"/>
       <c r="FQ35" s="1"/>
-      <c r="FR35" t="s">
+      <c r="FR35" s="1"/>
+      <c r="FS35" s="1"/>
+      <c r="FT35" s="1"/>
+      <c r="FU35" s="1"/>
+      <c r="FV35" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11593,8 +12028,12 @@
       <c r="AL36" t="s">
         <v>62</v>
       </c>
-      <c r="AM36" s="1"/>
-      <c r="AN36" s="1"/>
+      <c r="AM36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>62</v>
+      </c>
       <c r="AO36" t="s">
         <v>62</v>
       </c>
@@ -11604,83 +12043,87 @@
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
       <c r="AS36" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT36" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
-      <c r="AW36" s="1"/>
+      <c r="AW36" t="s">
+        <v>137</v>
+      </c>
       <c r="AX36" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY36" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY36" s="1"/>
       <c r="AZ36" s="1"/>
       <c r="BA36" s="1"/>
-      <c r="BB36" s="1"/>
+      <c r="BB36" t="s">
+        <v>137</v>
+      </c>
       <c r="BC36" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD36" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD36" s="1"/>
       <c r="BE36" s="1"/>
       <c r="BF36" s="1"/>
-      <c r="BG36" s="1"/>
+      <c r="BG36" t="s">
+        <v>137</v>
+      </c>
       <c r="BH36" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI36" s="1"/>
-      <c r="BJ36" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ36" s="1"/>
       <c r="BK36" s="1"/>
       <c r="BL36" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM36" s="1"/>
       <c r="BN36" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO36" s="1"/>
       <c r="BP36" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ36" s="1"/>
       <c r="BR36" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS36" s="1"/>
       <c r="BT36" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU36" s="1"/>
       <c r="BV36" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW36" s="1"/>
       <c r="BX36" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY36" s="1"/>
       <c r="BZ36" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA36" s="1"/>
       <c r="CB36" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC36" s="1"/>
       <c r="CD36" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE36" s="1"/>
-      <c r="CF36" s="1"/>
+      <c r="CF36" t="s">
+        <v>137</v>
+      </c>
       <c r="CG36" s="1"/>
-      <c r="CH36" s="1"/>
+      <c r="CH36" t="s">
+        <v>137</v>
+      </c>
       <c r="CI36" s="1"/>
       <c r="CJ36" s="1"/>
       <c r="CK36" s="1"/>
@@ -11768,7 +12211,11 @@
       <c r="FO36" s="1"/>
       <c r="FP36" s="1"/>
       <c r="FQ36" s="1"/>
-      <c r="FR36" t="s">
+      <c r="FR36" s="1"/>
+      <c r="FS36" s="1"/>
+      <c r="FT36" s="1"/>
+      <c r="FU36" s="1"/>
+      <c r="FV36" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11883,8 +12330,12 @@
       <c r="AL37" t="s">
         <v>62</v>
       </c>
-      <c r="AM37" s="1"/>
-      <c r="AN37" s="1"/>
+      <c r="AM37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>62</v>
+      </c>
       <c r="AO37" t="s">
         <v>62</v>
       </c>
@@ -11894,83 +12345,87 @@
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
       <c r="AS37" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT37" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
-      <c r="AW37" s="1"/>
+      <c r="AW37" t="s">
+        <v>137</v>
+      </c>
       <c r="AX37" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY37" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY37" s="1"/>
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
-      <c r="BB37" s="1"/>
+      <c r="BB37" t="s">
+        <v>137</v>
+      </c>
       <c r="BC37" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD37" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD37" s="1"/>
       <c r="BE37" s="1"/>
       <c r="BF37" s="1"/>
-      <c r="BG37" s="1"/>
+      <c r="BG37" t="s">
+        <v>137</v>
+      </c>
       <c r="BH37" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI37" s="1"/>
-      <c r="BJ37" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ37" s="1"/>
       <c r="BK37" s="1"/>
       <c r="BL37" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM37" s="1"/>
       <c r="BN37" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO37" s="1"/>
       <c r="BP37" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ37" s="1"/>
       <c r="BR37" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS37" s="1"/>
       <c r="BT37" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU37" s="1"/>
       <c r="BV37" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW37" s="1"/>
       <c r="BX37" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY37" s="1"/>
       <c r="BZ37" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA37" s="1"/>
       <c r="CB37" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC37" s="1"/>
       <c r="CD37" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE37" s="1"/>
-      <c r="CF37" s="1"/>
+      <c r="CF37" t="s">
+        <v>137</v>
+      </c>
       <c r="CG37" s="1"/>
-      <c r="CH37" s="1"/>
+      <c r="CH37" t="s">
+        <v>137</v>
+      </c>
       <c r="CI37" s="1"/>
       <c r="CJ37" s="1"/>
       <c r="CK37" s="1"/>
@@ -12058,7 +12513,11 @@
       <c r="FO37" s="1"/>
       <c r="FP37" s="1"/>
       <c r="FQ37" s="1"/>
-      <c r="FR37" t="s">
+      <c r="FR37" s="1"/>
+      <c r="FS37" s="1"/>
+      <c r="FT37" s="1"/>
+      <c r="FU37" s="1"/>
+      <c r="FV37" t="s">
         <v>62</v>
       </c>
     </row>
@@ -12173,8 +12632,12 @@
       <c r="AL38" t="s">
         <v>62</v>
       </c>
-      <c r="AM38" s="1"/>
-      <c r="AN38" s="1"/>
+      <c r="AM38" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>62</v>
+      </c>
       <c r="AO38" t="s">
         <v>62</v>
       </c>
@@ -12184,83 +12647,87 @@
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
       <c r="AS38" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT38" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
-      <c r="AW38" s="1"/>
+      <c r="AW38" t="s">
+        <v>137</v>
+      </c>
       <c r="AX38" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY38" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY38" s="1"/>
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
-      <c r="BB38" s="1"/>
+      <c r="BB38" t="s">
+        <v>137</v>
+      </c>
       <c r="BC38" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD38" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD38" s="1"/>
       <c r="BE38" s="1"/>
       <c r="BF38" s="1"/>
-      <c r="BG38" s="1"/>
+      <c r="BG38" t="s">
+        <v>137</v>
+      </c>
       <c r="BH38" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI38" s="1"/>
-      <c r="BJ38" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ38" s="1"/>
       <c r="BK38" s="1"/>
       <c r="BL38" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM38" s="1"/>
       <c r="BN38" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO38" s="1"/>
       <c r="BP38" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ38" s="1"/>
       <c r="BR38" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS38" s="1"/>
       <c r="BT38" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU38" s="1"/>
       <c r="BV38" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW38" s="1"/>
       <c r="BX38" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY38" s="1"/>
       <c r="BZ38" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA38" s="1"/>
       <c r="CB38" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC38" s="1"/>
       <c r="CD38" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE38" s="1"/>
-      <c r="CF38" s="1"/>
+      <c r="CF38" t="s">
+        <v>137</v>
+      </c>
       <c r="CG38" s="1"/>
-      <c r="CH38" s="1"/>
+      <c r="CH38" t="s">
+        <v>137</v>
+      </c>
       <c r="CI38" s="1"/>
       <c r="CJ38" s="1"/>
       <c r="CK38" s="1"/>
@@ -12348,7 +12815,11 @@
       <c r="FO38" s="1"/>
       <c r="FP38" s="1"/>
       <c r="FQ38" s="1"/>
-      <c r="FR38" t="s">
+      <c r="FR38" s="1"/>
+      <c r="FS38" s="1"/>
+      <c r="FT38" s="1"/>
+      <c r="FU38" s="1"/>
+      <c r="FV38" t="s">
         <v>62</v>
       </c>
     </row>
@@ -12404,16 +12875,16 @@
         <v>82</v>
       </c>
       <c r="S39" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="T39" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="U39" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="V39" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="W39" t="s">
         <v>62</v>
@@ -12463,8 +12934,12 @@
       <c r="AL39" t="s">
         <v>62</v>
       </c>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
+      <c r="AM39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>62</v>
+      </c>
       <c r="AO39" t="s">
         <v>62</v>
       </c>
@@ -12474,83 +12949,87 @@
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
       <c r="AS39" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT39" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
-      <c r="AW39" s="1"/>
+      <c r="AW39" t="s">
+        <v>137</v>
+      </c>
       <c r="AX39" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY39" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY39" s="1"/>
       <c r="AZ39" s="1"/>
       <c r="BA39" s="1"/>
-      <c r="BB39" s="1"/>
+      <c r="BB39" t="s">
+        <v>137</v>
+      </c>
       <c r="BC39" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD39" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD39" s="1"/>
       <c r="BE39" s="1"/>
       <c r="BF39" s="1"/>
-      <c r="BG39" s="1"/>
+      <c r="BG39" t="s">
+        <v>137</v>
+      </c>
       <c r="BH39" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI39" s="1"/>
-      <c r="BJ39" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ39" s="1"/>
       <c r="BK39" s="1"/>
       <c r="BL39" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM39" s="1"/>
       <c r="BN39" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO39" s="1"/>
       <c r="BP39" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ39" s="1"/>
       <c r="BR39" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS39" s="1"/>
       <c r="BT39" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU39" s="1"/>
       <c r="BV39" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW39" s="1"/>
       <c r="BX39" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY39" s="1"/>
       <c r="BZ39" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA39" s="1"/>
       <c r="CB39" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC39" s="1"/>
       <c r="CD39" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE39" s="1"/>
-      <c r="CF39" s="1"/>
+      <c r="CF39" t="s">
+        <v>137</v>
+      </c>
       <c r="CG39" s="1"/>
-      <c r="CH39" s="1"/>
+      <c r="CH39" t="s">
+        <v>137</v>
+      </c>
       <c r="CI39" s="1"/>
       <c r="CJ39" s="1"/>
       <c r="CK39" s="1"/>
@@ -12638,7 +13117,11 @@
       <c r="FO39" s="1"/>
       <c r="FP39" s="1"/>
       <c r="FQ39" s="1"/>
-      <c r="FR39" t="s">
+      <c r="FR39" s="1"/>
+      <c r="FS39" s="1"/>
+      <c r="FT39" s="1"/>
+      <c r="FU39" s="1"/>
+      <c r="FV39" t="s">
         <v>62</v>
       </c>
     </row>
@@ -12694,16 +13177,16 @@
         <v>82</v>
       </c>
       <c r="S40" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="T40" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="U40" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="V40" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="W40" t="s">
         <v>62</v>
@@ -12753,8 +13236,12 @@
       <c r="AL40" t="s">
         <v>62</v>
       </c>
-      <c r="AM40" s="1"/>
-      <c r="AN40" s="1"/>
+      <c r="AM40" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>62</v>
+      </c>
       <c r="AO40" t="s">
         <v>62</v>
       </c>
@@ -12764,83 +13251,87 @@
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
       <c r="AS40" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT40" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
-      <c r="AW40" s="1"/>
+      <c r="AW40" t="s">
+        <v>137</v>
+      </c>
       <c r="AX40" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY40" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY40" s="1"/>
       <c r="AZ40" s="1"/>
       <c r="BA40" s="1"/>
-      <c r="BB40" s="1"/>
+      <c r="BB40" t="s">
+        <v>137</v>
+      </c>
       <c r="BC40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD40" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD40" s="1"/>
       <c r="BE40" s="1"/>
       <c r="BF40" s="1"/>
-      <c r="BG40" s="1"/>
+      <c r="BG40" t="s">
+        <v>137</v>
+      </c>
       <c r="BH40" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI40" s="1"/>
-      <c r="BJ40" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ40" s="1"/>
       <c r="BK40" s="1"/>
       <c r="BL40" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM40" s="1"/>
       <c r="BN40" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO40" s="1"/>
       <c r="BP40" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ40" s="1"/>
       <c r="BR40" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS40" s="1"/>
       <c r="BT40" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU40" s="1"/>
       <c r="BV40" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW40" s="1"/>
       <c r="BX40" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY40" s="1"/>
       <c r="BZ40" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA40" s="1"/>
       <c r="CB40" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC40" s="1"/>
       <c r="CD40" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE40" s="1"/>
-      <c r="CF40" s="1"/>
+      <c r="CF40" t="s">
+        <v>137</v>
+      </c>
       <c r="CG40" s="1"/>
-      <c r="CH40" s="1"/>
+      <c r="CH40" t="s">
+        <v>137</v>
+      </c>
       <c r="CI40" s="1"/>
       <c r="CJ40" s="1"/>
       <c r="CK40" s="1"/>
@@ -12928,7 +13419,11 @@
       <c r="FO40" s="1"/>
       <c r="FP40" s="1"/>
       <c r="FQ40" s="1"/>
-      <c r="FR40" t="s">
+      <c r="FR40" s="1"/>
+      <c r="FS40" s="1"/>
+      <c r="FT40" s="1"/>
+      <c r="FU40" s="1"/>
+      <c r="FV40" t="s">
         <v>62</v>
       </c>
     </row>
@@ -12984,16 +13479,16 @@
         <v>82</v>
       </c>
       <c r="S41" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="T41" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="U41" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="V41" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="W41" t="s">
         <v>62</v>
@@ -13043,8 +13538,12 @@
       <c r="AL41" t="s">
         <v>62</v>
       </c>
-      <c r="AM41" s="1"/>
-      <c r="AN41" s="1"/>
+      <c r="AM41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>62</v>
+      </c>
       <c r="AO41" t="s">
         <v>62</v>
       </c>
@@ -13054,83 +13553,87 @@
       <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
       <c r="AS41" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT41" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
-      <c r="AW41" s="1"/>
+      <c r="AW41" t="s">
+        <v>137</v>
+      </c>
       <c r="AX41" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY41" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY41" s="1"/>
       <c r="AZ41" s="1"/>
       <c r="BA41" s="1"/>
-      <c r="BB41" s="1"/>
+      <c r="BB41" t="s">
+        <v>137</v>
+      </c>
       <c r="BC41" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD41" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD41" s="1"/>
       <c r="BE41" s="1"/>
       <c r="BF41" s="1"/>
-      <c r="BG41" s="1"/>
+      <c r="BG41" t="s">
+        <v>137</v>
+      </c>
       <c r="BH41" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI41" s="1"/>
-      <c r="BJ41" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ41" s="1"/>
       <c r="BK41" s="1"/>
       <c r="BL41" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM41" s="1"/>
       <c r="BN41" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO41" s="1"/>
       <c r="BP41" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ41" s="1"/>
       <c r="BR41" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS41" s="1"/>
       <c r="BT41" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU41" s="1"/>
       <c r="BV41" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW41" s="1"/>
       <c r="BX41" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY41" s="1"/>
       <c r="BZ41" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA41" s="1"/>
       <c r="CB41" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC41" s="1"/>
       <c r="CD41" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE41" s="1"/>
-      <c r="CF41" s="1"/>
+      <c r="CF41" t="s">
+        <v>137</v>
+      </c>
       <c r="CG41" s="1"/>
-      <c r="CH41" s="1"/>
+      <c r="CH41" t="s">
+        <v>137</v>
+      </c>
       <c r="CI41" s="1"/>
       <c r="CJ41" s="1"/>
       <c r="CK41" s="1"/>
@@ -13218,7 +13721,11 @@
       <c r="FO41" s="1"/>
       <c r="FP41" s="1"/>
       <c r="FQ41" s="1"/>
-      <c r="FR41" t="s">
+      <c r="FR41" s="1"/>
+      <c r="FS41" s="1"/>
+      <c r="FT41" s="1"/>
+      <c r="FU41" s="1"/>
+      <c r="FV41" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13274,16 +13781,16 @@
         <v>82</v>
       </c>
       <c r="S42" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="T42" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="U42" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="V42" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="W42" t="s">
         <v>62</v>
@@ -13333,8 +13840,12 @@
       <c r="AL42" t="s">
         <v>62</v>
       </c>
-      <c r="AM42" s="1"/>
-      <c r="AN42" s="1"/>
+      <c r="AM42" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>62</v>
+      </c>
       <c r="AO42" t="s">
         <v>62</v>
       </c>
@@ -13344,83 +13855,87 @@
       <c r="AQ42" s="1"/>
       <c r="AR42" s="1"/>
       <c r="AS42" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT42" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
-      <c r="AW42" s="1"/>
+      <c r="AW42" t="s">
+        <v>137</v>
+      </c>
       <c r="AX42" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY42" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY42" s="1"/>
       <c r="AZ42" s="1"/>
       <c r="BA42" s="1"/>
-      <c r="BB42" s="1"/>
+      <c r="BB42" t="s">
+        <v>137</v>
+      </c>
       <c r="BC42" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD42" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD42" s="1"/>
       <c r="BE42" s="1"/>
       <c r="BF42" s="1"/>
-      <c r="BG42" s="1"/>
+      <c r="BG42" t="s">
+        <v>137</v>
+      </c>
       <c r="BH42" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI42" s="1"/>
-      <c r="BJ42" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ42" s="1"/>
       <c r="BK42" s="1"/>
       <c r="BL42" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM42" s="1"/>
       <c r="BN42" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO42" s="1"/>
       <c r="BP42" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ42" s="1"/>
       <c r="BR42" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS42" s="1"/>
       <c r="BT42" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU42" s="1"/>
       <c r="BV42" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW42" s="1"/>
       <c r="BX42" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY42" s="1"/>
       <c r="BZ42" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA42" s="1"/>
       <c r="CB42" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC42" s="1"/>
       <c r="CD42" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE42" s="1"/>
-      <c r="CF42" s="1"/>
+      <c r="CF42" t="s">
+        <v>137</v>
+      </c>
       <c r="CG42" s="1"/>
-      <c r="CH42" s="1"/>
+      <c r="CH42" t="s">
+        <v>137</v>
+      </c>
       <c r="CI42" s="1"/>
       <c r="CJ42" s="1"/>
       <c r="CK42" s="1"/>
@@ -13508,7 +14023,11 @@
       <c r="FO42" s="1"/>
       <c r="FP42" s="1"/>
       <c r="FQ42" s="1"/>
-      <c r="FR42" t="s">
+      <c r="FR42" s="1"/>
+      <c r="FS42" s="1"/>
+      <c r="FT42" s="1"/>
+      <c r="FU42" s="1"/>
+      <c r="FV42" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13564,16 +14083,16 @@
         <v>82</v>
       </c>
       <c r="S43" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="T43" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="U43" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="V43" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="W43" t="s">
         <v>62</v>
@@ -13623,8 +14142,12 @@
       <c r="AL43" t="s">
         <v>62</v>
       </c>
-      <c r="AM43" s="1"/>
-      <c r="AN43" s="1"/>
+      <c r="AM43" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>62</v>
+      </c>
       <c r="AO43" t="s">
         <v>62</v>
       </c>
@@ -13634,83 +14157,87 @@
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1"/>
       <c r="AS43" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT43" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
-      <c r="AW43" s="1"/>
+      <c r="AW43" t="s">
+        <v>137</v>
+      </c>
       <c r="AX43" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY43" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY43" s="1"/>
       <c r="AZ43" s="1"/>
       <c r="BA43" s="1"/>
-      <c r="BB43" s="1"/>
+      <c r="BB43" t="s">
+        <v>137</v>
+      </c>
       <c r="BC43" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD43" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD43" s="1"/>
       <c r="BE43" s="1"/>
       <c r="BF43" s="1"/>
-      <c r="BG43" s="1"/>
+      <c r="BG43" t="s">
+        <v>137</v>
+      </c>
       <c r="BH43" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI43" s="1"/>
-      <c r="BJ43" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ43" s="1"/>
       <c r="BK43" s="1"/>
       <c r="BL43" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM43" s="1"/>
       <c r="BN43" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO43" s="1"/>
       <c r="BP43" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ43" s="1"/>
       <c r="BR43" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS43" s="1"/>
       <c r="BT43" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU43" s="1"/>
       <c r="BV43" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW43" s="1"/>
       <c r="BX43" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY43" s="1"/>
       <c r="BZ43" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA43" s="1"/>
       <c r="CB43" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC43" s="1"/>
       <c r="CD43" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE43" s="1"/>
-      <c r="CF43" s="1"/>
+      <c r="CF43" t="s">
+        <v>137</v>
+      </c>
       <c r="CG43" s="1"/>
-      <c r="CH43" s="1"/>
+      <c r="CH43" t="s">
+        <v>137</v>
+      </c>
       <c r="CI43" s="1"/>
       <c r="CJ43" s="1"/>
       <c r="CK43" s="1"/>
@@ -13798,7 +14325,11 @@
       <c r="FO43" s="1"/>
       <c r="FP43" s="1"/>
       <c r="FQ43" s="1"/>
-      <c r="FR43" t="s">
+      <c r="FR43" s="1"/>
+      <c r="FS43" s="1"/>
+      <c r="FT43" s="1"/>
+      <c r="FU43" s="1"/>
+      <c r="FV43" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13905,8 +14436,12 @@
       <c r="AL44" t="s">
         <v>62</v>
       </c>
-      <c r="AM44" s="1"/>
-      <c r="AN44" s="1"/>
+      <c r="AM44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>62</v>
+      </c>
       <c r="AO44" t="s">
         <v>62</v>
       </c>
@@ -13916,83 +14451,87 @@
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
       <c r="AS44" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT44" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
-      <c r="AW44" s="1"/>
+      <c r="AW44" t="s">
+        <v>137</v>
+      </c>
       <c r="AX44" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY44" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY44" s="1"/>
       <c r="AZ44" s="1"/>
       <c r="BA44" s="1"/>
-      <c r="BB44" s="1"/>
+      <c r="BB44" t="s">
+        <v>137</v>
+      </c>
       <c r="BC44" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD44" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD44" s="1"/>
       <c r="BE44" s="1"/>
       <c r="BF44" s="1"/>
-      <c r="BG44" s="1"/>
+      <c r="BG44" t="s">
+        <v>137</v>
+      </c>
       <c r="BH44" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI44" s="1"/>
-      <c r="BJ44" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ44" s="1"/>
       <c r="BK44" s="1"/>
       <c r="BL44" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM44" s="1"/>
       <c r="BN44" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO44" s="1"/>
       <c r="BP44" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ44" s="1"/>
       <c r="BR44" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS44" s="1"/>
       <c r="BT44" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU44" s="1"/>
       <c r="BV44" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW44" s="1"/>
       <c r="BX44" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY44" s="1"/>
       <c r="BZ44" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA44" s="1"/>
       <c r="CB44" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC44" s="1"/>
       <c r="CD44" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE44" s="1"/>
-      <c r="CF44" s="1"/>
+      <c r="CF44" t="s">
+        <v>137</v>
+      </c>
       <c r="CG44" s="1"/>
-      <c r="CH44" s="1"/>
+      <c r="CH44" t="s">
+        <v>137</v>
+      </c>
       <c r="CI44" s="1"/>
       <c r="CJ44" s="1"/>
       <c r="CK44" s="1"/>
@@ -14080,8 +14619,12 @@
       <c r="FO44" s="1"/>
       <c r="FP44" s="1"/>
       <c r="FQ44" s="1"/>
-      <c r="FR44" t="s">
-        <v>267</v>
+      <c r="FR44" s="1"/>
+      <c r="FS44" s="1"/>
+      <c r="FT44" s="1"/>
+      <c r="FU44" s="1"/>
+      <c r="FV44" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="45">
@@ -14187,8 +14730,12 @@
       <c r="AL45" t="s">
         <v>62</v>
       </c>
-      <c r="AM45" s="1"/>
-      <c r="AN45" s="1"/>
+      <c r="AM45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>62</v>
+      </c>
       <c r="AO45" t="s">
         <v>62</v>
       </c>
@@ -14198,83 +14745,87 @@
       <c r="AQ45" s="1"/>
       <c r="AR45" s="1"/>
       <c r="AS45" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT45" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
-      <c r="AW45" s="1"/>
+      <c r="AW45" t="s">
+        <v>137</v>
+      </c>
       <c r="AX45" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY45" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY45" s="1"/>
       <c r="AZ45" s="1"/>
       <c r="BA45" s="1"/>
-      <c r="BB45" s="1"/>
+      <c r="BB45" t="s">
+        <v>137</v>
+      </c>
       <c r="BC45" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD45" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD45" s="1"/>
       <c r="BE45" s="1"/>
       <c r="BF45" s="1"/>
-      <c r="BG45" s="1"/>
+      <c r="BG45" t="s">
+        <v>137</v>
+      </c>
       <c r="BH45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI45" s="1"/>
-      <c r="BJ45" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ45" s="1"/>
       <c r="BK45" s="1"/>
       <c r="BL45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM45" s="1"/>
       <c r="BN45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO45" s="1"/>
       <c r="BP45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ45" s="1"/>
       <c r="BR45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS45" s="1"/>
       <c r="BT45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU45" s="1"/>
       <c r="BV45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW45" s="1"/>
       <c r="BX45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY45" s="1"/>
       <c r="BZ45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA45" s="1"/>
       <c r="CB45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC45" s="1"/>
       <c r="CD45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE45" s="1"/>
-      <c r="CF45" s="1"/>
+      <c r="CF45" t="s">
+        <v>137</v>
+      </c>
       <c r="CG45" s="1"/>
-      <c r="CH45" s="1"/>
+      <c r="CH45" t="s">
+        <v>137</v>
+      </c>
       <c r="CI45" s="1"/>
       <c r="CJ45" s="1"/>
       <c r="CK45" s="1"/>
@@ -14362,8 +14913,12 @@
       <c r="FO45" s="1"/>
       <c r="FP45" s="1"/>
       <c r="FQ45" s="1"/>
-      <c r="FR45" t="s">
-        <v>267</v>
+      <c r="FR45" s="1"/>
+      <c r="FS45" s="1"/>
+      <c r="FT45" s="1"/>
+      <c r="FU45" s="1"/>
+      <c r="FV45" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="46">
@@ -14469,8 +15024,12 @@
       <c r="AL46" t="s">
         <v>62</v>
       </c>
-      <c r="AM46" s="1"/>
-      <c r="AN46" s="1"/>
+      <c r="AM46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>62</v>
+      </c>
       <c r="AO46" t="s">
         <v>62</v>
       </c>
@@ -14480,83 +15039,87 @@
       <c r="AQ46" s="1"/>
       <c r="AR46" s="1"/>
       <c r="AS46" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AT46" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
-      <c r="AW46" s="1"/>
+      <c r="AW46" t="s">
+        <v>137</v>
+      </c>
       <c r="AX46" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY46" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AY46" s="1"/>
       <c r="AZ46" s="1"/>
       <c r="BA46" s="1"/>
-      <c r="BB46" s="1"/>
+      <c r="BB46" t="s">
+        <v>137</v>
+      </c>
       <c r="BC46" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD46" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BD46" s="1"/>
       <c r="BE46" s="1"/>
       <c r="BF46" s="1"/>
-      <c r="BG46" s="1"/>
+      <c r="BG46" t="s">
+        <v>137</v>
+      </c>
       <c r="BH46" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI46" s="1"/>
-      <c r="BJ46" t="s">
-        <v>132</v>
-      </c>
+      <c r="BJ46" s="1"/>
       <c r="BK46" s="1"/>
       <c r="BL46" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BM46" s="1"/>
       <c r="BN46" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BO46" s="1"/>
       <c r="BP46" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BQ46" s="1"/>
       <c r="BR46" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BS46" s="1"/>
       <c r="BT46" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BU46" s="1"/>
       <c r="BV46" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW46" s="1"/>
       <c r="BX46" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BY46" s="1"/>
       <c r="BZ46" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CA46" s="1"/>
       <c r="CB46" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CC46" s="1"/>
       <c r="CD46" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CE46" s="1"/>
-      <c r="CF46" s="1"/>
+      <c r="CF46" t="s">
+        <v>137</v>
+      </c>
       <c r="CG46" s="1"/>
-      <c r="CH46" s="1"/>
+      <c r="CH46" t="s">
+        <v>137</v>
+      </c>
       <c r="CI46" s="1"/>
       <c r="CJ46" s="1"/>
       <c r="CK46" s="1"/>
@@ -14644,7 +15207,11 @@
       <c r="FO46" s="1"/>
       <c r="FP46" s="1"/>
       <c r="FQ46" s="1"/>
-      <c r="FR46" t="s">
+      <c r="FR46" s="1"/>
+      <c r="FS46" s="1"/>
+      <c r="FT46" s="1"/>
+      <c r="FU46" s="1"/>
+      <c r="FV46" t="s">
         <v>62</v>
       </c>
     </row>

--- a/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
+++ b/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="5580" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="5876" uniqueCount="352">
   <si>
     <t>crop</t>
   </si>
@@ -549,6 +549,9 @@
     <t>1-3-1</t>
   </si>
   <si>
+    <t>0-0-17</t>
+  </si>
+  <si>
     <t>fert_type_name_2</t>
   </si>
   <si>
@@ -558,6 +561,9 @@
     <t>Espoma- Organic Tomato! (liquid)</t>
   </si>
   <si>
+    <t>MaxiCrop Soluble Seaweed</t>
+  </si>
+  <si>
     <t>fert_date_2</t>
   </si>
   <si>
@@ -570,12 +576,18 @@
     <t>09jul2024</t>
   </si>
   <si>
+    <t>2024-07-28</t>
+  </si>
+  <si>
     <t>fert_amnt_per_2</t>
   </si>
   <si>
     <t>fert_unit_2</t>
   </si>
   <si>
+    <t>gallon</t>
+  </si>
+  <si>
     <t>fert_type_npk_3</t>
   </si>
   <si>
@@ -720,6 +732,9 @@
     <t>2024-06-15</t>
   </si>
   <si>
+    <t>2024-07-27</t>
+  </si>
+  <si>
     <t>2024-06-29</t>
   </si>
   <si>
@@ -747,6 +762,9 @@
     <t>2024-06-22</t>
   </si>
   <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
     <t>harvest_amnt_2</t>
   </si>
   <si>
@@ -772,9 +790,6 @@
   </si>
   <si>
     <t>harvest_date_5</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
   </si>
   <si>
     <t>harvest_amnt_5</t>
@@ -1271,376 +1286,376 @@
         <v>175</v>
       </c>
       <c r="BC1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BD1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BE1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BF1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BG1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="BH1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="BI1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="BJ1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="BK1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="BL1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="BM1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="BN1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="BO1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="BP1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="BQ1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BR1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="BS1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="BT1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="BU1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="BV1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="BW1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="BX1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="BY1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="BZ1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="CA1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="CB1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="CC1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="CD1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="CE1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="CF1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="CG1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="CH1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="CI1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="CJ1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="CK1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="CL1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="CM1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="CN1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="CO1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="CP1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="CQ1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="CR1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="CS1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="CT1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="CU1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="CV1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="CW1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CX1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="CY1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="CZ1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="DA1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="DB1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="DC1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="DD1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="DE1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="DF1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="DG1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="DH1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="DI1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="DJ1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="DK1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="DL1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="DM1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="DN1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="DO1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="DP1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="DQ1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="DR1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="DS1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="DT1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="DU1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="DV1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="DW1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="DX1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="DY1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="DZ1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="EA1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="EB1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="EC1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="ED1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="EE1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="EF1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="EG1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="EH1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="EI1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="EJ1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="EK1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="EL1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="EM1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="EN1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="EO1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="EP1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="EQ1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="ER1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="ES1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="ET1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="EU1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="EV1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="EW1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="EX1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="EY1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="EZ1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="FA1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="FB1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="FC1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="FD1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="FE1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="FF1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="FG1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="FH1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="FI1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="FJ1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="FK1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="FL1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="FM1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="FN1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="FO1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="FP1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="FQ1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="FR1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="FS1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="FT1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="FU1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="FV1" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2">
@@ -1822,11 +1837,11 @@
       </c>
       <c r="BO2" s="2"/>
       <c r="BP2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ2" s="1"/>
       <c r="BR2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS2" s="1"/>
       <c r="BT2" t="s">
@@ -1840,27 +1855,27 @@
       </c>
       <c r="BW2" s="2"/>
       <c r="BX2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY2" s="1"/>
       <c r="BZ2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA2" s="1"/>
       <c r="CB2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC2" s="1"/>
       <c r="CD2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE2" s="1"/>
       <c r="CF2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG2" s="1"/>
       <c r="CH2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI2" s="1"/>
       <c r="CJ2" t="s">
@@ -1870,7 +1885,7 @@
         <v>2</v>
       </c>
       <c r="CL2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CM2" t="s">
         <v>63</v>
@@ -1879,7 +1894,7 @@
         <v>29</v>
       </c>
       <c r="CO2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CP2" t="s">
         <v>77</v>
@@ -1902,12 +1917,20 @@
       <c r="CX2" t="s">
         <v>77</v>
       </c>
-      <c r="CY2" s="1"/>
+      <c r="CY2" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ2" s="1"/>
-      <c r="DA2" s="1"/>
-      <c r="DB2" s="1"/>
+      <c r="DA2" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>77</v>
+      </c>
       <c r="DC2" s="1"/>
-      <c r="DD2" s="1"/>
+      <c r="DD2" t="s">
+        <v>77</v>
+      </c>
       <c r="DE2" s="1"/>
       <c r="DF2" s="1"/>
       <c r="DG2" s="1"/>
@@ -2146,7 +2169,7 @@
         <v>94</v>
       </c>
       <c r="BD3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="BE3" s="1">
         <v>1</v>
@@ -2176,11 +2199,11 @@
       </c>
       <c r="BO3" s="2"/>
       <c r="BP3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ3" s="1"/>
       <c r="BR3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS3" s="1"/>
       <c r="BT3" t="s">
@@ -2194,27 +2217,27 @@
       </c>
       <c r="BW3" s="2"/>
       <c r="BX3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY3" s="1"/>
       <c r="BZ3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA3" s="1"/>
       <c r="CB3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC3" s="1"/>
       <c r="CD3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE3" s="1"/>
       <c r="CF3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG3" s="1"/>
       <c r="CH3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI3" s="1"/>
       <c r="CJ3" t="s">
@@ -2252,12 +2275,20 @@
       <c r="CX3" t="s">
         <v>77</v>
       </c>
-      <c r="CY3" s="1"/>
+      <c r="CY3" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ3" s="1"/>
-      <c r="DA3" s="1"/>
-      <c r="DB3" s="1"/>
+      <c r="DA3" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>77</v>
+      </c>
       <c r="DC3" s="1"/>
-      <c r="DD3" s="1"/>
+      <c r="DD3" t="s">
+        <v>77</v>
+      </c>
       <c r="DE3" s="1"/>
       <c r="DF3" s="1"/>
       <c r="DG3" s="1"/>
@@ -2518,11 +2549,11 @@
       </c>
       <c r="BO4" s="2"/>
       <c r="BP4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ4" s="1"/>
       <c r="BR4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS4" s="1"/>
       <c r="BT4" t="s">
@@ -2536,27 +2567,27 @@
       </c>
       <c r="BW4" s="2"/>
       <c r="BX4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY4" s="1"/>
       <c r="BZ4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA4" s="1"/>
       <c r="CB4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC4" s="1"/>
       <c r="CD4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE4" s="1"/>
       <c r="CF4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG4" s="1"/>
       <c r="CH4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI4" s="1"/>
       <c r="CJ4" t="s">
@@ -2594,12 +2625,20 @@
       <c r="CX4" t="s">
         <v>77</v>
       </c>
-      <c r="CY4" s="1"/>
+      <c r="CY4" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ4" s="1"/>
-      <c r="DA4" s="1"/>
-      <c r="DB4" s="1"/>
+      <c r="DA4" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>77</v>
+      </c>
       <c r="DC4" s="1"/>
-      <c r="DD4" s="1"/>
+      <c r="DD4" t="s">
+        <v>77</v>
+      </c>
       <c r="DE4" s="1"/>
       <c r="DF4" s="1"/>
       <c r="DG4" s="1"/>
@@ -2866,11 +2905,11 @@
       </c>
       <c r="BO5" s="2"/>
       <c r="BP5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ5" s="1"/>
       <c r="BR5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS5" s="1"/>
       <c r="BT5" t="s">
@@ -2884,27 +2923,27 @@
       </c>
       <c r="BW5" s="2"/>
       <c r="BX5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY5" s="1"/>
       <c r="BZ5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA5" s="1"/>
       <c r="CB5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC5" s="1"/>
       <c r="CD5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE5" s="1"/>
       <c r="CF5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG5" s="1"/>
       <c r="CH5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI5" s="1"/>
       <c r="CJ5" t="s">
@@ -2942,12 +2981,20 @@
       <c r="CX5" t="s">
         <v>77</v>
       </c>
-      <c r="CY5" s="1"/>
+      <c r="CY5" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ5" s="1"/>
-      <c r="DA5" s="1"/>
-      <c r="DB5" s="1"/>
+      <c r="DA5" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>77</v>
+      </c>
       <c r="DC5" s="1"/>
-      <c r="DD5" s="1"/>
+      <c r="DD5" t="s">
+        <v>77</v>
+      </c>
       <c r="DE5" s="1"/>
       <c r="DF5" s="1"/>
       <c r="DG5" s="1"/>
@@ -3214,11 +3261,11 @@
       </c>
       <c r="BO6" s="2"/>
       <c r="BP6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ6" s="1"/>
       <c r="BR6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS6" s="1"/>
       <c r="BT6" t="s">
@@ -3232,27 +3279,27 @@
       </c>
       <c r="BW6" s="2"/>
       <c r="BX6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY6" s="1"/>
       <c r="BZ6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA6" s="1"/>
       <c r="CB6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC6" s="1"/>
       <c r="CD6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE6" s="1"/>
       <c r="CF6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG6" s="1"/>
       <c r="CH6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI6" s="1"/>
       <c r="CJ6" t="s">
@@ -3290,12 +3337,20 @@
       <c r="CX6" t="s">
         <v>77</v>
       </c>
-      <c r="CY6" s="1"/>
+      <c r="CY6" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ6" s="1"/>
-      <c r="DA6" s="1"/>
-      <c r="DB6" s="1"/>
+      <c r="DA6" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>77</v>
+      </c>
       <c r="DC6" s="1"/>
-      <c r="DD6" s="1"/>
+      <c r="DD6" t="s">
+        <v>77</v>
+      </c>
       <c r="DE6" s="1"/>
       <c r="DF6" s="1"/>
       <c r="DG6" s="1"/>
@@ -3562,11 +3617,11 @@
       </c>
       <c r="BO7" s="2"/>
       <c r="BP7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ7" s="1"/>
       <c r="BR7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS7" s="1"/>
       <c r="BT7" t="s">
@@ -3580,27 +3635,27 @@
       </c>
       <c r="BW7" s="2"/>
       <c r="BX7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY7" s="1"/>
       <c r="BZ7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA7" s="1"/>
       <c r="CB7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC7" s="1"/>
       <c r="CD7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE7" s="1"/>
       <c r="CF7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG7" s="1"/>
       <c r="CH7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI7" s="1"/>
       <c r="CJ7" t="s">
@@ -3638,12 +3693,20 @@
       <c r="CX7" t="s">
         <v>77</v>
       </c>
-      <c r="CY7" s="1"/>
+      <c r="CY7" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ7" s="1"/>
-      <c r="DA7" s="1"/>
-      <c r="DB7" s="1"/>
+      <c r="DA7" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>77</v>
+      </c>
       <c r="DC7" s="1"/>
-      <c r="DD7" s="1"/>
+      <c r="DD7" t="s">
+        <v>77</v>
+      </c>
       <c r="DE7" s="1"/>
       <c r="DF7" s="1"/>
       <c r="DG7" s="1"/>
@@ -3910,11 +3973,11 @@
       </c>
       <c r="BO8" s="2"/>
       <c r="BP8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ8" s="1"/>
       <c r="BR8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS8" s="1"/>
       <c r="BT8" t="s">
@@ -3928,27 +3991,27 @@
       </c>
       <c r="BW8" s="2"/>
       <c r="BX8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY8" s="1"/>
       <c r="BZ8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA8" s="1"/>
       <c r="CB8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC8" s="1"/>
       <c r="CD8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE8" s="1"/>
       <c r="CF8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG8" s="1"/>
       <c r="CH8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI8" s="1"/>
       <c r="CJ8" t="s">
@@ -3986,12 +4049,20 @@
       <c r="CX8" t="s">
         <v>77</v>
       </c>
-      <c r="CY8" s="1"/>
+      <c r="CY8" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ8" s="1"/>
-      <c r="DA8" s="1"/>
-      <c r="DB8" s="1"/>
+      <c r="DA8" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>77</v>
+      </c>
       <c r="DC8" s="1"/>
-      <c r="DD8" s="1"/>
+      <c r="DD8" t="s">
+        <v>77</v>
+      </c>
       <c r="DE8" s="1"/>
       <c r="DF8" s="1"/>
       <c r="DG8" s="1"/>
@@ -4250,55 +4321,55 @@
         <v>77</v>
       </c>
       <c r="BL9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="BM9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="BN9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="BO9" s="2"/>
       <c r="BP9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ9" s="1"/>
       <c r="BR9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS9" s="1"/>
       <c r="BT9" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="BU9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="BV9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="BW9" s="2"/>
       <c r="BX9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY9" s="1"/>
       <c r="BZ9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA9" s="1"/>
       <c r="CB9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC9" s="1"/>
       <c r="CD9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE9" s="1"/>
       <c r="CF9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG9" s="1"/>
       <c r="CH9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI9" s="1"/>
       <c r="CJ9" t="s">
@@ -4308,14 +4379,16 @@
         <v>5</v>
       </c>
       <c r="CL9" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CM9" t="s">
-        <v>77</v>
-      </c>
-      <c r="CN9" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="CN9" s="1">
+        <v>5</v>
+      </c>
       <c r="CO9" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="CP9" t="s">
         <v>77</v>
@@ -4338,12 +4411,20 @@
       <c r="CX9" t="s">
         <v>77</v>
       </c>
-      <c r="CY9" s="1"/>
+      <c r="CY9" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ9" s="1"/>
-      <c r="DA9" s="1"/>
-      <c r="DB9" s="1"/>
+      <c r="DA9" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB9" t="s">
+        <v>77</v>
+      </c>
       <c r="DC9" s="1"/>
-      <c r="DD9" s="1"/>
+      <c r="DD9" t="s">
+        <v>77</v>
+      </c>
       <c r="DE9" s="1"/>
       <c r="DF9" s="1"/>
       <c r="DG9" s="1"/>
@@ -4414,7 +4495,7 @@
       <c r="FT9" s="1"/>
       <c r="FU9" s="1"/>
       <c r="FV9" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10">
@@ -4581,10 +4662,10 @@
         <v>176</v>
       </c>
       <c r="BC10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BD10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BE10" s="1">
         <v>3</v>
@@ -4614,11 +4695,11 @@
       </c>
       <c r="BO10" s="2"/>
       <c r="BP10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ10" s="1"/>
       <c r="BR10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS10" s="1"/>
       <c r="BT10" t="s">
@@ -4632,55 +4713,55 @@
       </c>
       <c r="BW10" s="2"/>
       <c r="BX10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY10" s="1"/>
       <c r="BZ10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA10" s="1"/>
       <c r="CB10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC10" s="1"/>
       <c r="CD10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE10" s="1"/>
       <c r="CF10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG10" s="1"/>
       <c r="CH10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI10" s="1"/>
       <c r="CJ10" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="CK10" s="1">
         <v>4</v>
       </c>
       <c r="CL10" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CM10" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="CN10" s="1">
         <v>2</v>
       </c>
       <c r="CO10" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CP10" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="CQ10" s="1">
         <v>6</v>
       </c>
       <c r="CR10" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CS10" t="s">
         <v>77</v>
@@ -4696,12 +4777,20 @@
       <c r="CX10" t="s">
         <v>77</v>
       </c>
-      <c r="CY10" s="1"/>
+      <c r="CY10" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ10" s="1"/>
-      <c r="DA10" s="1"/>
-      <c r="DB10" s="1"/>
+      <c r="DA10" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>77</v>
+      </c>
       <c r="DC10" s="1"/>
-      <c r="DD10" s="1"/>
+      <c r="DD10" t="s">
+        <v>77</v>
+      </c>
       <c r="DE10" s="1"/>
       <c r="DF10" s="1"/>
       <c r="DG10" s="1"/>
@@ -4772,7 +4861,7 @@
       <c r="FT10" s="1"/>
       <c r="FU10" s="1"/>
       <c r="FV10" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11">
@@ -4939,10 +5028,10 @@
         <v>176</v>
       </c>
       <c r="BC11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BD11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BE11" s="1">
         <v>3</v>
@@ -4972,11 +5061,11 @@
       </c>
       <c r="BO11" s="2"/>
       <c r="BP11" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ11" s="1"/>
       <c r="BR11" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS11" s="1"/>
       <c r="BT11" t="s">
@@ -4990,27 +5079,27 @@
       </c>
       <c r="BW11" s="2"/>
       <c r="BX11" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY11" s="1"/>
       <c r="BZ11" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA11" s="1"/>
       <c r="CB11" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC11" s="1"/>
       <c r="CD11" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE11" s="1"/>
       <c r="CF11" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG11" s="1"/>
       <c r="CH11" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI11" s="1"/>
       <c r="CJ11" t="s">
@@ -5048,12 +5137,20 @@
       <c r="CX11" t="s">
         <v>77</v>
       </c>
-      <c r="CY11" s="1"/>
+      <c r="CY11" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ11" s="1"/>
-      <c r="DA11" s="1"/>
-      <c r="DB11" s="1"/>
+      <c r="DA11" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB11" t="s">
+        <v>77</v>
+      </c>
       <c r="DC11" s="1"/>
-      <c r="DD11" s="1"/>
+      <c r="DD11" t="s">
+        <v>77</v>
+      </c>
       <c r="DE11" s="1"/>
       <c r="DF11" s="1"/>
       <c r="DG11" s="1"/>
@@ -5124,7 +5221,7 @@
       <c r="FT11" s="1"/>
       <c r="FU11" s="1"/>
       <c r="FV11" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12">
@@ -5291,10 +5388,10 @@
         <v>176</v>
       </c>
       <c r="BC12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BD12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BE12" s="1">
         <v>3</v>
@@ -5324,11 +5421,11 @@
       </c>
       <c r="BO12" s="2"/>
       <c r="BP12" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ12" s="1"/>
       <c r="BR12" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS12" s="1"/>
       <c r="BT12" t="s">
@@ -5342,37 +5439,37 @@
       </c>
       <c r="BW12" s="2"/>
       <c r="BX12" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY12" s="1"/>
       <c r="BZ12" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA12" s="1"/>
       <c r="CB12" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC12" s="1"/>
       <c r="CD12" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE12" s="1"/>
       <c r="CF12" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG12" s="1"/>
       <c r="CH12" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI12" s="1"/>
       <c r="CJ12" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="CK12" s="1">
         <v>4</v>
       </c>
       <c r="CL12" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="CM12" t="s">
         <v>165</v>
@@ -5381,16 +5478,16 @@
         <v>4</v>
       </c>
       <c r="CO12" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="CP12" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="CQ12" s="1">
         <v>7</v>
       </c>
       <c r="CR12" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="CS12" t="s">
         <v>77</v>
@@ -5406,12 +5503,20 @@
       <c r="CX12" t="s">
         <v>77</v>
       </c>
-      <c r="CY12" s="1"/>
+      <c r="CY12" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ12" s="1"/>
-      <c r="DA12" s="1"/>
-      <c r="DB12" s="1"/>
+      <c r="DA12" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB12" t="s">
+        <v>77</v>
+      </c>
       <c r="DC12" s="1"/>
-      <c r="DD12" s="1"/>
+      <c r="DD12" t="s">
+        <v>77</v>
+      </c>
       <c r="DE12" s="1"/>
       <c r="DF12" s="1"/>
       <c r="DG12" s="1"/>
@@ -5482,7 +5587,7 @@
       <c r="FT12" s="1"/>
       <c r="FU12" s="1"/>
       <c r="FV12" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13">
@@ -5649,10 +5754,10 @@
         <v>176</v>
       </c>
       <c r="BC13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BD13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BE13" s="1">
         <v>3</v>
@@ -5682,11 +5787,11 @@
       </c>
       <c r="BO13" s="2"/>
       <c r="BP13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ13" s="1"/>
       <c r="BR13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS13" s="1"/>
       <c r="BT13" t="s">
@@ -5700,37 +5805,37 @@
       </c>
       <c r="BW13" s="2"/>
       <c r="BX13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY13" s="1"/>
       <c r="BZ13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA13" s="1"/>
       <c r="CB13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC13" s="1"/>
       <c r="CD13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE13" s="1"/>
       <c r="CF13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG13" s="1"/>
       <c r="CH13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI13" s="1"/>
       <c r="CJ13" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="CK13" s="1">
         <v>12</v>
       </c>
       <c r="CL13" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="CM13" t="s">
         <v>165</v>
@@ -5739,23 +5844,23 @@
         <v>8</v>
       </c>
       <c r="CO13" t="s">
+        <v>244</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>247</v>
+      </c>
+      <c r="CQ13" s="1">
+        <v>10</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>244</v>
+      </c>
+      <c r="CS13" t="s">
         <v>239</v>
-      </c>
-      <c r="CP13" t="s">
-        <v>242</v>
-      </c>
-      <c r="CQ13" s="1">
-        <v>16</v>
-      </c>
-      <c r="CR13" t="s">
-        <v>239</v>
-      </c>
-      <c r="CS13" t="s">
-        <v>77</v>
       </c>
       <c r="CT13" s="1"/>
       <c r="CU13" t="s">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="CV13" t="s">
         <v>77</v>
@@ -5764,12 +5869,20 @@
       <c r="CX13" t="s">
         <v>77</v>
       </c>
-      <c r="CY13" s="1"/>
+      <c r="CY13" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ13" s="1"/>
-      <c r="DA13" s="1"/>
-      <c r="DB13" s="1"/>
+      <c r="DA13" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB13" t="s">
+        <v>77</v>
+      </c>
       <c r="DC13" s="1"/>
-      <c r="DD13" s="1"/>
+      <c r="DD13" t="s">
+        <v>77</v>
+      </c>
       <c r="DE13" s="1"/>
       <c r="DF13" s="1"/>
       <c r="DG13" s="1"/>
@@ -5840,7 +5953,7 @@
       <c r="FT13" s="1"/>
       <c r="FU13" s="1"/>
       <c r="FV13" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14">
@@ -6007,10 +6120,10 @@
         <v>176</v>
       </c>
       <c r="BC14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BD14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BE14" s="1">
         <v>3</v>
@@ -6040,11 +6153,11 @@
       </c>
       <c r="BO14" s="2"/>
       <c r="BP14" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ14" s="1"/>
       <c r="BR14" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS14" s="1"/>
       <c r="BT14" t="s">
@@ -6058,37 +6171,37 @@
       </c>
       <c r="BW14" s="2"/>
       <c r="BX14" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY14" s="1"/>
       <c r="BZ14" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA14" s="1"/>
       <c r="CB14" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC14" s="1"/>
       <c r="CD14" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE14" s="1"/>
       <c r="CF14" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG14" s="1"/>
       <c r="CH14" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI14" s="1"/>
       <c r="CJ14" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="CK14" s="1">
         <v>1</v>
       </c>
       <c r="CL14" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="CM14" t="s">
         <v>165</v>
@@ -6097,16 +6210,16 @@
         <v>8</v>
       </c>
       <c r="CO14" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="CP14" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="CQ14" s="1">
         <v>5</v>
       </c>
       <c r="CR14" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="CS14" t="s">
         <v>77</v>
@@ -6122,12 +6235,20 @@
       <c r="CX14" t="s">
         <v>77</v>
       </c>
-      <c r="CY14" s="1"/>
+      <c r="CY14" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ14" s="1"/>
-      <c r="DA14" s="1"/>
-      <c r="DB14" s="1"/>
+      <c r="DA14" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB14" t="s">
+        <v>77</v>
+      </c>
       <c r="DC14" s="1"/>
-      <c r="DD14" s="1"/>
+      <c r="DD14" t="s">
+        <v>77</v>
+      </c>
       <c r="DE14" s="1"/>
       <c r="DF14" s="1"/>
       <c r="DG14" s="1"/>
@@ -6198,7 +6319,7 @@
       <c r="FT14" s="1"/>
       <c r="FU14" s="1"/>
       <c r="FV14" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15">
@@ -6365,10 +6486,10 @@
         <v>176</v>
       </c>
       <c r="BC15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BD15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BE15" s="1">
         <v>3</v>
@@ -6398,11 +6519,11 @@
       </c>
       <c r="BO15" s="2"/>
       <c r="BP15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ15" s="1"/>
       <c r="BR15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS15" s="1"/>
       <c r="BT15" t="s">
@@ -6416,27 +6537,27 @@
       </c>
       <c r="BW15" s="2"/>
       <c r="BX15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY15" s="1"/>
       <c r="BZ15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA15" s="1"/>
       <c r="CB15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC15" s="1"/>
       <c r="CD15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE15" s="1"/>
       <c r="CF15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG15" s="1"/>
       <c r="CH15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI15" s="1"/>
       <c r="CJ15" t="s">
@@ -6446,16 +6567,16 @@
         <v>2</v>
       </c>
       <c r="CL15" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="CM15" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="CN15" s="1">
         <v>3</v>
       </c>
       <c r="CO15" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="CP15" t="s">
         <v>77</v>
@@ -6478,12 +6599,20 @@
       <c r="CX15" t="s">
         <v>77</v>
       </c>
-      <c r="CY15" s="1"/>
+      <c r="CY15" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ15" s="1"/>
-      <c r="DA15" s="1"/>
-      <c r="DB15" s="1"/>
+      <c r="DA15" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB15" t="s">
+        <v>77</v>
+      </c>
       <c r="DC15" s="1"/>
-      <c r="DD15" s="1"/>
+      <c r="DD15" t="s">
+        <v>77</v>
+      </c>
       <c r="DE15" s="1"/>
       <c r="DF15" s="1"/>
       <c r="DG15" s="1"/>
@@ -6554,7 +6683,7 @@
       <c r="FT15" s="1"/>
       <c r="FU15" s="1"/>
       <c r="FV15" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16">
@@ -6721,10 +6850,10 @@
         <v>176</v>
       </c>
       <c r="BC16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BD16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BE16" s="1">
         <v>3</v>
@@ -6754,11 +6883,11 @@
       </c>
       <c r="BO16" s="2"/>
       <c r="BP16" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ16" s="1"/>
       <c r="BR16" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS16" s="1"/>
       <c r="BT16" t="s">
@@ -6772,27 +6901,27 @@
       </c>
       <c r="BW16" s="2"/>
       <c r="BX16" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY16" s="1"/>
       <c r="BZ16" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA16" s="1"/>
       <c r="CB16" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC16" s="1"/>
       <c r="CD16" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE16" s="1"/>
       <c r="CF16" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG16" s="1"/>
       <c r="CH16" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI16" s="1"/>
       <c r="CJ16" t="s">
@@ -6830,12 +6959,20 @@
       <c r="CX16" t="s">
         <v>77</v>
       </c>
-      <c r="CY16" s="1"/>
+      <c r="CY16" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ16" s="1"/>
-      <c r="DA16" s="1"/>
-      <c r="DB16" s="1"/>
+      <c r="DA16" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB16" t="s">
+        <v>77</v>
+      </c>
       <c r="DC16" s="1"/>
-      <c r="DD16" s="1"/>
+      <c r="DD16" t="s">
+        <v>77</v>
+      </c>
       <c r="DE16" s="1"/>
       <c r="DF16" s="1"/>
       <c r="DG16" s="1"/>
@@ -6906,7 +7043,7 @@
       <c r="FT16" s="1"/>
       <c r="FU16" s="1"/>
       <c r="FV16" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17">
@@ -7073,10 +7210,10 @@
         <v>176</v>
       </c>
       <c r="BC17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BD17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BE17" s="1">
         <v>3</v>
@@ -7106,11 +7243,11 @@
       </c>
       <c r="BO17" s="2"/>
       <c r="BP17" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ17" s="1"/>
       <c r="BR17" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS17" s="1"/>
       <c r="BT17" t="s">
@@ -7124,27 +7261,27 @@
       </c>
       <c r="BW17" s="2"/>
       <c r="BX17" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY17" s="1"/>
       <c r="BZ17" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA17" s="1"/>
       <c r="CB17" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC17" s="1"/>
       <c r="CD17" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE17" s="1"/>
       <c r="CF17" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG17" s="1"/>
       <c r="CH17" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI17" s="1"/>
       <c r="CJ17" t="s">
@@ -7182,12 +7319,20 @@
       <c r="CX17" t="s">
         <v>77</v>
       </c>
-      <c r="CY17" s="1"/>
+      <c r="CY17" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ17" s="1"/>
-      <c r="DA17" s="1"/>
-      <c r="DB17" s="1"/>
+      <c r="DA17" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB17" t="s">
+        <v>77</v>
+      </c>
       <c r="DC17" s="1"/>
-      <c r="DD17" s="1"/>
+      <c r="DD17" t="s">
+        <v>77</v>
+      </c>
       <c r="DE17" s="1"/>
       <c r="DF17" s="1"/>
       <c r="DG17" s="1"/>
@@ -7258,7 +7403,7 @@
       <c r="FT17" s="1"/>
       <c r="FU17" s="1"/>
       <c r="FV17" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18">
@@ -7425,10 +7570,10 @@
         <v>176</v>
       </c>
       <c r="BC18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BD18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BE18" s="1">
         <v>3</v>
@@ -7458,11 +7603,11 @@
       </c>
       <c r="BO18" s="2"/>
       <c r="BP18" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ18" s="1"/>
       <c r="BR18" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS18" s="1"/>
       <c r="BT18" t="s">
@@ -7476,27 +7621,27 @@
       </c>
       <c r="BW18" s="2"/>
       <c r="BX18" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY18" s="1"/>
       <c r="BZ18" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA18" s="1"/>
       <c r="CB18" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC18" s="1"/>
       <c r="CD18" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE18" s="1"/>
       <c r="CF18" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG18" s="1"/>
       <c r="CH18" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI18" s="1"/>
       <c r="CJ18" t="s">
@@ -7534,12 +7679,20 @@
       <c r="CX18" t="s">
         <v>77</v>
       </c>
-      <c r="CY18" s="1"/>
+      <c r="CY18" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ18" s="1"/>
-      <c r="DA18" s="1"/>
-      <c r="DB18" s="1"/>
+      <c r="DA18" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB18" t="s">
+        <v>77</v>
+      </c>
       <c r="DC18" s="1"/>
-      <c r="DD18" s="1"/>
+      <c r="DD18" t="s">
+        <v>77</v>
+      </c>
       <c r="DE18" s="1"/>
       <c r="DF18" s="1"/>
       <c r="DG18" s="1"/>
@@ -7610,7 +7763,7 @@
       <c r="FT18" s="1"/>
       <c r="FU18" s="1"/>
       <c r="FV18" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19">
@@ -7777,10 +7930,10 @@
         <v>176</v>
       </c>
       <c r="BC19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BD19" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BE19" s="1">
         <v>3</v>
@@ -7810,11 +7963,11 @@
       </c>
       <c r="BO19" s="2"/>
       <c r="BP19" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ19" s="1"/>
       <c r="BR19" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS19" s="1"/>
       <c r="BT19" t="s">
@@ -7828,27 +7981,27 @@
       </c>
       <c r="BW19" s="2"/>
       <c r="BX19" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY19" s="1"/>
       <c r="BZ19" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA19" s="1"/>
       <c r="CB19" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC19" s="1"/>
       <c r="CD19" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE19" s="1"/>
       <c r="CF19" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG19" s="1"/>
       <c r="CH19" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI19" s="1"/>
       <c r="CJ19" t="s">
@@ -7886,12 +8039,20 @@
       <c r="CX19" t="s">
         <v>77</v>
       </c>
-      <c r="CY19" s="1"/>
+      <c r="CY19" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ19" s="1"/>
-      <c r="DA19" s="1"/>
-      <c r="DB19" s="1"/>
+      <c r="DA19" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB19" t="s">
+        <v>77</v>
+      </c>
       <c r="DC19" s="1"/>
-      <c r="DD19" s="1"/>
+      <c r="DD19" t="s">
+        <v>77</v>
+      </c>
       <c r="DE19" s="1"/>
       <c r="DF19" s="1"/>
       <c r="DG19" s="1"/>
@@ -7962,7 +8123,7 @@
       <c r="FT19" s="1"/>
       <c r="FU19" s="1"/>
       <c r="FV19" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20">
@@ -8129,10 +8290,10 @@
         <v>176</v>
       </c>
       <c r="BC20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BD20" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BE20" s="1">
         <v>3</v>
@@ -8162,11 +8323,11 @@
       </c>
       <c r="BO20" s="2"/>
       <c r="BP20" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ20" s="1"/>
       <c r="BR20" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS20" s="1"/>
       <c r="BT20" t="s">
@@ -8180,27 +8341,27 @@
       </c>
       <c r="BW20" s="2"/>
       <c r="BX20" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY20" s="1"/>
       <c r="BZ20" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA20" s="1"/>
       <c r="CB20" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC20" s="1"/>
       <c r="CD20" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE20" s="1"/>
       <c r="CF20" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG20" s="1"/>
       <c r="CH20" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI20" s="1"/>
       <c r="CJ20" t="s">
@@ -8238,12 +8399,20 @@
       <c r="CX20" t="s">
         <v>77</v>
       </c>
-      <c r="CY20" s="1"/>
+      <c r="CY20" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ20" s="1"/>
-      <c r="DA20" s="1"/>
-      <c r="DB20" s="1"/>
+      <c r="DA20" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB20" t="s">
+        <v>77</v>
+      </c>
       <c r="DC20" s="1"/>
-      <c r="DD20" s="1"/>
+      <c r="DD20" t="s">
+        <v>77</v>
+      </c>
       <c r="DE20" s="1"/>
       <c r="DF20" s="1"/>
       <c r="DG20" s="1"/>
@@ -8314,7 +8483,7 @@
       <c r="FT20" s="1"/>
       <c r="FU20" s="1"/>
       <c r="FV20" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21">
@@ -8481,10 +8650,10 @@
         <v>177</v>
       </c>
       <c r="BC21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BD21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BE21" s="1">
         <v>1</v>
@@ -8496,7 +8665,7 @@
         <v>177</v>
       </c>
       <c r="BH21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BI21" s="2">
         <v>45491</v>
@@ -8508,59 +8677,59 @@
         <v>173</v>
       </c>
       <c r="BL21" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="BM21" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="BN21" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="BO21" s="2">
         <v>45474</v>
       </c>
       <c r="BP21" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ21" s="1"/>
       <c r="BR21" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS21" s="1"/>
       <c r="BT21" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="BU21" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="BV21" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="BW21" s="2">
         <v>45498</v>
       </c>
       <c r="BX21" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY21" s="1"/>
       <c r="BZ21" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA21" s="1"/>
       <c r="CB21" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC21" s="1"/>
       <c r="CD21" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE21" s="1"/>
       <c r="CF21" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG21" s="1"/>
       <c r="CH21" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI21" s="1"/>
       <c r="CJ21" t="s">
@@ -8570,25 +8739,25 @@
         <v>8</v>
       </c>
       <c r="CL21" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="CM21" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="CN21" s="1">
         <v>3</v>
       </c>
       <c r="CO21" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="CP21" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="CQ21" s="1">
         <v>1</v>
       </c>
       <c r="CR21" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="CS21" t="s">
         <v>77</v>
@@ -8604,12 +8773,20 @@
       <c r="CX21" t="s">
         <v>77</v>
       </c>
-      <c r="CY21" s="1"/>
+      <c r="CY21" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ21" s="1"/>
-      <c r="DA21" s="1"/>
-      <c r="DB21" s="1"/>
+      <c r="DA21" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB21" t="s">
+        <v>77</v>
+      </c>
       <c r="DC21" s="1"/>
-      <c r="DD21" s="1"/>
+      <c r="DD21" t="s">
+        <v>77</v>
+      </c>
       <c r="DE21" s="1"/>
       <c r="DF21" s="1"/>
       <c r="DG21" s="1"/>
@@ -8847,10 +9024,10 @@
         <v>177</v>
       </c>
       <c r="BC22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BD22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BE22" s="1">
         <v>1</v>
@@ -8862,7 +9039,7 @@
         <v>177</v>
       </c>
       <c r="BH22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BI22" s="2">
         <v>45491</v>
@@ -8884,11 +9061,11 @@
       </c>
       <c r="BO22" s="2"/>
       <c r="BP22" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ22" s="1"/>
       <c r="BR22" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS22" s="1"/>
       <c r="BT22" t="s">
@@ -8902,37 +9079,37 @@
       </c>
       <c r="BW22" s="2"/>
       <c r="BX22" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY22" s="1"/>
       <c r="BZ22" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA22" s="1"/>
       <c r="CB22" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC22" s="1"/>
       <c r="CD22" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE22" s="1"/>
       <c r="CF22" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG22" s="1"/>
       <c r="CH22" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI22" s="1"/>
       <c r="CJ22" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="CK22" s="1">
         <v>7</v>
       </c>
       <c r="CL22" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="CM22" t="s">
         <v>165</v>
@@ -8941,41 +9118,53 @@
         <v>22</v>
       </c>
       <c r="CO22" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="CP22" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="CQ22" s="1">
         <v>59</v>
       </c>
       <c r="CR22" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="CS22" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="CT22" s="1">
         <v>26</v>
       </c>
       <c r="CU22" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="CV22" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="CW22" s="1">
         <v>28</v>
       </c>
       <c r="CX22" t="s">
+        <v>244</v>
+      </c>
+      <c r="CY22" t="s">
         <v>239</v>
       </c>
-      <c r="CY22" s="1"/>
-      <c r="CZ22" s="1"/>
-      <c r="DA22" s="1"/>
-      <c r="DB22" s="1"/>
-      <c r="DC22" s="1"/>
-      <c r="DD22" s="1"/>
+      <c r="CZ22" s="1">
+        <v>51</v>
+      </c>
+      <c r="DA22" t="s">
+        <v>244</v>
+      </c>
+      <c r="DB22" t="s">
+        <v>187</v>
+      </c>
+      <c r="DC22" s="1">
+        <v>15</v>
+      </c>
+      <c r="DD22" t="s">
+        <v>244</v>
+      </c>
       <c r="DE22" s="1"/>
       <c r="DF22" s="1"/>
       <c r="DG22" s="1"/>
@@ -9213,10 +9402,10 @@
         <v>177</v>
       </c>
       <c r="BC23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BD23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BE23" s="1">
         <v>1</v>
@@ -9228,7 +9417,7 @@
         <v>176</v>
       </c>
       <c r="BH23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BI23" s="2">
         <v>45497</v>
@@ -9250,11 +9439,11 @@
       </c>
       <c r="BO23" s="2"/>
       <c r="BP23" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ23" s="1"/>
       <c r="BR23" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS23" s="1"/>
       <c r="BT23" t="s">
@@ -9268,51 +9457,55 @@
       </c>
       <c r="BW23" s="2"/>
       <c r="BX23" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY23" s="1"/>
       <c r="BZ23" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA23" s="1"/>
       <c r="CB23" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC23" s="1"/>
       <c r="CD23" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE23" s="1"/>
       <c r="CF23" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG23" s="1"/>
       <c r="CH23" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI23" s="1"/>
       <c r="CJ23" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="CK23" s="1">
         <v>8</v>
       </c>
       <c r="CL23" t="s">
+        <v>244</v>
+      </c>
+      <c r="CM23" t="s">
         <v>239</v>
       </c>
-      <c r="CM23" t="s">
-        <v>77</v>
-      </c>
-      <c r="CN23" s="1"/>
+      <c r="CN23" s="1">
+        <v>38</v>
+      </c>
       <c r="CO23" t="s">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="CP23" t="s">
-        <v>77</v>
-      </c>
-      <c r="CQ23" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="CQ23" s="1">
+        <v>55</v>
+      </c>
       <c r="CR23" t="s">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="CS23" t="s">
         <v>77</v>
@@ -9328,12 +9521,20 @@
       <c r="CX23" t="s">
         <v>77</v>
       </c>
-      <c r="CY23" s="1"/>
+      <c r="CY23" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ23" s="1"/>
-      <c r="DA23" s="1"/>
-      <c r="DB23" s="1"/>
+      <c r="DA23" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB23" t="s">
+        <v>77</v>
+      </c>
       <c r="DC23" s="1"/>
-      <c r="DD23" s="1"/>
+      <c r="DD23" t="s">
+        <v>77</v>
+      </c>
       <c r="DE23" s="1"/>
       <c r="DF23" s="1"/>
       <c r="DG23" s="1"/>
@@ -9404,7 +9605,7 @@
       <c r="FT23" s="1"/>
       <c r="FU23" s="1"/>
       <c r="FV23" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24">
@@ -9571,10 +9772,10 @@
         <v>177</v>
       </c>
       <c r="BC24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BD24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BE24" s="1">
         <v>1</v>
@@ -9586,7 +9787,7 @@
         <v>177</v>
       </c>
       <c r="BH24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BI24" s="2">
         <v>45497</v>
@@ -9608,11 +9809,11 @@
       </c>
       <c r="BO24" s="2"/>
       <c r="BP24" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ24" s="1"/>
       <c r="BR24" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS24" s="1"/>
       <c r="BT24" t="s">
@@ -9626,35 +9827,37 @@
       </c>
       <c r="BW24" s="2"/>
       <c r="BX24" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY24" s="1"/>
       <c r="BZ24" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA24" s="1"/>
       <c r="CB24" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC24" s="1"/>
       <c r="CD24" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE24" s="1"/>
       <c r="CF24" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG24" s="1"/>
       <c r="CH24" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI24" s="1"/>
       <c r="CJ24" t="s">
-        <v>77</v>
-      </c>
-      <c r="CK24" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="CK24" s="1">
+        <v>104</v>
+      </c>
       <c r="CL24" t="s">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="CM24" t="s">
         <v>77</v>
@@ -9684,12 +9887,20 @@
       <c r="CX24" t="s">
         <v>77</v>
       </c>
-      <c r="CY24" s="1"/>
+      <c r="CY24" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ24" s="1"/>
-      <c r="DA24" s="1"/>
-      <c r="DB24" s="1"/>
+      <c r="DA24" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB24" t="s">
+        <v>77</v>
+      </c>
       <c r="DC24" s="1"/>
-      <c r="DD24" s="1"/>
+      <c r="DD24" t="s">
+        <v>77</v>
+      </c>
       <c r="DE24" s="1"/>
       <c r="DF24" s="1"/>
       <c r="DG24" s="1"/>
@@ -9930,7 +10141,7 @@
         <v>94</v>
       </c>
       <c r="BD25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="BE25" s="1">
         <v>1</v>
@@ -9960,11 +10171,11 @@
       </c>
       <c r="BO25" s="2"/>
       <c r="BP25" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ25" s="1"/>
       <c r="BR25" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS25" s="1"/>
       <c r="BT25" t="s">
@@ -9978,27 +10189,27 @@
       </c>
       <c r="BW25" s="2"/>
       <c r="BX25" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY25" s="1"/>
       <c r="BZ25" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA25" s="1"/>
       <c r="CB25" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC25" s="1"/>
       <c r="CD25" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE25" s="1"/>
       <c r="CF25" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG25" s="1"/>
       <c r="CH25" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI25" s="1"/>
       <c r="CJ25" t="s">
@@ -10036,12 +10247,20 @@
       <c r="CX25" t="s">
         <v>77</v>
       </c>
-      <c r="CY25" s="1"/>
+      <c r="CY25" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ25" s="1"/>
-      <c r="DA25" s="1"/>
-      <c r="DB25" s="1"/>
+      <c r="DA25" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB25" t="s">
+        <v>77</v>
+      </c>
       <c r="DC25" s="1"/>
-      <c r="DD25" s="1"/>
+      <c r="DD25" t="s">
+        <v>77</v>
+      </c>
       <c r="DE25" s="1"/>
       <c r="DF25" s="1"/>
       <c r="DG25" s="1"/>
@@ -10310,11 +10529,11 @@
       </c>
       <c r="BO26" s="2"/>
       <c r="BP26" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ26" s="1"/>
       <c r="BR26" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS26" s="1"/>
       <c r="BT26" t="s">
@@ -10328,27 +10547,27 @@
       </c>
       <c r="BW26" s="2"/>
       <c r="BX26" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY26" s="1"/>
       <c r="BZ26" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA26" s="1"/>
       <c r="CB26" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC26" s="1"/>
       <c r="CD26" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE26" s="1"/>
       <c r="CF26" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG26" s="1"/>
       <c r="CH26" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI26" s="1"/>
       <c r="CJ26" t="s">
@@ -10386,12 +10605,20 @@
       <c r="CX26" t="s">
         <v>77</v>
       </c>
-      <c r="CY26" s="1"/>
+      <c r="CY26" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ26" s="1"/>
-      <c r="DA26" s="1"/>
-      <c r="DB26" s="1"/>
+      <c r="DA26" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB26" t="s">
+        <v>77</v>
+      </c>
       <c r="DC26" s="1"/>
-      <c r="DD26" s="1"/>
+      <c r="DD26" t="s">
+        <v>77</v>
+      </c>
       <c r="DE26" s="1"/>
       <c r="DF26" s="1"/>
       <c r="DG26" s="1"/>
@@ -10462,7 +10689,7 @@
       <c r="FT26" s="1"/>
       <c r="FU26" s="1"/>
       <c r="FV26" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27">
@@ -10656,11 +10883,11 @@
       </c>
       <c r="BO27" s="2"/>
       <c r="BP27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ27" s="1"/>
       <c r="BR27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS27" s="1"/>
       <c r="BT27" t="s">
@@ -10674,27 +10901,27 @@
       </c>
       <c r="BW27" s="2"/>
       <c r="BX27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY27" s="1"/>
       <c r="BZ27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA27" s="1"/>
       <c r="CB27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC27" s="1"/>
       <c r="CD27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE27" s="1"/>
       <c r="CF27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG27" s="1"/>
       <c r="CH27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI27" s="1"/>
       <c r="CJ27" t="s">
@@ -10732,12 +10959,20 @@
       <c r="CX27" t="s">
         <v>77</v>
       </c>
-      <c r="CY27" s="1"/>
+      <c r="CY27" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ27" s="1"/>
-      <c r="DA27" s="1"/>
-      <c r="DB27" s="1"/>
+      <c r="DA27" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB27" t="s">
+        <v>77</v>
+      </c>
       <c r="DC27" s="1"/>
-      <c r="DD27" s="1"/>
+      <c r="DD27" t="s">
+        <v>77</v>
+      </c>
       <c r="DE27" s="1"/>
       <c r="DF27" s="1"/>
       <c r="DG27" s="1"/>
@@ -11002,11 +11237,11 @@
       </c>
       <c r="BO28" s="2"/>
       <c r="BP28" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ28" s="1"/>
       <c r="BR28" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS28" s="1"/>
       <c r="BT28" t="s">
@@ -11020,27 +11255,27 @@
       </c>
       <c r="BW28" s="2"/>
       <c r="BX28" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY28" s="1"/>
       <c r="BZ28" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA28" s="1"/>
       <c r="CB28" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC28" s="1"/>
       <c r="CD28" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE28" s="1"/>
       <c r="CF28" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG28" s="1"/>
       <c r="CH28" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI28" s="1"/>
       <c r="CJ28" t="s">
@@ -11078,12 +11313,20 @@
       <c r="CX28" t="s">
         <v>77</v>
       </c>
-      <c r="CY28" s="1"/>
+      <c r="CY28" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ28" s="1"/>
-      <c r="DA28" s="1"/>
-      <c r="DB28" s="1"/>
+      <c r="DA28" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB28" t="s">
+        <v>77</v>
+      </c>
       <c r="DC28" s="1"/>
-      <c r="DD28" s="1"/>
+      <c r="DD28" t="s">
+        <v>77</v>
+      </c>
       <c r="DE28" s="1"/>
       <c r="DF28" s="1"/>
       <c r="DG28" s="1"/>
@@ -11154,7 +11397,7 @@
       <c r="FT28" s="1"/>
       <c r="FU28" s="1"/>
       <c r="FV28" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29">
@@ -11348,11 +11591,11 @@
       </c>
       <c r="BO29" s="2"/>
       <c r="BP29" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ29" s="1"/>
       <c r="BR29" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS29" s="1"/>
       <c r="BT29" t="s">
@@ -11366,27 +11609,27 @@
       </c>
       <c r="BW29" s="2"/>
       <c r="BX29" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY29" s="1"/>
       <c r="BZ29" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA29" s="1"/>
       <c r="CB29" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC29" s="1"/>
       <c r="CD29" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE29" s="1"/>
       <c r="CF29" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG29" s="1"/>
       <c r="CH29" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI29" s="1"/>
       <c r="CJ29" t="s">
@@ -11424,12 +11667,20 @@
       <c r="CX29" t="s">
         <v>77</v>
       </c>
-      <c r="CY29" s="1"/>
+      <c r="CY29" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ29" s="1"/>
-      <c r="DA29" s="1"/>
-      <c r="DB29" s="1"/>
+      <c r="DA29" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB29" t="s">
+        <v>77</v>
+      </c>
       <c r="DC29" s="1"/>
-      <c r="DD29" s="1"/>
+      <c r="DD29" t="s">
+        <v>77</v>
+      </c>
       <c r="DE29" s="1"/>
       <c r="DF29" s="1"/>
       <c r="DG29" s="1"/>
@@ -11500,7 +11751,7 @@
       <c r="FT29" s="1"/>
       <c r="FU29" s="1"/>
       <c r="FV29" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30">
@@ -11698,11 +11949,11 @@
       </c>
       <c r="BO30" s="2"/>
       <c r="BP30" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ30" s="1"/>
       <c r="BR30" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS30" s="1"/>
       <c r="BT30" t="s">
@@ -11716,27 +11967,27 @@
       </c>
       <c r="BW30" s="2"/>
       <c r="BX30" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY30" s="1"/>
       <c r="BZ30" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA30" s="1"/>
       <c r="CB30" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC30" s="1"/>
       <c r="CD30" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE30" s="1"/>
       <c r="CF30" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG30" s="1"/>
       <c r="CH30" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI30" s="1"/>
       <c r="CJ30" t="s">
@@ -11774,12 +12025,20 @@
       <c r="CX30" t="s">
         <v>77</v>
       </c>
-      <c r="CY30" s="1"/>
+      <c r="CY30" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ30" s="1"/>
-      <c r="DA30" s="1"/>
-      <c r="DB30" s="1"/>
+      <c r="DA30" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB30" t="s">
+        <v>77</v>
+      </c>
       <c r="DC30" s="1"/>
-      <c r="DD30" s="1"/>
+      <c r="DD30" t="s">
+        <v>77</v>
+      </c>
       <c r="DE30" s="1"/>
       <c r="DF30" s="1"/>
       <c r="DG30" s="1"/>
@@ -11850,7 +12109,7 @@
       <c r="FT30" s="1"/>
       <c r="FU30" s="1"/>
       <c r="FV30" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31">
@@ -12048,11 +12307,11 @@
       </c>
       <c r="BO31" s="2"/>
       <c r="BP31" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ31" s="1"/>
       <c r="BR31" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS31" s="1"/>
       <c r="BT31" t="s">
@@ -12066,27 +12325,27 @@
       </c>
       <c r="BW31" s="2"/>
       <c r="BX31" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY31" s="1"/>
       <c r="BZ31" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA31" s="1"/>
       <c r="CB31" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC31" s="1"/>
       <c r="CD31" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE31" s="1"/>
       <c r="CF31" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG31" s="1"/>
       <c r="CH31" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI31" s="1"/>
       <c r="CJ31" t="s">
@@ -12124,12 +12383,20 @@
       <c r="CX31" t="s">
         <v>77</v>
       </c>
-      <c r="CY31" s="1"/>
+      <c r="CY31" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ31" s="1"/>
-      <c r="DA31" s="1"/>
-      <c r="DB31" s="1"/>
+      <c r="DA31" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB31" t="s">
+        <v>77</v>
+      </c>
       <c r="DC31" s="1"/>
-      <c r="DD31" s="1"/>
+      <c r="DD31" t="s">
+        <v>77</v>
+      </c>
       <c r="DE31" s="1"/>
       <c r="DF31" s="1"/>
       <c r="DG31" s="1"/>
@@ -12200,7 +12467,7 @@
       <c r="FT31" s="1"/>
       <c r="FU31" s="1"/>
       <c r="FV31" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32">
@@ -12398,11 +12665,11 @@
       </c>
       <c r="BO32" s="2"/>
       <c r="BP32" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ32" s="1"/>
       <c r="BR32" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS32" s="1"/>
       <c r="BT32" t="s">
@@ -12416,27 +12683,27 @@
       </c>
       <c r="BW32" s="2"/>
       <c r="BX32" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY32" s="1"/>
       <c r="BZ32" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA32" s="1"/>
       <c r="CB32" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC32" s="1"/>
       <c r="CD32" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE32" s="1"/>
       <c r="CF32" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG32" s="1"/>
       <c r="CH32" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI32" s="1"/>
       <c r="CJ32" t="s">
@@ -12474,12 +12741,20 @@
       <c r="CX32" t="s">
         <v>77</v>
       </c>
-      <c r="CY32" s="1"/>
+      <c r="CY32" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ32" s="1"/>
-      <c r="DA32" s="1"/>
-      <c r="DB32" s="1"/>
+      <c r="DA32" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>77</v>
+      </c>
       <c r="DC32" s="1"/>
-      <c r="DD32" s="1"/>
+      <c r="DD32" t="s">
+        <v>77</v>
+      </c>
       <c r="DE32" s="1"/>
       <c r="DF32" s="1"/>
       <c r="DG32" s="1"/>
@@ -12550,7 +12825,7 @@
       <c r="FT32" s="1"/>
       <c r="FU32" s="1"/>
       <c r="FV32" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33">
@@ -12748,11 +13023,11 @@
       </c>
       <c r="BO33" s="2"/>
       <c r="BP33" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ33" s="1"/>
       <c r="BR33" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS33" s="1"/>
       <c r="BT33" t="s">
@@ -12766,27 +13041,27 @@
       </c>
       <c r="BW33" s="2"/>
       <c r="BX33" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY33" s="1"/>
       <c r="BZ33" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA33" s="1"/>
       <c r="CB33" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC33" s="1"/>
       <c r="CD33" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE33" s="1"/>
       <c r="CF33" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG33" s="1"/>
       <c r="CH33" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI33" s="1"/>
       <c r="CJ33" t="s">
@@ -12824,12 +13099,20 @@
       <c r="CX33" t="s">
         <v>77</v>
       </c>
-      <c r="CY33" s="1"/>
+      <c r="CY33" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ33" s="1"/>
-      <c r="DA33" s="1"/>
-      <c r="DB33" s="1"/>
+      <c r="DA33" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB33" t="s">
+        <v>77</v>
+      </c>
       <c r="DC33" s="1"/>
-      <c r="DD33" s="1"/>
+      <c r="DD33" t="s">
+        <v>77</v>
+      </c>
       <c r="DE33" s="1"/>
       <c r="DF33" s="1"/>
       <c r="DG33" s="1"/>
@@ -12900,7 +13183,7 @@
       <c r="FT33" s="1"/>
       <c r="FU33" s="1"/>
       <c r="FV33" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34">
@@ -13084,11 +13367,11 @@
       </c>
       <c r="BO34" s="2"/>
       <c r="BP34" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ34" s="1"/>
       <c r="BR34" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS34" s="1"/>
       <c r="BT34" t="s">
@@ -13102,27 +13385,27 @@
       </c>
       <c r="BW34" s="2"/>
       <c r="BX34" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY34" s="1"/>
       <c r="BZ34" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA34" s="1"/>
       <c r="CB34" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC34" s="1"/>
       <c r="CD34" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE34" s="1"/>
       <c r="CF34" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG34" s="1"/>
       <c r="CH34" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI34" s="1"/>
       <c r="CJ34" t="s">
@@ -13160,12 +13443,20 @@
       <c r="CX34" t="s">
         <v>77</v>
       </c>
-      <c r="CY34" s="1"/>
+      <c r="CY34" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ34" s="1"/>
-      <c r="DA34" s="1"/>
-      <c r="DB34" s="1"/>
+      <c r="DA34" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB34" t="s">
+        <v>77</v>
+      </c>
       <c r="DC34" s="1"/>
-      <c r="DD34" s="1"/>
+      <c r="DD34" t="s">
+        <v>77</v>
+      </c>
       <c r="DE34" s="1"/>
       <c r="DF34" s="1"/>
       <c r="DG34" s="1"/>
@@ -13236,7 +13527,7 @@
       <c r="FT34" s="1"/>
       <c r="FU34" s="1"/>
       <c r="FV34" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35">
@@ -13420,11 +13711,11 @@
       </c>
       <c r="BO35" s="2"/>
       <c r="BP35" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ35" s="1"/>
       <c r="BR35" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS35" s="1"/>
       <c r="BT35" t="s">
@@ -13438,27 +13729,27 @@
       </c>
       <c r="BW35" s="2"/>
       <c r="BX35" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY35" s="1"/>
       <c r="BZ35" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA35" s="1"/>
       <c r="CB35" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC35" s="1"/>
       <c r="CD35" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE35" s="1"/>
       <c r="CF35" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG35" s="1"/>
       <c r="CH35" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI35" s="1"/>
       <c r="CJ35" t="s">
@@ -13496,12 +13787,20 @@
       <c r="CX35" t="s">
         <v>77</v>
       </c>
-      <c r="CY35" s="1"/>
+      <c r="CY35" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ35" s="1"/>
-      <c r="DA35" s="1"/>
-      <c r="DB35" s="1"/>
+      <c r="DA35" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB35" t="s">
+        <v>77</v>
+      </c>
       <c r="DC35" s="1"/>
-      <c r="DD35" s="1"/>
+      <c r="DD35" t="s">
+        <v>77</v>
+      </c>
       <c r="DE35" s="1"/>
       <c r="DF35" s="1"/>
       <c r="DG35" s="1"/>
@@ -13572,7 +13871,7 @@
       <c r="FT35" s="1"/>
       <c r="FU35" s="1"/>
       <c r="FV35" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36">
@@ -13756,11 +14055,11 @@
       </c>
       <c r="BO36" s="2"/>
       <c r="BP36" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ36" s="1"/>
       <c r="BR36" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS36" s="1"/>
       <c r="BT36" t="s">
@@ -13774,27 +14073,27 @@
       </c>
       <c r="BW36" s="2"/>
       <c r="BX36" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY36" s="1"/>
       <c r="BZ36" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA36" s="1"/>
       <c r="CB36" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC36" s="1"/>
       <c r="CD36" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE36" s="1"/>
       <c r="CF36" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG36" s="1"/>
       <c r="CH36" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI36" s="1"/>
       <c r="CJ36" t="s">
@@ -13832,12 +14131,20 @@
       <c r="CX36" t="s">
         <v>77</v>
       </c>
-      <c r="CY36" s="1"/>
+      <c r="CY36" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ36" s="1"/>
-      <c r="DA36" s="1"/>
-      <c r="DB36" s="1"/>
+      <c r="DA36" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB36" t="s">
+        <v>77</v>
+      </c>
       <c r="DC36" s="1"/>
-      <c r="DD36" s="1"/>
+      <c r="DD36" t="s">
+        <v>77</v>
+      </c>
       <c r="DE36" s="1"/>
       <c r="DF36" s="1"/>
       <c r="DG36" s="1"/>
@@ -13908,7 +14215,7 @@
       <c r="FT36" s="1"/>
       <c r="FU36" s="1"/>
       <c r="FV36" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37">
@@ -14092,11 +14399,11 @@
       </c>
       <c r="BO37" s="2"/>
       <c r="BP37" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ37" s="1"/>
       <c r="BR37" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS37" s="1"/>
       <c r="BT37" t="s">
@@ -14110,27 +14417,27 @@
       </c>
       <c r="BW37" s="2"/>
       <c r="BX37" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY37" s="1"/>
       <c r="BZ37" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA37" s="1"/>
       <c r="CB37" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC37" s="1"/>
       <c r="CD37" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE37" s="1"/>
       <c r="CF37" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG37" s="1"/>
       <c r="CH37" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI37" s="1"/>
       <c r="CJ37" t="s">
@@ -14168,12 +14475,20 @@
       <c r="CX37" t="s">
         <v>77</v>
       </c>
-      <c r="CY37" s="1"/>
+      <c r="CY37" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ37" s="1"/>
-      <c r="DA37" s="1"/>
-      <c r="DB37" s="1"/>
+      <c r="DA37" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB37" t="s">
+        <v>77</v>
+      </c>
       <c r="DC37" s="1"/>
-      <c r="DD37" s="1"/>
+      <c r="DD37" t="s">
+        <v>77</v>
+      </c>
       <c r="DE37" s="1"/>
       <c r="DF37" s="1"/>
       <c r="DG37" s="1"/>
@@ -14244,7 +14559,7 @@
       <c r="FT37" s="1"/>
       <c r="FU37" s="1"/>
       <c r="FV37" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38">
@@ -14428,11 +14743,11 @@
       </c>
       <c r="BO38" s="2"/>
       <c r="BP38" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ38" s="1"/>
       <c r="BR38" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS38" s="1"/>
       <c r="BT38" t="s">
@@ -14446,27 +14761,27 @@
       </c>
       <c r="BW38" s="2"/>
       <c r="BX38" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY38" s="1"/>
       <c r="BZ38" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA38" s="1"/>
       <c r="CB38" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC38" s="1"/>
       <c r="CD38" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE38" s="1"/>
       <c r="CF38" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG38" s="1"/>
       <c r="CH38" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI38" s="1"/>
       <c r="CJ38" t="s">
@@ -14504,12 +14819,20 @@
       <c r="CX38" t="s">
         <v>77</v>
       </c>
-      <c r="CY38" s="1"/>
+      <c r="CY38" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ38" s="1"/>
-      <c r="DA38" s="1"/>
-      <c r="DB38" s="1"/>
+      <c r="DA38" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB38" t="s">
+        <v>77</v>
+      </c>
       <c r="DC38" s="1"/>
-      <c r="DD38" s="1"/>
+      <c r="DD38" t="s">
+        <v>77</v>
+      </c>
       <c r="DE38" s="1"/>
       <c r="DF38" s="1"/>
       <c r="DG38" s="1"/>
@@ -14580,7 +14903,7 @@
       <c r="FT38" s="1"/>
       <c r="FU38" s="1"/>
       <c r="FV38" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39">
@@ -14766,11 +15089,11 @@
       </c>
       <c r="BO39" s="2"/>
       <c r="BP39" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ39" s="1"/>
       <c r="BR39" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS39" s="1"/>
       <c r="BT39" t="s">
@@ -14784,27 +15107,27 @@
       </c>
       <c r="BW39" s="2"/>
       <c r="BX39" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY39" s="1"/>
       <c r="BZ39" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA39" s="1"/>
       <c r="CB39" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC39" s="1"/>
       <c r="CD39" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE39" s="1"/>
       <c r="CF39" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG39" s="1"/>
       <c r="CH39" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI39" s="1"/>
       <c r="CJ39" t="s">
@@ -14842,12 +15165,20 @@
       <c r="CX39" t="s">
         <v>77</v>
       </c>
-      <c r="CY39" s="1"/>
+      <c r="CY39" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ39" s="1"/>
-      <c r="DA39" s="1"/>
-      <c r="DB39" s="1"/>
+      <c r="DA39" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB39" t="s">
+        <v>77</v>
+      </c>
       <c r="DC39" s="1"/>
-      <c r="DD39" s="1"/>
+      <c r="DD39" t="s">
+        <v>77</v>
+      </c>
       <c r="DE39" s="1"/>
       <c r="DF39" s="1"/>
       <c r="DG39" s="1"/>
@@ -15104,11 +15435,11 @@
       </c>
       <c r="BO40" s="2"/>
       <c r="BP40" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ40" s="1"/>
       <c r="BR40" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS40" s="1"/>
       <c r="BT40" t="s">
@@ -15122,27 +15453,27 @@
       </c>
       <c r="BW40" s="2"/>
       <c r="BX40" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY40" s="1"/>
       <c r="BZ40" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA40" s="1"/>
       <c r="CB40" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC40" s="1"/>
       <c r="CD40" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE40" s="1"/>
       <c r="CF40" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG40" s="1"/>
       <c r="CH40" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI40" s="1"/>
       <c r="CJ40" t="s">
@@ -15180,12 +15511,20 @@
       <c r="CX40" t="s">
         <v>77</v>
       </c>
-      <c r="CY40" s="1"/>
+      <c r="CY40" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ40" s="1"/>
-      <c r="DA40" s="1"/>
-      <c r="DB40" s="1"/>
+      <c r="DA40" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB40" t="s">
+        <v>77</v>
+      </c>
       <c r="DC40" s="1"/>
-      <c r="DD40" s="1"/>
+      <c r="DD40" t="s">
+        <v>77</v>
+      </c>
       <c r="DE40" s="1"/>
       <c r="DF40" s="1"/>
       <c r="DG40" s="1"/>
@@ -15442,11 +15781,11 @@
       </c>
       <c r="BO41" s="2"/>
       <c r="BP41" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ41" s="1"/>
       <c r="BR41" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS41" s="1"/>
       <c r="BT41" t="s">
@@ -15460,27 +15799,27 @@
       </c>
       <c r="BW41" s="2"/>
       <c r="BX41" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY41" s="1"/>
       <c r="BZ41" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA41" s="1"/>
       <c r="CB41" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC41" s="1"/>
       <c r="CD41" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE41" s="1"/>
       <c r="CF41" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG41" s="1"/>
       <c r="CH41" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI41" s="1"/>
       <c r="CJ41" t="s">
@@ -15518,12 +15857,20 @@
       <c r="CX41" t="s">
         <v>77</v>
       </c>
-      <c r="CY41" s="1"/>
+      <c r="CY41" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ41" s="1"/>
-      <c r="DA41" s="1"/>
-      <c r="DB41" s="1"/>
+      <c r="DA41" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB41" t="s">
+        <v>77</v>
+      </c>
       <c r="DC41" s="1"/>
-      <c r="DD41" s="1"/>
+      <c r="DD41" t="s">
+        <v>77</v>
+      </c>
       <c r="DE41" s="1"/>
       <c r="DF41" s="1"/>
       <c r="DG41" s="1"/>
@@ -15780,11 +16127,11 @@
       </c>
       <c r="BO42" s="2"/>
       <c r="BP42" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ42" s="1"/>
       <c r="BR42" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS42" s="1"/>
       <c r="BT42" t="s">
@@ -15798,27 +16145,27 @@
       </c>
       <c r="BW42" s="2"/>
       <c r="BX42" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY42" s="1"/>
       <c r="BZ42" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA42" s="1"/>
       <c r="CB42" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC42" s="1"/>
       <c r="CD42" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE42" s="1"/>
       <c r="CF42" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG42" s="1"/>
       <c r="CH42" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI42" s="1"/>
       <c r="CJ42" t="s">
@@ -15856,12 +16203,20 @@
       <c r="CX42" t="s">
         <v>77</v>
       </c>
-      <c r="CY42" s="1"/>
+      <c r="CY42" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ42" s="1"/>
-      <c r="DA42" s="1"/>
-      <c r="DB42" s="1"/>
+      <c r="DA42" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB42" t="s">
+        <v>77</v>
+      </c>
       <c r="DC42" s="1"/>
-      <c r="DD42" s="1"/>
+      <c r="DD42" t="s">
+        <v>77</v>
+      </c>
       <c r="DE42" s="1"/>
       <c r="DF42" s="1"/>
       <c r="DG42" s="1"/>
@@ -16118,11 +16473,11 @@
       </c>
       <c r="BO43" s="2"/>
       <c r="BP43" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ43" s="1"/>
       <c r="BR43" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS43" s="1"/>
       <c r="BT43" t="s">
@@ -16136,27 +16491,27 @@
       </c>
       <c r="BW43" s="2"/>
       <c r="BX43" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY43" s="1"/>
       <c r="BZ43" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA43" s="1"/>
       <c r="CB43" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC43" s="1"/>
       <c r="CD43" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE43" s="1"/>
       <c r="CF43" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG43" s="1"/>
       <c r="CH43" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI43" s="1"/>
       <c r="CJ43" t="s">
@@ -16194,12 +16549,20 @@
       <c r="CX43" t="s">
         <v>77</v>
       </c>
-      <c r="CY43" s="1"/>
+      <c r="CY43" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ43" s="1"/>
-      <c r="DA43" s="1"/>
-      <c r="DB43" s="1"/>
+      <c r="DA43" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB43" t="s">
+        <v>77</v>
+      </c>
       <c r="DC43" s="1"/>
-      <c r="DD43" s="1"/>
+      <c r="DD43" t="s">
+        <v>77</v>
+      </c>
       <c r="DE43" s="1"/>
       <c r="DF43" s="1"/>
       <c r="DG43" s="1"/>
@@ -16454,11 +16817,11 @@
       </c>
       <c r="BO44" s="2"/>
       <c r="BP44" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ44" s="1"/>
       <c r="BR44" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS44" s="1"/>
       <c r="BT44" t="s">
@@ -16472,44 +16835,44 @@
       </c>
       <c r="BW44" s="2"/>
       <c r="BX44" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY44" s="1"/>
       <c r="BZ44" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA44" s="1"/>
       <c r="CB44" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC44" s="1"/>
       <c r="CD44" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE44" s="1"/>
       <c r="CF44" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG44" s="1"/>
       <c r="CH44" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI44" s="1"/>
       <c r="CJ44" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="CK44" s="1">
         <v>12</v>
       </c>
       <c r="CL44" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CM44" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="CN44" s="1"/>
       <c r="CO44" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CP44" t="s">
         <v>166</v>
@@ -16518,7 +16881,7 @@
         <v>9</v>
       </c>
       <c r="CR44" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CS44" t="s">
         <v>77</v>
@@ -16534,12 +16897,20 @@
       <c r="CX44" t="s">
         <v>77</v>
       </c>
-      <c r="CY44" s="1"/>
+      <c r="CY44" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ44" s="1"/>
-      <c r="DA44" s="1"/>
-      <c r="DB44" s="1"/>
+      <c r="DA44" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB44" t="s">
+        <v>77</v>
+      </c>
       <c r="DC44" s="1"/>
-      <c r="DD44" s="1"/>
+      <c r="DD44" t="s">
+        <v>77</v>
+      </c>
       <c r="DE44" s="1"/>
       <c r="DF44" s="1"/>
       <c r="DG44" s="1"/>
@@ -16610,7 +16981,7 @@
       <c r="FT44" s="1"/>
       <c r="FU44" s="1"/>
       <c r="FV44" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45">
@@ -16794,11 +17165,11 @@
       </c>
       <c r="BO45" s="2"/>
       <c r="BP45" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ45" s="1"/>
       <c r="BR45" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS45" s="1"/>
       <c r="BT45" t="s">
@@ -16812,44 +17183,44 @@
       </c>
       <c r="BW45" s="2"/>
       <c r="BX45" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY45" s="1"/>
       <c r="BZ45" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA45" s="1"/>
       <c r="CB45" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC45" s="1"/>
       <c r="CD45" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE45" s="1"/>
       <c r="CF45" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG45" s="1"/>
       <c r="CH45" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI45" s="1"/>
       <c r="CJ45" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="CK45" s="1">
         <v>26</v>
       </c>
       <c r="CL45" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CM45" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="CN45" s="1"/>
       <c r="CO45" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CP45" t="s">
         <v>166</v>
@@ -16858,7 +17229,7 @@
         <v>26</v>
       </c>
       <c r="CR45" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CS45" t="s">
         <v>77</v>
@@ -16874,12 +17245,20 @@
       <c r="CX45" t="s">
         <v>77</v>
       </c>
-      <c r="CY45" s="1"/>
+      <c r="CY45" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ45" s="1"/>
-      <c r="DA45" s="1"/>
-      <c r="DB45" s="1"/>
+      <c r="DA45" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB45" t="s">
+        <v>77</v>
+      </c>
       <c r="DC45" s="1"/>
-      <c r="DD45" s="1"/>
+      <c r="DD45" t="s">
+        <v>77</v>
+      </c>
       <c r="DE45" s="1"/>
       <c r="DF45" s="1"/>
       <c r="DG45" s="1"/>
@@ -16950,7 +17329,7 @@
       <c r="FT45" s="1"/>
       <c r="FU45" s="1"/>
       <c r="FV45" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46">
@@ -17134,11 +17513,11 @@
       </c>
       <c r="BO46" s="2"/>
       <c r="BP46" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ46" s="1"/>
       <c r="BR46" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS46" s="1"/>
       <c r="BT46" t="s">
@@ -17152,55 +17531,55 @@
       </c>
       <c r="BW46" s="2"/>
       <c r="BX46" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY46" s="1"/>
       <c r="BZ46" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA46" s="1"/>
       <c r="CB46" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC46" s="1"/>
       <c r="CD46" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE46" s="1"/>
       <c r="CF46" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG46" s="1"/>
       <c r="CH46" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI46" s="1"/>
       <c r="CJ46" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="CK46" s="1">
         <v>6</v>
       </c>
       <c r="CL46" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CM46" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="CN46" s="1">
         <v>17</v>
       </c>
       <c r="CO46" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CP46" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="CQ46" s="1">
         <v>12</v>
       </c>
       <c r="CR46" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CS46" t="s">
         <v>77</v>
@@ -17216,12 +17595,20 @@
       <c r="CX46" t="s">
         <v>77</v>
       </c>
-      <c r="CY46" s="1"/>
+      <c r="CY46" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ46" s="1"/>
-      <c r="DA46" s="1"/>
-      <c r="DB46" s="1"/>
+      <c r="DA46" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB46" t="s">
+        <v>77</v>
+      </c>
       <c r="DC46" s="1"/>
-      <c r="DD46" s="1"/>
+      <c r="DD46" t="s">
+        <v>77</v>
+      </c>
       <c r="DE46" s="1"/>
       <c r="DF46" s="1"/>
       <c r="DG46" s="1"/>
@@ -17292,7 +17679,7 @@
       <c r="FT46" s="1"/>
       <c r="FU46" s="1"/>
       <c r="FV46" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47">
@@ -17476,11 +17863,11 @@
       </c>
       <c r="BO47" s="2"/>
       <c r="BP47" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ47" s="1"/>
       <c r="BR47" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS47" s="1"/>
       <c r="BT47" t="s">
@@ -17494,27 +17881,27 @@
       </c>
       <c r="BW47" s="2"/>
       <c r="BX47" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY47" s="1"/>
       <c r="BZ47" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA47" s="1"/>
       <c r="CB47" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC47" s="1"/>
       <c r="CD47" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE47" s="1"/>
       <c r="CF47" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG47" s="1"/>
       <c r="CH47" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI47" s="1"/>
       <c r="CJ47" t="s">
@@ -17552,12 +17939,20 @@
       <c r="CX47" t="s">
         <v>77</v>
       </c>
-      <c r="CY47" s="1"/>
+      <c r="CY47" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ47" s="1"/>
-      <c r="DA47" s="1"/>
-      <c r="DB47" s="1"/>
+      <c r="DA47" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB47" t="s">
+        <v>77</v>
+      </c>
       <c r="DC47" s="1"/>
-      <c r="DD47" s="1"/>
+      <c r="DD47" t="s">
+        <v>77</v>
+      </c>
       <c r="DE47" s="1"/>
       <c r="DF47" s="1"/>
       <c r="DG47" s="1"/>
@@ -17628,7 +18023,7 @@
       <c r="FT47" s="1"/>
       <c r="FU47" s="1"/>
       <c r="FV47" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48">
@@ -17814,11 +18209,11 @@
       </c>
       <c r="BO48" s="2"/>
       <c r="BP48" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ48" s="1"/>
       <c r="BR48" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS48" s="1"/>
       <c r="BT48" t="s">
@@ -17832,27 +18227,27 @@
       </c>
       <c r="BW48" s="2"/>
       <c r="BX48" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY48" s="1"/>
       <c r="BZ48" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA48" s="1"/>
       <c r="CB48" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC48" s="1"/>
       <c r="CD48" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE48" s="1"/>
       <c r="CF48" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG48" s="1"/>
       <c r="CH48" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI48" s="1"/>
       <c r="CJ48" t="s">
@@ -17890,12 +18285,20 @@
       <c r="CX48" t="s">
         <v>77</v>
       </c>
-      <c r="CY48" s="1"/>
+      <c r="CY48" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ48" s="1"/>
-      <c r="DA48" s="1"/>
-      <c r="DB48" s="1"/>
+      <c r="DA48" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB48" t="s">
+        <v>77</v>
+      </c>
       <c r="DC48" s="1"/>
-      <c r="DD48" s="1"/>
+      <c r="DD48" t="s">
+        <v>77</v>
+      </c>
       <c r="DE48" s="1"/>
       <c r="DF48" s="1"/>
       <c r="DG48" s="1"/>
@@ -17966,7 +18369,7 @@
       <c r="FT48" s="1"/>
       <c r="FU48" s="1"/>
       <c r="FV48" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49">
@@ -18150,11 +18553,11 @@
       </c>
       <c r="BO49" s="2"/>
       <c r="BP49" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ49" s="1"/>
       <c r="BR49" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS49" s="1"/>
       <c r="BT49" t="s">
@@ -18168,27 +18571,27 @@
       </c>
       <c r="BW49" s="2"/>
       <c r="BX49" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY49" s="1"/>
       <c r="BZ49" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA49" s="1"/>
       <c r="CB49" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC49" s="1"/>
       <c r="CD49" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE49" s="1"/>
       <c r="CF49" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG49" s="1"/>
       <c r="CH49" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI49" s="1"/>
       <c r="CJ49" t="s">
@@ -18226,12 +18629,20 @@
       <c r="CX49" t="s">
         <v>77</v>
       </c>
-      <c r="CY49" s="1"/>
+      <c r="CY49" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ49" s="1"/>
-      <c r="DA49" s="1"/>
-      <c r="DB49" s="1"/>
+      <c r="DA49" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB49" t="s">
+        <v>77</v>
+      </c>
       <c r="DC49" s="1"/>
-      <c r="DD49" s="1"/>
+      <c r="DD49" t="s">
+        <v>77</v>
+      </c>
       <c r="DE49" s="1"/>
       <c r="DF49" s="1"/>
       <c r="DG49" s="1"/>
@@ -18302,7 +18713,7 @@
       <c r="FT49" s="1"/>
       <c r="FU49" s="1"/>
       <c r="FV49" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50">
@@ -18486,11 +18897,11 @@
       </c>
       <c r="BO50" s="2"/>
       <c r="BP50" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ50" s="1"/>
       <c r="BR50" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS50" s="1"/>
       <c r="BT50" t="s">
@@ -18504,27 +18915,27 @@
       </c>
       <c r="BW50" s="2"/>
       <c r="BX50" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY50" s="1"/>
       <c r="BZ50" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA50" s="1"/>
       <c r="CB50" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC50" s="1"/>
       <c r="CD50" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE50" s="1"/>
       <c r="CF50" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG50" s="1"/>
       <c r="CH50" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI50" s="1"/>
       <c r="CJ50" t="s">
@@ -18562,12 +18973,20 @@
       <c r="CX50" t="s">
         <v>77</v>
       </c>
-      <c r="CY50" s="1"/>
+      <c r="CY50" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ50" s="1"/>
-      <c r="DA50" s="1"/>
-      <c r="DB50" s="1"/>
+      <c r="DA50" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB50" t="s">
+        <v>77</v>
+      </c>
       <c r="DC50" s="1"/>
-      <c r="DD50" s="1"/>
+      <c r="DD50" t="s">
+        <v>77</v>
+      </c>
       <c r="DE50" s="1"/>
       <c r="DF50" s="1"/>
       <c r="DG50" s="1"/>
@@ -18638,7 +19057,7 @@
       <c r="FT50" s="1"/>
       <c r="FU50" s="1"/>
       <c r="FV50" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51">
@@ -18822,11 +19241,11 @@
       </c>
       <c r="BO51" s="2"/>
       <c r="BP51" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ51" s="1"/>
       <c r="BR51" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS51" s="1"/>
       <c r="BT51" t="s">
@@ -18840,27 +19259,27 @@
       </c>
       <c r="BW51" s="2"/>
       <c r="BX51" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY51" s="1"/>
       <c r="BZ51" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA51" s="1"/>
       <c r="CB51" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC51" s="1"/>
       <c r="CD51" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE51" s="1"/>
       <c r="CF51" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG51" s="1"/>
       <c r="CH51" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI51" s="1"/>
       <c r="CJ51" t="s">
@@ -18898,12 +19317,20 @@
       <c r="CX51" t="s">
         <v>77</v>
       </c>
-      <c r="CY51" s="1"/>
+      <c r="CY51" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ51" s="1"/>
-      <c r="DA51" s="1"/>
-      <c r="DB51" s="1"/>
+      <c r="DA51" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB51" t="s">
+        <v>77</v>
+      </c>
       <c r="DC51" s="1"/>
-      <c r="DD51" s="1"/>
+      <c r="DD51" t="s">
+        <v>77</v>
+      </c>
       <c r="DE51" s="1"/>
       <c r="DF51" s="1"/>
       <c r="DG51" s="1"/>
@@ -18974,7 +19401,7 @@
       <c r="FT51" s="1"/>
       <c r="FU51" s="1"/>
       <c r="FV51" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52">
@@ -19158,11 +19585,11 @@
       </c>
       <c r="BO52" s="2"/>
       <c r="BP52" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ52" s="1"/>
       <c r="BR52" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS52" s="1"/>
       <c r="BT52" t="s">
@@ -19176,27 +19603,27 @@
       </c>
       <c r="BW52" s="2"/>
       <c r="BX52" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY52" s="1"/>
       <c r="BZ52" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA52" s="1"/>
       <c r="CB52" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC52" s="1"/>
       <c r="CD52" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE52" s="1"/>
       <c r="CF52" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG52" s="1"/>
       <c r="CH52" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI52" s="1"/>
       <c r="CJ52" t="s">
@@ -19234,12 +19661,20 @@
       <c r="CX52" t="s">
         <v>77</v>
       </c>
-      <c r="CY52" s="1"/>
+      <c r="CY52" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ52" s="1"/>
-      <c r="DA52" s="1"/>
-      <c r="DB52" s="1"/>
+      <c r="DA52" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB52" t="s">
+        <v>77</v>
+      </c>
       <c r="DC52" s="1"/>
-      <c r="DD52" s="1"/>
+      <c r="DD52" t="s">
+        <v>77</v>
+      </c>
       <c r="DE52" s="1"/>
       <c r="DF52" s="1"/>
       <c r="DG52" s="1"/>
@@ -19310,7 +19745,7 @@
       <c r="FT52" s="1"/>
       <c r="FU52" s="1"/>
       <c r="FV52" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53">
@@ -19494,11 +19929,11 @@
       </c>
       <c r="BO53" s="2"/>
       <c r="BP53" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ53" s="1"/>
       <c r="BR53" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS53" s="1"/>
       <c r="BT53" t="s">
@@ -19512,27 +19947,27 @@
       </c>
       <c r="BW53" s="2"/>
       <c r="BX53" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY53" s="1"/>
       <c r="BZ53" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA53" s="1"/>
       <c r="CB53" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC53" s="1"/>
       <c r="CD53" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE53" s="1"/>
       <c r="CF53" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG53" s="1"/>
       <c r="CH53" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI53" s="1"/>
       <c r="CJ53" t="s">
@@ -19570,12 +20005,20 @@
       <c r="CX53" t="s">
         <v>77</v>
       </c>
-      <c r="CY53" s="1"/>
+      <c r="CY53" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ53" s="1"/>
-      <c r="DA53" s="1"/>
-      <c r="DB53" s="1"/>
+      <c r="DA53" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB53" t="s">
+        <v>77</v>
+      </c>
       <c r="DC53" s="1"/>
-      <c r="DD53" s="1"/>
+      <c r="DD53" t="s">
+        <v>77</v>
+      </c>
       <c r="DE53" s="1"/>
       <c r="DF53" s="1"/>
       <c r="DG53" s="1"/>
@@ -19646,7 +20089,7 @@
       <c r="FT53" s="1"/>
       <c r="FU53" s="1"/>
       <c r="FV53" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54">
@@ -19830,11 +20273,11 @@
       </c>
       <c r="BO54" s="2"/>
       <c r="BP54" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ54" s="1"/>
       <c r="BR54" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS54" s="1"/>
       <c r="BT54" t="s">
@@ -19848,27 +20291,27 @@
       </c>
       <c r="BW54" s="2"/>
       <c r="BX54" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY54" s="1"/>
       <c r="BZ54" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA54" s="1"/>
       <c r="CB54" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC54" s="1"/>
       <c r="CD54" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE54" s="1"/>
       <c r="CF54" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG54" s="1"/>
       <c r="CH54" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI54" s="1"/>
       <c r="CJ54" t="s">
@@ -19906,12 +20349,20 @@
       <c r="CX54" t="s">
         <v>77</v>
       </c>
-      <c r="CY54" s="1"/>
+      <c r="CY54" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ54" s="1"/>
-      <c r="DA54" s="1"/>
-      <c r="DB54" s="1"/>
+      <c r="DA54" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB54" t="s">
+        <v>77</v>
+      </c>
       <c r="DC54" s="1"/>
-      <c r="DD54" s="1"/>
+      <c r="DD54" t="s">
+        <v>77</v>
+      </c>
       <c r="DE54" s="1"/>
       <c r="DF54" s="1"/>
       <c r="DG54" s="1"/>
@@ -19982,7 +20433,7 @@
       <c r="FT54" s="1"/>
       <c r="FU54" s="1"/>
       <c r="FV54" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55">
@@ -20168,11 +20619,11 @@
       </c>
       <c r="BO55" s="2"/>
       <c r="BP55" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ55" s="1"/>
       <c r="BR55" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS55" s="1"/>
       <c r="BT55" t="s">
@@ -20186,27 +20637,27 @@
       </c>
       <c r="BW55" s="2"/>
       <c r="BX55" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY55" s="1"/>
       <c r="BZ55" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA55" s="1"/>
       <c r="CB55" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC55" s="1"/>
       <c r="CD55" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE55" s="1"/>
       <c r="CF55" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG55" s="1"/>
       <c r="CH55" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI55" s="1"/>
       <c r="CJ55" t="s">
@@ -20244,12 +20695,20 @@
       <c r="CX55" t="s">
         <v>77</v>
       </c>
-      <c r="CY55" s="1"/>
+      <c r="CY55" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ55" s="1"/>
-      <c r="DA55" s="1"/>
-      <c r="DB55" s="1"/>
+      <c r="DA55" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB55" t="s">
+        <v>77</v>
+      </c>
       <c r="DC55" s="1"/>
-      <c r="DD55" s="1"/>
+      <c r="DD55" t="s">
+        <v>77</v>
+      </c>
       <c r="DE55" s="1"/>
       <c r="DF55" s="1"/>
       <c r="DG55" s="1"/>
@@ -20320,7 +20779,7 @@
       <c r="FT55" s="1"/>
       <c r="FU55" s="1"/>
       <c r="FV55" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56">
@@ -20504,11 +20963,11 @@
       </c>
       <c r="BO56" s="2"/>
       <c r="BP56" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ56" s="1"/>
       <c r="BR56" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS56" s="1"/>
       <c r="BT56" t="s">
@@ -20522,42 +20981,46 @@
       </c>
       <c r="BW56" s="2"/>
       <c r="BX56" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY56" s="1"/>
       <c r="BZ56" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA56" s="1"/>
       <c r="CB56" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC56" s="1"/>
       <c r="CD56" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE56" s="1"/>
       <c r="CF56" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG56" s="1"/>
       <c r="CH56" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI56" s="1"/>
       <c r="CJ56" t="s">
-        <v>77</v>
-      </c>
-      <c r="CK56" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="CK56" s="1">
+        <v>24</v>
+      </c>
       <c r="CL56" t="s">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="CM56" t="s">
-        <v>77</v>
-      </c>
-      <c r="CN56" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="CN56" s="1">
+        <v>43</v>
+      </c>
       <c r="CO56" t="s">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="CP56" t="s">
         <v>77</v>
@@ -20580,12 +21043,20 @@
       <c r="CX56" t="s">
         <v>77</v>
       </c>
-      <c r="CY56" s="1"/>
+      <c r="CY56" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ56" s="1"/>
-      <c r="DA56" s="1"/>
-      <c r="DB56" s="1"/>
+      <c r="DA56" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB56" t="s">
+        <v>77</v>
+      </c>
       <c r="DC56" s="1"/>
-      <c r="DD56" s="1"/>
+      <c r="DD56" t="s">
+        <v>77</v>
+      </c>
       <c r="DE56" s="1"/>
       <c r="DF56" s="1"/>
       <c r="DG56" s="1"/>
@@ -20656,7 +21127,7 @@
       <c r="FT56" s="1"/>
       <c r="FU56" s="1"/>
       <c r="FV56" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57">
@@ -20840,11 +21311,11 @@
       </c>
       <c r="BO57" s="2"/>
       <c r="BP57" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ57" s="1"/>
       <c r="BR57" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS57" s="1"/>
       <c r="BT57" t="s">
@@ -20858,42 +21329,46 @@
       </c>
       <c r="BW57" s="2"/>
       <c r="BX57" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY57" s="1"/>
       <c r="BZ57" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA57" s="1"/>
       <c r="CB57" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC57" s="1"/>
       <c r="CD57" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE57" s="1"/>
       <c r="CF57" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG57" s="1"/>
       <c r="CH57" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI57" s="1"/>
       <c r="CJ57" t="s">
-        <v>77</v>
-      </c>
-      <c r="CK57" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="CK57" s="1">
+        <v>6</v>
+      </c>
       <c r="CL57" t="s">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="CM57" t="s">
-        <v>77</v>
-      </c>
-      <c r="CN57" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="CN57" s="1">
+        <v>10</v>
+      </c>
       <c r="CO57" t="s">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="CP57" t="s">
         <v>77</v>
@@ -20916,12 +21391,20 @@
       <c r="CX57" t="s">
         <v>77</v>
       </c>
-      <c r="CY57" s="1"/>
+      <c r="CY57" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ57" s="1"/>
-      <c r="DA57" s="1"/>
-      <c r="DB57" s="1"/>
+      <c r="DA57" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB57" t="s">
+        <v>77</v>
+      </c>
       <c r="DC57" s="1"/>
-      <c r="DD57" s="1"/>
+      <c r="DD57" t="s">
+        <v>77</v>
+      </c>
       <c r="DE57" s="1"/>
       <c r="DF57" s="1"/>
       <c r="DG57" s="1"/>
@@ -20992,7 +21475,7 @@
       <c r="FT57" s="1"/>
       <c r="FU57" s="1"/>
       <c r="FV57" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58">
@@ -21142,17 +21625,19 @@
         <v>174</v>
       </c>
       <c r="BB58" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="BC58" t="s">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="BD58" t="s">
-        <v>77</v>
-      </c>
-      <c r="BE58" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="BE58" s="1">
+        <v>1</v>
+      </c>
       <c r="BF58" t="s">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="BG58" t="s">
         <v>77</v>
@@ -21166,23 +21651,23 @@
         <v>77</v>
       </c>
       <c r="BL58" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BM58" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="BN58" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="BO58" s="2">
         <v>45497</v>
       </c>
       <c r="BP58" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ58" s="1"/>
       <c r="BR58" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS58" s="1"/>
       <c r="BT58" t="s">
@@ -21196,27 +21681,27 @@
       </c>
       <c r="BW58" s="2"/>
       <c r="BX58" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY58" s="1"/>
       <c r="BZ58" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA58" s="1"/>
       <c r="CB58" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC58" s="1"/>
       <c r="CD58" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE58" s="1"/>
       <c r="CF58" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG58" s="1"/>
       <c r="CH58" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI58" s="1"/>
       <c r="CJ58" t="s">
@@ -21254,12 +21739,20 @@
       <c r="CX58" t="s">
         <v>77</v>
       </c>
-      <c r="CY58" s="1"/>
+      <c r="CY58" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ58" s="1"/>
-      <c r="DA58" s="1"/>
-      <c r="DB58" s="1"/>
+      <c r="DA58" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB58" t="s">
+        <v>77</v>
+      </c>
       <c r="DC58" s="1"/>
-      <c r="DD58" s="1"/>
+      <c r="DD58" t="s">
+        <v>77</v>
+      </c>
       <c r="DE58" s="1"/>
       <c r="DF58" s="1"/>
       <c r="DG58" s="1"/>
@@ -21480,17 +21973,19 @@
         <v>174</v>
       </c>
       <c r="BB59" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="BC59" t="s">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="BD59" t="s">
-        <v>77</v>
-      </c>
-      <c r="BE59" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="BE59" s="1">
+        <v>1</v>
+      </c>
       <c r="BF59" t="s">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="BG59" t="s">
         <v>77</v>
@@ -21504,23 +21999,23 @@
         <v>77</v>
       </c>
       <c r="BL59" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BM59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="BN59" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="BO59" s="2">
         <v>45497</v>
       </c>
       <c r="BP59" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ59" s="1"/>
       <c r="BR59" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS59" s="1"/>
       <c r="BT59" t="s">
@@ -21534,27 +22029,27 @@
       </c>
       <c r="BW59" s="2"/>
       <c r="BX59" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY59" s="1"/>
       <c r="BZ59" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA59" s="1"/>
       <c r="CB59" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC59" s="1"/>
       <c r="CD59" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE59" s="1"/>
       <c r="CF59" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG59" s="1"/>
       <c r="CH59" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI59" s="1"/>
       <c r="CJ59" t="s">
@@ -21592,12 +22087,20 @@
       <c r="CX59" t="s">
         <v>77</v>
       </c>
-      <c r="CY59" s="1"/>
+      <c r="CY59" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ59" s="1"/>
-      <c r="DA59" s="1"/>
-      <c r="DB59" s="1"/>
+      <c r="DA59" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB59" t="s">
+        <v>77</v>
+      </c>
       <c r="DC59" s="1"/>
-      <c r="DD59" s="1"/>
+      <c r="DD59" t="s">
+        <v>77</v>
+      </c>
       <c r="DE59" s="1"/>
       <c r="DF59" s="1"/>
       <c r="DG59" s="1"/>
@@ -21852,11 +22355,11 @@
       </c>
       <c r="BO60" s="2"/>
       <c r="BP60" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ60" s="1"/>
       <c r="BR60" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS60" s="1"/>
       <c r="BT60" t="s">
@@ -21870,53 +22373,55 @@
       </c>
       <c r="BW60" s="2"/>
       <c r="BX60" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY60" s="1"/>
       <c r="BZ60" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA60" s="1"/>
       <c r="CB60" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC60" s="1"/>
       <c r="CD60" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE60" s="1"/>
       <c r="CF60" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG60" s="1"/>
       <c r="CH60" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI60" s="1"/>
       <c r="CJ60" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="CK60" s="1">
         <v>2</v>
       </c>
       <c r="CL60" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CM60" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="CN60" s="1">
         <v>24</v>
       </c>
       <c r="CO60" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CP60" t="s">
-        <v>77</v>
-      </c>
-      <c r="CQ60" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="CQ60" s="1">
+        <v>6</v>
+      </c>
       <c r="CR60" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="CS60" t="s">
         <v>77</v>
@@ -21932,12 +22437,20 @@
       <c r="CX60" t="s">
         <v>77</v>
       </c>
-      <c r="CY60" s="1"/>
+      <c r="CY60" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ60" s="1"/>
-      <c r="DA60" s="1"/>
-      <c r="DB60" s="1"/>
+      <c r="DA60" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB60" t="s">
+        <v>77</v>
+      </c>
       <c r="DC60" s="1"/>
-      <c r="DD60" s="1"/>
+      <c r="DD60" t="s">
+        <v>77</v>
+      </c>
       <c r="DE60" s="1"/>
       <c r="DF60" s="1"/>
       <c r="DG60" s="1"/>
@@ -22008,7 +22521,7 @@
       <c r="FT60" s="1"/>
       <c r="FU60" s="1"/>
       <c r="FV60" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61">
@@ -22192,11 +22705,11 @@
       </c>
       <c r="BO61" s="2"/>
       <c r="BP61" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ61" s="1"/>
       <c r="BR61" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS61" s="1"/>
       <c r="BT61" t="s">
@@ -22210,53 +22723,55 @@
       </c>
       <c r="BW61" s="2"/>
       <c r="BX61" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY61" s="1"/>
       <c r="BZ61" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA61" s="1"/>
       <c r="CB61" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC61" s="1"/>
       <c r="CD61" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE61" s="1"/>
       <c r="CF61" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG61" s="1"/>
       <c r="CH61" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI61" s="1"/>
       <c r="CJ61" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="CK61" s="1">
         <v>4</v>
       </c>
       <c r="CL61" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CM61" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="CN61" s="1">
         <v>11</v>
       </c>
       <c r="CO61" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CP61" t="s">
-        <v>77</v>
-      </c>
-      <c r="CQ61" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="CQ61" s="1">
+        <v>15</v>
+      </c>
       <c r="CR61" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="CS61" t="s">
         <v>77</v>
@@ -22272,12 +22787,20 @@
       <c r="CX61" t="s">
         <v>77</v>
       </c>
-      <c r="CY61" s="1"/>
+      <c r="CY61" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ61" s="1"/>
-      <c r="DA61" s="1"/>
-      <c r="DB61" s="1"/>
+      <c r="DA61" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB61" t="s">
+        <v>77</v>
+      </c>
       <c r="DC61" s="1"/>
-      <c r="DD61" s="1"/>
+      <c r="DD61" t="s">
+        <v>77</v>
+      </c>
       <c r="DE61" s="1"/>
       <c r="DF61" s="1"/>
       <c r="DG61" s="1"/>
@@ -22348,7 +22871,7 @@
       <c r="FT61" s="1"/>
       <c r="FU61" s="1"/>
       <c r="FV61" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62">
@@ -22532,11 +23055,11 @@
       </c>
       <c r="BO62" s="2"/>
       <c r="BP62" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ62" s="1"/>
       <c r="BR62" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS62" s="1"/>
       <c r="BT62" t="s">
@@ -22550,27 +23073,27 @@
       </c>
       <c r="BW62" s="2"/>
       <c r="BX62" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY62" s="1"/>
       <c r="BZ62" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA62" s="1"/>
       <c r="CB62" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC62" s="1"/>
       <c r="CD62" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE62" s="1"/>
       <c r="CF62" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG62" s="1"/>
       <c r="CH62" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI62" s="1"/>
       <c r="CJ62" t="s">
@@ -22608,12 +23131,20 @@
       <c r="CX62" t="s">
         <v>77</v>
       </c>
-      <c r="CY62" s="1"/>
+      <c r="CY62" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ62" s="1"/>
-      <c r="DA62" s="1"/>
-      <c r="DB62" s="1"/>
+      <c r="DA62" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB62" t="s">
+        <v>77</v>
+      </c>
       <c r="DC62" s="1"/>
-      <c r="DD62" s="1"/>
+      <c r="DD62" t="s">
+        <v>77</v>
+      </c>
       <c r="DE62" s="1"/>
       <c r="DF62" s="1"/>
       <c r="DG62" s="1"/>
@@ -22868,11 +23399,11 @@
       </c>
       <c r="BO63" s="2"/>
       <c r="BP63" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ63" s="1"/>
       <c r="BR63" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS63" s="1"/>
       <c r="BT63" t="s">
@@ -22886,27 +23417,27 @@
       </c>
       <c r="BW63" s="2"/>
       <c r="BX63" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY63" s="1"/>
       <c r="BZ63" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA63" s="1"/>
       <c r="CB63" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC63" s="1"/>
       <c r="CD63" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE63" s="1"/>
       <c r="CF63" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG63" s="1"/>
       <c r="CH63" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI63" s="1"/>
       <c r="CJ63" t="s">
@@ -22944,12 +23475,20 @@
       <c r="CX63" t="s">
         <v>77</v>
       </c>
-      <c r="CY63" s="1"/>
+      <c r="CY63" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ63" s="1"/>
-      <c r="DA63" s="1"/>
-      <c r="DB63" s="1"/>
+      <c r="DA63" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB63" t="s">
+        <v>77</v>
+      </c>
       <c r="DC63" s="1"/>
-      <c r="DD63" s="1"/>
+      <c r="DD63" t="s">
+        <v>77</v>
+      </c>
       <c r="DE63" s="1"/>
       <c r="DF63" s="1"/>
       <c r="DG63" s="1"/>
@@ -23204,11 +23743,11 @@
       </c>
       <c r="BO64" s="2"/>
       <c r="BP64" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ64" s="1"/>
       <c r="BR64" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS64" s="1"/>
       <c r="BT64" t="s">
@@ -23222,27 +23761,27 @@
       </c>
       <c r="BW64" s="2"/>
       <c r="BX64" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY64" s="1"/>
       <c r="BZ64" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA64" s="1"/>
       <c r="CB64" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC64" s="1"/>
       <c r="CD64" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE64" s="1"/>
       <c r="CF64" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG64" s="1"/>
       <c r="CH64" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI64" s="1"/>
       <c r="CJ64" t="s">
@@ -23280,12 +23819,20 @@
       <c r="CX64" t="s">
         <v>77</v>
       </c>
-      <c r="CY64" s="1"/>
+      <c r="CY64" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ64" s="1"/>
-      <c r="DA64" s="1"/>
-      <c r="DB64" s="1"/>
+      <c r="DA64" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB64" t="s">
+        <v>77</v>
+      </c>
       <c r="DC64" s="1"/>
-      <c r="DD64" s="1"/>
+      <c r="DD64" t="s">
+        <v>77</v>
+      </c>
       <c r="DE64" s="1"/>
       <c r="DF64" s="1"/>
       <c r="DG64" s="1"/>
@@ -23540,11 +24087,11 @@
       </c>
       <c r="BO65" s="2"/>
       <c r="BP65" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ65" s="1"/>
       <c r="BR65" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS65" s="1"/>
       <c r="BT65" t="s">
@@ -23558,49 +24105,55 @@
       </c>
       <c r="BW65" s="2"/>
       <c r="BX65" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY65" s="1"/>
       <c r="BZ65" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA65" s="1"/>
       <c r="CB65" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC65" s="1"/>
       <c r="CD65" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE65" s="1"/>
       <c r="CF65" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG65" s="1"/>
       <c r="CH65" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI65" s="1"/>
       <c r="CJ65" t="s">
-        <v>77</v>
-      </c>
-      <c r="CK65" s="1"/>
+        <v>237</v>
+      </c>
+      <c r="CK65" s="1">
+        <v>4</v>
+      </c>
       <c r="CL65" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="CM65" t="s">
-        <v>77</v>
-      </c>
-      <c r="CN65" s="1"/>
+        <v>249</v>
+      </c>
+      <c r="CN65" s="1">
+        <v>4</v>
+      </c>
       <c r="CO65" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="CP65" t="s">
-        <v>77</v>
-      </c>
-      <c r="CQ65" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="CQ65" s="1">
+        <v>43</v>
+      </c>
       <c r="CR65" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="CS65" t="s">
         <v>77</v>
@@ -23616,12 +24169,20 @@
       <c r="CX65" t="s">
         <v>77</v>
       </c>
-      <c r="CY65" s="1"/>
+      <c r="CY65" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ65" s="1"/>
-      <c r="DA65" s="1"/>
-      <c r="DB65" s="1"/>
+      <c r="DA65" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB65" t="s">
+        <v>77</v>
+      </c>
       <c r="DC65" s="1"/>
-      <c r="DD65" s="1"/>
+      <c r="DD65" t="s">
+        <v>77</v>
+      </c>
       <c r="DE65" s="1"/>
       <c r="DF65" s="1"/>
       <c r="DG65" s="1"/>
@@ -23692,7 +24253,7 @@
       <c r="FT65" s="1"/>
       <c r="FU65" s="1"/>
       <c r="FV65" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66">
@@ -23876,11 +24437,11 @@
       </c>
       <c r="BO66" s="2"/>
       <c r="BP66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ66" s="1"/>
       <c r="BR66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS66" s="1"/>
       <c r="BT66" t="s">
@@ -23894,27 +24455,27 @@
       </c>
       <c r="BW66" s="2"/>
       <c r="BX66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY66" s="1"/>
       <c r="BZ66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA66" s="1"/>
       <c r="CB66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC66" s="1"/>
       <c r="CD66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE66" s="1"/>
       <c r="CF66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG66" s="1"/>
       <c r="CH66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI66" s="1"/>
       <c r="CJ66" t="s">
@@ -23952,12 +24513,20 @@
       <c r="CX66" t="s">
         <v>77</v>
       </c>
-      <c r="CY66" s="1"/>
+      <c r="CY66" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ66" s="1"/>
-      <c r="DA66" s="1"/>
-      <c r="DB66" s="1"/>
+      <c r="DA66" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB66" t="s">
+        <v>77</v>
+      </c>
       <c r="DC66" s="1"/>
-      <c r="DD66" s="1"/>
+      <c r="DD66" t="s">
+        <v>77</v>
+      </c>
       <c r="DE66" s="1"/>
       <c r="DF66" s="1"/>
       <c r="DG66" s="1"/>
@@ -24028,7 +24597,7 @@
       <c r="FT66" s="1"/>
       <c r="FU66" s="1"/>
       <c r="FV66" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="67">
@@ -24212,11 +24781,11 @@
       </c>
       <c r="BO67" s="2"/>
       <c r="BP67" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ67" s="1"/>
       <c r="BR67" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS67" s="1"/>
       <c r="BT67" t="s">
@@ -24230,27 +24799,27 @@
       </c>
       <c r="BW67" s="2"/>
       <c r="BX67" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY67" s="1"/>
       <c r="BZ67" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA67" s="1"/>
       <c r="CB67" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC67" s="1"/>
       <c r="CD67" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE67" s="1"/>
       <c r="CF67" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG67" s="1"/>
       <c r="CH67" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI67" s="1"/>
       <c r="CJ67" t="s">
@@ -24288,12 +24857,20 @@
       <c r="CX67" t="s">
         <v>77</v>
       </c>
-      <c r="CY67" s="1"/>
+      <c r="CY67" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ67" s="1"/>
-      <c r="DA67" s="1"/>
-      <c r="DB67" s="1"/>
+      <c r="DA67" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB67" t="s">
+        <v>77</v>
+      </c>
       <c r="DC67" s="1"/>
-      <c r="DD67" s="1"/>
+      <c r="DD67" t="s">
+        <v>77</v>
+      </c>
       <c r="DE67" s="1"/>
       <c r="DF67" s="1"/>
       <c r="DG67" s="1"/>
@@ -24364,7 +24941,7 @@
       <c r="FT67" s="1"/>
       <c r="FU67" s="1"/>
       <c r="FV67" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68">
@@ -24548,11 +25125,11 @@
       </c>
       <c r="BO68" s="2"/>
       <c r="BP68" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ68" s="1"/>
       <c r="BR68" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS68" s="1"/>
       <c r="BT68" t="s">
@@ -24566,27 +25143,27 @@
       </c>
       <c r="BW68" s="2"/>
       <c r="BX68" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY68" s="1"/>
       <c r="BZ68" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA68" s="1"/>
       <c r="CB68" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC68" s="1"/>
       <c r="CD68" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE68" s="1"/>
       <c r="CF68" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG68" s="1"/>
       <c r="CH68" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI68" s="1"/>
       <c r="CJ68" t="s">
@@ -24624,12 +25201,20 @@
       <c r="CX68" t="s">
         <v>77</v>
       </c>
-      <c r="CY68" s="1"/>
+      <c r="CY68" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ68" s="1"/>
-      <c r="DA68" s="1"/>
-      <c r="DB68" s="1"/>
+      <c r="DA68" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB68" t="s">
+        <v>77</v>
+      </c>
       <c r="DC68" s="1"/>
-      <c r="DD68" s="1"/>
+      <c r="DD68" t="s">
+        <v>77</v>
+      </c>
       <c r="DE68" s="1"/>
       <c r="DF68" s="1"/>
       <c r="DG68" s="1"/>
@@ -24700,7 +25285,7 @@
       <c r="FT68" s="1"/>
       <c r="FU68" s="1"/>
       <c r="FV68" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69">
@@ -24884,11 +25469,11 @@
       </c>
       <c r="BO69" s="2"/>
       <c r="BP69" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ69" s="1"/>
       <c r="BR69" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS69" s="1"/>
       <c r="BT69" t="s">
@@ -24902,27 +25487,27 @@
       </c>
       <c r="BW69" s="2"/>
       <c r="BX69" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY69" s="1"/>
       <c r="BZ69" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA69" s="1"/>
       <c r="CB69" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC69" s="1"/>
       <c r="CD69" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE69" s="1"/>
       <c r="CF69" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG69" s="1"/>
       <c r="CH69" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI69" s="1"/>
       <c r="CJ69" t="s">
@@ -24960,12 +25545,20 @@
       <c r="CX69" t="s">
         <v>77</v>
       </c>
-      <c r="CY69" s="1"/>
+      <c r="CY69" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ69" s="1"/>
-      <c r="DA69" s="1"/>
-      <c r="DB69" s="1"/>
+      <c r="DA69" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB69" t="s">
+        <v>77</v>
+      </c>
       <c r="DC69" s="1"/>
-      <c r="DD69" s="1"/>
+      <c r="DD69" t="s">
+        <v>77</v>
+      </c>
       <c r="DE69" s="1"/>
       <c r="DF69" s="1"/>
       <c r="DG69" s="1"/>
@@ -25036,7 +25629,7 @@
       <c r="FT69" s="1"/>
       <c r="FU69" s="1"/>
       <c r="FV69" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70">
@@ -25220,11 +25813,11 @@
       </c>
       <c r="BO70" s="2"/>
       <c r="BP70" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ70" s="1"/>
       <c r="BR70" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS70" s="1"/>
       <c r="BT70" t="s">
@@ -25238,27 +25831,27 @@
       </c>
       <c r="BW70" s="2"/>
       <c r="BX70" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY70" s="1"/>
       <c r="BZ70" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA70" s="1"/>
       <c r="CB70" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC70" s="1"/>
       <c r="CD70" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE70" s="1"/>
       <c r="CF70" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG70" s="1"/>
       <c r="CH70" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI70" s="1"/>
       <c r="CJ70" t="s">
@@ -25296,12 +25889,20 @@
       <c r="CX70" t="s">
         <v>77</v>
       </c>
-      <c r="CY70" s="1"/>
+      <c r="CY70" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ70" s="1"/>
-      <c r="DA70" s="1"/>
-      <c r="DB70" s="1"/>
+      <c r="DA70" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB70" t="s">
+        <v>77</v>
+      </c>
       <c r="DC70" s="1"/>
-      <c r="DD70" s="1"/>
+      <c r="DD70" t="s">
+        <v>77</v>
+      </c>
       <c r="DE70" s="1"/>
       <c r="DF70" s="1"/>
       <c r="DG70" s="1"/>
@@ -25372,7 +25973,7 @@
       <c r="FT70" s="1"/>
       <c r="FU70" s="1"/>
       <c r="FV70" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71">
@@ -25556,11 +26157,11 @@
       </c>
       <c r="BO71" s="2"/>
       <c r="BP71" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ71" s="1"/>
       <c r="BR71" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS71" s="1"/>
       <c r="BT71" t="s">
@@ -25574,27 +26175,27 @@
       </c>
       <c r="BW71" s="2"/>
       <c r="BX71" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY71" s="1"/>
       <c r="BZ71" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA71" s="1"/>
       <c r="CB71" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC71" s="1"/>
       <c r="CD71" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE71" s="1"/>
       <c r="CF71" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG71" s="1"/>
       <c r="CH71" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI71" s="1"/>
       <c r="CJ71" t="s">
@@ -25632,12 +26233,20 @@
       <c r="CX71" t="s">
         <v>77</v>
       </c>
-      <c r="CY71" s="1"/>
+      <c r="CY71" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ71" s="1"/>
-      <c r="DA71" s="1"/>
-      <c r="DB71" s="1"/>
+      <c r="DA71" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB71" t="s">
+        <v>77</v>
+      </c>
       <c r="DC71" s="1"/>
-      <c r="DD71" s="1"/>
+      <c r="DD71" t="s">
+        <v>77</v>
+      </c>
       <c r="DE71" s="1"/>
       <c r="DF71" s="1"/>
       <c r="DG71" s="1"/>
@@ -25708,7 +26317,7 @@
       <c r="FT71" s="1"/>
       <c r="FU71" s="1"/>
       <c r="FV71" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72">
@@ -25894,11 +26503,11 @@
       </c>
       <c r="BO72" s="2"/>
       <c r="BP72" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ72" s="1"/>
       <c r="BR72" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS72" s="1"/>
       <c r="BT72" t="s">
@@ -25912,27 +26521,27 @@
       </c>
       <c r="BW72" s="2"/>
       <c r="BX72" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY72" s="1"/>
       <c r="BZ72" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA72" s="1"/>
       <c r="CB72" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC72" s="1"/>
       <c r="CD72" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE72" s="1"/>
       <c r="CF72" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG72" s="1"/>
       <c r="CH72" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI72" s="1"/>
       <c r="CJ72" t="s">
@@ -25970,12 +26579,20 @@
       <c r="CX72" t="s">
         <v>77</v>
       </c>
-      <c r="CY72" s="1"/>
+      <c r="CY72" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ72" s="1"/>
-      <c r="DA72" s="1"/>
-      <c r="DB72" s="1"/>
+      <c r="DA72" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB72" t="s">
+        <v>77</v>
+      </c>
       <c r="DC72" s="1"/>
-      <c r="DD72" s="1"/>
+      <c r="DD72" t="s">
+        <v>77</v>
+      </c>
       <c r="DE72" s="1"/>
       <c r="DF72" s="1"/>
       <c r="DG72" s="1"/>
@@ -26232,11 +26849,11 @@
       </c>
       <c r="BO73" s="2"/>
       <c r="BP73" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ73" s="1"/>
       <c r="BR73" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS73" s="1"/>
       <c r="BT73" t="s">
@@ -26250,27 +26867,27 @@
       </c>
       <c r="BW73" s="2"/>
       <c r="BX73" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY73" s="1"/>
       <c r="BZ73" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA73" s="1"/>
       <c r="CB73" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC73" s="1"/>
       <c r="CD73" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE73" s="1"/>
       <c r="CF73" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG73" s="1"/>
       <c r="CH73" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI73" s="1"/>
       <c r="CJ73" t="s">
@@ -26308,12 +26925,20 @@
       <c r="CX73" t="s">
         <v>77</v>
       </c>
-      <c r="CY73" s="1"/>
+      <c r="CY73" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ73" s="1"/>
-      <c r="DA73" s="1"/>
-      <c r="DB73" s="1"/>
+      <c r="DA73" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB73" t="s">
+        <v>77</v>
+      </c>
       <c r="DC73" s="1"/>
-      <c r="DD73" s="1"/>
+      <c r="DD73" t="s">
+        <v>77</v>
+      </c>
       <c r="DE73" s="1"/>
       <c r="DF73" s="1"/>
       <c r="DG73" s="1"/>
@@ -26570,11 +27195,11 @@
       </c>
       <c r="BO74" s="2"/>
       <c r="BP74" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ74" s="1"/>
       <c r="BR74" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS74" s="1"/>
       <c r="BT74" t="s">
@@ -26588,27 +27213,27 @@
       </c>
       <c r="BW74" s="2"/>
       <c r="BX74" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY74" s="1"/>
       <c r="BZ74" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA74" s="1"/>
       <c r="CB74" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC74" s="1"/>
       <c r="CD74" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE74" s="1"/>
       <c r="CF74" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG74" s="1"/>
       <c r="CH74" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI74" s="1"/>
       <c r="CJ74" t="s">
@@ -26646,12 +27271,20 @@
       <c r="CX74" t="s">
         <v>77</v>
       </c>
-      <c r="CY74" s="1"/>
+      <c r="CY74" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ74" s="1"/>
-      <c r="DA74" s="1"/>
-      <c r="DB74" s="1"/>
+      <c r="DA74" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB74" t="s">
+        <v>77</v>
+      </c>
       <c r="DC74" s="1"/>
-      <c r="DD74" s="1"/>
+      <c r="DD74" t="s">
+        <v>77</v>
+      </c>
       <c r="DE74" s="1"/>
       <c r="DF74" s="1"/>
       <c r="DG74" s="1"/>
@@ -26908,11 +27541,11 @@
       </c>
       <c r="BO75" s="2"/>
       <c r="BP75" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ75" s="1"/>
       <c r="BR75" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BS75" s="1"/>
       <c r="BT75" t="s">
@@ -26926,27 +27559,27 @@
       </c>
       <c r="BW75" s="2"/>
       <c r="BX75" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BY75" s="1"/>
       <c r="BZ75" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CA75" s="1"/>
       <c r="CB75" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CC75" s="1"/>
       <c r="CD75" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CE75" s="1"/>
       <c r="CF75" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG75" s="1"/>
       <c r="CH75" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CI75" s="1"/>
       <c r="CJ75" t="s">
@@ -26984,12 +27617,20 @@
       <c r="CX75" t="s">
         <v>77</v>
       </c>
-      <c r="CY75" s="1"/>
+      <c r="CY75" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ75" s="1"/>
-      <c r="DA75" s="1"/>
-      <c r="DB75" s="1"/>
+      <c r="DA75" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB75" t="s">
+        <v>77</v>
+      </c>
       <c r="DC75" s="1"/>
-      <c r="DD75" s="1"/>
+      <c r="DD75" t="s">
+        <v>77</v>
+      </c>
       <c r="DE75" s="1"/>
       <c r="DF75" s="1"/>
       <c r="DG75" s="1"/>

--- a/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
+++ b/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="7805" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="7953" uniqueCount="385">
   <si>
     <t>crop</t>
   </si>
@@ -949,6 +949,9 @@
   </si>
   <si>
     <t>harvest_date_12</t>
+  </si>
+  <si>
+    <t>2024-10-02</t>
   </si>
   <si>
     <t>harvest_amnt_12</t>
@@ -1598,175 +1601,175 @@
         <v>311</v>
       </c>
       <c r="DW1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="DX1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="DY1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="DZ1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="EA1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="EB1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="EC1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="ED1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="EE1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="EF1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="EG1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="EH1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="EI1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="EJ1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="EK1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="EL1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="EM1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="EN1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="EO1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="EP1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="EQ1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="ER1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="ES1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="ET1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="EU1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="EV1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="EW1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="EX1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="EY1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="EZ1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="FA1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="FB1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="FC1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="FD1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="FE1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="FF1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="FG1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="FH1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="FI1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="FJ1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="FK1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="FL1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="FM1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="FN1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="FO1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="FP1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="FQ1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="FR1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="FS1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="FT1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="FU1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="FV1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="FW1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="FX1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="FY1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="FZ1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="GA1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2">
@@ -2132,9 +2135,13 @@
       <c r="EP2" t="s">
         <v>77</v>
       </c>
-      <c r="EQ2" s="1"/>
+      <c r="EQ2" t="s">
+        <v>77</v>
+      </c>
       <c r="ER2" s="1"/>
-      <c r="ES2" s="1"/>
+      <c r="ES2" t="s">
+        <v>77</v>
+      </c>
       <c r="ET2" s="1"/>
       <c r="EU2" s="1"/>
       <c r="EV2" s="1"/>
@@ -2549,9 +2556,13 @@
       <c r="EP3" t="s">
         <v>77</v>
       </c>
-      <c r="EQ3" s="1"/>
+      <c r="EQ3" t="s">
+        <v>77</v>
+      </c>
       <c r="ER3" s="1"/>
-      <c r="ES3" s="1"/>
+      <c r="ES3" t="s">
+        <v>77</v>
+      </c>
       <c r="ET3" s="1"/>
       <c r="EU3" s="1"/>
       <c r="EV3" s="1"/>
@@ -2956,9 +2967,13 @@
       <c r="EP4" t="s">
         <v>77</v>
       </c>
-      <c r="EQ4" s="1"/>
+      <c r="EQ4" t="s">
+        <v>77</v>
+      </c>
       <c r="ER4" s="1"/>
-      <c r="ES4" s="1"/>
+      <c r="ES4" t="s">
+        <v>77</v>
+      </c>
       <c r="ET4" s="1"/>
       <c r="EU4" s="1"/>
       <c r="EV4" s="1"/>
@@ -3369,9 +3384,13 @@
       <c r="EP5" t="s">
         <v>77</v>
       </c>
-      <c r="EQ5" s="1"/>
+      <c r="EQ5" t="s">
+        <v>77</v>
+      </c>
       <c r="ER5" s="1"/>
-      <c r="ES5" s="1"/>
+      <c r="ES5" t="s">
+        <v>77</v>
+      </c>
       <c r="ET5" s="1"/>
       <c r="EU5" s="1"/>
       <c r="EV5" s="1"/>
@@ -3782,9 +3801,13 @@
       <c r="EP6" t="s">
         <v>77</v>
       </c>
-      <c r="EQ6" s="1"/>
+      <c r="EQ6" t="s">
+        <v>77</v>
+      </c>
       <c r="ER6" s="1"/>
-      <c r="ES6" s="1"/>
+      <c r="ES6" t="s">
+        <v>77</v>
+      </c>
       <c r="ET6" s="1"/>
       <c r="EU6" s="1"/>
       <c r="EV6" s="1"/>
@@ -4195,9 +4218,13 @@
       <c r="EP7" t="s">
         <v>77</v>
       </c>
-      <c r="EQ7" s="1"/>
+      <c r="EQ7" t="s">
+        <v>77</v>
+      </c>
       <c r="ER7" s="1"/>
-      <c r="ES7" s="1"/>
+      <c r="ES7" t="s">
+        <v>77</v>
+      </c>
       <c r="ET7" s="1"/>
       <c r="EU7" s="1"/>
       <c r="EV7" s="1"/>
@@ -4608,9 +4635,13 @@
       <c r="EP8" t="s">
         <v>77</v>
       </c>
-      <c r="EQ8" s="1"/>
+      <c r="EQ8" t="s">
+        <v>77</v>
+      </c>
       <c r="ER8" s="1"/>
-      <c r="ES8" s="1"/>
+      <c r="ES8" t="s">
+        <v>77</v>
+      </c>
       <c r="ET8" s="1"/>
       <c r="EU8" s="1"/>
       <c r="EV8" s="1"/>
@@ -5047,9 +5078,13 @@
       <c r="EP9" t="s">
         <v>77</v>
       </c>
-      <c r="EQ9" s="1"/>
+      <c r="EQ9" t="s">
+        <v>77</v>
+      </c>
       <c r="ER9" s="1"/>
-      <c r="ES9" s="1"/>
+      <c r="ES9" t="s">
+        <v>77</v>
+      </c>
       <c r="ET9" s="1"/>
       <c r="EU9" s="1"/>
       <c r="EV9" s="1"/>
@@ -5084,7 +5119,7 @@
       <c r="FY9" s="1"/>
       <c r="FZ9" s="1"/>
       <c r="GA9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10">
@@ -5480,9 +5515,13 @@
       <c r="EP10" t="s">
         <v>77</v>
       </c>
-      <c r="EQ10" s="1"/>
+      <c r="EQ10" t="s">
+        <v>77</v>
+      </c>
       <c r="ER10" s="1"/>
-      <c r="ES10" s="1"/>
+      <c r="ES10" t="s">
+        <v>77</v>
+      </c>
       <c r="ET10" s="1"/>
       <c r="EU10" s="1"/>
       <c r="EV10" s="1"/>
@@ -5517,7 +5556,7 @@
       <c r="FY10" s="1"/>
       <c r="FZ10" s="1"/>
       <c r="GA10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11">
@@ -5897,9 +5936,13 @@
       <c r="EP11" t="s">
         <v>77</v>
       </c>
-      <c r="EQ11" s="1"/>
+      <c r="EQ11" t="s">
+        <v>77</v>
+      </c>
       <c r="ER11" s="1"/>
-      <c r="ES11" s="1"/>
+      <c r="ES11" t="s">
+        <v>77</v>
+      </c>
       <c r="ET11" s="1"/>
       <c r="EU11" s="1"/>
       <c r="EV11" s="1"/>
@@ -5934,7 +5977,7 @@
       <c r="FY11" s="1"/>
       <c r="FZ11" s="1"/>
       <c r="GA11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12">
@@ -6340,9 +6383,13 @@
       <c r="EP12" t="s">
         <v>77</v>
       </c>
-      <c r="EQ12" s="1"/>
+      <c r="EQ12" t="s">
+        <v>77</v>
+      </c>
       <c r="ER12" s="1"/>
-      <c r="ES12" s="1"/>
+      <c r="ES12" t="s">
+        <v>77</v>
+      </c>
       <c r="ET12" s="1"/>
       <c r="EU12" s="1"/>
       <c r="EV12" s="1"/>
@@ -6377,7 +6424,7 @@
       <c r="FY12" s="1"/>
       <c r="FZ12" s="1"/>
       <c r="GA12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13">
@@ -6785,9 +6832,13 @@
       <c r="EP13" t="s">
         <v>77</v>
       </c>
-      <c r="EQ13" s="1"/>
+      <c r="EQ13" t="s">
+        <v>77</v>
+      </c>
       <c r="ER13" s="1"/>
-      <c r="ES13" s="1"/>
+      <c r="ES13" t="s">
+        <v>77</v>
+      </c>
       <c r="ET13" s="1"/>
       <c r="EU13" s="1"/>
       <c r="EV13" s="1"/>
@@ -6822,7 +6873,7 @@
       <c r="FY13" s="1"/>
       <c r="FZ13" s="1"/>
       <c r="GA13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14">
@@ -7228,9 +7279,13 @@
       <c r="EP14" t="s">
         <v>77</v>
       </c>
-      <c r="EQ14" s="1"/>
+      <c r="EQ14" t="s">
+        <v>77</v>
+      </c>
       <c r="ER14" s="1"/>
-      <c r="ES14" s="1"/>
+      <c r="ES14" t="s">
+        <v>77</v>
+      </c>
       <c r="ET14" s="1"/>
       <c r="EU14" s="1"/>
       <c r="EV14" s="1"/>
@@ -7265,7 +7320,7 @@
       <c r="FY14" s="1"/>
       <c r="FZ14" s="1"/>
       <c r="GA14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15">
@@ -7661,9 +7716,13 @@
       <c r="EP15" t="s">
         <v>77</v>
       </c>
-      <c r="EQ15" s="1"/>
+      <c r="EQ15" t="s">
+        <v>77</v>
+      </c>
       <c r="ER15" s="1"/>
-      <c r="ES15" s="1"/>
+      <c r="ES15" t="s">
+        <v>77</v>
+      </c>
       <c r="ET15" s="1"/>
       <c r="EU15" s="1"/>
       <c r="EV15" s="1"/>
@@ -7698,7 +7757,7 @@
       <c r="FY15" s="1"/>
       <c r="FZ15" s="1"/>
       <c r="GA15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16">
@@ -8094,9 +8153,13 @@
       <c r="EP16" t="s">
         <v>77</v>
       </c>
-      <c r="EQ16" s="1"/>
+      <c r="EQ16" t="s">
+        <v>77</v>
+      </c>
       <c r="ER16" s="1"/>
-      <c r="ES16" s="1"/>
+      <c r="ES16" t="s">
+        <v>77</v>
+      </c>
       <c r="ET16" s="1"/>
       <c r="EU16" s="1"/>
       <c r="EV16" s="1"/>
@@ -8131,7 +8194,7 @@
       <c r="FY16" s="1"/>
       <c r="FZ16" s="1"/>
       <c r="GA16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17">
@@ -8513,9 +8576,13 @@
       <c r="EP17" t="s">
         <v>77</v>
       </c>
-      <c r="EQ17" s="1"/>
+      <c r="EQ17" t="s">
+        <v>77</v>
+      </c>
       <c r="ER17" s="1"/>
-      <c r="ES17" s="1"/>
+      <c r="ES17" t="s">
+        <v>77</v>
+      </c>
       <c r="ET17" s="1"/>
       <c r="EU17" s="1"/>
       <c r="EV17" s="1"/>
@@ -8550,7 +8617,7 @@
       <c r="FY17" s="1"/>
       <c r="FZ17" s="1"/>
       <c r="GA17" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18">
@@ -8932,9 +8999,13 @@
       <c r="EP18" t="s">
         <v>77</v>
       </c>
-      <c r="EQ18" s="1"/>
+      <c r="EQ18" t="s">
+        <v>77</v>
+      </c>
       <c r="ER18" s="1"/>
-      <c r="ES18" s="1"/>
+      <c r="ES18" t="s">
+        <v>77</v>
+      </c>
       <c r="ET18" s="1"/>
       <c r="EU18" s="1"/>
       <c r="EV18" s="1"/>
@@ -8969,7 +9040,7 @@
       <c r="FY18" s="1"/>
       <c r="FZ18" s="1"/>
       <c r="GA18" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19">
@@ -9351,9 +9422,13 @@
       <c r="EP19" t="s">
         <v>77</v>
       </c>
-      <c r="EQ19" s="1"/>
+      <c r="EQ19" t="s">
+        <v>77</v>
+      </c>
       <c r="ER19" s="1"/>
-      <c r="ES19" s="1"/>
+      <c r="ES19" t="s">
+        <v>77</v>
+      </c>
       <c r="ET19" s="1"/>
       <c r="EU19" s="1"/>
       <c r="EV19" s="1"/>
@@ -9388,7 +9463,7 @@
       <c r="FY19" s="1"/>
       <c r="FZ19" s="1"/>
       <c r="GA19" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20">
@@ -9770,9 +9845,13 @@
       <c r="EP20" t="s">
         <v>77</v>
       </c>
-      <c r="EQ20" s="1"/>
+      <c r="EQ20" t="s">
+        <v>77</v>
+      </c>
       <c r="ER20" s="1"/>
-      <c r="ES20" s="1"/>
+      <c r="ES20" t="s">
+        <v>77</v>
+      </c>
       <c r="ET20" s="1"/>
       <c r="EU20" s="1"/>
       <c r="EV20" s="1"/>
@@ -9807,7 +9886,7 @@
       <c r="FY20" s="1"/>
       <c r="FZ20" s="1"/>
       <c r="GA20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21">
@@ -10175,11 +10254,13 @@
         <v>267</v>
       </c>
       <c r="DV21" t="s">
-        <v>77</v>
-      </c>
-      <c r="DW21" s="1"/>
+        <v>312</v>
+      </c>
+      <c r="DW21" s="1">
+        <v>28</v>
+      </c>
       <c r="DX21" t="s">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="DY21" t="s">
         <v>77</v>
@@ -10223,9 +10304,13 @@
       <c r="EP21" t="s">
         <v>77</v>
       </c>
-      <c r="EQ21" s="1"/>
+      <c r="EQ21" t="s">
+        <v>77</v>
+      </c>
       <c r="ER21" s="1"/>
-      <c r="ES21" s="1"/>
+      <c r="ES21" t="s">
+        <v>77</v>
+      </c>
       <c r="ET21" s="1"/>
       <c r="EU21" s="1"/>
       <c r="EV21" s="1"/>
@@ -10682,9 +10767,15 @@
       <c r="EP22" t="s">
         <v>267</v>
       </c>
-      <c r="EQ22" s="1"/>
-      <c r="ER22" s="1"/>
-      <c r="ES22" s="1"/>
+      <c r="EQ22" t="s">
+        <v>312</v>
+      </c>
+      <c r="ER22" s="1">
+        <v>19</v>
+      </c>
+      <c r="ES22" t="s">
+        <v>267</v>
+      </c>
       <c r="ET22" s="1"/>
       <c r="EU22" s="1"/>
       <c r="EV22" s="1"/>
@@ -11133,9 +11224,13 @@
       <c r="EP23" t="s">
         <v>77</v>
       </c>
-      <c r="EQ23" s="1"/>
+      <c r="EQ23" t="s">
+        <v>77</v>
+      </c>
       <c r="ER23" s="1"/>
-      <c r="ES23" s="1"/>
+      <c r="ES23" t="s">
+        <v>77</v>
+      </c>
       <c r="ET23" s="1"/>
       <c r="EU23" s="1"/>
       <c r="EV23" s="1"/>
@@ -11170,7 +11265,7 @@
       <c r="FY23" s="1"/>
       <c r="FZ23" s="1"/>
       <c r="GA23" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24">
@@ -11578,9 +11673,13 @@
       <c r="EP24" t="s">
         <v>77</v>
       </c>
-      <c r="EQ24" s="1"/>
+      <c r="EQ24" t="s">
+        <v>77</v>
+      </c>
       <c r="ER24" s="1"/>
-      <c r="ES24" s="1"/>
+      <c r="ES24" t="s">
+        <v>77</v>
+      </c>
       <c r="ET24" s="1"/>
       <c r="EU24" s="1"/>
       <c r="EV24" s="1"/>
@@ -11997,9 +12096,13 @@
       <c r="EP25" t="s">
         <v>77</v>
       </c>
-      <c r="EQ25" s="1"/>
+      <c r="EQ25" t="s">
+        <v>77</v>
+      </c>
       <c r="ER25" s="1"/>
-      <c r="ES25" s="1"/>
+      <c r="ES25" t="s">
+        <v>77</v>
+      </c>
       <c r="ET25" s="1"/>
       <c r="EU25" s="1"/>
       <c r="EV25" s="1"/>
@@ -12412,9 +12515,13 @@
       <c r="EP26" t="s">
         <v>77</v>
       </c>
-      <c r="EQ26" s="1"/>
+      <c r="EQ26" t="s">
+        <v>77</v>
+      </c>
       <c r="ER26" s="1"/>
-      <c r="ES26" s="1"/>
+      <c r="ES26" t="s">
+        <v>77</v>
+      </c>
       <c r="ET26" s="1"/>
       <c r="EU26" s="1"/>
       <c r="EV26" s="1"/>
@@ -12449,7 +12556,7 @@
       <c r="FY26" s="1"/>
       <c r="FZ26" s="1"/>
       <c r="GA26" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27">
@@ -12823,9 +12930,13 @@
       <c r="EP27" t="s">
         <v>77</v>
       </c>
-      <c r="EQ27" s="1"/>
+      <c r="EQ27" t="s">
+        <v>77</v>
+      </c>
       <c r="ER27" s="1"/>
-      <c r="ES27" s="1"/>
+      <c r="ES27" t="s">
+        <v>77</v>
+      </c>
       <c r="ET27" s="1"/>
       <c r="EU27" s="1"/>
       <c r="EV27" s="1"/>
@@ -13234,9 +13345,13 @@
       <c r="EP28" t="s">
         <v>77</v>
       </c>
-      <c r="EQ28" s="1"/>
+      <c r="EQ28" t="s">
+        <v>77</v>
+      </c>
       <c r="ER28" s="1"/>
-      <c r="ES28" s="1"/>
+      <c r="ES28" t="s">
+        <v>77</v>
+      </c>
       <c r="ET28" s="1"/>
       <c r="EU28" s="1"/>
       <c r="EV28" s="1"/>
@@ -13271,7 +13386,7 @@
       <c r="FY28" s="1"/>
       <c r="FZ28" s="1"/>
       <c r="GA28" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29">
@@ -13645,9 +13760,13 @@
       <c r="EP29" t="s">
         <v>77</v>
       </c>
-      <c r="EQ29" s="1"/>
+      <c r="EQ29" t="s">
+        <v>77</v>
+      </c>
       <c r="ER29" s="1"/>
-      <c r="ES29" s="1"/>
+      <c r="ES29" t="s">
+        <v>77</v>
+      </c>
       <c r="ET29" s="1"/>
       <c r="EU29" s="1"/>
       <c r="EV29" s="1"/>
@@ -13682,7 +13801,7 @@
       <c r="FY29" s="1"/>
       <c r="FZ29" s="1"/>
       <c r="GA29" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30">
@@ -14060,9 +14179,13 @@
       <c r="EP30" t="s">
         <v>77</v>
       </c>
-      <c r="EQ30" s="1"/>
+      <c r="EQ30" t="s">
+        <v>77</v>
+      </c>
       <c r="ER30" s="1"/>
-      <c r="ES30" s="1"/>
+      <c r="ES30" t="s">
+        <v>77</v>
+      </c>
       <c r="ET30" s="1"/>
       <c r="EU30" s="1"/>
       <c r="EV30" s="1"/>
@@ -14097,7 +14220,7 @@
       <c r="FY30" s="1"/>
       <c r="FZ30" s="1"/>
       <c r="GA30" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31">
@@ -14475,9 +14598,13 @@
       <c r="EP31" t="s">
         <v>77</v>
       </c>
-      <c r="EQ31" s="1"/>
+      <c r="EQ31" t="s">
+        <v>77</v>
+      </c>
       <c r="ER31" s="1"/>
-      <c r="ES31" s="1"/>
+      <c r="ES31" t="s">
+        <v>77</v>
+      </c>
       <c r="ET31" s="1"/>
       <c r="EU31" s="1"/>
       <c r="EV31" s="1"/>
@@ -14512,7 +14639,7 @@
       <c r="FY31" s="1"/>
       <c r="FZ31" s="1"/>
       <c r="GA31" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32">
@@ -14890,9 +15017,13 @@
       <c r="EP32" t="s">
         <v>77</v>
       </c>
-      <c r="EQ32" s="1"/>
+      <c r="EQ32" t="s">
+        <v>77</v>
+      </c>
       <c r="ER32" s="1"/>
-      <c r="ES32" s="1"/>
+      <c r="ES32" t="s">
+        <v>77</v>
+      </c>
       <c r="ET32" s="1"/>
       <c r="EU32" s="1"/>
       <c r="EV32" s="1"/>
@@ -14927,7 +15058,7 @@
       <c r="FY32" s="1"/>
       <c r="FZ32" s="1"/>
       <c r="GA32" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33">
@@ -15305,9 +15436,13 @@
       <c r="EP33" t="s">
         <v>77</v>
       </c>
-      <c r="EQ33" s="1"/>
+      <c r="EQ33" t="s">
+        <v>77</v>
+      </c>
       <c r="ER33" s="1"/>
-      <c r="ES33" s="1"/>
+      <c r="ES33" t="s">
+        <v>77</v>
+      </c>
       <c r="ET33" s="1"/>
       <c r="EU33" s="1"/>
       <c r="EV33" s="1"/>
@@ -15342,7 +15477,7 @@
       <c r="FY33" s="1"/>
       <c r="FZ33" s="1"/>
       <c r="GA33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34">
@@ -15706,9 +15841,13 @@
       <c r="EP34" t="s">
         <v>77</v>
       </c>
-      <c r="EQ34" s="1"/>
+      <c r="EQ34" t="s">
+        <v>77</v>
+      </c>
       <c r="ER34" s="1"/>
-      <c r="ES34" s="1"/>
+      <c r="ES34" t="s">
+        <v>77</v>
+      </c>
       <c r="ET34" s="1"/>
       <c r="EU34" s="1"/>
       <c r="EV34" s="1"/>
@@ -15743,7 +15882,7 @@
       <c r="FY34" s="1"/>
       <c r="FZ34" s="1"/>
       <c r="GA34" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35">
@@ -16107,9 +16246,13 @@
       <c r="EP35" t="s">
         <v>77</v>
       </c>
-      <c r="EQ35" s="1"/>
+      <c r="EQ35" t="s">
+        <v>77</v>
+      </c>
       <c r="ER35" s="1"/>
-      <c r="ES35" s="1"/>
+      <c r="ES35" t="s">
+        <v>77</v>
+      </c>
       <c r="ET35" s="1"/>
       <c r="EU35" s="1"/>
       <c r="EV35" s="1"/>
@@ -16144,7 +16287,7 @@
       <c r="FY35" s="1"/>
       <c r="FZ35" s="1"/>
       <c r="GA35" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36">
@@ -16508,9 +16651,13 @@
       <c r="EP36" t="s">
         <v>77</v>
       </c>
-      <c r="EQ36" s="1"/>
+      <c r="EQ36" t="s">
+        <v>77</v>
+      </c>
       <c r="ER36" s="1"/>
-      <c r="ES36" s="1"/>
+      <c r="ES36" t="s">
+        <v>77</v>
+      </c>
       <c r="ET36" s="1"/>
       <c r="EU36" s="1"/>
       <c r="EV36" s="1"/>
@@ -16545,7 +16692,7 @@
       <c r="FY36" s="1"/>
       <c r="FZ36" s="1"/>
       <c r="GA36" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37">
@@ -16909,9 +17056,13 @@
       <c r="EP37" t="s">
         <v>77</v>
       </c>
-      <c r="EQ37" s="1"/>
+      <c r="EQ37" t="s">
+        <v>77</v>
+      </c>
       <c r="ER37" s="1"/>
-      <c r="ES37" s="1"/>
+      <c r="ES37" t="s">
+        <v>77</v>
+      </c>
       <c r="ET37" s="1"/>
       <c r="EU37" s="1"/>
       <c r="EV37" s="1"/>
@@ -16946,7 +17097,7 @@
       <c r="FY37" s="1"/>
       <c r="FZ37" s="1"/>
       <c r="GA37" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38">
@@ -17310,9 +17461,13 @@
       <c r="EP38" t="s">
         <v>77</v>
       </c>
-      <c r="EQ38" s="1"/>
+      <c r="EQ38" t="s">
+        <v>77</v>
+      </c>
       <c r="ER38" s="1"/>
-      <c r="ES38" s="1"/>
+      <c r="ES38" t="s">
+        <v>77</v>
+      </c>
       <c r="ET38" s="1"/>
       <c r="EU38" s="1"/>
       <c r="EV38" s="1"/>
@@ -17347,7 +17502,7 @@
       <c r="FY38" s="1"/>
       <c r="FZ38" s="1"/>
       <c r="GA38" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39">
@@ -17713,9 +17868,13 @@
       <c r="EP39" t="s">
         <v>77</v>
       </c>
-      <c r="EQ39" s="1"/>
+      <c r="EQ39" t="s">
+        <v>77</v>
+      </c>
       <c r="ER39" s="1"/>
-      <c r="ES39" s="1"/>
+      <c r="ES39" t="s">
+        <v>77</v>
+      </c>
       <c r="ET39" s="1"/>
       <c r="EU39" s="1"/>
       <c r="EV39" s="1"/>
@@ -18116,9 +18275,13 @@
       <c r="EP40" t="s">
         <v>77</v>
       </c>
-      <c r="EQ40" s="1"/>
+      <c r="EQ40" t="s">
+        <v>77</v>
+      </c>
       <c r="ER40" s="1"/>
-      <c r="ES40" s="1"/>
+      <c r="ES40" t="s">
+        <v>77</v>
+      </c>
       <c r="ET40" s="1"/>
       <c r="EU40" s="1"/>
       <c r="EV40" s="1"/>
@@ -18519,9 +18682,13 @@
       <c r="EP41" t="s">
         <v>77</v>
       </c>
-      <c r="EQ41" s="1"/>
+      <c r="EQ41" t="s">
+        <v>77</v>
+      </c>
       <c r="ER41" s="1"/>
-      <c r="ES41" s="1"/>
+      <c r="ES41" t="s">
+        <v>77</v>
+      </c>
       <c r="ET41" s="1"/>
       <c r="EU41" s="1"/>
       <c r="EV41" s="1"/>
@@ -18922,9 +19089,13 @@
       <c r="EP42" t="s">
         <v>77</v>
       </c>
-      <c r="EQ42" s="1"/>
+      <c r="EQ42" t="s">
+        <v>77</v>
+      </c>
       <c r="ER42" s="1"/>
-      <c r="ES42" s="1"/>
+      <c r="ES42" t="s">
+        <v>77</v>
+      </c>
       <c r="ET42" s="1"/>
       <c r="EU42" s="1"/>
       <c r="EV42" s="1"/>
@@ -19325,9 +19496,13 @@
       <c r="EP43" t="s">
         <v>77</v>
       </c>
-      <c r="EQ43" s="1"/>
+      <c r="EQ43" t="s">
+        <v>77</v>
+      </c>
       <c r="ER43" s="1"/>
-      <c r="ES43" s="1"/>
+      <c r="ES43" t="s">
+        <v>77</v>
+      </c>
       <c r="ET43" s="1"/>
       <c r="EU43" s="1"/>
       <c r="EV43" s="1"/>
@@ -19730,9 +19905,13 @@
       <c r="EP44" t="s">
         <v>77</v>
       </c>
-      <c r="EQ44" s="1"/>
+      <c r="EQ44" t="s">
+        <v>77</v>
+      </c>
       <c r="ER44" s="1"/>
-      <c r="ES44" s="1"/>
+      <c r="ES44" t="s">
+        <v>77</v>
+      </c>
       <c r="ET44" s="1"/>
       <c r="EU44" s="1"/>
       <c r="EV44" s="1"/>
@@ -19767,7 +19946,7 @@
       <c r="FY44" s="1"/>
       <c r="FZ44" s="1"/>
       <c r="GA44" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45">
@@ -20135,9 +20314,13 @@
       <c r="EP45" t="s">
         <v>77</v>
       </c>
-      <c r="EQ45" s="1"/>
+      <c r="EQ45" t="s">
+        <v>77</v>
+      </c>
       <c r="ER45" s="1"/>
-      <c r="ES45" s="1"/>
+      <c r="ES45" t="s">
+        <v>77</v>
+      </c>
       <c r="ET45" s="1"/>
       <c r="EU45" s="1"/>
       <c r="EV45" s="1"/>
@@ -20172,7 +20355,7 @@
       <c r="FY45" s="1"/>
       <c r="FZ45" s="1"/>
       <c r="GA45" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46">
@@ -20542,9 +20725,13 @@
       <c r="EP46" t="s">
         <v>77</v>
       </c>
-      <c r="EQ46" s="1"/>
+      <c r="EQ46" t="s">
+        <v>77</v>
+      </c>
       <c r="ER46" s="1"/>
-      <c r="ES46" s="1"/>
+      <c r="ES46" t="s">
+        <v>77</v>
+      </c>
       <c r="ET46" s="1"/>
       <c r="EU46" s="1"/>
       <c r="EV46" s="1"/>
@@ -20579,7 +20766,7 @@
       <c r="FY46" s="1"/>
       <c r="FZ46" s="1"/>
       <c r="GA46" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47">
@@ -20943,9 +21130,13 @@
       <c r="EP47" t="s">
         <v>77</v>
       </c>
-      <c r="EQ47" s="1"/>
+      <c r="EQ47" t="s">
+        <v>77</v>
+      </c>
       <c r="ER47" s="1"/>
-      <c r="ES47" s="1"/>
+      <c r="ES47" t="s">
+        <v>77</v>
+      </c>
       <c r="ET47" s="1"/>
       <c r="EU47" s="1"/>
       <c r="EV47" s="1"/>
@@ -20980,7 +21171,7 @@
       <c r="FY47" s="1"/>
       <c r="FZ47" s="1"/>
       <c r="GA47" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48">
@@ -21354,9 +21545,13 @@
       <c r="EP48" t="s">
         <v>77</v>
       </c>
-      <c r="EQ48" s="1"/>
+      <c r="EQ48" t="s">
+        <v>77</v>
+      </c>
       <c r="ER48" s="1"/>
-      <c r="ES48" s="1"/>
+      <c r="ES48" t="s">
+        <v>77</v>
+      </c>
       <c r="ET48" s="1"/>
       <c r="EU48" s="1"/>
       <c r="EV48" s="1"/>
@@ -21391,7 +21586,7 @@
       <c r="FY48" s="1"/>
       <c r="FZ48" s="1"/>
       <c r="GA48" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49">
@@ -21755,9 +21950,13 @@
       <c r="EP49" t="s">
         <v>77</v>
       </c>
-      <c r="EQ49" s="1"/>
+      <c r="EQ49" t="s">
+        <v>77</v>
+      </c>
       <c r="ER49" s="1"/>
-      <c r="ES49" s="1"/>
+      <c r="ES49" t="s">
+        <v>77</v>
+      </c>
       <c r="ET49" s="1"/>
       <c r="EU49" s="1"/>
       <c r="EV49" s="1"/>
@@ -21792,7 +21991,7 @@
       <c r="FY49" s="1"/>
       <c r="FZ49" s="1"/>
       <c r="GA49" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50">
@@ -22156,9 +22355,13 @@
       <c r="EP50" t="s">
         <v>77</v>
       </c>
-      <c r="EQ50" s="1"/>
+      <c r="EQ50" t="s">
+        <v>77</v>
+      </c>
       <c r="ER50" s="1"/>
-      <c r="ES50" s="1"/>
+      <c r="ES50" t="s">
+        <v>77</v>
+      </c>
       <c r="ET50" s="1"/>
       <c r="EU50" s="1"/>
       <c r="EV50" s="1"/>
@@ -22193,7 +22396,7 @@
       <c r="FY50" s="1"/>
       <c r="FZ50" s="1"/>
       <c r="GA50" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51">
@@ -22557,9 +22760,13 @@
       <c r="EP51" t="s">
         <v>77</v>
       </c>
-      <c r="EQ51" s="1"/>
+      <c r="EQ51" t="s">
+        <v>77</v>
+      </c>
       <c r="ER51" s="1"/>
-      <c r="ES51" s="1"/>
+      <c r="ES51" t="s">
+        <v>77</v>
+      </c>
       <c r="ET51" s="1"/>
       <c r="EU51" s="1"/>
       <c r="EV51" s="1"/>
@@ -22594,7 +22801,7 @@
       <c r="FY51" s="1"/>
       <c r="FZ51" s="1"/>
       <c r="GA51" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52">
@@ -22958,9 +23165,13 @@
       <c r="EP52" t="s">
         <v>77</v>
       </c>
-      <c r="EQ52" s="1"/>
+      <c r="EQ52" t="s">
+        <v>77</v>
+      </c>
       <c r="ER52" s="1"/>
-      <c r="ES52" s="1"/>
+      <c r="ES52" t="s">
+        <v>77</v>
+      </c>
       <c r="ET52" s="1"/>
       <c r="EU52" s="1"/>
       <c r="EV52" s="1"/>
@@ -22995,7 +23206,7 @@
       <c r="FY52" s="1"/>
       <c r="FZ52" s="1"/>
       <c r="GA52" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53">
@@ -23359,9 +23570,13 @@
       <c r="EP53" t="s">
         <v>77</v>
       </c>
-      <c r="EQ53" s="1"/>
+      <c r="EQ53" t="s">
+        <v>77</v>
+      </c>
       <c r="ER53" s="1"/>
-      <c r="ES53" s="1"/>
+      <c r="ES53" t="s">
+        <v>77</v>
+      </c>
       <c r="ET53" s="1"/>
       <c r="EU53" s="1"/>
       <c r="EV53" s="1"/>
@@ -23396,7 +23611,7 @@
       <c r="FY53" s="1"/>
       <c r="FZ53" s="1"/>
       <c r="GA53" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54">
@@ -23760,9 +23975,13 @@
       <c r="EP54" t="s">
         <v>77</v>
       </c>
-      <c r="EQ54" s="1"/>
+      <c r="EQ54" t="s">
+        <v>77</v>
+      </c>
       <c r="ER54" s="1"/>
-      <c r="ES54" s="1"/>
+      <c r="ES54" t="s">
+        <v>77</v>
+      </c>
       <c r="ET54" s="1"/>
       <c r="EU54" s="1"/>
       <c r="EV54" s="1"/>
@@ -23797,7 +24016,7 @@
       <c r="FY54" s="1"/>
       <c r="FZ54" s="1"/>
       <c r="GA54" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55">
@@ -24169,9 +24388,13 @@
       <c r="EP55" t="s">
         <v>77</v>
       </c>
-      <c r="EQ55" s="1"/>
+      <c r="EQ55" t="s">
+        <v>77</v>
+      </c>
       <c r="ER55" s="1"/>
-      <c r="ES55" s="1"/>
+      <c r="ES55" t="s">
+        <v>77</v>
+      </c>
       <c r="ET55" s="1"/>
       <c r="EU55" s="1"/>
       <c r="EV55" s="1"/>
@@ -24206,7 +24429,7 @@
       <c r="FY55" s="1"/>
       <c r="FZ55" s="1"/>
       <c r="GA55" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="56">
@@ -24582,9 +24805,13 @@
       <c r="EP56" t="s">
         <v>77</v>
       </c>
-      <c r="EQ56" s="1"/>
+      <c r="EQ56" t="s">
+        <v>77</v>
+      </c>
       <c r="ER56" s="1"/>
-      <c r="ES56" s="1"/>
+      <c r="ES56" t="s">
+        <v>77</v>
+      </c>
       <c r="ET56" s="1"/>
       <c r="EU56" s="1"/>
       <c r="EV56" s="1"/>
@@ -24619,7 +24846,7 @@
       <c r="FY56" s="1"/>
       <c r="FZ56" s="1"/>
       <c r="GA56" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57">
@@ -24995,9 +25222,13 @@
       <c r="EP57" t="s">
         <v>77</v>
       </c>
-      <c r="EQ57" s="1"/>
+      <c r="EQ57" t="s">
+        <v>77</v>
+      </c>
       <c r="ER57" s="1"/>
-      <c r="ES57" s="1"/>
+      <c r="ES57" t="s">
+        <v>77</v>
+      </c>
       <c r="ET57" s="1"/>
       <c r="EU57" s="1"/>
       <c r="EV57" s="1"/>
@@ -25032,7 +25263,7 @@
       <c r="FY57" s="1"/>
       <c r="FZ57" s="1"/>
       <c r="GA57" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58">
@@ -25404,9 +25635,13 @@
       <c r="EP58" t="s">
         <v>77</v>
       </c>
-      <c r="EQ58" s="1"/>
+      <c r="EQ58" t="s">
+        <v>77</v>
+      </c>
       <c r="ER58" s="1"/>
-      <c r="ES58" s="1"/>
+      <c r="ES58" t="s">
+        <v>77</v>
+      </c>
       <c r="ET58" s="1"/>
       <c r="EU58" s="1"/>
       <c r="EV58" s="1"/>
@@ -25813,9 +26048,13 @@
       <c r="EP59" t="s">
         <v>77</v>
       </c>
-      <c r="EQ59" s="1"/>
+      <c r="EQ59" t="s">
+        <v>77</v>
+      </c>
       <c r="ER59" s="1"/>
-      <c r="ES59" s="1"/>
+      <c r="ES59" t="s">
+        <v>77</v>
+      </c>
       <c r="ET59" s="1"/>
       <c r="EU59" s="1"/>
       <c r="EV59" s="1"/>
@@ -26224,9 +26463,13 @@
       <c r="EP60" t="s">
         <v>77</v>
       </c>
-      <c r="EQ60" s="1"/>
+      <c r="EQ60" t="s">
+        <v>77</v>
+      </c>
       <c r="ER60" s="1"/>
-      <c r="ES60" s="1"/>
+      <c r="ES60" t="s">
+        <v>77</v>
+      </c>
       <c r="ET60" s="1"/>
       <c r="EU60" s="1"/>
       <c r="EV60" s="1"/>
@@ -26261,7 +26504,7 @@
       <c r="FY60" s="1"/>
       <c r="FZ60" s="1"/>
       <c r="GA60" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="61">
@@ -26635,9 +26878,13 @@
       <c r="EP61" t="s">
         <v>77</v>
       </c>
-      <c r="EQ61" s="1"/>
+      <c r="EQ61" t="s">
+        <v>77</v>
+      </c>
       <c r="ER61" s="1"/>
-      <c r="ES61" s="1"/>
+      <c r="ES61" t="s">
+        <v>77</v>
+      </c>
       <c r="ET61" s="1"/>
       <c r="EU61" s="1"/>
       <c r="EV61" s="1"/>
@@ -26672,7 +26919,7 @@
       <c r="FY61" s="1"/>
       <c r="FZ61" s="1"/>
       <c r="GA61" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62">
@@ -27036,9 +27283,13 @@
       <c r="EP62" t="s">
         <v>77</v>
       </c>
-      <c r="EQ62" s="1"/>
+      <c r="EQ62" t="s">
+        <v>77</v>
+      </c>
       <c r="ER62" s="1"/>
-      <c r="ES62" s="1"/>
+      <c r="ES62" t="s">
+        <v>77</v>
+      </c>
       <c r="ET62" s="1"/>
       <c r="EU62" s="1"/>
       <c r="EV62" s="1"/>
@@ -27437,9 +27688,13 @@
       <c r="EP63" t="s">
         <v>77</v>
       </c>
-      <c r="EQ63" s="1"/>
+      <c r="EQ63" t="s">
+        <v>77</v>
+      </c>
       <c r="ER63" s="1"/>
-      <c r="ES63" s="1"/>
+      <c r="ES63" t="s">
+        <v>77</v>
+      </c>
       <c r="ET63" s="1"/>
       <c r="EU63" s="1"/>
       <c r="EV63" s="1"/>
@@ -27838,9 +28093,13 @@
       <c r="EP64" t="s">
         <v>77</v>
       </c>
-      <c r="EQ64" s="1"/>
+      <c r="EQ64" t="s">
+        <v>77</v>
+      </c>
       <c r="ER64" s="1"/>
-      <c r="ES64" s="1"/>
+      <c r="ES64" t="s">
+        <v>77</v>
+      </c>
       <c r="ET64" s="1"/>
       <c r="EU64" s="1"/>
       <c r="EV64" s="1"/>
@@ -28243,9 +28502,13 @@
       <c r="EP65" t="s">
         <v>77</v>
       </c>
-      <c r="EQ65" s="1"/>
+      <c r="EQ65" t="s">
+        <v>77</v>
+      </c>
       <c r="ER65" s="1"/>
-      <c r="ES65" s="1"/>
+      <c r="ES65" t="s">
+        <v>77</v>
+      </c>
       <c r="ET65" s="1"/>
       <c r="EU65" s="1"/>
       <c r="EV65" s="1"/>
@@ -28280,7 +28543,7 @@
       <c r="FY65" s="1"/>
       <c r="FZ65" s="1"/>
       <c r="GA65" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="66">
@@ -28644,9 +28907,13 @@
       <c r="EP66" t="s">
         <v>77</v>
       </c>
-      <c r="EQ66" s="1"/>
+      <c r="EQ66" t="s">
+        <v>77</v>
+      </c>
       <c r="ER66" s="1"/>
-      <c r="ES66" s="1"/>
+      <c r="ES66" t="s">
+        <v>77</v>
+      </c>
       <c r="ET66" s="1"/>
       <c r="EU66" s="1"/>
       <c r="EV66" s="1"/>
@@ -28681,7 +28948,7 @@
       <c r="FY66" s="1"/>
       <c r="FZ66" s="1"/>
       <c r="GA66" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="67">
@@ -29055,9 +29322,13 @@
       <c r="EP67" t="s">
         <v>77</v>
       </c>
-      <c r="EQ67" s="1"/>
+      <c r="EQ67" t="s">
+        <v>77</v>
+      </c>
       <c r="ER67" s="1"/>
-      <c r="ES67" s="1"/>
+      <c r="ES67" t="s">
+        <v>77</v>
+      </c>
       <c r="ET67" s="1"/>
       <c r="EU67" s="1"/>
       <c r="EV67" s="1"/>
@@ -29092,7 +29363,7 @@
       <c r="FY67" s="1"/>
       <c r="FZ67" s="1"/>
       <c r="GA67" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="68">
@@ -29464,9 +29735,13 @@
       <c r="EP68" t="s">
         <v>77</v>
       </c>
-      <c r="EQ68" s="1"/>
+      <c r="EQ68" t="s">
+        <v>77</v>
+      </c>
       <c r="ER68" s="1"/>
-      <c r="ES68" s="1"/>
+      <c r="ES68" t="s">
+        <v>77</v>
+      </c>
       <c r="ET68" s="1"/>
       <c r="EU68" s="1"/>
       <c r="EV68" s="1"/>
@@ -29501,7 +29776,7 @@
       <c r="FY68" s="1"/>
       <c r="FZ68" s="1"/>
       <c r="GA68" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="69">
@@ -29873,9 +30148,13 @@
       <c r="EP69" t="s">
         <v>77</v>
       </c>
-      <c r="EQ69" s="1"/>
+      <c r="EQ69" t="s">
+        <v>77</v>
+      </c>
       <c r="ER69" s="1"/>
-      <c r="ES69" s="1"/>
+      <c r="ES69" t="s">
+        <v>77</v>
+      </c>
       <c r="ET69" s="1"/>
       <c r="EU69" s="1"/>
       <c r="EV69" s="1"/>
@@ -29910,7 +30189,7 @@
       <c r="FY69" s="1"/>
       <c r="FZ69" s="1"/>
       <c r="GA69" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70">
@@ -30280,9 +30559,13 @@
       <c r="EP70" t="s">
         <v>77</v>
       </c>
-      <c r="EQ70" s="1"/>
+      <c r="EQ70" t="s">
+        <v>77</v>
+      </c>
       <c r="ER70" s="1"/>
-      <c r="ES70" s="1"/>
+      <c r="ES70" t="s">
+        <v>77</v>
+      </c>
       <c r="ET70" s="1"/>
       <c r="EU70" s="1"/>
       <c r="EV70" s="1"/>
@@ -30317,7 +30600,7 @@
       <c r="FY70" s="1"/>
       <c r="FZ70" s="1"/>
       <c r="GA70" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="71">
@@ -30687,9 +30970,13 @@
       <c r="EP71" t="s">
         <v>77</v>
       </c>
-      <c r="EQ71" s="1"/>
+      <c r="EQ71" t="s">
+        <v>77</v>
+      </c>
       <c r="ER71" s="1"/>
-      <c r="ES71" s="1"/>
+      <c r="ES71" t="s">
+        <v>77</v>
+      </c>
       <c r="ET71" s="1"/>
       <c r="EU71" s="1"/>
       <c r="EV71" s="1"/>
@@ -30724,7 +31011,7 @@
       <c r="FY71" s="1"/>
       <c r="FZ71" s="1"/>
       <c r="GA71" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="72">
@@ -31094,9 +31381,13 @@
       <c r="EP72" t="s">
         <v>77</v>
       </c>
-      <c r="EQ72" s="1"/>
+      <c r="EQ72" t="s">
+        <v>77</v>
+      </c>
       <c r="ER72" s="1"/>
-      <c r="ES72" s="1"/>
+      <c r="ES72" t="s">
+        <v>77</v>
+      </c>
       <c r="ET72" s="1"/>
       <c r="EU72" s="1"/>
       <c r="EV72" s="1"/>
@@ -31501,9 +31792,13 @@
       <c r="EP73" t="s">
         <v>77</v>
       </c>
-      <c r="EQ73" s="1"/>
+      <c r="EQ73" t="s">
+        <v>77</v>
+      </c>
       <c r="ER73" s="1"/>
-      <c r="ES73" s="1"/>
+      <c r="ES73" t="s">
+        <v>77</v>
+      </c>
       <c r="ET73" s="1"/>
       <c r="EU73" s="1"/>
       <c r="EV73" s="1"/>
@@ -31904,9 +32199,13 @@
       <c r="EP74" t="s">
         <v>77</v>
       </c>
-      <c r="EQ74" s="1"/>
+      <c r="EQ74" t="s">
+        <v>77</v>
+      </c>
       <c r="ER74" s="1"/>
-      <c r="ES74" s="1"/>
+      <c r="ES74" t="s">
+        <v>77</v>
+      </c>
       <c r="ET74" s="1"/>
       <c r="EU74" s="1"/>
       <c r="EV74" s="1"/>
@@ -32307,9 +32606,13 @@
       <c r="EP75" t="s">
         <v>77</v>
       </c>
-      <c r="EQ75" s="1"/>
+      <c r="EQ75" t="s">
+        <v>77</v>
+      </c>
       <c r="ER75" s="1"/>
-      <c r="ES75" s="1"/>
+      <c r="ES75" t="s">
+        <v>77</v>
+      </c>
       <c r="ET75" s="1"/>
       <c r="EU75" s="1"/>
       <c r="EV75" s="1"/>

--- a/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
+++ b/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="12122" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="12122" uniqueCount="468">
   <si>
     <t>crop</t>
   </si>
@@ -279,7 +279,7 @@
     <t>45w led</t>
   </si>
   <si>
-    <t/>
+    <t>.m</t>
   </si>
   <si>
     <t>sow_light_type_code</t>
@@ -463,6 +463,9 @@
   </si>
   <si>
     <t>2024-04-24</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>transp_harden_date_srt_stata</t>
@@ -1658,631 +1661,631 @@
         <v>148</v>
       </c>
       <c r="BL1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BM1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BN1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BO1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BP1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BQ1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BR1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BS1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BT1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BU1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="BV1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BW1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BX1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BY1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BZ1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CA1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CB1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CC1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="CD1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="CE1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="CF1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="CG1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CH1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="CI1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="CJ1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="CK1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="CL1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="CM1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="CN1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="CO1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="CP1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="CQ1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="CR1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="CS1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="CT1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="CU1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CV1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="CW1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="CX1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CY1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="CZ1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="DA1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="DB1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="DC1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="DD1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="DE1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="DF1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="DG1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="DH1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="DI1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="DJ1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DK1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="DL1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="DM1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="DN1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="DO1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="DP1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DQ1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="DR1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="DS1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="DT1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="DU1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="DV1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="DW1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="DX1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="DY1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="DZ1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="EA1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="EB1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="EC1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="ED1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="EE1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="EF1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="EG1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="EH1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="EI1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="EJ1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="EK1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="EL1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="EM1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="EN1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="EO1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="EP1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="EQ1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="ER1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="ES1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="ET1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="EU1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="EV1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="EW1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="EX1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="EY1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="EZ1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="FA1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="FB1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="FC1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="FD1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="FE1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="FF1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="FG1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="FH1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="FI1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="FJ1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="FK1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="FL1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="FM1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="FN1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="FO1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="FP1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="FQ1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="FR1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="FS1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="FT1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="FU1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="FV1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="FW1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="FX1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="FY1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="FZ1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="GA1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="GB1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="GC1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="GD1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="GE1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="GF1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="GG1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="GH1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="GI1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="GJ1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="GK1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="GL1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="GM1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="GN1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="GO1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="GP1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="GQ1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="GR1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="GS1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="GT1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="GU1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="GV1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="GW1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="GX1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GY1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="GZ1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="HA1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="HB1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="HC1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="HD1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="HE1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="HF1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="HG1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="HH1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="HI1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="HJ1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="HK1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="HL1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="HM1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="HN1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="HO1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="HP1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="HQ1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="HR1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="HS1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="HT1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="HU1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="HV1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="HW1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="HX1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="HY1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="HZ1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="IA1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="IB1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="IC1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="ID1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="IE1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="IF1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="IG1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="IH1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="II1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="IJ1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="IK1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="IL1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="IM1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="IN1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="IO1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="IP1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="IQ1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="IR1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="IS1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="IT1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="IU1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="IV1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="IW1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="IX1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="IY1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="IZ1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="JA1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="JB1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="JC1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="JD1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="JE1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="JF1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="JG1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="JH1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="JI1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="JJ1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="JK1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="JL1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2">
@@ -2477,19 +2480,19 @@
       <c r="BW2" s="2"/>
       <c r="BX2" s="2"/>
       <c r="BY2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CA2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CB2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CC2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="CD2" s="1">
         <v>45391</v>
@@ -2666,7 +2669,7 @@
       </c>
       <c r="EU2" s="1"/>
       <c r="EV2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="EW2" s="1">
         <v>45463</v>
@@ -2675,7 +2678,7 @@
         <v>2</v>
       </c>
       <c r="EY2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="EZ2" t="s">
         <v>64</v>
@@ -2687,7 +2690,7 @@
         <v>29</v>
       </c>
       <c r="FC2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FD2" t="s">
         <v>80</v>
@@ -3087,13 +3090,13 @@
         <v>45423</v>
       </c>
       <c r="BO3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BP3" s="1">
         <v>45394</v>
       </c>
       <c r="BQ3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BR3" s="2">
         <v>8</v>
@@ -3108,7 +3111,7 @@
         <v>45423</v>
       </c>
       <c r="BV3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BW3" s="2">
         <v>8</v>
@@ -3133,10 +3136,10 @@
       </c>
       <c r="CD3" s="1"/>
       <c r="CE3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CF3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CG3" t="s">
         <v>97</v>
@@ -3151,7 +3154,7 @@
         <v>100</v>
       </c>
       <c r="CK3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CL3" s="1">
         <v>45497</v>
@@ -3160,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="CN3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CO3" t="s">
         <v>97</v>
@@ -3184,7 +3187,7 @@
         <v>0.5</v>
       </c>
       <c r="CV3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CW3" t="s">
         <v>80</v>
@@ -3713,32 +3716,32 @@
         <v>80</v>
       </c>
       <c r="BK4" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BL4" s="1"/>
       <c r="BM4" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BN4" s="1"/>
       <c r="BO4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BP4" s="1">
         <v>45394</v>
       </c>
       <c r="BQ4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BR4" s="2">
         <v>1</v>
       </c>
       <c r="BS4" s="2"/>
       <c r="BT4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BU4" s="1"/>
       <c r="BV4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BW4" s="2"/>
       <c r="BX4" s="2"/>
@@ -4335,19 +4338,19 @@
         <v>45407</v>
       </c>
       <c r="BM5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BN5" s="1">
         <v>45415</v>
       </c>
       <c r="BO5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BP5" s="1">
         <v>45394</v>
       </c>
       <c r="BQ5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BR5" s="2">
         <v>19</v>
@@ -4356,7 +4359,7 @@
         <v>19</v>
       </c>
       <c r="BT5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BU5" s="1">
         <v>45415</v>
@@ -4963,19 +4966,19 @@
         <v>45407</v>
       </c>
       <c r="BM6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BN6" s="1">
         <v>45412</v>
       </c>
       <c r="BO6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BP6" s="1">
         <v>45394</v>
       </c>
       <c r="BQ6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BR6" s="2">
         <v>18</v>
@@ -4984,7 +4987,7 @@
         <v>18</v>
       </c>
       <c r="BT6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BU6" s="1">
         <v>45415</v>
@@ -5591,19 +5594,19 @@
         <v>45407</v>
       </c>
       <c r="BM7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BN7" s="1">
         <v>45412</v>
       </c>
       <c r="BO7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BP7" s="1">
         <v>45394</v>
       </c>
       <c r="BQ7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BR7" s="2">
         <v>20</v>
@@ -5612,13 +5615,13 @@
         <v>20</v>
       </c>
       <c r="BT7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BU7" s="1">
         <v>45394</v>
       </c>
       <c r="BV7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BW7" s="2">
         <v>20</v>
@@ -6219,19 +6222,19 @@
         <v>45407</v>
       </c>
       <c r="BM8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BN8" s="1">
         <v>45412</v>
       </c>
       <c r="BO8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BP8" s="1">
         <v>45394</v>
       </c>
       <c r="BQ8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BR8" s="2">
         <v>20</v>
@@ -6240,13 +6243,13 @@
         <v>20</v>
       </c>
       <c r="BT8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BU8" s="1">
         <v>45394</v>
       </c>
       <c r="BV8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BW8" s="2">
         <v>20</v>
@@ -6857,7 +6860,7 @@
         <v>45423</v>
       </c>
       <c r="BM9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BN9" s="1">
         <v>45439</v>
@@ -6869,7 +6872,7 @@
         <v>45406</v>
       </c>
       <c r="BQ9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BR9" s="2">
         <v>16</v>
@@ -6878,7 +6881,7 @@
         <v>15</v>
       </c>
       <c r="BT9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BU9" s="1">
         <v>45439</v>
@@ -6893,28 +6896,28 @@
         <v>12</v>
       </c>
       <c r="BY9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CA9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CC9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CD9" s="1">
         <v>45474</v>
       </c>
       <c r="CE9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CF9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG9" t="s">
         <v>80</v>
@@ -6977,22 +6980,22 @@
         <v>80</v>
       </c>
       <c r="DE9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="DF9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="DG9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="DH9" s="1">
         <v>45444</v>
       </c>
       <c r="DI9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="DJ9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="DK9" t="s">
         <v>80</v>
@@ -7016,22 +7019,22 @@
       </c>
       <c r="DS9" s="1"/>
       <c r="DT9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="DU9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="DV9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="DW9" s="1">
         <v>45444</v>
       </c>
       <c r="DX9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="DY9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="DZ9" t="s">
         <v>80</v>
@@ -7086,7 +7089,7 @@
       </c>
       <c r="EU9" s="1"/>
       <c r="EV9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EW9" s="1">
         <v>45495</v>
@@ -7095,10 +7098,10 @@
         <v>5</v>
       </c>
       <c r="EY9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="EZ9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="FA9" s="1">
         <v>45500</v>
@@ -7107,10 +7110,10 @@
         <v>5</v>
       </c>
       <c r="FC9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FD9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="FE9" s="1">
         <v>45504</v>
@@ -7119,10 +7122,10 @@
         <v>6</v>
       </c>
       <c r="FG9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FH9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="FI9" s="1">
         <v>45506</v>
@@ -7131,7 +7134,7 @@
         <v>10</v>
       </c>
       <c r="FK9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FL9" t="s">
         <v>107</v>
@@ -7143,7 +7146,7 @@
         <v>7</v>
       </c>
       <c r="FO9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FP9" t="s">
         <v>107</v>
@@ -7155,10 +7158,10 @@
         <v>12</v>
       </c>
       <c r="FS9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FT9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="FU9" s="1">
         <v>45518</v>
@@ -7167,10 +7170,10 @@
         <v>6</v>
       </c>
       <c r="FW9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FX9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="FY9" s="1">
         <v>45521</v>
@@ -7179,10 +7182,10 @@
         <v>14</v>
       </c>
       <c r="GA9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="GB9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="GC9" s="1">
         <v>45528</v>
@@ -7191,10 +7194,10 @@
         <v>13</v>
       </c>
       <c r="GE9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="GF9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="GG9" s="1">
         <v>45532</v>
@@ -7203,10 +7206,10 @@
         <v>5</v>
       </c>
       <c r="GI9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="GJ9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="GK9" s="1">
         <v>45542</v>
@@ -7215,10 +7218,10 @@
         <v>9</v>
       </c>
       <c r="GM9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="GN9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="GO9" s="1">
         <v>45549</v>
@@ -7227,10 +7230,10 @@
         <v>14</v>
       </c>
       <c r="GQ9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="GR9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="GS9" s="1">
         <v>45577</v>
@@ -7239,7 +7242,7 @@
         <v>6</v>
       </c>
       <c r="GU9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="GV9" t="s">
         <v>80</v>
@@ -7356,7 +7359,7 @@
       <c r="JJ9" s="2"/>
       <c r="JK9" s="2"/>
       <c r="JL9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10">
@@ -7553,19 +7556,19 @@
         <v>45423</v>
       </c>
       <c r="BM10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BN10" s="1">
         <v>45439</v>
       </c>
       <c r="BO10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BP10" s="1">
         <v>45409</v>
       </c>
       <c r="BQ10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BR10" s="2">
         <v>12</v>
@@ -7574,7 +7577,7 @@
         <v>12</v>
       </c>
       <c r="BT10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BU10" s="1">
         <v>45439</v>
@@ -7589,43 +7592,43 @@
         <v>12</v>
       </c>
       <c r="BY10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CA10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CC10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CD10" s="1">
         <v>45474</v>
       </c>
       <c r="CE10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CF10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CH10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CI10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CJ10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CK10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CL10" s="1">
         <v>45497</v>
@@ -7634,7 +7637,7 @@
         <v>3</v>
       </c>
       <c r="CN10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CO10" t="s">
         <v>80</v>
@@ -7782,7 +7785,7 @@
       </c>
       <c r="EU10" s="1"/>
       <c r="EV10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="EW10" s="1">
         <v>45479</v>
@@ -7791,10 +7794,10 @@
         <v>4</v>
       </c>
       <c r="EY10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="EZ10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="FA10" s="1">
         <v>45486</v>
@@ -7803,10 +7806,10 @@
         <v>2</v>
       </c>
       <c r="FC10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FD10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="FE10" s="1">
         <v>45493</v>
@@ -7815,10 +7818,10 @@
         <v>6</v>
       </c>
       <c r="FG10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FH10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="FI10" s="1">
         <v>45506</v>
@@ -7827,10 +7830,10 @@
         <v>6</v>
       </c>
       <c r="FK10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FL10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="FM10" s="1">
         <v>45521</v>
@@ -7839,10 +7842,10 @@
         <v>22</v>
       </c>
       <c r="FO10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FP10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FQ10" s="1">
         <v>45528</v>
@@ -7851,10 +7854,10 @@
         <v>32</v>
       </c>
       <c r="FS10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FT10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="FU10" s="1">
         <v>45539</v>
@@ -7863,10 +7866,10 @@
         <v>20</v>
       </c>
       <c r="FW10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FX10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="FY10" s="1">
         <v>45542</v>
@@ -7875,10 +7878,10 @@
         <v>9</v>
       </c>
       <c r="GA10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="GB10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="GC10" s="1">
         <v>45577</v>
@@ -7887,7 +7890,7 @@
         <v>23</v>
       </c>
       <c r="GE10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="GF10" t="s">
         <v>80</v>
@@ -8036,7 +8039,7 @@
       <c r="JJ10" s="2"/>
       <c r="JK10" s="2"/>
       <c r="JL10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11">
@@ -8233,19 +8236,19 @@
         <v>45423</v>
       </c>
       <c r="BM11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BN11" s="1">
         <v>45439</v>
       </c>
       <c r="BO11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BP11" s="1">
         <v>45409</v>
       </c>
       <c r="BQ11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BR11" s="2">
         <v>3</v>
@@ -8254,13 +8257,13 @@
         <v>2</v>
       </c>
       <c r="BT11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BU11" s="1">
         <v>45439</v>
       </c>
       <c r="BV11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BW11" s="2">
         <v>2</v>
@@ -8269,43 +8272,43 @@
         <v>2</v>
       </c>
       <c r="BY11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CA11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CC11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CD11" s="1">
         <v>45474</v>
       </c>
       <c r="CE11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CF11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CH11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CI11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CJ11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CK11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CL11" s="1">
         <v>45497</v>
@@ -8314,7 +8317,7 @@
         <v>3</v>
       </c>
       <c r="CN11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CO11" t="s">
         <v>80</v>
@@ -8680,7 +8683,7 @@
       <c r="JJ11" s="2"/>
       <c r="JK11" s="2"/>
       <c r="JL11" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12">
@@ -8877,19 +8880,19 @@
         <v>45423</v>
       </c>
       <c r="BM12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BN12" s="1">
         <v>45439</v>
       </c>
       <c r="BO12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BP12" s="1">
         <v>45409</v>
       </c>
       <c r="BQ12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BR12" s="2">
         <v>4</v>
@@ -8898,7 +8901,7 @@
         <v>4</v>
       </c>
       <c r="BT12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BU12" s="1">
         <v>45439</v>
@@ -8913,43 +8916,43 @@
         <v>4</v>
       </c>
       <c r="BY12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CA12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CC12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CD12" s="1">
         <v>45474</v>
       </c>
       <c r="CE12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CF12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CH12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CI12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CJ12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CK12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CL12" s="1">
         <v>45497</v>
@@ -8958,7 +8961,7 @@
         <v>3</v>
       </c>
       <c r="CN12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CO12" t="s">
         <v>80</v>
@@ -9106,7 +9109,7 @@
       </c>
       <c r="EU12" s="1"/>
       <c r="EV12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="EW12" s="1">
         <v>45486</v>
@@ -9115,10 +9118,10 @@
         <v>4</v>
       </c>
       <c r="EY12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="EZ12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="FA12" s="1">
         <v>45489</v>
@@ -9127,10 +9130,10 @@
         <v>4</v>
       </c>
       <c r="FC12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FD12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="FE12" s="1">
         <v>45493</v>
@@ -9139,10 +9142,10 @@
         <v>7</v>
       </c>
       <c r="FG12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FH12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="FI12" s="1">
         <v>45504</v>
@@ -9151,10 +9154,10 @@
         <v>6</v>
       </c>
       <c r="FK12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FL12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="FM12" s="1">
         <v>45506</v>
@@ -9163,7 +9166,7 @@
         <v>15</v>
       </c>
       <c r="FO12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FP12" t="s">
         <v>107</v>
@@ -9175,10 +9178,10 @@
         <v>5</v>
       </c>
       <c r="FS12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FT12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="FU12" s="1">
         <v>45514</v>
@@ -9187,10 +9190,10 @@
         <v>8</v>
       </c>
       <c r="FW12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FX12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="FY12" s="1">
         <v>45518</v>
@@ -9199,10 +9202,10 @@
         <v>15</v>
       </c>
       <c r="GA12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GB12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="GC12" s="1">
         <v>45521</v>
@@ -9211,10 +9214,10 @@
         <v>10</v>
       </c>
       <c r="GE12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GF12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="GG12" s="1">
         <v>45528</v>
@@ -9223,10 +9226,10 @@
         <v>19</v>
       </c>
       <c r="GI12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GJ12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="GK12" s="1">
         <v>45532</v>
@@ -9235,10 +9238,10 @@
         <v>11</v>
       </c>
       <c r="GM12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GN12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="GO12" s="1">
         <v>45539</v>
@@ -9247,10 +9250,10 @@
         <v>9</v>
       </c>
       <c r="GQ12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GR12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="GS12" s="1">
         <v>45542</v>
@@ -9259,10 +9262,10 @@
         <v>15</v>
       </c>
       <c r="GU12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GV12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="GW12" s="1">
         <v>45577</v>
@@ -9271,7 +9274,7 @@
         <v>39</v>
       </c>
       <c r="GY12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GZ12" t="s">
         <v>80</v>
@@ -9380,7 +9383,7 @@
       <c r="JJ12" s="2"/>
       <c r="JK12" s="2"/>
       <c r="JL12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13">
@@ -9577,19 +9580,19 @@
         <v>45423</v>
       </c>
       <c r="BM13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BN13" s="1">
         <v>45439</v>
       </c>
       <c r="BO13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BP13" s="1">
         <v>45409</v>
       </c>
       <c r="BQ13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BR13" s="2">
         <v>25</v>
@@ -9598,7 +9601,7 @@
         <v>24</v>
       </c>
       <c r="BT13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BU13" s="1">
         <v>45439</v>
@@ -9613,43 +9616,43 @@
         <v>20</v>
       </c>
       <c r="BY13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CA13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CC13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CD13" s="1">
         <v>45474</v>
       </c>
       <c r="CE13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CF13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CH13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CI13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CJ13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CK13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CL13" s="1">
         <v>45497</v>
@@ -9658,7 +9661,7 @@
         <v>3</v>
       </c>
       <c r="CN13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CO13" t="s">
         <v>80</v>
@@ -9806,7 +9809,7 @@
       </c>
       <c r="EU13" s="1"/>
       <c r="EV13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="EW13" s="1">
         <v>45486</v>
@@ -9815,10 +9818,10 @@
         <v>12</v>
       </c>
       <c r="EY13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="EZ13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="FA13" s="1">
         <v>45489</v>
@@ -9827,10 +9830,10 @@
         <v>8</v>
       </c>
       <c r="FC13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FD13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="FE13" s="1">
         <v>45493</v>
@@ -9839,10 +9842,10 @@
         <v>20</v>
       </c>
       <c r="FG13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FH13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="FI13" s="1">
         <v>45500</v>
@@ -9851,10 +9854,10 @@
         <v>10</v>
       </c>
       <c r="FK13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FL13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="FM13" s="1">
         <v>45504</v>
@@ -9863,10 +9866,10 @@
         <v>7</v>
       </c>
       <c r="FO13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FP13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="FQ13" s="1">
         <v>45506</v>
@@ -9875,10 +9878,10 @@
         <v>77</v>
       </c>
       <c r="FS13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FT13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="FU13" s="1">
         <v>45511</v>
@@ -9887,10 +9890,10 @@
         <v>13</v>
       </c>
       <c r="FW13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FX13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="FY13" s="1">
         <v>45514</v>
@@ -9899,10 +9902,10 @@
         <v>6</v>
       </c>
       <c r="GA13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="GB13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="GC13" s="1">
         <v>45518</v>
@@ -9911,10 +9914,10 @@
         <v>6.75</v>
       </c>
       <c r="GE13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="GF13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="GG13" s="1">
         <v>45521</v>
@@ -9923,10 +9926,10 @@
         <v>99</v>
       </c>
       <c r="GI13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GJ13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="GK13" s="1">
         <v>45528</v>
@@ -9935,10 +9938,10 @@
         <v>99</v>
       </c>
       <c r="GM13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GN13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="GO13" s="1">
         <v>45532</v>
@@ -9947,10 +9950,10 @@
         <v>74</v>
       </c>
       <c r="GQ13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GR13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="GS13" s="1">
         <v>45539</v>
@@ -9959,10 +9962,10 @@
         <v>5</v>
       </c>
       <c r="GU13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="GV13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="GW13" s="1">
         <v>45542</v>
@@ -9971,10 +9974,10 @@
         <v>45</v>
       </c>
       <c r="GY13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GZ13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="HA13" s="1">
         <v>45577</v>
@@ -9983,7 +9986,7 @@
         <v>50</v>
       </c>
       <c r="HC13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="HD13" t="s">
         <v>80</v>
@@ -10084,7 +10087,7 @@
       <c r="JJ13" s="2"/>
       <c r="JK13" s="2"/>
       <c r="JL13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14">
@@ -10281,19 +10284,19 @@
         <v>45423</v>
       </c>
       <c r="BM14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BN14" s="1">
         <v>45439</v>
       </c>
       <c r="BO14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BP14" s="1">
         <v>45409</v>
       </c>
       <c r="BQ14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BR14" s="2">
         <v>5</v>
@@ -10302,7 +10305,7 @@
         <v>5</v>
       </c>
       <c r="BT14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BU14" s="1">
         <v>45439</v>
@@ -10317,43 +10320,43 @@
         <v>4</v>
       </c>
       <c r="BY14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CA14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CC14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CD14" s="1">
         <v>45474</v>
       </c>
       <c r="CE14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CF14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CH14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CI14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CJ14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CK14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CL14" s="1">
         <v>45497</v>
@@ -10362,7 +10365,7 @@
         <v>3</v>
       </c>
       <c r="CN14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CO14" t="s">
         <v>80</v>
@@ -10510,7 +10513,7 @@
       </c>
       <c r="EU14" s="1"/>
       <c r="EV14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="EW14" s="1">
         <v>45486</v>
@@ -10519,10 +10522,10 @@
         <v>1</v>
       </c>
       <c r="EY14" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="EZ14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="FA14" s="1">
         <v>45489</v>
@@ -10531,10 +10534,10 @@
         <v>8</v>
       </c>
       <c r="FC14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FD14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="FE14" s="1">
         <v>45493</v>
@@ -10543,10 +10546,10 @@
         <v>5</v>
       </c>
       <c r="FG14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FH14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="FI14" s="1">
         <v>45504</v>
@@ -10555,10 +10558,10 @@
         <v>9</v>
       </c>
       <c r="FK14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FL14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="FM14" s="1">
         <v>45506</v>
@@ -10567,7 +10570,7 @@
         <v>15</v>
       </c>
       <c r="FO14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FP14" t="s">
         <v>107</v>
@@ -10579,10 +10582,10 @@
         <v>12</v>
       </c>
       <c r="FS14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FT14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="FU14" s="1">
         <v>45514</v>
@@ -10591,10 +10594,10 @@
         <v>25</v>
       </c>
       <c r="FW14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FX14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="FY14" s="1">
         <v>45518</v>
@@ -10603,10 +10606,10 @@
         <v>17</v>
       </c>
       <c r="GA14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GB14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="GC14" s="1">
         <v>45521</v>
@@ -10615,10 +10618,10 @@
         <v>4</v>
       </c>
       <c r="GE14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GF14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="GG14" s="1">
         <v>45528</v>
@@ -10627,10 +10630,10 @@
         <v>25</v>
       </c>
       <c r="GI14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GJ14" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="GK14" s="1">
         <v>45532</v>
@@ -10639,10 +10642,10 @@
         <v>35</v>
       </c>
       <c r="GM14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GN14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="GO14" s="1">
         <v>45539</v>
@@ -10651,10 +10654,10 @@
         <v>16</v>
       </c>
       <c r="GQ14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GR14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="GS14" s="1">
         <v>45542</v>
@@ -10663,10 +10666,10 @@
         <v>19</v>
       </c>
       <c r="GU14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GV14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="GW14" s="1">
         <v>45577</v>
@@ -10675,7 +10678,7 @@
         <v>24</v>
       </c>
       <c r="GY14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GZ14" t="s">
         <v>80</v>
@@ -10784,7 +10787,7 @@
       <c r="JJ14" s="2"/>
       <c r="JK14" s="2"/>
       <c r="JL14" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15">
@@ -10981,19 +10984,19 @@
         <v>45423</v>
       </c>
       <c r="BM15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BN15" s="1">
         <v>45439</v>
       </c>
       <c r="BO15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BP15" s="1">
         <v>45409</v>
       </c>
       <c r="BQ15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BR15" s="2">
         <v>3</v>
@@ -11002,7 +11005,7 @@
         <v>3</v>
       </c>
       <c r="BT15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BU15" s="1">
         <v>45439</v>
@@ -11017,43 +11020,43 @@
         <v>3</v>
       </c>
       <c r="BY15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CA15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CC15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CD15" s="1">
         <v>45474</v>
       </c>
       <c r="CE15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CF15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CH15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CI15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CJ15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CK15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CL15" s="1">
         <v>45497</v>
@@ -11062,7 +11065,7 @@
         <v>3</v>
       </c>
       <c r="CN15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CO15" t="s">
         <v>80</v>
@@ -11210,7 +11213,7 @@
       </c>
       <c r="EU15" s="1"/>
       <c r="EV15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="EW15" s="1">
         <v>45489</v>
@@ -11219,10 +11222,10 @@
         <v>2</v>
       </c>
       <c r="EY15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="EZ15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="FA15" s="1">
         <v>45493</v>
@@ -11231,10 +11234,10 @@
         <v>3</v>
       </c>
       <c r="FC15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FD15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="FE15" s="1">
         <v>45506</v>
@@ -11243,10 +11246,10 @@
         <v>7</v>
       </c>
       <c r="FG15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FH15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="FI15" s="1">
         <v>45514</v>
@@ -11255,10 +11258,10 @@
         <v>3</v>
       </c>
       <c r="FK15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FL15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="FM15" s="1">
         <v>45518</v>
@@ -11267,10 +11270,10 @@
         <v>13</v>
       </c>
       <c r="FO15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FP15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="FQ15" s="1">
         <v>45518</v>
@@ -11279,10 +11282,10 @@
         <v>13</v>
       </c>
       <c r="FS15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FT15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="FU15" s="1">
         <v>45521</v>
@@ -11291,20 +11294,20 @@
         <v>15</v>
       </c>
       <c r="FW15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FX15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FY15" s="1">
         <v>45528</v>
       </c>
       <c r="FZ15" s="2"/>
       <c r="GA15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GB15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="GC15" s="1">
         <v>45542</v>
@@ -11313,10 +11316,10 @@
         <v>11</v>
       </c>
       <c r="GE15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GF15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="GG15" s="1">
         <v>45577</v>
@@ -11325,7 +11328,7 @@
         <v>11</v>
       </c>
       <c r="GI15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GJ15" t="s">
         <v>80</v>
@@ -11466,7 +11469,7 @@
       <c r="JJ15" s="2"/>
       <c r="JK15" s="2"/>
       <c r="JL15" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16">
@@ -11663,19 +11666,19 @@
         <v>45423</v>
       </c>
       <c r="BM16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BN16" s="1">
         <v>45439</v>
       </c>
       <c r="BO16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BP16" s="1">
         <v>45409</v>
       </c>
       <c r="BQ16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BR16" s="2">
         <v>6</v>
@@ -11684,7 +11687,7 @@
         <v>6</v>
       </c>
       <c r="BT16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BU16" s="1">
         <v>45439</v>
@@ -11699,43 +11702,43 @@
         <v>6</v>
       </c>
       <c r="BY16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CA16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CC16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CD16" s="1">
         <v>45474</v>
       </c>
       <c r="CE16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CF16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CH16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CI16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CJ16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CK16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CL16" s="1">
         <v>45497</v>
@@ -11744,7 +11747,7 @@
         <v>3</v>
       </c>
       <c r="CN16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CO16" t="s">
         <v>80</v>
@@ -11892,7 +11895,7 @@
       </c>
       <c r="EU16" s="1"/>
       <c r="EV16" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="EW16" s="1">
         <v>45504</v>
@@ -11901,10 +11904,10 @@
         <v>9</v>
       </c>
       <c r="EY16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="EZ16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="FA16" s="1">
         <v>45506</v>
@@ -11913,10 +11916,10 @@
         <v>9</v>
       </c>
       <c r="FC16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FD16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="FE16" s="1">
         <v>45518</v>
@@ -11925,10 +11928,10 @@
         <v>13</v>
       </c>
       <c r="FG16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FH16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="FI16" s="1">
         <v>45521</v>
@@ -11937,10 +11940,10 @@
         <v>13</v>
       </c>
       <c r="FK16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FL16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FM16" s="1">
         <v>45528</v>
@@ -11949,10 +11952,10 @@
         <v>13</v>
       </c>
       <c r="FO16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FP16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="FQ16" s="1">
         <v>45532</v>
@@ -11961,10 +11964,10 @@
         <v>8</v>
       </c>
       <c r="FS16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FT16" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="FU16" s="1">
         <v>45539</v>
@@ -11973,10 +11976,10 @@
         <v>6</v>
       </c>
       <c r="FW16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FX16" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="FY16" s="1">
         <v>45542</v>
@@ -11985,10 +11988,10 @@
         <v>15</v>
       </c>
       <c r="GA16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GB16" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="GC16" s="1">
         <v>45577</v>
@@ -11997,7 +12000,7 @@
         <v>23</v>
       </c>
       <c r="GE16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GF16" t="s">
         <v>80</v>
@@ -12146,7 +12149,7 @@
       <c r="JJ16" s="2"/>
       <c r="JK16" s="2"/>
       <c r="JL16" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17">
@@ -12343,19 +12346,19 @@
         <v>45423</v>
       </c>
       <c r="BM17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BN17" s="1">
         <v>45439</v>
       </c>
       <c r="BO17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BP17" s="1">
         <v>45409</v>
       </c>
       <c r="BQ17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BR17" s="2">
         <v>2</v>
@@ -12364,7 +12367,7 @@
         <v>2</v>
       </c>
       <c r="BT17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BU17" s="1">
         <v>45439</v>
@@ -12379,43 +12382,43 @@
         <v>2</v>
       </c>
       <c r="BY17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CA17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CC17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CD17" s="1">
         <v>45474</v>
       </c>
       <c r="CE17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CF17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CH17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CI17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CJ17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CK17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CL17" s="1">
         <v>45497</v>
@@ -12424,7 +12427,7 @@
         <v>3</v>
       </c>
       <c r="CN17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CO17" t="s">
         <v>80</v>
@@ -12572,7 +12575,7 @@
       </c>
       <c r="EU17" s="1"/>
       <c r="EV17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="EW17" s="1">
         <v>45518</v>
@@ -12581,7 +12584,7 @@
         <v>2</v>
       </c>
       <c r="EY17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="EZ17" t="s">
         <v>80</v>
@@ -12794,7 +12797,7 @@
       <c r="JJ17" s="2"/>
       <c r="JK17" s="2"/>
       <c r="JL17" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18">
@@ -12991,19 +12994,19 @@
         <v>45423</v>
       </c>
       <c r="BM18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BN18" s="1">
         <v>45439</v>
       </c>
       <c r="BO18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BP18" s="1">
         <v>45409</v>
       </c>
       <c r="BQ18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BR18" s="2">
         <v>1</v>
@@ -13012,7 +13015,7 @@
         <v>1</v>
       </c>
       <c r="BT18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BU18" s="1">
         <v>45439</v>
@@ -13027,43 +13030,43 @@
         <v>1</v>
       </c>
       <c r="BY18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CA18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CC18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CD18" s="1">
         <v>45474</v>
       </c>
       <c r="CE18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CF18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CH18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CI18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CJ18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CK18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CL18" s="1">
         <v>45497</v>
@@ -13072,7 +13075,7 @@
         <v>3</v>
       </c>
       <c r="CN18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CO18" t="s">
         <v>80</v>
@@ -13220,7 +13223,7 @@
       </c>
       <c r="EU18" s="1"/>
       <c r="EV18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="EW18" s="1">
         <v>45518</v>
@@ -13229,10 +13232,10 @@
         <v>14</v>
       </c>
       <c r="EY18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="EZ18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="FA18" s="1">
         <v>45577</v>
@@ -13241,7 +13244,7 @@
         <v>36</v>
       </c>
       <c r="FC18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FD18" t="s">
         <v>80</v>
@@ -13446,7 +13449,7 @@
       <c r="JJ18" s="2"/>
       <c r="JK18" s="2"/>
       <c r="JL18" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19">
@@ -13643,19 +13646,19 @@
         <v>45423</v>
       </c>
       <c r="BM19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BN19" s="1">
         <v>45439</v>
       </c>
       <c r="BO19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BP19" s="1">
         <v>45409</v>
       </c>
       <c r="BQ19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BR19" s="2">
         <v>2</v>
@@ -13664,7 +13667,7 @@
         <v>2</v>
       </c>
       <c r="BT19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BU19" s="1">
         <v>45439</v>
@@ -13679,43 +13682,43 @@
         <v>2</v>
       </c>
       <c r="BY19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CA19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CC19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CD19" s="1">
         <v>45474</v>
       </c>
       <c r="CE19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CF19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CH19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CI19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CJ19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CK19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CL19" s="1">
         <v>45497</v>
@@ -13724,7 +13727,7 @@
         <v>3</v>
       </c>
       <c r="CN19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CO19" t="s">
         <v>80</v>
@@ -13872,7 +13875,7 @@
       </c>
       <c r="EU19" s="1"/>
       <c r="EV19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="EW19" s="1">
         <v>45518</v>
@@ -13881,10 +13884,10 @@
         <v>1</v>
       </c>
       <c r="EY19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="EZ19" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="FA19" s="1">
         <v>45577</v>
@@ -13893,7 +13896,7 @@
         <v>17</v>
       </c>
       <c r="FC19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FD19" t="s">
         <v>80</v>
@@ -14098,7 +14101,7 @@
       <c r="JJ19" s="2"/>
       <c r="JK19" s="2"/>
       <c r="JL19" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20">
@@ -14295,19 +14298,19 @@
         <v>45423</v>
       </c>
       <c r="BM20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BN20" s="1">
         <v>45439</v>
       </c>
       <c r="BO20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BP20" s="1">
         <v>45409</v>
       </c>
       <c r="BQ20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BR20" s="2">
         <v>3</v>
@@ -14316,7 +14319,7 @@
         <v>3</v>
       </c>
       <c r="BT20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BU20" s="1">
         <v>45439</v>
@@ -14331,43 +14334,43 @@
         <v>3</v>
       </c>
       <c r="BY20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CA20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CC20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CD20" s="1">
         <v>45474</v>
       </c>
       <c r="CE20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CF20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CH20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CI20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CJ20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CK20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CL20" s="1">
         <v>45497</v>
@@ -14376,7 +14379,7 @@
         <v>3</v>
       </c>
       <c r="CN20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CO20" t="s">
         <v>80</v>
@@ -14524,7 +14527,7 @@
       </c>
       <c r="EU20" s="1"/>
       <c r="EV20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="EW20" s="1">
         <v>45518</v>
@@ -14533,10 +14536,10 @@
         <v>6</v>
       </c>
       <c r="EY20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="EZ20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="FA20" s="1">
         <v>45577</v>
@@ -14545,7 +14548,7 @@
         <v>24</v>
       </c>
       <c r="FC20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FD20" t="s">
         <v>80</v>
@@ -14750,7 +14753,7 @@
       <c r="JJ20" s="2"/>
       <c r="JK20" s="2"/>
       <c r="JL20" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21">
@@ -14945,7 +14948,7 @@
         <v>45406</v>
       </c>
       <c r="BM21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BN21" s="1">
         <v>45425</v>
@@ -14957,7 +14960,7 @@
         <v>45406</v>
       </c>
       <c r="BQ21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BR21" s="2">
         <v>16</v>
@@ -14966,7 +14969,7 @@
         <v>15</v>
       </c>
       <c r="BT21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BU21" s="1">
         <v>45425</v>
@@ -14981,43 +14984,43 @@
         <v>9</v>
       </c>
       <c r="BY21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CA21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CC21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CD21" s="1">
         <v>45474</v>
       </c>
       <c r="CE21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CF21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CH21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CI21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="CJ21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="CK21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="CL21" s="1">
         <v>45482</v>
@@ -15026,22 +15029,22 @@
         <v>1</v>
       </c>
       <c r="CN21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CO21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CP21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CQ21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="CR21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="CS21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="CT21" s="1">
         <v>45491</v>
@@ -15050,50 +15053,50 @@
         <v>1</v>
       </c>
       <c r="CV21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CW21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CX21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CY21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="CZ21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="DA21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="DB21" s="1"/>
       <c r="DC21" s="2">
         <v>0.5</v>
       </c>
       <c r="DD21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="DE21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="DF21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="DG21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="DH21" s="1">
         <v>45444</v>
       </c>
       <c r="DI21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="DJ21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="DK21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="DL21" s="1">
         <v>45474</v>
@@ -15116,25 +15119,25 @@
       </c>
       <c r="DS21" s="1"/>
       <c r="DT21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="DU21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="DV21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="DW21" s="1">
         <v>45498</v>
       </c>
       <c r="DX21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="DY21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="DZ21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="EA21" s="1">
         <v>45498</v>
@@ -15154,25 +15157,25 @@
       </c>
       <c r="EG21" s="1"/>
       <c r="EH21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="EI21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="EJ21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="EK21" s="1">
         <v>45518</v>
       </c>
       <c r="EL21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="EM21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="EN21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="EO21" s="1">
         <v>45522</v>
@@ -15192,7 +15195,7 @@
       </c>
       <c r="EU21" s="1"/>
       <c r="EV21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="EW21" s="1">
         <v>45489</v>
@@ -15201,10 +15204,10 @@
         <v>8</v>
       </c>
       <c r="EY21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="EZ21" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="FA21" s="1">
         <v>45493</v>
@@ -15213,10 +15216,10 @@
         <v>3</v>
       </c>
       <c r="FC21" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="FD21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="FE21" s="1">
         <v>45496</v>
@@ -15225,10 +15228,10 @@
         <v>1</v>
       </c>
       <c r="FG21" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="FH21" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="FI21" s="1">
         <v>45506</v>
@@ -15237,7 +15240,7 @@
         <v>5</v>
       </c>
       <c r="FK21" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="FL21" t="s">
         <v>107</v>
@@ -15249,10 +15252,10 @@
         <v>13</v>
       </c>
       <c r="FO21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FP21" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="FQ21" s="1">
         <v>45532</v>
@@ -15261,10 +15264,10 @@
         <v>20</v>
       </c>
       <c r="FS21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FT21" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="FU21" s="1">
         <v>45539</v>
@@ -15273,10 +15276,10 @@
         <v>74</v>
       </c>
       <c r="FW21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FX21" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="FY21" s="1">
         <v>45545</v>
@@ -15285,10 +15288,10 @@
         <v>28</v>
       </c>
       <c r="GA21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GB21" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="GC21" s="1">
         <v>45546</v>
@@ -15297,10 +15300,10 @@
         <v>4</v>
       </c>
       <c r="GE21" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="GF21" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="GG21" s="1">
         <v>45549</v>
@@ -15309,10 +15312,10 @@
         <v>84</v>
       </c>
       <c r="GI21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GJ21" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="GK21" s="1">
         <v>45553</v>
@@ -15321,10 +15324,10 @@
         <v>31</v>
       </c>
       <c r="GM21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GN21" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="GO21" s="1">
         <v>45567</v>
@@ -15333,7 +15336,7 @@
         <v>28</v>
       </c>
       <c r="GQ21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GR21" t="s">
         <v>80</v>
@@ -15653,7 +15656,7 @@
         <v>45406</v>
       </c>
       <c r="BM22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BN22" s="1">
         <v>45425</v>
@@ -15665,7 +15668,7 @@
         <v>45406</v>
       </c>
       <c r="BQ22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BR22" s="2">
         <v>16</v>
@@ -15674,7 +15677,7 @@
         <v>15</v>
       </c>
       <c r="BT22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BU22" s="1">
         <v>45425</v>
@@ -15689,43 +15692,43 @@
         <v>9</v>
       </c>
       <c r="BY22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CA22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CC22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CD22" s="1">
         <v>45474</v>
       </c>
       <c r="CE22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CF22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CH22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CI22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="CJ22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="CK22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="CL22" s="1">
         <v>45482</v>
@@ -15734,22 +15737,22 @@
         <v>1</v>
       </c>
       <c r="CN22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CO22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CP22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CQ22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="CR22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="CS22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="CT22" s="1">
         <v>45491</v>
@@ -15758,29 +15761,29 @@
         <v>1</v>
       </c>
       <c r="CV22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CW22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CX22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CY22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="CZ22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="DA22" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="DB22" s="1"/>
       <c r="DC22" s="2">
         <v>0.5</v>
       </c>
       <c r="DD22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="DE22" t="s">
         <v>80</v>
@@ -15888,7 +15891,7 @@
       </c>
       <c r="EU22" s="1"/>
       <c r="EV22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="EW22" s="1">
         <v>45486</v>
@@ -15897,10 +15900,10 @@
         <v>7</v>
       </c>
       <c r="EY22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="EZ22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="FA22" s="1">
         <v>45489</v>
@@ -15909,10 +15912,10 @@
         <v>22</v>
       </c>
       <c r="FC22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FD22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="FE22" s="1">
         <v>45493</v>
@@ -15921,10 +15924,10 @@
         <v>59</v>
       </c>
       <c r="FG22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FH22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="FI22" s="1">
         <v>45496</v>
@@ -15933,10 +15936,10 @@
         <v>26</v>
       </c>
       <c r="FK22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FL22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="FM22" s="1">
         <v>45498</v>
@@ -15945,10 +15948,10 @@
         <v>28</v>
       </c>
       <c r="FO22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FP22" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="FQ22" s="1">
         <v>45500</v>
@@ -15957,7 +15960,7 @@
         <v>51</v>
       </c>
       <c r="FS22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FT22" t="s">
         <v>94</v>
@@ -15969,7 +15972,7 @@
         <v>15</v>
       </c>
       <c r="FW22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FX22" t="s">
         <v>107</v>
@@ -15981,10 +15984,10 @@
         <v>1</v>
       </c>
       <c r="GA22" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="GB22" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="GC22" s="1">
         <v>45511</v>
@@ -15993,10 +15996,10 @@
         <v>10</v>
       </c>
       <c r="GE22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GF22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="GG22" s="1">
         <v>45514</v>
@@ -16005,10 +16008,10 @@
         <v>18</v>
       </c>
       <c r="GI22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GJ22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="GK22" s="1">
         <v>45518</v>
@@ -16017,10 +16020,10 @@
         <v>46</v>
       </c>
       <c r="GM22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GN22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="GO22" s="1">
         <v>45518</v>
@@ -16029,10 +16032,10 @@
         <v>24</v>
       </c>
       <c r="GQ22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GR22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="GS22" s="1">
         <v>45532</v>
@@ -16041,10 +16044,10 @@
         <v>18</v>
       </c>
       <c r="GU22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GV22" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="GW22" s="1">
         <v>45539</v>
@@ -16053,10 +16056,10 @@
         <v>36</v>
       </c>
       <c r="GY22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GZ22" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="HA22" s="1">
         <v>45542</v>
@@ -16065,10 +16068,10 @@
         <v>23</v>
       </c>
       <c r="HC22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="HD22" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="HE22" s="1">
         <v>45546</v>
@@ -16077,10 +16080,10 @@
         <v>10</v>
       </c>
       <c r="HG22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="HH22" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="HI22" s="1">
         <v>45549</v>
@@ -16089,10 +16092,10 @@
         <v>19</v>
       </c>
       <c r="HK22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="HL22" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="HM22" s="1">
         <v>45553</v>
@@ -16101,10 +16104,10 @@
         <v>23</v>
       </c>
       <c r="HO22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="HP22" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="HQ22" s="1">
         <v>45567</v>
@@ -16113,7 +16116,7 @@
         <v>19</v>
       </c>
       <c r="HS22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="HT22" t="s">
         <v>80</v>
@@ -16377,7 +16380,7 @@
         <v>45406</v>
       </c>
       <c r="BM23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BN23" s="1">
         <v>45425</v>
@@ -16389,7 +16392,7 @@
         <v>45406</v>
       </c>
       <c r="BQ23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BR23" s="2">
         <v>12</v>
@@ -16398,7 +16401,7 @@
         <v>12</v>
       </c>
       <c r="BT23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BU23" s="1">
         <v>45425</v>
@@ -16413,43 +16416,43 @@
         <v>8</v>
       </c>
       <c r="BY23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CA23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CC23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CD23" s="1">
         <v>45474</v>
       </c>
       <c r="CE23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CF23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CH23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CI23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="CJ23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="CK23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="CL23" s="1">
         <v>45482</v>
@@ -16458,22 +16461,22 @@
         <v>1</v>
       </c>
       <c r="CN23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CO23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CP23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CQ23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CR23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CS23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CT23" s="1">
         <v>45497</v>
@@ -16482,7 +16485,7 @@
         <v>3</v>
       </c>
       <c r="CV23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CW23" t="s">
         <v>80</v>
@@ -16610,7 +16613,7 @@
       </c>
       <c r="EU23" s="1"/>
       <c r="EV23" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="EW23" s="1">
         <v>45496</v>
@@ -16619,10 +16622,10 @@
         <v>8</v>
       </c>
       <c r="EY23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="EZ23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="FA23" s="1">
         <v>45500</v>
@@ -16631,7 +16634,7 @@
         <v>38</v>
       </c>
       <c r="FC23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FD23" t="s">
         <v>94</v>
@@ -16643,10 +16646,10 @@
         <v>55</v>
       </c>
       <c r="FG23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FH23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="FI23" s="1">
         <v>45504</v>
@@ -16655,10 +16658,10 @@
         <v>3</v>
       </c>
       <c r="FK23" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="FL23" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="FM23" s="1">
         <v>45506</v>
@@ -16667,7 +16670,7 @@
         <v>4</v>
       </c>
       <c r="FO23" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="FP23" t="s">
         <v>107</v>
@@ -16679,10 +16682,10 @@
         <v>9</v>
       </c>
       <c r="FS23" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="FT23" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="FU23" s="1">
         <v>45514</v>
@@ -16691,10 +16694,10 @@
         <v>19</v>
       </c>
       <c r="FW23" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="FX23" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="FY23" s="1">
         <v>45518</v>
@@ -16703,10 +16706,10 @@
         <v>15</v>
       </c>
       <c r="GA23" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="GB23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="GC23" s="1">
         <v>45521</v>
@@ -16715,10 +16718,10 @@
         <v>141</v>
       </c>
       <c r="GE23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GF23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="GG23" s="1">
         <v>45525</v>
@@ -16727,10 +16730,10 @@
         <v>12</v>
       </c>
       <c r="GI23" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="GJ23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="GK23" s="1">
         <v>45528</v>
@@ -16739,10 +16742,10 @@
         <v>215</v>
       </c>
       <c r="GM23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GN23" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="GO23" s="1">
         <v>45532</v>
@@ -16751,10 +16754,10 @@
         <v>260</v>
       </c>
       <c r="GQ23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GR23" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="GS23" s="1">
         <v>45539</v>
@@ -16763,10 +16766,10 @@
         <v>21</v>
       </c>
       <c r="GU23" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="GV23" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="GW23" s="1">
         <v>45542</v>
@@ -16775,10 +16778,10 @@
         <v>100</v>
       </c>
       <c r="GY23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GZ23" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="HA23" s="1">
         <v>45546</v>
@@ -16787,7 +16790,7 @@
         <v>4.5</v>
       </c>
       <c r="HC23" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="HD23" t="s">
         <v>80</v>
@@ -16798,7 +16801,7 @@
         <v>80</v>
       </c>
       <c r="HH23" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="HI23" s="1">
         <v>45549</v>
@@ -16807,7 +16810,7 @@
         <v>75</v>
       </c>
       <c r="HK23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="HL23" t="s">
         <v>80</v>
@@ -16892,7 +16895,7 @@
       <c r="JJ23" s="2"/>
       <c r="JK23" s="2"/>
       <c r="JL23" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24">
@@ -17087,7 +17090,7 @@
         <v>45406</v>
       </c>
       <c r="BM24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BN24" s="1">
         <v>45425</v>
@@ -17099,7 +17102,7 @@
         <v>45406</v>
       </c>
       <c r="BQ24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BR24" s="2">
         <v>13</v>
@@ -17108,7 +17111,7 @@
         <v>12</v>
       </c>
       <c r="BT24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BU24" s="1">
         <v>45425</v>
@@ -17123,43 +17126,43 @@
         <v>8</v>
       </c>
       <c r="BY24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CA24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CC24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CD24" s="1">
         <v>45474</v>
       </c>
       <c r="CE24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CF24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CH24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CI24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="CJ24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="CK24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="CL24" s="1">
         <v>45482</v>
@@ -17168,22 +17171,22 @@
         <v>1</v>
       </c>
       <c r="CN24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CO24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CP24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CQ24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="CR24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="CS24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CT24" s="1">
         <v>45497</v>
@@ -17192,7 +17195,7 @@
         <v>1</v>
       </c>
       <c r="CV24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CW24" t="s">
         <v>80</v>
@@ -17329,10 +17332,10 @@
         <v>104</v>
       </c>
       <c r="EY24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="EZ24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="FA24" s="1">
         <v>45504</v>
@@ -17341,10 +17344,10 @@
         <v>9</v>
       </c>
       <c r="FC24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="FD24" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="FE24" s="1">
         <v>45506</v>
@@ -17353,7 +17356,7 @@
         <v>20</v>
       </c>
       <c r="FG24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="FH24" t="s">
         <v>107</v>
@@ -17365,7 +17368,7 @@
         <v>13</v>
       </c>
       <c r="FK24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FL24" t="s">
         <v>107</v>
@@ -17377,10 +17380,10 @@
         <v>12</v>
       </c>
       <c r="FO24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="FP24" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="FQ24" s="1">
         <v>45514</v>
@@ -17389,10 +17392,10 @@
         <v>13.5</v>
       </c>
       <c r="FS24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="FT24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="FU24" s="1">
         <v>45518</v>
@@ -17401,10 +17404,10 @@
         <v>16.75</v>
       </c>
       <c r="FW24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="FX24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="FY24" s="1">
         <v>45521</v>
@@ -17413,10 +17416,10 @@
         <v>141</v>
       </c>
       <c r="GA24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GB24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="GC24" s="1">
         <v>45525</v>
@@ -17425,10 +17428,10 @@
         <v>15.5</v>
       </c>
       <c r="GE24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="GF24" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="GG24" s="1">
         <v>45528</v>
@@ -17437,10 +17440,10 @@
         <v>100</v>
       </c>
       <c r="GI24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GJ24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="GK24" s="1">
         <v>45532</v>
@@ -17449,10 +17452,10 @@
         <v>254</v>
       </c>
       <c r="GM24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GN24" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="GO24" s="1">
         <v>45539</v>
@@ -17461,10 +17464,10 @@
         <v>8</v>
       </c>
       <c r="GQ24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="GR24" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="GS24" s="1">
         <v>45542</v>
@@ -17473,7 +17476,7 @@
         <v>68</v>
       </c>
       <c r="GU24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="GV24" t="s">
         <v>80</v>
@@ -17795,7 +17798,7 @@
         <v>45406</v>
       </c>
       <c r="BQ25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BR25" s="2">
         <v>8</v>
@@ -17810,7 +17813,7 @@
         <v>45423</v>
       </c>
       <c r="BV25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BW25" s="2">
         <v>8</v>
@@ -17835,10 +17838,10 @@
       </c>
       <c r="CD25" s="1"/>
       <c r="CE25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CF25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CG25" t="s">
         <v>97</v>
@@ -17853,7 +17856,7 @@
         <v>100</v>
       </c>
       <c r="CK25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CL25" s="1">
         <v>45497</v>
@@ -17862,7 +17865,7 @@
         <v>1</v>
       </c>
       <c r="CN25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CO25" t="s">
         <v>97</v>
@@ -17886,7 +17889,7 @@
         <v>0.5</v>
       </c>
       <c r="CV25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CW25" t="s">
         <v>80</v>
@@ -18423,7 +18426,7 @@
         <v>45406</v>
       </c>
       <c r="BM26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BN26" s="1">
         <v>45420</v>
@@ -18435,7 +18438,7 @@
         <v>45406</v>
       </c>
       <c r="BQ26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BR26" s="2">
         <v>21</v>
@@ -18444,13 +18447,13 @@
         <v>21</v>
       </c>
       <c r="BT26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BU26" s="1">
         <v>45420</v>
       </c>
       <c r="BV26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BW26" s="2">
         <v>20</v>
@@ -18459,28 +18462,28 @@
         <v>19</v>
       </c>
       <c r="BY26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CA26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CC26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="CD26" s="1">
         <v>45463</v>
       </c>
       <c r="CE26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CF26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG26" t="s">
         <v>80</v>
@@ -18866,7 +18869,7 @@
       <c r="JJ26" s="2"/>
       <c r="JK26" s="2"/>
       <c r="JL26" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27">
@@ -19051,11 +19054,11 @@
         <v>80</v>
       </c>
       <c r="BK27" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BL27" s="1"/>
       <c r="BM27" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BN27" s="1"/>
       <c r="BO27" t="s">
@@ -19065,7 +19068,7 @@
         <v>45406</v>
       </c>
       <c r="BQ27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BR27" s="2">
         <v>3</v>
@@ -19074,11 +19077,11 @@
         <v>3</v>
       </c>
       <c r="BT27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BU27" s="1"/>
       <c r="BV27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BW27" s="2"/>
       <c r="BX27" s="2"/>
@@ -19673,11 +19676,11 @@
         <v>80</v>
       </c>
       <c r="BK28" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BL28" s="1"/>
       <c r="BM28" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BN28" s="1"/>
       <c r="BO28" t="s">
@@ -19687,7 +19690,7 @@
         <v>45406</v>
       </c>
       <c r="BQ28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BR28" s="2">
         <v>3</v>
@@ -19696,11 +19699,11 @@
         <v>3</v>
       </c>
       <c r="BT28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BU28" s="1"/>
       <c r="BV28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BW28" s="2"/>
       <c r="BX28" s="2"/>
@@ -20110,7 +20113,7 @@
       <c r="JJ28" s="2"/>
       <c r="JK28" s="2"/>
       <c r="JL28" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29">
@@ -20295,11 +20298,11 @@
         <v>80</v>
       </c>
       <c r="BK29" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BL29" s="1"/>
       <c r="BM29" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BN29" s="1"/>
       <c r="BO29" t="s">
@@ -20309,7 +20312,7 @@
         <v>45406</v>
       </c>
       <c r="BQ29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BR29" s="2">
         <v>6</v>
@@ -20318,11 +20321,11 @@
         <v>6</v>
       </c>
       <c r="BT29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BU29" s="1"/>
       <c r="BV29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BW29" s="2"/>
       <c r="BX29" s="2"/>
@@ -20732,7 +20735,7 @@
       <c r="JJ29" s="2"/>
       <c r="JK29" s="2"/>
       <c r="JL29" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30">
@@ -20923,7 +20926,7 @@
         <v>45406</v>
       </c>
       <c r="BM30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BN30" s="1">
         <v>45438</v>
@@ -20935,7 +20938,7 @@
         <v>45406</v>
       </c>
       <c r="BQ30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BR30" s="2">
         <v>12</v>
@@ -20944,13 +20947,13 @@
         <v>12</v>
       </c>
       <c r="BT30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BU30" s="1">
         <v>45438</v>
       </c>
       <c r="BV30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BW30" s="2">
         <v>10</v>
@@ -21364,7 +21367,7 @@
       <c r="JJ30" s="2"/>
       <c r="JK30" s="2"/>
       <c r="JL30" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31">
@@ -21555,7 +21558,7 @@
         <v>45406</v>
       </c>
       <c r="BM31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BN31" s="1">
         <v>45437</v>
@@ -21567,7 +21570,7 @@
         <v>45406</v>
       </c>
       <c r="BQ31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BR31" s="2">
         <v>15</v>
@@ -21576,13 +21579,13 @@
         <v>9</v>
       </c>
       <c r="BT31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BU31" s="1">
         <v>45437</v>
       </c>
       <c r="BV31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BW31" s="2">
         <v>9</v>
@@ -21996,7 +21999,7 @@
       <c r="JJ31" s="2"/>
       <c r="JK31" s="2"/>
       <c r="JL31" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32">
@@ -22187,7 +22190,7 @@
         <v>45406</v>
       </c>
       <c r="BM32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BN32" s="1">
         <v>45437</v>
@@ -22199,7 +22202,7 @@
         <v>45406</v>
       </c>
       <c r="BQ32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BR32" s="2">
         <v>11</v>
@@ -22208,13 +22211,13 @@
         <v>9</v>
       </c>
       <c r="BT32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BU32" s="1">
         <v>45437</v>
       </c>
       <c r="BV32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BW32" s="2">
         <v>9</v>
@@ -22628,7 +22631,7 @@
       <c r="JJ32" s="2"/>
       <c r="JK32" s="2"/>
       <c r="JL32" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33">
@@ -22819,7 +22822,7 @@
         <v>45406</v>
       </c>
       <c r="BM33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BN33" s="1">
         <v>45437</v>
@@ -22831,7 +22834,7 @@
         <v>45406</v>
       </c>
       <c r="BQ33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BR33" s="2">
         <v>15</v>
@@ -22840,13 +22843,13 @@
         <v>11</v>
       </c>
       <c r="BT33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BU33" s="1">
         <v>45437</v>
       </c>
       <c r="BV33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BW33" s="2">
         <v>11</v>
@@ -23260,7 +23263,7 @@
       <c r="JJ33" s="2"/>
       <c r="JK33" s="2"/>
       <c r="JL33" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="34">
@@ -23862,7 +23865,7 @@
       <c r="JJ34" s="2"/>
       <c r="JK34" s="2"/>
       <c r="JL34" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="35">
@@ -24464,7 +24467,7 @@
       <c r="JJ35" s="2"/>
       <c r="JK35" s="2"/>
       <c r="JL35" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="36">
@@ -25066,7 +25069,7 @@
       <c r="JJ36" s="2"/>
       <c r="JK36" s="2"/>
       <c r="JL36" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="37">
@@ -25668,7 +25671,7 @@
       <c r="JJ37" s="2"/>
       <c r="JK37" s="2"/>
       <c r="JL37" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38">
@@ -26270,7 +26273,7 @@
       <c r="JJ38" s="2"/>
       <c r="JK38" s="2"/>
       <c r="JL38" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39">
@@ -26451,28 +26454,28 @@
         <v>80</v>
       </c>
       <c r="BK39" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BL39" s="1"/>
       <c r="BM39" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BN39" s="1"/>
       <c r="BO39" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BP39" s="1"/>
       <c r="BQ39" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BR39" s="2"/>
       <c r="BS39" s="2"/>
       <c r="BT39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BU39" s="1"/>
       <c r="BV39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BW39" s="2"/>
       <c r="BX39" s="2"/>
@@ -27063,28 +27066,28 @@
         <v>80</v>
       </c>
       <c r="BK40" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BL40" s="1"/>
       <c r="BM40" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BN40" s="1"/>
       <c r="BO40" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BP40" s="1"/>
       <c r="BQ40" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BR40" s="2"/>
       <c r="BS40" s="2"/>
       <c r="BT40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BU40" s="1"/>
       <c r="BV40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BW40" s="2"/>
       <c r="BX40" s="2"/>
@@ -27675,28 +27678,28 @@
         <v>80</v>
       </c>
       <c r="BK41" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BL41" s="1"/>
       <c r="BM41" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BN41" s="1"/>
       <c r="BO41" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BP41" s="1"/>
       <c r="BQ41" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BR41" s="2"/>
       <c r="BS41" s="2"/>
       <c r="BT41" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BU41" s="1"/>
       <c r="BV41" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BW41" s="2"/>
       <c r="BX41" s="2"/>
@@ -28287,28 +28290,28 @@
         <v>80</v>
       </c>
       <c r="BK42" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BL42" s="1"/>
       <c r="BM42" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BN42" s="1"/>
       <c r="BO42" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BP42" s="1"/>
       <c r="BQ42" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BR42" s="2"/>
       <c r="BS42" s="2"/>
       <c r="BT42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BU42" s="1"/>
       <c r="BV42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BW42" s="2"/>
       <c r="BX42" s="2"/>
@@ -28899,28 +28902,28 @@
         <v>80</v>
       </c>
       <c r="BK43" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BL43" s="1"/>
       <c r="BM43" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BN43" s="1"/>
       <c r="BO43" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BP43" s="1"/>
       <c r="BQ43" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BR43" s="2"/>
       <c r="BS43" s="2"/>
       <c r="BT43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BU43" s="1"/>
       <c r="BV43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BW43" s="2"/>
       <c r="BX43" s="2"/>
@@ -29714,7 +29717,7 @@
       </c>
       <c r="EU44" s="1"/>
       <c r="EV44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="EW44" s="1">
         <v>45479</v>
@@ -29723,20 +29726,20 @@
         <v>12</v>
       </c>
       <c r="EY44" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="EZ44" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="FA44" s="1">
         <v>45486</v>
       </c>
       <c r="FB44" s="2"/>
       <c r="FC44" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FD44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="FE44" s="1">
         <v>45495</v>
@@ -29745,7 +29748,7 @@
         <v>9</v>
       </c>
       <c r="FG44" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FH44" t="s">
         <v>80</v>
@@ -29942,7 +29945,7 @@
       <c r="JJ44" s="2"/>
       <c r="JK44" s="2"/>
       <c r="JL44" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="45">
@@ -30326,7 +30329,7 @@
       </c>
       <c r="EU45" s="1"/>
       <c r="EV45" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="EW45" s="1">
         <v>45479</v>
@@ -30335,20 +30338,20 @@
         <v>26</v>
       </c>
       <c r="EY45" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="EZ45" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="FA45" s="1">
         <v>45486</v>
       </c>
       <c r="FB45" s="2"/>
       <c r="FC45" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FD45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="FE45" s="1">
         <v>45495</v>
@@ -30357,7 +30360,7 @@
         <v>26</v>
       </c>
       <c r="FG45" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FH45" t="s">
         <v>80</v>
@@ -30554,7 +30557,7 @@
       <c r="JJ45" s="2"/>
       <c r="JK45" s="2"/>
       <c r="JL45" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46">
@@ -30938,7 +30941,7 @@
       </c>
       <c r="EU46" s="1"/>
       <c r="EV46" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="EW46" s="1">
         <v>45458</v>
@@ -30947,10 +30950,10 @@
         <v>6</v>
       </c>
       <c r="EY46" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="EZ46" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="FA46" s="1">
         <v>45465</v>
@@ -30959,10 +30962,10 @@
         <v>17</v>
       </c>
       <c r="FC46" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FD46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="FE46" s="1">
         <v>45472</v>
@@ -30971,7 +30974,7 @@
         <v>12</v>
       </c>
       <c r="FG46" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FH46" t="s">
         <v>80</v>
@@ -31168,7 +31171,7 @@
       <c r="JJ46" s="2"/>
       <c r="JK46" s="2"/>
       <c r="JL46" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47">
@@ -31770,7 +31773,7 @@
       <c r="JJ47" s="2"/>
       <c r="JK47" s="2"/>
       <c r="JL47" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48">
@@ -31967,43 +31970,43 @@
       <c r="BW48" s="2"/>
       <c r="BX48" s="2"/>
       <c r="BY48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CA48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CC48" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CD48" s="1">
         <v>45474</v>
       </c>
       <c r="CE48" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CF48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CH48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CI48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CJ48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CK48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="CL48" s="1">
         <v>45489</v>
@@ -32012,7 +32015,7 @@
         <v>1</v>
       </c>
       <c r="CN48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CO48" t="s">
         <v>80</v>
@@ -32160,7 +32163,7 @@
       </c>
       <c r="EU48" s="1"/>
       <c r="EV48" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="EW48" s="1">
         <v>45496</v>
@@ -32169,10 +32172,10 @@
         <v>4</v>
       </c>
       <c r="EY48" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="EZ48" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="FA48" s="1">
         <v>45498</v>
@@ -32181,10 +32184,10 @@
         <v>4</v>
       </c>
       <c r="FC48" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FD48" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="FE48" s="1">
         <v>45500</v>
@@ -32193,10 +32196,10 @@
         <v>43</v>
       </c>
       <c r="FG48" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FH48" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="FI48" s="1">
         <v>45504</v>
@@ -32205,7 +32208,7 @@
         <v>15</v>
       </c>
       <c r="FK48" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FL48" t="s">
         <v>80</v>
@@ -32394,7 +32397,7 @@
       <c r="JJ48" s="2"/>
       <c r="JK48" s="2"/>
       <c r="JL48" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="49">
@@ -32996,7 +32999,7 @@
       <c r="JJ49" s="2"/>
       <c r="JK49" s="2"/>
       <c r="JL49" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="50">
@@ -33598,7 +33601,7 @@
       <c r="JJ50" s="2"/>
       <c r="JK50" s="2"/>
       <c r="JL50" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51">
@@ -34200,7 +34203,7 @@
       <c r="JJ51" s="2"/>
       <c r="JK51" s="2"/>
       <c r="JL51" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52">
@@ -34802,7 +34805,7 @@
       <c r="JJ52" s="2"/>
       <c r="JK52" s="2"/>
       <c r="JL52" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="53">
@@ -35404,7 +35407,7 @@
       <c r="JJ53" s="2"/>
       <c r="JK53" s="2"/>
       <c r="JL53" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="54">
@@ -36006,7 +36009,7 @@
       <c r="JJ54" s="2"/>
       <c r="JK54" s="2"/>
       <c r="JL54" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="55">
@@ -36203,43 +36206,43 @@
       <c r="BW55" s="2"/>
       <c r="BX55" s="2"/>
       <c r="BY55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CA55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CC55" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CD55" s="1">
         <v>45474</v>
       </c>
       <c r="CE55" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CF55" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG55" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CH55" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CI55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CJ55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CK55" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="CL55" s="1">
         <v>45489</v>
@@ -36248,7 +36251,7 @@
         <v>1</v>
       </c>
       <c r="CN55" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CO55" t="s">
         <v>80</v>
@@ -36396,7 +36399,7 @@
       </c>
       <c r="EU55" s="1"/>
       <c r="EV55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EW55" s="1">
         <v>45521</v>
@@ -36405,10 +36408,10 @@
         <v>20</v>
       </c>
       <c r="EY55" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="EZ55" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FA55" s="1">
         <v>45528</v>
@@ -36417,10 +36420,10 @@
         <v>8</v>
       </c>
       <c r="FC55" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FD55" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="FE55" s="1">
         <v>45539</v>
@@ -36429,7 +36432,7 @@
         <v>30</v>
       </c>
       <c r="FG55" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FH55" t="s">
         <v>80</v>
@@ -36626,7 +36629,7 @@
       <c r="JJ55" s="2"/>
       <c r="JK55" s="2"/>
       <c r="JL55" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="56">
@@ -36823,28 +36826,28 @@
       <c r="BW56" s="2"/>
       <c r="BX56" s="2"/>
       <c r="BY56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CA56" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB56" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CC56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="CD56" s="1">
         <v>45489</v>
       </c>
       <c r="CE56" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="CF56" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG56" t="s">
         <v>80</v>
@@ -37012,7 +37015,7 @@
       </c>
       <c r="EU56" s="1"/>
       <c r="EV56" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="EW56" s="1">
         <v>45500</v>
@@ -37021,7 +37024,7 @@
         <v>24</v>
       </c>
       <c r="EY56" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="EZ56" t="s">
         <v>94</v>
@@ -37033,10 +37036,10 @@
         <v>43</v>
       </c>
       <c r="FC56" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FD56" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="FE56" s="1">
         <v>45504</v>
@@ -37045,10 +37048,10 @@
         <v>37</v>
       </c>
       <c r="FG56" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FH56" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="FI56" s="1">
         <v>45506</v>
@@ -37057,7 +37060,7 @@
         <v>59</v>
       </c>
       <c r="FK56" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FL56" t="s">
         <v>107</v>
@@ -37069,10 +37072,10 @@
         <v>62</v>
       </c>
       <c r="FO56" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FP56" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="FQ56" s="1">
         <v>45514</v>
@@ -37081,7 +37084,7 @@
         <v>43</v>
       </c>
       <c r="FS56" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FT56" t="s">
         <v>80</v>
@@ -37254,7 +37257,7 @@
       <c r="JJ56" s="2"/>
       <c r="JK56" s="2"/>
       <c r="JL56" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57">
@@ -37451,28 +37454,28 @@
       <c r="BW57" s="2"/>
       <c r="BX57" s="2"/>
       <c r="BY57" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ57" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CA57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CC57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="CD57" s="1">
         <v>45489</v>
       </c>
       <c r="CE57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="CF57" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG57" t="s">
         <v>80</v>
@@ -37640,7 +37643,7 @@
       </c>
       <c r="EU57" s="1"/>
       <c r="EV57" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="EW57" s="1">
         <v>45500</v>
@@ -37649,7 +37652,7 @@
         <v>6</v>
       </c>
       <c r="EY57" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="EZ57" t="s">
         <v>94</v>
@@ -37661,10 +37664,10 @@
         <v>10</v>
       </c>
       <c r="FC57" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FD57" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="FE57" s="1">
         <v>45504</v>
@@ -37673,10 +37676,10 @@
         <v>25</v>
       </c>
       <c r="FG57" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FH57" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="FI57" s="1">
         <v>45506</v>
@@ -37685,7 +37688,7 @@
         <v>11</v>
       </c>
       <c r="FK57" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FL57" t="s">
         <v>107</v>
@@ -37697,10 +37700,10 @@
         <v>15</v>
       </c>
       <c r="FO57" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FP57" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="FQ57" s="1">
         <v>45514</v>
@@ -37709,7 +37712,7 @@
         <v>13</v>
       </c>
       <c r="FS57" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FT57" t="s">
         <v>80</v>
@@ -37882,7 +37885,7 @@
       <c r="JJ57" s="2"/>
       <c r="JK57" s="2"/>
       <c r="JL57" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58">
@@ -38079,40 +38082,40 @@
       <c r="BW58" s="2"/>
       <c r="BX58" s="2"/>
       <c r="BY58" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BZ58" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CA58" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CB58" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CC58" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CD58" s="1">
         <v>45495</v>
       </c>
       <c r="CE58" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CF58" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG58" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="CH58" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="CI58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="CJ58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="CK58" t="s">
         <v>94</v>
@@ -38124,7 +38127,7 @@
         <v>1</v>
       </c>
       <c r="CN58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="CO58" t="s">
         <v>80</v>
@@ -38167,34 +38170,34 @@
         <v>80</v>
       </c>
       <c r="DE58" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="DF58" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="DG58" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="DH58" s="1">
         <v>45488</v>
       </c>
       <c r="DI58" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DJ58" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DK58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="DL58" s="1">
         <v>45497</v>
       </c>
       <c r="DM58" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DN58" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DO58" t="s">
         <v>80</v>
@@ -38208,22 +38211,22 @@
       </c>
       <c r="DS58" s="1"/>
       <c r="DT58" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="DU58" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="DV58" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="DW58" s="1">
         <v>45528</v>
       </c>
       <c r="DX58" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="DY58" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="DZ58" t="s">
         <v>80</v>
@@ -38278,7 +38281,7 @@
       </c>
       <c r="EU58" s="1"/>
       <c r="EV58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="EW58" s="1">
         <v>45525</v>
@@ -38287,10 +38290,10 @@
         <v>2</v>
       </c>
       <c r="EY58" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="EZ58" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="FA58" s="1">
         <v>45532</v>
@@ -38299,7 +38302,7 @@
         <v>4</v>
       </c>
       <c r="FC58" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FD58" t="s">
         <v>80</v>
@@ -38701,40 +38704,40 @@
       <c r="BW59" s="2"/>
       <c r="BX59" s="2"/>
       <c r="BY59" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BZ59" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CA59" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CB59" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CC59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CD59" s="1">
         <v>45495</v>
       </c>
       <c r="CE59" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CF59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG59" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="CH59" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="CI59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="CJ59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="CK59" t="s">
         <v>94</v>
@@ -38746,7 +38749,7 @@
         <v>1</v>
       </c>
       <c r="CN59" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="CO59" t="s">
         <v>80</v>
@@ -38789,34 +38792,34 @@
         <v>80</v>
       </c>
       <c r="DE59" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="DF59" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="DG59" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="DH59" s="1">
         <v>45488</v>
       </c>
       <c r="DI59" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DJ59" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DK59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="DL59" s="1">
         <v>45497</v>
       </c>
       <c r="DM59" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DN59" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DO59" t="s">
         <v>80</v>
@@ -38830,22 +38833,22 @@
       </c>
       <c r="DS59" s="1"/>
       <c r="DT59" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="DU59" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="DV59" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="DW59" s="1">
         <v>45528</v>
       </c>
       <c r="DX59" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="DY59" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="DZ59" t="s">
         <v>80</v>
@@ -38900,7 +38903,7 @@
       </c>
       <c r="EU59" s="1"/>
       <c r="EV59" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="EW59" s="1">
         <v>45525</v>
@@ -38909,10 +38912,10 @@
         <v>5</v>
       </c>
       <c r="EY59" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="EZ59" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="FA59" s="1">
         <v>45532</v>
@@ -38921,7 +38924,7 @@
         <v>7</v>
       </c>
       <c r="FC59" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FD59" t="s">
         <v>80</v>
@@ -39510,7 +39513,7 @@
       </c>
       <c r="EU60" s="1"/>
       <c r="EV60" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="EW60" s="1">
         <v>45472</v>
@@ -39519,10 +39522,10 @@
         <v>2</v>
       </c>
       <c r="EY60" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="EZ60" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="FA60" s="1">
         <v>45486</v>
@@ -39531,10 +39534,10 @@
         <v>24</v>
       </c>
       <c r="FC60" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FD60" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="FE60" s="1">
         <v>45500</v>
@@ -39543,10 +39546,10 @@
         <v>6</v>
       </c>
       <c r="FG60" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FH60" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="FI60" s="1">
         <v>45506</v>
@@ -39555,10 +39558,10 @@
         <v>20</v>
       </c>
       <c r="FK60" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FL60" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="FM60" s="1">
         <v>45514</v>
@@ -39567,7 +39570,7 @@
         <v>18</v>
       </c>
       <c r="FO60" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FP60" t="s">
         <v>80</v>
@@ -39748,7 +39751,7 @@
       <c r="JJ60" s="2"/>
       <c r="JK60" s="2"/>
       <c r="JL60" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61">
@@ -40132,7 +40135,7 @@
       </c>
       <c r="EU61" s="1"/>
       <c r="EV61" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="EW61" s="1">
         <v>45472</v>
@@ -40141,10 +40144,10 @@
         <v>4</v>
       </c>
       <c r="EY61" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="EZ61" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="FA61" s="1">
         <v>45486</v>
@@ -40153,10 +40156,10 @@
         <v>11</v>
       </c>
       <c r="FC61" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FD61" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="FE61" s="1">
         <v>45500</v>
@@ -40165,10 +40168,10 @@
         <v>15</v>
       </c>
       <c r="FG61" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FH61" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="FI61" s="1">
         <v>45506</v>
@@ -40177,10 +40180,10 @@
         <v>11</v>
       </c>
       <c r="FK61" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FL61" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="FM61" s="1">
         <v>45514</v>
@@ -40189,7 +40192,7 @@
         <v>22</v>
       </c>
       <c r="FO61" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FP61" t="s">
         <v>80</v>
@@ -40370,7 +40373,7 @@
       <c r="JJ61" s="2"/>
       <c r="JK61" s="2"/>
       <c r="JL61" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62">
@@ -42373,28 +42376,28 @@
       <c r="BW65" s="2"/>
       <c r="BX65" s="2"/>
       <c r="BY65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BZ65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CA65" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB65" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CC65" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="CD65" s="1">
         <v>45489</v>
       </c>
       <c r="CE65" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="CF65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG65" t="s">
         <v>80</v>
@@ -42457,25 +42460,25 @@
         <v>80</v>
       </c>
       <c r="DE65" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="DF65" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="DG65" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="DH65" s="1">
         <v>45522</v>
       </c>
       <c r="DI65" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DJ65" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DK65" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="DL65" s="1">
         <v>45522</v>
@@ -42566,7 +42569,7 @@
       </c>
       <c r="EU65" s="1"/>
       <c r="EV65" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="EW65" s="1">
         <v>45528</v>
@@ -42575,7 +42578,7 @@
         <v>24</v>
       </c>
       <c r="EY65" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="EZ65" t="s">
         <v>80</v>
@@ -42788,7 +42791,7 @@
       <c r="JJ65" s="2"/>
       <c r="JK65" s="2"/>
       <c r="JL65" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66">
@@ -42985,28 +42988,28 @@
       <c r="BW66" s="2"/>
       <c r="BX66" s="2"/>
       <c r="BY66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BZ66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CA66" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB66" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CC66" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="CD66" s="1">
         <v>45489</v>
       </c>
       <c r="CE66" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="CF66" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG66" t="s">
         <v>80</v>
@@ -43392,7 +43395,7 @@
       <c r="JJ66" s="2"/>
       <c r="JK66" s="2"/>
       <c r="JL66" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67">
@@ -43776,7 +43779,7 @@
       </c>
       <c r="EU67" s="1"/>
       <c r="EV67" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="EW67" s="1">
         <v>45506</v>
@@ -43785,10 +43788,10 @@
         <v>10</v>
       </c>
       <c r="EY67" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="EZ67" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="FA67" s="1">
         <v>45514</v>
@@ -43797,10 +43800,10 @@
         <v>31</v>
       </c>
       <c r="FC67" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FD67" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="FE67" s="1">
         <v>45521</v>
@@ -43809,10 +43812,10 @@
         <v>35</v>
       </c>
       <c r="FG67" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FH67" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FI67" s="1">
         <v>45528</v>
@@ -43821,10 +43824,10 @@
         <v>21</v>
       </c>
       <c r="FK67" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FL67" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="FM67" s="1">
         <v>45542</v>
@@ -43833,7 +43836,7 @@
         <v>5</v>
       </c>
       <c r="FO67" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FP67" t="s">
         <v>80</v>
@@ -44014,7 +44017,7 @@
       <c r="JJ67" s="2"/>
       <c r="JK67" s="2"/>
       <c r="JL67" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="68">
@@ -44398,7 +44401,7 @@
       </c>
       <c r="EU68" s="1"/>
       <c r="EV68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EW68" s="1">
         <v>45521</v>
@@ -44407,10 +44410,10 @@
         <v>35</v>
       </c>
       <c r="EY68" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="EZ68" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FA68" s="1">
         <v>45528</v>
@@ -44419,10 +44422,10 @@
         <v>25</v>
       </c>
       <c r="FC68" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FD68" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="FE68" s="1">
         <v>45542</v>
@@ -44431,10 +44434,10 @@
         <v>20</v>
       </c>
       <c r="FG68" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FH68" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="FI68" s="1">
         <v>45549</v>
@@ -44443,7 +44446,7 @@
         <v>17</v>
       </c>
       <c r="FK68" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FL68" t="s">
         <v>80</v>
@@ -44632,7 +44635,7 @@
       <c r="JJ68" s="2"/>
       <c r="JK68" s="2"/>
       <c r="JL68" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69">
@@ -45016,7 +45019,7 @@
       </c>
       <c r="EU69" s="1"/>
       <c r="EV69" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EW69" s="1">
         <v>45521</v>
@@ -45025,10 +45028,10 @@
         <v>20</v>
       </c>
       <c r="EY69" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="EZ69" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FA69" s="1">
         <v>45528</v>
@@ -45037,10 +45040,10 @@
         <v>35</v>
       </c>
       <c r="FC69" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FD69" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="FE69" s="1">
         <v>45542</v>
@@ -45049,10 +45052,10 @@
         <v>6</v>
       </c>
       <c r="FG69" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FH69" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="FI69" s="1">
         <v>45549</v>
@@ -45061,7 +45064,7 @@
         <v>14</v>
       </c>
       <c r="FK69" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FL69" t="s">
         <v>80</v>
@@ -45250,7 +45253,7 @@
       <c r="JJ69" s="2"/>
       <c r="JK69" s="2"/>
       <c r="JL69" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70">
@@ -45634,7 +45637,7 @@
       </c>
       <c r="EU70" s="1"/>
       <c r="EV70" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="EW70" s="1">
         <v>45518</v>
@@ -45643,10 +45646,10 @@
         <v>24</v>
       </c>
       <c r="EY70" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="EZ70" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="FA70" s="1">
         <v>45521</v>
@@ -45655,10 +45658,10 @@
         <v>15</v>
       </c>
       <c r="FC70" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FD70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FE70" s="1">
         <v>45528</v>
@@ -45667,7 +45670,7 @@
         <v>21</v>
       </c>
       <c r="FG70" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FH70" t="s">
         <v>80</v>
@@ -45864,7 +45867,7 @@
       <c r="JJ70" s="2"/>
       <c r="JK70" s="2"/>
       <c r="JL70" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="71">
@@ -46248,7 +46251,7 @@
       </c>
       <c r="EU71" s="1"/>
       <c r="EV71" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="EW71" s="1">
         <v>45518</v>
@@ -46257,10 +46260,10 @@
         <v>28</v>
       </c>
       <c r="EY71" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="EZ71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="FA71" s="1">
         <v>45521</v>
@@ -46269,10 +46272,10 @@
         <v>20</v>
       </c>
       <c r="FC71" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FD71" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="FE71" s="1">
         <v>45532</v>
@@ -46281,7 +46284,7 @@
         <v>11</v>
       </c>
       <c r="FG71" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FH71" t="s">
         <v>80</v>
@@ -46478,7 +46481,7 @@
       <c r="JJ71" s="2"/>
       <c r="JK71" s="2"/>
       <c r="JL71" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="72">
@@ -46661,21 +46664,21 @@
         <v>80</v>
       </c>
       <c r="BK72" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BL72" s="1"/>
       <c r="BM72" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BN72" s="1"/>
       <c r="BO72" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BP72" s="1">
         <v>45521</v>
       </c>
       <c r="BQ72" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BR72" s="2">
         <v>21</v>
@@ -46684,11 +46687,11 @@
         <v>13</v>
       </c>
       <c r="BT72" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BU72" s="1"/>
       <c r="BV72" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BW72" s="2"/>
       <c r="BX72" s="2"/>
@@ -47281,21 +47284,21 @@
         <v>80</v>
       </c>
       <c r="BK73" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BL73" s="1"/>
       <c r="BM73" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BN73" s="1"/>
       <c r="BO73" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BP73" s="1">
         <v>45521</v>
       </c>
       <c r="BQ73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BR73" s="2">
         <v>21</v>
@@ -47304,11 +47307,11 @@
         <v>12</v>
       </c>
       <c r="BT73" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BU73" s="1"/>
       <c r="BV73" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BW73" s="2"/>
       <c r="BX73" s="2"/>
@@ -47901,30 +47904,30 @@
         <v>80</v>
       </c>
       <c r="BK74" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BL74" s="1"/>
       <c r="BM74" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BN74" s="1"/>
       <c r="BO74" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BP74" s="1">
         <v>45534</v>
       </c>
       <c r="BQ74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BR74" s="2"/>
       <c r="BS74" s="2"/>
       <c r="BT74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BU74" s="1"/>
       <c r="BV74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BW74" s="2"/>
       <c r="BX74" s="2"/>
@@ -48517,30 +48520,30 @@
         <v>80</v>
       </c>
       <c r="BK75" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BL75" s="1"/>
       <c r="BM75" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="BN75" s="1"/>
       <c r="BO75" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BP75" s="1">
         <v>45534</v>
       </c>
       <c r="BQ75" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BR75" s="2"/>
       <c r="BS75" s="2"/>
       <c r="BT75" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BU75" s="1"/>
       <c r="BV75" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BW75" s="2"/>
       <c r="BX75" s="2"/>

--- a/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
+++ b/analytics/modified_data/tbf_market_garden_data_2024_clean.xlsx
@@ -32518,7 +32518,7 @@
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K48" s="2">
         <v>50</v>
@@ -36859,7 +36859,7 @@
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K55" s="2">
         <v>50</v>
@@ -37494,7 +37494,7 @@
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K56" s="2">
         <v>75</v>
@@ -38137,7 +38137,7 @@
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K57" s="2">
         <v>75</v>
@@ -43179,7 +43179,7 @@
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K65" s="2">
         <v>50</v>
@@ -43806,7 +43806,7 @@
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K66" s="2">
         <v>46</v>
@@ -46328,7 +46328,7 @@
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K70" s="2">
         <v>40</v>
@@ -46957,7 +46957,7 @@
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K71" s="2">
         <v>40</v>
